--- a/server/excel/menu/Menu.xlsx
+++ b/server/excel/menu/Menu.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552">
   <si>
     <t>菜单编号</t>
   </si>
@@ -191,12 +191,21 @@
     <t>2,1,2,2,3</t>
   </si>
   <si>
-    <t>临建项目成本</t>
+    <t>临建项目量统计</t>
   </si>
   <si>
     <t>tj_cbtj_zjcb_fbcb_ljxmcb_app</t>
   </si>
   <si>
+    <t>2,1,2,2,4</t>
+  </si>
+  <si>
+    <t>临建项目价格统计</t>
+  </si>
+  <si>
+    <t>tj_cbtj_zjcb_fbcb_ljxmjg_app</t>
+  </si>
+  <si>
     <t>2,1,2,3</t>
   </si>
   <si>
@@ -263,10 +272,19 @@
     <t>2,2,2</t>
   </si>
   <si>
-    <t>新增收入统计</t>
+    <t>新增收入量统计</t>
   </si>
   <si>
     <t>tj_srtj_xzsrtj_app</t>
+  </si>
+  <si>
+    <t>2,2,3</t>
+  </si>
+  <si>
+    <t>新增收入价格统计</t>
+  </si>
+  <si>
+    <t>tj_srtj_xzsrjg_app</t>
   </si>
   <si>
     <t>2,3</t>
@@ -533,6 +551,15 @@
     <t>left2</t>
   </si>
   <si>
+    <t>1,1,1,1,1</t>
+  </si>
+  <si>
+    <t>查看金额</t>
+  </si>
+  <si>
+    <t>zgcllb_web_price</t>
+  </si>
+  <si>
     <t>1,1,1,2</t>
   </si>
   <si>
@@ -920,7 +947,10 @@
     <t>jssr_web_del</t>
   </si>
   <si>
-    <t>新增收入</t>
+    <t>2,1,1,2</t>
+  </si>
+  <si>
+    <t>jssr_web_price</t>
   </si>
   <si>
     <t>xzsr_web</t>
@@ -932,6 +962,12 @@
     <t>xzsr_web_del</t>
   </si>
   <si>
+    <t>xzsrjg_web</t>
+  </si>
+  <si>
+    <t>../budget/income/otherIncomePriceList.html</t>
+  </si>
+  <si>
     <t>支出间接成本</t>
   </si>
   <si>
@@ -1070,10 +1106,16 @@
     <t>../budget/expenses/directCost/fbCost/fbPriceList.html</t>
   </si>
   <si>
+    <t>2,3,2,2,1</t>
+  </si>
+  <si>
+    <t>fbjggl_web_del</t>
+  </si>
+  <si>
     <t>2,3,2,3</t>
   </si>
   <si>
-    <t>临建支出</t>
+    <t>临建支出量</t>
   </si>
   <si>
     <t>ljzc_web</t>
@@ -1088,6 +1130,21 @@
     <t>ljzc_web_del</t>
   </si>
   <si>
+    <t>2,3,2,4</t>
+  </si>
+  <si>
+    <t>临建支出价格</t>
+  </si>
+  <si>
+    <t>ljzcjg_web</t>
+  </si>
+  <si>
+    <t>../budget/expenses/directCost/fbCost/tempProjectPriceList.html</t>
+  </si>
+  <si>
+    <t>2,3,2,4,1</t>
+  </si>
+  <si>
     <t>2,4</t>
   </si>
   <si>
@@ -1316,13 +1373,22 @@
     <t>../finance/reimburse.html</t>
   </si>
   <si>
+    <t>5,2,1,1</t>
+  </si>
+  <si>
+    <t>cwbx_web_del</t>
+  </si>
+  <si>
     <t>5,2,2</t>
   </si>
   <si>
-    <t>bxjl_web</t>
-  </si>
-  <si>
-    <t>../finance/reimburseRecord.html</t>
+    <t>单据打印</t>
+  </si>
+  <si>
+    <t>djdy_web</t>
+  </si>
+  <si>
+    <t>../finance/PrintList.html</t>
   </si>
   <si>
     <t>管理</t>
@@ -1691,8 +1757,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -1722,9 +1788,69 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1738,37 +1864,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1777,21 +1882,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1806,7 +1896,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1821,14 +1911,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1836,31 +1918,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1882,48 +1948,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1936,7 +1960,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1948,7 +2014,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1960,7 +2068,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1972,13 +2092,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1990,79 +2122,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2073,6 +2139,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2109,8 +2193,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2126,15 +2210,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2164,15 +2239,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2181,10 +2247,10 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2193,137 +2259,137 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2332,6 +2398,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2342,6 +2409,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2633,15 +2710,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="D16" sqref="A1:E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="18.4444444444444" style="5" customWidth="1"/>
+    <col min="1" max="1" width="18.4444444444444" style="9" customWidth="1"/>
     <col min="2" max="2" width="23.4444444444444" customWidth="1"/>
     <col min="3" max="3" width="46.2222222222222" customWidth="1"/>
     <col min="4" max="4" width="82.25" customWidth="1"/>
@@ -2649,24 +2726,24 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
-      <c r="A2" s="4">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -2677,7 +2754,7 @@
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
@@ -2694,7 +2771,7 @@
       </c>
     </row>
     <row r="4" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
@@ -2711,7 +2788,7 @@
       </c>
     </row>
     <row r="5" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A5" s="5">
+      <c r="A5" s="9">
         <v>2</v>
       </c>
       <c r="B5" t="s">
@@ -2722,7 +2799,7 @@
       </c>
     </row>
     <row r="6" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B6" t="s">
@@ -2739,7 +2816,7 @@
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B7" t="s">
@@ -2750,7 +2827,7 @@
       </c>
     </row>
     <row r="8" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B8" t="s">
@@ -2761,7 +2838,7 @@
       </c>
     </row>
     <row r="9" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="9" t="s">
         <v>29</v>
       </c>
       <c r="B9" t="s">
@@ -2772,7 +2849,7 @@
       </c>
     </row>
     <row r="10" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B10" t="s">
@@ -2783,7 +2860,7 @@
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="9" t="s">
         <v>35</v>
       </c>
       <c r="B11" t="s">
@@ -2794,7 +2871,7 @@
       </c>
     </row>
     <row r="12" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B12" t="s">
@@ -2805,7 +2882,7 @@
       </c>
     </row>
     <row r="13" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B13" t="s">
@@ -2816,7 +2893,7 @@
       </c>
     </row>
     <row r="14" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="9" t="s">
         <v>44</v>
       </c>
       <c r="B14" t="s">
@@ -2826,8 +2903,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:3">
-      <c r="A15" s="5" t="s">
+    <row r="15" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A15" s="9" t="s">
         <v>47</v>
       </c>
       <c r="B15" t="s">
@@ -2838,7 +2915,7 @@
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:3">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="9" t="s">
         <v>50</v>
       </c>
       <c r="B16" t="s">
@@ -2849,7 +2926,7 @@
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:3">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="9" t="s">
         <v>53</v>
       </c>
       <c r="B17" t="s">
@@ -2860,7 +2937,7 @@
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:3">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="9" t="s">
         <v>56</v>
       </c>
       <c r="B18" t="s">
@@ -2871,57 +2948,57 @@
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:3">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="9" t="s">
         <v>59</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:3">
+      <c r="A20" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="1:5">
-      <c r="A20" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" t="s">
-        <v>62</v>
       </c>
       <c r="C20" t="s">
         <v>63</v>
       </c>
-      <c r="D20" t="s">
+    </row>
+    <row r="21" customHeight="1" spans="1:5">
+      <c r="A21" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E20" t="s">
+      <c r="B21" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="21" customHeight="1" spans="1:3">
-      <c r="A21" s="5" t="s">
+      <c r="C21" t="s">
         <v>66</v>
       </c>
-      <c r="B21" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>67</v>
       </c>
+      <c r="E21" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="22" customHeight="1" spans="1:3">
-      <c r="A22" s="5" t="s">
-        <v>68</v>
+      <c r="A22" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="1:5">
-      <c r="A23" s="5" t="s">
+    <row r="23" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A23" s="9" t="s">
         <v>71</v>
       </c>
       <c r="B23" t="s">
@@ -2930,213 +3007,235 @@
       <c r="C23" t="s">
         <v>73</v>
       </c>
-      <c r="D23" t="s">
+    </row>
+    <row r="24" customHeight="1" spans="1:3">
+      <c r="A24" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E23" t="s">
+      <c r="B24" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="24" customHeight="1" spans="1:3">
-      <c r="A24" s="5" t="s">
+      <c r="C24" t="s">
         <v>76</v>
       </c>
-      <c r="B24" t="s">
+    </row>
+    <row r="25" customHeight="1" spans="1:5">
+      <c r="A25" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C24" t="s">
+      <c r="B25" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="25" customHeight="1" spans="1:3">
-      <c r="A25" s="5" t="s">
+      <c r="C25" t="s">
         <v>79</v>
       </c>
-      <c r="B25" t="s">
+      <c r="D25" t="s">
         <v>80</v>
       </c>
-      <c r="C25" t="s">
+      <c r="E25" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:3">
-      <c r="A26" s="5">
+      <c r="A26" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:3">
+      <c r="A27" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:3">
+      <c r="A28" s="9">
         <v>3</v>
       </c>
-      <c r="B26" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="1:5">
-      <c r="A27" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B27" t="s">
-        <v>85</v>
-      </c>
-      <c r="C27" t="s">
-        <v>86</v>
-      </c>
-      <c r="D27" t="s">
-        <v>87</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="B28" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="28" customHeight="1" spans="1:5">
-      <c r="A28" s="5" t="s">
+      <c r="C28" t="s">
         <v>89</v>
       </c>
-      <c r="B28" t="s">
+    </row>
+    <row r="29" customHeight="1" spans="1:5">
+      <c r="A29" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C28" t="s">
+      <c r="B29" t="s">
         <v>91</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="C29" t="s">
         <v>92</v>
       </c>
-      <c r="E28" t="s">
+      <c r="D29" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="29" customHeight="1" spans="1:5">
-      <c r="A29" s="5" t="s">
+      <c r="E29" t="s">
         <v>94</v>
       </c>
-      <c r="B29" t="s">
+    </row>
+    <row r="30" customHeight="1" spans="1:5">
+      <c r="A30" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C29" t="s">
+      <c r="B30" t="s">
         <v>96</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="C30" t="s">
         <v>97</v>
       </c>
-      <c r="E29" t="s">
+      <c r="D30" s="13" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="30" customHeight="1" spans="1:5">
-      <c r="A30" s="5" t="s">
+      <c r="E30" t="s">
         <v>99</v>
       </c>
-      <c r="B30" t="s">
+    </row>
+    <row r="31" customHeight="1" spans="1:5">
+      <c r="A31" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C30" t="s">
+      <c r="B31" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="C31" t="s">
         <v>102</v>
       </c>
-      <c r="E30" t="s">
+      <c r="D31" s="13" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="31" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A31" s="5" t="s">
+      <c r="E31" t="s">
         <v>104</v>
       </c>
-      <c r="B31" t="s">
+    </row>
+    <row r="32" customHeight="1" spans="1:5">
+      <c r="A32" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C31" t="s">
+      <c r="B32" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="32" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A32" s="5" t="s">
+      <c r="C32" t="s">
         <v>107</v>
       </c>
-      <c r="B32" t="s">
+      <c r="D32" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="C32" t="s">
+      <c r="E32" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="33" customHeight="1" spans="1:3">
-      <c r="A33" s="5">
+    <row r="33" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A33" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A34" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B34" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:3">
+      <c r="A35" s="9">
         <v>4</v>
       </c>
-      <c r="B33" t="s">
-        <v>110</v>
-      </c>
-      <c r="C33" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="1:5">
-      <c r="A34" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B34" t="s">
-        <v>113</v>
-      </c>
-      <c r="C34" t="s">
-        <v>114</v>
-      </c>
-      <c r="D34" t="s">
-        <v>115</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="B35" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="35" customHeight="1" spans="1:5">
-      <c r="A35" s="5" t="s">
+      <c r="C35" t="s">
         <v>117</v>
       </c>
-      <c r="B35" t="s">
+    </row>
+    <row r="36" customHeight="1" spans="1:5">
+      <c r="A36" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C35" t="s">
+      <c r="B36" t="s">
         <v>119</v>
       </c>
-      <c r="D35" t="s">
+      <c r="C36" t="s">
         <v>120</v>
       </c>
-      <c r="E35" t="s">
+      <c r="D36" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="36" customHeight="1" spans="1:5">
-      <c r="A36" s="5" t="s">
+      <c r="E36" t="s">
         <v>122</v>
       </c>
-      <c r="B36" t="s">
+    </row>
+    <row r="37" customHeight="1" spans="1:5">
+      <c r="A37" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="C36" t="s">
+      <c r="B37" t="s">
         <v>124</v>
       </c>
-      <c r="D36" t="s">
+      <c r="C37" t="s">
         <v>125</v>
       </c>
-      <c r="E36" t="s">
+      <c r="D37" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="37" customHeight="1" spans="1:5">
-      <c r="A37" s="5" t="s">
+      <c r="E37" t="s">
         <v>127</v>
       </c>
-      <c r="B37" t="s">
+    </row>
+    <row r="38" customHeight="1" spans="1:5">
+      <c r="A38" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="C37" t="s">
+      <c r="B38" t="s">
         <v>129</v>
       </c>
-      <c r="D37" t="s">
+      <c r="C38" t="s">
         <v>130</v>
       </c>
-      <c r="E37" t="s">
+      <c r="D38" t="s">
         <v>131</v>
+      </c>
+      <c r="E38" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:5">
+      <c r="A39" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B39" t="s">
+        <v>134</v>
+      </c>
+      <c r="C39" t="s">
+        <v>135</v>
+      </c>
+      <c r="D39" t="s">
+        <v>136</v>
+      </c>
+      <c r="E39" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -3149,10 +3248,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F146"/>
+  <dimension ref="A1:F154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="E110" sqref="E110"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F116" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.5555555555556" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -3173,2326 +3272,2446 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:6">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D2"/>
-      <c r="E2" t="s">
+      <c r="C2" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:6">
+      <c r="A3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:6">
+      <c r="A4" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:6">
+      <c r="A5" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:6">
+      <c r="A6" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:6">
+      <c r="A7" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:6">
+      <c r="A8" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:6">
+      <c r="A9" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:6">
+      <c r="A10" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:6">
+      <c r="A11" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:6">
+      <c r="A12" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:6">
+      <c r="A13" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:6">
+      <c r="A14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:6">
+      <c r="A15" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:6">
+      <c r="A16" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:6">
+      <c r="A17" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:6">
+      <c r="A18" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:6">
+      <c r="A19" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:6">
+      <c r="A20" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:6">
+      <c r="A21" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:6">
+      <c r="A22" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:6">
+      <c r="A23" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:6">
+      <c r="A24" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:6">
+      <c r="A25" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:6">
+      <c r="A26" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:6">
+      <c r="A27" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:6">
+      <c r="A28" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:6">
+      <c r="A29" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:6">
+      <c r="A30" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:6">
+      <c r="A31" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="1:6">
+      <c r="A32" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="1:6">
+      <c r="A33" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="1:6">
+      <c r="A34" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="1:6">
+      <c r="A35" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="1:6">
+      <c r="A36" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="1:6">
+      <c r="A37" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="1:6">
+      <c r="A38" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="1:6">
+      <c r="A39" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="1:6">
+      <c r="A40" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" s="1" customFormat="1" spans="1:6">
+      <c r="A41" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" s="1" customFormat="1" spans="1:6">
+      <c r="A42" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" s="1" customFormat="1" spans="1:6">
+      <c r="A43" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" s="1" customFormat="1" spans="1:6">
+      <c r="A44" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" s="1" customFormat="1" spans="1:6">
+      <c r="A45" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" s="1" customFormat="1" spans="1:6">
+      <c r="A46" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" s="1" customFormat="1" spans="1:6">
+      <c r="A47" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" s="1" customFormat="1" spans="1:6">
+      <c r="A48" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" s="1" customFormat="1" spans="1:6">
+      <c r="A49" s="6">
+        <v>2</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" s="1" customFormat="1" spans="1:6">
+      <c r="A50" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" s="1" customFormat="1" spans="1:6">
+      <c r="A51" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" s="1" customFormat="1" spans="1:6">
+      <c r="A52" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" s="1" customFormat="1" spans="1:6">
+      <c r="A53" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" s="1" customFormat="1" spans="1:6">
+      <c r="A54" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" s="1" customFormat="1" spans="1:6">
+      <c r="A55" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" s="1" customFormat="1" spans="1:6">
+      <c r="A56" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F56" s="4"/>
+    </row>
+    <row r="57" s="1" customFormat="1" spans="1:6">
+      <c r="A57" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+    </row>
+    <row r="58" s="1" customFormat="1" spans="1:6">
+      <c r="A58" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F58" s="4"/>
+    </row>
+    <row r="59" s="1" customFormat="1" spans="1:6">
+      <c r="A59" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F59" s="4"/>
+    </row>
+    <row r="60" s="1" customFormat="1" spans="1:6">
+      <c r="A60" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+    </row>
+    <row r="61" s="1" customFormat="1" spans="1:6">
+      <c r="A61" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F61" s="4"/>
+    </row>
+    <row r="62" s="1" customFormat="1" spans="1:6">
+      <c r="A62" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F62" s="4"/>
+    </row>
+    <row r="63" s="1" customFormat="1" spans="1:6">
+      <c r="A63" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F63" s="4"/>
+    </row>
+    <row r="64" s="1" customFormat="1" spans="1:6">
+      <c r="A64" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+    </row>
+    <row r="65" s="1" customFormat="1" spans="1:6">
+      <c r="A65" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F65" s="4"/>
+    </row>
+    <row r="66" s="1" customFormat="1" spans="1:6">
+      <c r="A66" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+    </row>
+    <row r="67" s="1" customFormat="1" spans="1:6">
+      <c r="A67" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F67" s="4"/>
+    </row>
+    <row r="68" s="1" customFormat="1" spans="1:6">
+      <c r="A68" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+    </row>
+    <row r="69" s="1" customFormat="1" spans="1:6">
+      <c r="A69" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F69" s="4"/>
+    </row>
+    <row r="70" s="1" customFormat="1" spans="1:6">
+      <c r="A70" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+    </row>
+    <row r="71" s="1" customFormat="1" spans="1:6">
+      <c r="A71" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F71" s="4"/>
+    </row>
+    <row r="72" s="1" customFormat="1" spans="1:6">
+      <c r="A72" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F72" s="4"/>
+    </row>
+    <row r="73" s="1" customFormat="1" spans="1:6">
+      <c r="A73" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+    </row>
+    <row r="74" s="1" customFormat="1" spans="1:6">
+      <c r="A74" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F74" s="4"/>
+    </row>
+    <row r="75" s="1" customFormat="1" spans="1:6">
+      <c r="A75" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+    </row>
+    <row r="76" s="1" customFormat="1" spans="1:6">
+      <c r="A76" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F76" s="4"/>
+    </row>
+    <row r="77" s="1" customFormat="1" spans="1:6">
+      <c r="A77" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+    </row>
+    <row r="78" s="1" customFormat="1" spans="1:6">
+      <c r="A78" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F78" s="4"/>
+    </row>
+    <row r="79" s="1" customFormat="1" spans="1:6">
+      <c r="A79" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+    </row>
+    <row r="80" s="1" customFormat="1" spans="1:6">
+      <c r="A80" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F80" s="4"/>
+    </row>
+    <row r="81" s="1" customFormat="1" spans="1:6">
+      <c r="A81" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F81" s="4"/>
+    </row>
+    <row r="82" s="1" customFormat="1" spans="1:6">
+      <c r="A82" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+    </row>
+    <row r="83" s="1" customFormat="1" spans="1:6">
+      <c r="A83" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F83" s="4"/>
+    </row>
+    <row r="84" s="1" customFormat="1" spans="1:6">
+      <c r="A84" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F84" s="4"/>
+    </row>
+    <row r="85" s="1" customFormat="1" spans="1:6">
+      <c r="A85" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+    </row>
+    <row r="86" s="1" customFormat="1" spans="1:6">
+      <c r="A86" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F86" s="4"/>
+    </row>
+    <row r="87" s="1" customFormat="1" spans="1:6">
+      <c r="A87" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+    </row>
+    <row r="88" s="1" customFormat="1" spans="1:6">
+      <c r="A88" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+    </row>
+    <row r="89" s="1" customFormat="1" spans="1:6">
+      <c r="A89" s="6">
+        <v>3</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F89" s="4"/>
+    </row>
+    <row r="90" s="1" customFormat="1" spans="1:6">
+      <c r="A90" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F90" s="4"/>
+    </row>
+    <row r="91" s="1" customFormat="1" spans="1:6">
+      <c r="A91" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F91" s="4"/>
+    </row>
+    <row r="92" s="1" customFormat="1" spans="1:6">
+      <c r="A92" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F92" s="4"/>
+    </row>
+    <row r="93" s="1" customFormat="1" spans="1:6">
+      <c r="A93" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F93" s="4"/>
+    </row>
+    <row r="94" s="1" customFormat="1" spans="1:6">
+      <c r="A94" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F94" s="4"/>
+    </row>
+    <row r="95" s="1" customFormat="1" spans="1:6">
+      <c r="A95" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F95" s="4"/>
+    </row>
+    <row r="96" s="1" customFormat="1" spans="1:6">
+      <c r="A96" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F96" s="4"/>
+    </row>
+    <row r="97" s="1" customFormat="1" spans="1:6">
+      <c r="A97" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F97" s="4"/>
+    </row>
+    <row r="98" s="1" customFormat="1" spans="1:6">
+      <c r="A98" s="6">
+        <v>4</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F98" s="4"/>
+    </row>
+    <row r="99" s="1" customFormat="1" spans="1:6">
+      <c r="A99" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F99" s="4"/>
+    </row>
+    <row r="100" s="1" customFormat="1" spans="1:6">
+      <c r="A100" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F100" s="4"/>
+    </row>
+    <row r="101" s="1" customFormat="1" spans="1:6">
+      <c r="A101" s="6">
+        <v>5</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F101" s="4"/>
+    </row>
+    <row r="102" s="1" customFormat="1" spans="1:6">
+      <c r="A102" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F102" s="4"/>
+    </row>
+    <row r="103" s="1" customFormat="1" spans="1:6">
+      <c r="A103" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F103" s="4"/>
+    </row>
+    <row r="104" s="1" customFormat="1" spans="1:6">
+      <c r="A104" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+    </row>
+    <row r="105" s="1" customFormat="1" spans="1:6">
+      <c r="A105" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+    </row>
+    <row r="106" s="1" customFormat="1" spans="1:6">
+      <c r="A106" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="B106" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="F2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:6">
-      <c r="A3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D3"/>
-      <c r="E3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F3"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:6">
-      <c r="A4" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D4"/>
-      <c r="E4" t="s">
+      <c r="C106" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F106" s="4"/>
+    </row>
+    <row r="107" s="1" customFormat="1" spans="1:6">
+      <c r="A107" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+    </row>
+    <row r="108" s="1" customFormat="1" spans="1:6">
+      <c r="A108" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F108" s="4"/>
+    </row>
+    <row r="109" s="1" customFormat="1" spans="1:6">
+      <c r="A109" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F109" s="4"/>
+    </row>
+    <row r="110" s="1" customFormat="1" spans="1:6">
+      <c r="A110" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+    </row>
+    <row r="111" s="1" customFormat="1" spans="1:6">
+      <c r="A111" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F111" s="4"/>
+    </row>
+    <row r="112" s="1" customFormat="1" spans="1:6">
+      <c r="A112" s="6">
+        <v>6</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F4"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:6">
-      <c r="A5" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D5" t="s">
-        <v>144</v>
-      </c>
-      <c r="E5" t="s">
-        <v>145</v>
-      </c>
-      <c r="F5"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:6">
-      <c r="A6" s="5" t="s">
+      <c r="F112" s="4"/>
+    </row>
+    <row r="113" s="1" customFormat="1" spans="1:6">
+      <c r="A113" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E113" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D6" t="s">
-        <v>149</v>
-      </c>
-      <c r="E6" t="s">
-        <v>145</v>
-      </c>
-      <c r="F6"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:6">
-      <c r="A7" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="F113" s="4"/>
+    </row>
+    <row r="114" s="1" customFormat="1" spans="1:6">
+      <c r="A114" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="4"/>
+    </row>
+    <row r="115" s="1" customFormat="1" ht="13" customHeight="1" spans="1:6">
+      <c r="A115" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F115" s="4"/>
+    </row>
+    <row r="116" s="1" customFormat="1" spans="1:6">
+      <c r="A116" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="D116" s="7"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4"/>
+    </row>
+    <row r="117" s="1" customFormat="1" spans="1:6">
+      <c r="A117" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="D117" s="7"/>
+      <c r="E117" s="4"/>
+      <c r="F117" s="4"/>
+    </row>
+    <row r="118" s="1" customFormat="1" spans="1:6">
+      <c r="A118" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="D118" s="7"/>
+      <c r="E118" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F118" s="4"/>
+    </row>
+    <row r="119" s="1" customFormat="1" spans="1:6">
+      <c r="A119" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="E119" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C7" t="s">
-        <v>152</v>
-      </c>
-      <c r="D7"/>
-      <c r="E7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F7"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:6">
-      <c r="A8" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B8" t="s">
-        <v>154</v>
-      </c>
-      <c r="C8" t="s">
-        <v>155</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="E8" t="s">
-        <v>145</v>
-      </c>
-      <c r="F8"/>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:6">
-      <c r="A9" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B9" t="s">
-        <v>158</v>
-      </c>
-      <c r="C9" t="s">
-        <v>159</v>
-      </c>
-      <c r="D9" t="s">
-        <v>160</v>
-      </c>
-      <c r="E9" t="s">
-        <v>145</v>
-      </c>
-      <c r="F9"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:6">
-      <c r="A10" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B10" t="s">
-        <v>162</v>
-      </c>
-      <c r="C10" t="s">
-        <v>163</v>
-      </c>
-      <c r="D10"/>
-      <c r="E10" t="s">
-        <v>140</v>
-      </c>
-      <c r="F10"/>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:6">
-      <c r="A11" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="B11" t="s">
-        <v>165</v>
-      </c>
-      <c r="C11" t="s">
-        <v>166</v>
-      </c>
-      <c r="D11" t="s">
-        <v>167</v>
-      </c>
-      <c r="E11" t="s">
-        <v>145</v>
-      </c>
-      <c r="F11"/>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:6">
-      <c r="A12" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="B12" t="s">
-        <v>169</v>
-      </c>
-      <c r="C12" t="s">
-        <v>170</v>
-      </c>
-      <c r="D12" t="s">
-        <v>171</v>
-      </c>
-      <c r="E12" t="s">
-        <v>145</v>
-      </c>
-      <c r="F12"/>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:6">
-      <c r="A13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>172</v>
-      </c>
-      <c r="D13"/>
-      <c r="E13" t="s">
-        <v>136</v>
-      </c>
-      <c r="F13"/>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="1:6">
-      <c r="A14" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>174</v>
-      </c>
-      <c r="D14"/>
-      <c r="E14" t="s">
-        <v>175</v>
-      </c>
-      <c r="F14"/>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:6">
-      <c r="A15" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B15" t="s">
-        <v>177</v>
-      </c>
-      <c r="C15" t="s">
-        <v>178</v>
-      </c>
-      <c r="D15" t="s">
-        <v>179</v>
-      </c>
-      <c r="E15" t="s">
-        <v>140</v>
-      </c>
-      <c r="F15"/>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:6">
-      <c r="A16" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="B16" t="s">
-        <v>181</v>
-      </c>
-      <c r="C16" t="s">
-        <v>182</v>
-      </c>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:6">
-      <c r="A17" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="B17" t="s">
-        <v>184</v>
-      </c>
-      <c r="C17" t="s">
-        <v>185</v>
-      </c>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:6">
-      <c r="A18" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" t="s">
-        <v>187</v>
-      </c>
-      <c r="D18"/>
-      <c r="E18" t="s">
-        <v>175</v>
-      </c>
-      <c r="F18"/>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:6">
-      <c r="A19" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="B19" t="s">
-        <v>189</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="F119" s="4"/>
+    </row>
+    <row r="120" s="1" customFormat="1" spans="1:6">
+      <c r="A120" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="B120" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="D19"/>
-      <c r="E19" t="s">
-        <v>140</v>
-      </c>
-      <c r="F19"/>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:6">
-      <c r="A20" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="B20" t="s">
-        <v>192</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="C120" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="D120" s="7"/>
+      <c r="E120" s="4"/>
+      <c r="F120" s="4"/>
+    </row>
+    <row r="121" s="1" customFormat="1" spans="1:6">
+      <c r="A121" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="B121" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D20" t="s">
-        <v>194</v>
-      </c>
-      <c r="E20" t="s">
-        <v>145</v>
-      </c>
-      <c r="F20"/>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="1:6">
-      <c r="A21" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="B21" t="s">
-        <v>181</v>
-      </c>
-      <c r="C21" t="s">
-        <v>196</v>
-      </c>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="1:6">
-      <c r="A22" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="B22" t="s">
-        <v>184</v>
-      </c>
-      <c r="C22" t="s">
-        <v>198</v>
-      </c>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="1:6">
-      <c r="A23" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="B23" t="s">
-        <v>200</v>
-      </c>
-      <c r="C23" t="s">
-        <v>201</v>
-      </c>
-      <c r="D23" t="s">
-        <v>202</v>
-      </c>
-      <c r="E23" t="s">
-        <v>145</v>
-      </c>
-      <c r="F23"/>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="1:6">
-      <c r="A24" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="B24" t="s">
-        <v>181</v>
-      </c>
-      <c r="C24" t="s">
-        <v>204</v>
-      </c>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="1:6">
-      <c r="A25" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="B25" t="s">
-        <v>184</v>
-      </c>
-      <c r="C25" t="s">
-        <v>206</v>
-      </c>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="1:6">
-      <c r="A26" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="B26" t="s">
-        <v>208</v>
-      </c>
-      <c r="C26" t="s">
-        <v>209</v>
-      </c>
-      <c r="D26" t="s">
-        <v>210</v>
-      </c>
-      <c r="E26" t="s">
-        <v>145</v>
-      </c>
-      <c r="F26"/>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="1:6">
-      <c r="A27" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="B27" t="s">
-        <v>181</v>
-      </c>
-      <c r="C27" t="s">
-        <v>212</v>
-      </c>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-    </row>
-    <row r="28" s="1" customFormat="1" spans="1:6">
-      <c r="A28" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="B28" t="s">
-        <v>184</v>
-      </c>
-      <c r="C28" t="s">
-        <v>214</v>
-      </c>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-    </row>
-    <row r="29" s="1" customFormat="1" spans="1:6">
-      <c r="A29" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="B29" t="s">
-        <v>216</v>
-      </c>
-      <c r="C29" t="s">
-        <v>217</v>
-      </c>
-      <c r="D29" t="s">
-        <v>218</v>
-      </c>
-      <c r="E29" t="s">
-        <v>145</v>
-      </c>
-      <c r="F29"/>
-    </row>
-    <row r="30" s="1" customFormat="1" spans="1:6">
-      <c r="A30" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="B30" t="s">
-        <v>181</v>
-      </c>
-      <c r="C30" t="s">
-        <v>220</v>
-      </c>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
-    </row>
-    <row r="31" s="1" customFormat="1" spans="1:6">
-      <c r="A31" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="B31" t="s">
-        <v>184</v>
-      </c>
-      <c r="C31" t="s">
-        <v>222</v>
-      </c>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-    </row>
-    <row r="32" s="1" customFormat="1" spans="1:6">
-      <c r="A32" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="B32" t="s">
-        <v>224</v>
-      </c>
-      <c r="C32" t="s">
-        <v>225</v>
-      </c>
-      <c r="D32"/>
-      <c r="E32" t="s">
-        <v>140</v>
-      </c>
-      <c r="F32"/>
-    </row>
-    <row r="33" s="1" customFormat="1" spans="1:6">
-      <c r="A33" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="B33" t="s">
-        <v>227</v>
-      </c>
-      <c r="C33" t="s">
-        <v>228</v>
-      </c>
-      <c r="D33" t="s">
-        <v>229</v>
-      </c>
-      <c r="E33" t="s">
-        <v>145</v>
-      </c>
-      <c r="F33"/>
-    </row>
-    <row r="34" s="1" customFormat="1" spans="1:6">
-      <c r="A34" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B34" t="s">
-        <v>181</v>
-      </c>
-      <c r="C34" t="s">
-        <v>231</v>
-      </c>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
-    </row>
-    <row r="35" s="1" customFormat="1" spans="1:6">
-      <c r="A35" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="B35" t="s">
-        <v>184</v>
-      </c>
-      <c r="C35" t="s">
-        <v>233</v>
-      </c>
-      <c r="D35"/>
-      <c r="E35"/>
-      <c r="F35"/>
-    </row>
-    <row r="36" s="1" customFormat="1" spans="1:6">
-      <c r="A36" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="B36" t="s">
-        <v>235</v>
-      </c>
-      <c r="C36" t="s">
-        <v>236</v>
-      </c>
-      <c r="D36" t="s">
-        <v>237</v>
-      </c>
-      <c r="E36" t="s">
-        <v>145</v>
-      </c>
-      <c r="F36"/>
-    </row>
-    <row r="37" s="1" customFormat="1" spans="1:6">
-      <c r="A37" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="B37" t="s">
-        <v>181</v>
-      </c>
-      <c r="C37" t="s">
-        <v>239</v>
-      </c>
-      <c r="D37"/>
-      <c r="E37"/>
-      <c r="F37"/>
-    </row>
-    <row r="38" s="1" customFormat="1" spans="1:6">
-      <c r="A38" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B38" t="s">
-        <v>184</v>
-      </c>
-      <c r="C38" t="s">
-        <v>241</v>
-      </c>
-      <c r="D38"/>
-      <c r="E38"/>
-      <c r="F38"/>
-    </row>
-    <row r="39" s="1" customFormat="1" spans="1:6">
-      <c r="A39" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="B39" t="s">
-        <v>243</v>
-      </c>
-      <c r="C39" t="s">
-        <v>244</v>
-      </c>
-      <c r="D39" t="s">
-        <v>245</v>
-      </c>
-      <c r="E39" t="s">
-        <v>145</v>
-      </c>
-      <c r="F39"/>
-    </row>
-    <row r="40" s="1" customFormat="1" spans="1:6">
-      <c r="A40" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="B40" t="s">
-        <v>181</v>
-      </c>
-      <c r="C40" t="s">
-        <v>247</v>
-      </c>
-      <c r="D40"/>
-      <c r="E40"/>
-      <c r="F40"/>
-    </row>
-    <row r="41" s="1" customFormat="1" spans="1:6">
-      <c r="A41" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="B41" t="s">
-        <v>184</v>
-      </c>
-      <c r="C41" t="s">
-        <v>249</v>
-      </c>
-      <c r="D41"/>
-      <c r="E41"/>
-      <c r="F41"/>
-    </row>
-    <row r="42" s="1" customFormat="1" spans="1:6">
-      <c r="A42" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="B42" t="s">
-        <v>57</v>
-      </c>
-      <c r="C42" t="s">
-        <v>251</v>
-      </c>
-      <c r="D42"/>
-      <c r="E42" t="s">
-        <v>175</v>
-      </c>
-      <c r="F42"/>
-    </row>
-    <row r="43" s="1" customFormat="1" spans="1:6">
-      <c r="A43" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="B43" t="s">
-        <v>253</v>
-      </c>
-      <c r="C43" t="s">
-        <v>254</v>
-      </c>
-      <c r="D43" t="s">
-        <v>255</v>
-      </c>
-      <c r="E43" t="s">
-        <v>140</v>
-      </c>
-      <c r="F43"/>
-    </row>
-    <row r="44" s="1" customFormat="1" spans="1:6">
-      <c r="A44" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="B44" t="s">
-        <v>181</v>
-      </c>
-      <c r="C44" t="s">
-        <v>257</v>
-      </c>
-      <c r="D44"/>
-      <c r="E44"/>
-      <c r="F44"/>
-    </row>
-    <row r="45" s="1" customFormat="1" spans="1:6">
-      <c r="A45" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="B45" t="s">
-        <v>184</v>
-      </c>
-      <c r="C45" t="s">
-        <v>259</v>
-      </c>
-      <c r="D45"/>
-      <c r="E45"/>
-      <c r="F45"/>
-    </row>
-    <row r="46" s="1" customFormat="1" spans="1:6">
-      <c r="A46" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="B46" t="s">
-        <v>261</v>
-      </c>
-      <c r="C46" t="s">
-        <v>262</v>
-      </c>
-      <c r="D46"/>
-      <c r="E46" t="s">
-        <v>175</v>
-      </c>
-      <c r="F46"/>
-    </row>
-    <row r="47" s="1" customFormat="1" spans="1:6">
-      <c r="A47" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="B47" t="s">
-        <v>264</v>
-      </c>
-      <c r="C47" t="s">
-        <v>265</v>
-      </c>
-      <c r="D47" t="s">
-        <v>266</v>
-      </c>
-      <c r="E47" t="s">
-        <v>140</v>
-      </c>
-      <c r="F47"/>
-    </row>
-    <row r="48" s="1" customFormat="1" spans="1:6">
-      <c r="A48" s="5">
-        <v>2</v>
-      </c>
-      <c r="B48" t="s">
-        <v>267</v>
-      </c>
-      <c r="C48" t="s">
-        <v>268</v>
-      </c>
-      <c r="D48"/>
-      <c r="E48" t="s">
-        <v>134</v>
-      </c>
-      <c r="F48"/>
-    </row>
-    <row r="49" s="1" customFormat="1" spans="1:6">
-      <c r="A49" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B49" t="s">
-        <v>269</v>
-      </c>
-      <c r="C49" t="s">
-        <v>270</v>
-      </c>
-      <c r="D49"/>
-      <c r="E49" t="s">
-        <v>136</v>
-      </c>
-      <c r="F49"/>
-    </row>
-    <row r="50" s="1" customFormat="1" spans="1:6">
-      <c r="A50" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B50" t="s">
-        <v>271</v>
-      </c>
-      <c r="C50" t="s">
-        <v>272</v>
-      </c>
-      <c r="D50" t="s">
-        <v>273</v>
-      </c>
-      <c r="E50" t="s">
-        <v>140</v>
-      </c>
-      <c r="F50"/>
-    </row>
-    <row r="51" s="1" customFormat="1" spans="1:6">
-      <c r="A51" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B51" t="s">
-        <v>184</v>
-      </c>
-      <c r="C51" t="s">
-        <v>274</v>
-      </c>
-      <c r="D51"/>
-      <c r="E51"/>
-      <c r="F51"/>
-    </row>
-    <row r="52" s="1" customFormat="1" spans="1:6">
-      <c r="A52" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B52" t="s">
-        <v>275</v>
-      </c>
-      <c r="C52" t="s">
-        <v>276</v>
-      </c>
-      <c r="D52" t="s">
-        <v>277</v>
-      </c>
-      <c r="E52" t="s">
-        <v>140</v>
-      </c>
-      <c r="F52"/>
-    </row>
-    <row r="53" s="1" customFormat="1" spans="1:6">
-      <c r="A53" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B53" t="s">
-        <v>184</v>
-      </c>
-      <c r="C53" t="s">
-        <v>278</v>
-      </c>
-      <c r="D53"/>
-      <c r="E53"/>
-      <c r="F53"/>
-    </row>
-    <row r="54" s="1" customFormat="1" spans="1:6">
-      <c r="A54" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B54" t="s">
-        <v>279</v>
-      </c>
-      <c r="C54" t="s">
-        <v>280</v>
-      </c>
-      <c r="D54"/>
-      <c r="E54" t="s">
-        <v>136</v>
-      </c>
-      <c r="F54"/>
-    </row>
-    <row r="55" s="1" customFormat="1" spans="1:6">
-      <c r="A55" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B55" t="s">
-        <v>281</v>
-      </c>
-      <c r="C55" t="s">
-        <v>282</v>
-      </c>
-      <c r="D55" t="s">
-        <v>283</v>
-      </c>
-      <c r="E55" t="s">
-        <v>140</v>
-      </c>
-      <c r="F55"/>
-    </row>
-    <row r="56" s="1" customFormat="1" spans="1:6">
-      <c r="A56" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="B56" t="s">
-        <v>184</v>
-      </c>
-      <c r="C56" t="s">
-        <v>285</v>
-      </c>
-      <c r="D56"/>
-      <c r="E56"/>
-      <c r="F56"/>
-    </row>
-    <row r="57" s="1" customFormat="1" spans="1:6">
-      <c r="A57" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B57" t="s">
-        <v>286</v>
-      </c>
-      <c r="C57" t="s">
-        <v>287</v>
-      </c>
-      <c r="D57"/>
-      <c r="E57" t="s">
-        <v>136</v>
-      </c>
-      <c r="F57"/>
-    </row>
-    <row r="58" s="1" customFormat="1" spans="1:6">
-      <c r="A58" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B58" t="s">
-        <v>288</v>
-      </c>
-      <c r="C58" t="s">
-        <v>289</v>
-      </c>
-      <c r="D58"/>
-      <c r="E58" t="s">
-        <v>140</v>
-      </c>
-      <c r="F58"/>
-    </row>
-    <row r="59" s="1" customFormat="1" spans="1:6">
-      <c r="A59" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="B59" t="s">
-        <v>291</v>
-      </c>
-      <c r="C59" t="s">
-        <v>292</v>
-      </c>
-      <c r="D59" t="s">
-        <v>293</v>
-      </c>
-      <c r="E59" t="s">
-        <v>145</v>
-      </c>
-      <c r="F59"/>
-    </row>
-    <row r="60" s="1" customFormat="1" spans="1:6">
-      <c r="A60" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="B60" t="s">
-        <v>184</v>
-      </c>
-      <c r="C60" t="s">
-        <v>295</v>
-      </c>
-      <c r="D60"/>
-      <c r="E60"/>
-      <c r="F60"/>
-    </row>
-    <row r="61" s="1" customFormat="1" spans="1:6">
-      <c r="A61" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="B61" t="s">
-        <v>297</v>
-      </c>
-      <c r="C61" t="s">
-        <v>298</v>
-      </c>
-      <c r="D61" t="s">
-        <v>299</v>
-      </c>
-      <c r="E61" t="s">
-        <v>145</v>
-      </c>
-      <c r="F61"/>
-    </row>
-    <row r="62" s="1" customFormat="1" spans="1:6">
-      <c r="A62" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="B62" t="s">
-        <v>184</v>
-      </c>
-      <c r="C62" t="s">
-        <v>301</v>
-      </c>
-      <c r="D62"/>
-      <c r="E62"/>
-      <c r="F62"/>
-    </row>
-    <row r="63" s="1" customFormat="1" spans="1:6">
-      <c r="A63" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="B63" t="s">
-        <v>303</v>
-      </c>
-      <c r="C63" t="s">
-        <v>304</v>
-      </c>
-      <c r="D63" t="s">
-        <v>305</v>
-      </c>
-      <c r="E63" t="s">
-        <v>145</v>
-      </c>
-      <c r="F63"/>
-    </row>
-    <row r="64" s="1" customFormat="1" spans="1:6">
-      <c r="A64" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="B64" t="s">
-        <v>184</v>
-      </c>
-      <c r="C64" t="s">
-        <v>307</v>
-      </c>
-      <c r="D64"/>
-      <c r="E64"/>
-      <c r="F64"/>
-    </row>
-    <row r="65" s="1" customFormat="1" spans="1:6">
-      <c r="A65" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="B65" t="s">
-        <v>309</v>
-      </c>
-      <c r="C65" t="s">
-        <v>310</v>
-      </c>
-      <c r="D65" t="s">
-        <v>311</v>
-      </c>
-      <c r="E65" t="s">
-        <v>145</v>
-      </c>
-      <c r="F65"/>
-    </row>
-    <row r="66" s="1" customFormat="1" spans="1:6">
-      <c r="A66" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B66" t="s">
-        <v>184</v>
-      </c>
-      <c r="C66" t="s">
-        <v>313</v>
-      </c>
-      <c r="D66"/>
-      <c r="E66"/>
-      <c r="F66"/>
-    </row>
-    <row r="67" s="1" customFormat="1" spans="1:6">
-      <c r="A67" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B67" t="s">
-        <v>36</v>
-      </c>
-      <c r="C67" t="s">
-        <v>314</v>
-      </c>
-      <c r="D67"/>
-      <c r="E67" t="s">
-        <v>140</v>
-      </c>
-      <c r="F67"/>
-    </row>
-    <row r="68" s="1" customFormat="1" spans="1:6">
-      <c r="A68" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="B68" t="s">
-        <v>316</v>
-      </c>
-      <c r="C68" t="s">
-        <v>317</v>
-      </c>
-      <c r="D68" t="s">
-        <v>318</v>
-      </c>
-      <c r="E68" t="s">
-        <v>145</v>
-      </c>
-      <c r="F68"/>
-    </row>
-    <row r="69" s="1" customFormat="1" spans="1:6">
-      <c r="A69" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="B69" t="s">
-        <v>184</v>
-      </c>
-      <c r="C69" t="s">
-        <v>320</v>
-      </c>
-      <c r="D69"/>
-      <c r="E69"/>
-      <c r="F69"/>
-    </row>
-    <row r="70" s="1" customFormat="1" spans="1:6">
-      <c r="A70" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="B70" t="s">
-        <v>322</v>
-      </c>
-      <c r="C70" t="s">
-        <v>323</v>
-      </c>
-      <c r="D70" t="s">
-        <v>324</v>
-      </c>
-      <c r="E70" t="s">
-        <v>145</v>
-      </c>
-      <c r="F70"/>
-    </row>
-    <row r="71" s="1" customFormat="1" spans="1:6">
-      <c r="A71" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="B71" t="s">
-        <v>326</v>
-      </c>
-      <c r="C71" t="s">
-        <v>327</v>
-      </c>
-      <c r="D71" t="s">
-        <v>328</v>
-      </c>
-      <c r="E71" t="s">
-        <v>145</v>
-      </c>
-      <c r="F71"/>
-    </row>
-    <row r="72" s="1" customFormat="1" spans="1:6">
-      <c r="A72" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="B72" t="s">
-        <v>184</v>
-      </c>
-      <c r="C72" t="s">
-        <v>330</v>
-      </c>
-      <c r="D72"/>
-      <c r="E72"/>
-      <c r="F72"/>
-    </row>
-    <row r="73" s="1" customFormat="1" spans="1:6">
-      <c r="A73" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="B73" t="s">
-        <v>57</v>
-      </c>
-      <c r="C73" t="s">
-        <v>251</v>
-      </c>
-      <c r="D73"/>
-      <c r="E73" t="s">
-        <v>136</v>
-      </c>
-      <c r="F73"/>
-    </row>
-    <row r="74" s="1" customFormat="1" spans="1:6">
-      <c r="A74" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="B74" t="s">
-        <v>333</v>
-      </c>
-      <c r="C74" t="s">
-        <v>334</v>
-      </c>
-      <c r="D74" t="s">
-        <v>335</v>
-      </c>
-      <c r="E74" t="s">
-        <v>140</v>
-      </c>
-      <c r="F74"/>
-    </row>
-    <row r="75" s="1" customFormat="1" spans="1:6">
-      <c r="A75" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="B75" t="s">
-        <v>184</v>
-      </c>
-      <c r="C75" t="s">
-        <v>337</v>
-      </c>
-      <c r="D75"/>
-      <c r="E75"/>
-      <c r="F75"/>
-    </row>
-    <row r="76" s="1" customFormat="1" spans="1:6">
-      <c r="A76" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="B76" t="s">
-        <v>72</v>
-      </c>
-      <c r="C76" t="s">
-        <v>339</v>
-      </c>
-      <c r="D76"/>
-      <c r="E76" t="s">
-        <v>136</v>
-      </c>
-      <c r="F76"/>
-    </row>
-    <row r="77" s="1" customFormat="1" spans="1:6">
-      <c r="A77" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="B77" t="s">
-        <v>341</v>
-      </c>
-      <c r="C77" t="s">
-        <v>342</v>
-      </c>
-      <c r="D77" t="s">
-        <v>343</v>
-      </c>
-      <c r="E77" t="s">
-        <v>140</v>
-      </c>
-      <c r="F77"/>
-    </row>
-    <row r="78" s="1" customFormat="1" spans="1:6">
-      <c r="A78" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="B78" t="s">
-        <v>184</v>
-      </c>
-      <c r="C78" t="s">
-        <v>345</v>
-      </c>
-      <c r="D78"/>
-      <c r="E78"/>
-      <c r="F78"/>
-    </row>
-    <row r="79" s="1" customFormat="1" spans="1:6">
-      <c r="A79" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="B79" t="s">
-        <v>347</v>
-      </c>
-      <c r="C79" t="s">
-        <v>348</v>
-      </c>
-      <c r="D79" t="s">
-        <v>349</v>
-      </c>
-      <c r="E79" t="s">
-        <v>140</v>
-      </c>
-      <c r="F79"/>
-    </row>
-    <row r="80" s="1" customFormat="1" spans="1:6">
-      <c r="A80" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="B80" t="s">
-        <v>181</v>
-      </c>
-      <c r="C80" t="s">
-        <v>351</v>
-      </c>
-      <c r="D80"/>
-      <c r="E80"/>
-      <c r="F80"/>
-    </row>
-    <row r="81" s="1" customFormat="1" spans="1:6">
-      <c r="A81" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="B81" t="s">
-        <v>184</v>
-      </c>
-      <c r="C81" t="s">
-        <v>353</v>
-      </c>
-      <c r="D81"/>
-      <c r="E81"/>
-      <c r="F81"/>
-    </row>
-    <row r="82" s="1" customFormat="1" spans="1:6">
-      <c r="A82" s="5">
-        <v>3</v>
-      </c>
-      <c r="B82" t="s">
-        <v>354</v>
-      </c>
-      <c r="C82" t="s">
-        <v>355</v>
-      </c>
-      <c r="D82"/>
-      <c r="E82" t="s">
-        <v>134</v>
-      </c>
-      <c r="F82"/>
-    </row>
-    <row r="83" s="1" customFormat="1" spans="1:6">
-      <c r="A83" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B83" t="s">
-        <v>85</v>
-      </c>
-      <c r="C83" t="s">
-        <v>356</v>
-      </c>
-      <c r="D83" t="s">
-        <v>357</v>
-      </c>
-      <c r="E83" t="s">
-        <v>140</v>
-      </c>
-      <c r="F83"/>
-    </row>
-    <row r="84" s="1" customFormat="1" spans="1:6">
-      <c r="A84" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B84" t="s">
-        <v>358</v>
-      </c>
-      <c r="C84" t="s">
-        <v>359</v>
-      </c>
-      <c r="D84" t="s">
-        <v>360</v>
-      </c>
-      <c r="E84" t="s">
-        <v>140</v>
-      </c>
-      <c r="F84"/>
-    </row>
-    <row r="85" s="1" customFormat="1" spans="1:6">
-      <c r="A85" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B85" t="s">
-        <v>361</v>
-      </c>
-      <c r="C85" t="s">
-        <v>362</v>
-      </c>
-      <c r="D85"/>
-      <c r="E85" t="s">
-        <v>140</v>
-      </c>
-      <c r="F85"/>
-    </row>
-    <row r="86" s="1" customFormat="1" spans="1:6">
-      <c r="A86" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="B86" t="s">
-        <v>364</v>
-      </c>
-      <c r="C86" t="s">
-        <v>365</v>
-      </c>
-      <c r="D86" t="s">
-        <v>366</v>
-      </c>
-      <c r="E86" t="s">
-        <v>145</v>
-      </c>
-      <c r="F86"/>
-    </row>
-    <row r="87" s="1" customFormat="1" spans="1:6">
-      <c r="A87" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="B87" t="s">
-        <v>368</v>
-      </c>
-      <c r="C87" t="s">
-        <v>369</v>
-      </c>
-      <c r="D87" t="s">
-        <v>370</v>
-      </c>
-      <c r="E87" t="s">
-        <v>145</v>
-      </c>
-      <c r="F87"/>
-    </row>
-    <row r="88" s="1" customFormat="1" spans="1:6">
-      <c r="A88" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B88" t="s">
-        <v>100</v>
-      </c>
-      <c r="C88" t="s">
-        <v>371</v>
-      </c>
-      <c r="D88"/>
-      <c r="E88" t="s">
-        <v>140</v>
-      </c>
-      <c r="F88"/>
-    </row>
-    <row r="89" s="1" customFormat="1" spans="1:6">
-      <c r="A89" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B89" t="s">
-        <v>108</v>
-      </c>
-      <c r="C89" t="s">
-        <v>372</v>
-      </c>
-      <c r="D89" t="s">
-        <v>373</v>
-      </c>
-      <c r="E89" t="s">
-        <v>145</v>
-      </c>
-      <c r="F89"/>
-    </row>
-    <row r="90" s="1" customFormat="1" spans="1:6">
-      <c r="A90" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B90" t="s">
-        <v>105</v>
-      </c>
-      <c r="C90" t="s">
-        <v>374</v>
-      </c>
-      <c r="D90" t="s">
-        <v>375</v>
-      </c>
-      <c r="E90" t="s">
-        <v>145</v>
-      </c>
-      <c r="F90"/>
-    </row>
-    <row r="91" s="1" customFormat="1" spans="1:6">
-      <c r="A91" s="5">
-        <v>4</v>
-      </c>
-      <c r="B91" t="s">
-        <v>376</v>
-      </c>
-      <c r="C91" t="s">
-        <v>377</v>
-      </c>
-      <c r="D91"/>
-      <c r="E91" t="s">
-        <v>134</v>
-      </c>
-      <c r="F91"/>
-    </row>
-    <row r="92" s="1" customFormat="1" spans="1:6">
-      <c r="A92" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B92" t="s">
-        <v>378</v>
-      </c>
-      <c r="C92" t="s">
-        <v>379</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="E92" t="s">
-        <v>145</v>
-      </c>
-      <c r="F92"/>
-    </row>
-    <row r="93" s="1" customFormat="1" spans="1:6">
-      <c r="A93" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B93" t="s">
-        <v>381</v>
-      </c>
-      <c r="C93" t="s">
-        <v>382</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="E93" t="s">
-        <v>145</v>
-      </c>
-      <c r="F93"/>
-    </row>
-    <row r="94" s="1" customFormat="1" spans="1:6">
-      <c r="A94" s="5">
-        <v>5</v>
-      </c>
-      <c r="B94" t="s">
-        <v>110</v>
-      </c>
-      <c r="C94" t="s">
-        <v>384</v>
-      </c>
-      <c r="D94"/>
-      <c r="E94" t="s">
-        <v>134</v>
-      </c>
-      <c r="F94"/>
-    </row>
-    <row r="95" s="1" customFormat="1" spans="1:6">
-      <c r="A95" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="B95" t="s">
-        <v>386</v>
-      </c>
-      <c r="C95" t="s">
-        <v>387</v>
-      </c>
-      <c r="D95"/>
-      <c r="E95" t="s">
-        <v>136</v>
-      </c>
-      <c r="F95"/>
-    </row>
-    <row r="96" s="1" customFormat="1" spans="1:6">
-      <c r="A96" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="B96" t="s">
-        <v>123</v>
-      </c>
-      <c r="C96" t="s">
-        <v>389</v>
-      </c>
-      <c r="D96" t="s">
-        <v>390</v>
-      </c>
-      <c r="E96" t="s">
-        <v>140</v>
-      </c>
-      <c r="F96"/>
-    </row>
-    <row r="97" s="1" customFormat="1" spans="1:6">
-      <c r="A97" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="B97" t="s">
-        <v>181</v>
-      </c>
-      <c r="C97" t="s">
-        <v>392</v>
-      </c>
-      <c r="D97"/>
-      <c r="E97"/>
-      <c r="F97"/>
-    </row>
-    <row r="98" s="1" customFormat="1" spans="1:6">
-      <c r="A98" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B98" t="s">
-        <v>184</v>
-      </c>
-      <c r="C98" t="s">
-        <v>394</v>
-      </c>
-      <c r="D98"/>
-      <c r="E98"/>
-      <c r="F98"/>
-    </row>
-    <row r="99" s="1" customFormat="1" spans="1:6">
-      <c r="A99" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="B99" t="s">
-        <v>128</v>
-      </c>
-      <c r="C99" t="s">
-        <v>396</v>
-      </c>
-      <c r="D99" t="s">
-        <v>397</v>
-      </c>
-      <c r="E99" t="s">
-        <v>140</v>
-      </c>
-      <c r="F99"/>
-    </row>
-    <row r="100" s="1" customFormat="1" spans="1:6">
-      <c r="A100" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="B100" t="s">
-        <v>184</v>
-      </c>
-      <c r="C100" t="s">
-        <v>399</v>
-      </c>
-      <c r="D100"/>
-      <c r="E100"/>
-      <c r="F100"/>
-    </row>
-    <row r="101" s="1" customFormat="1" spans="1:6">
-      <c r="A101" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="B101" t="s">
-        <v>401</v>
-      </c>
-      <c r="C101" t="s">
-        <v>402</v>
-      </c>
-      <c r="D101"/>
-      <c r="E101" t="s">
-        <v>136</v>
-      </c>
-      <c r="F101"/>
-    </row>
-    <row r="102" s="1" customFormat="1" spans="1:6">
-      <c r="A102" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="B102" t="s">
-        <v>404</v>
-      </c>
-      <c r="C102" t="s">
-        <v>405</v>
-      </c>
-      <c r="D102" t="s">
-        <v>406</v>
-      </c>
-      <c r="E102" t="s">
-        <v>140</v>
-      </c>
-      <c r="F102"/>
-    </row>
-    <row r="103" s="1" customFormat="1" spans="1:6">
-      <c r="A103" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="B103" t="s">
-        <v>118</v>
-      </c>
-      <c r="C103" t="s">
-        <v>408</v>
-      </c>
-      <c r="D103" t="s">
-        <v>409</v>
-      </c>
-      <c r="E103" t="s">
-        <v>140</v>
-      </c>
-      <c r="F103"/>
-    </row>
-    <row r="104" s="1" customFormat="1" spans="1:6">
-      <c r="A104" s="5">
-        <v>6</v>
-      </c>
-      <c r="B104" t="s">
-        <v>410</v>
-      </c>
-      <c r="C104" t="s">
-        <v>411</v>
-      </c>
-      <c r="D104"/>
-      <c r="E104" t="s">
-        <v>134</v>
-      </c>
-      <c r="F104"/>
-    </row>
-    <row r="105" s="1" customFormat="1" spans="1:6">
-      <c r="A105" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="B105" t="s">
-        <v>413</v>
-      </c>
-      <c r="C105" t="s">
-        <v>414</v>
-      </c>
-      <c r="D105" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="E105" t="s">
-        <v>140</v>
-      </c>
-      <c r="F105"/>
-    </row>
-    <row r="106" s="1" customFormat="1" spans="1:6">
-      <c r="A106" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="B106" t="s">
-        <v>181</v>
-      </c>
-      <c r="C106" t="s">
-        <v>417</v>
-      </c>
-      <c r="D106" s="7"/>
-      <c r="E106"/>
-      <c r="F106"/>
-    </row>
-    <row r="107" s="1" customFormat="1" ht="13" customHeight="1" spans="1:6">
-      <c r="A107" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="B107" t="s">
-        <v>419</v>
-      </c>
-      <c r="C107" t="s">
-        <v>420</v>
-      </c>
-      <c r="D107" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="E107" t="s">
-        <v>140</v>
-      </c>
-      <c r="F107"/>
-    </row>
-    <row r="108" s="1" customFormat="1" spans="1:6">
-      <c r="A108" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="B108" t="s">
-        <v>181</v>
-      </c>
-      <c r="C108" t="s">
-        <v>423</v>
-      </c>
-      <c r="D108" s="6"/>
-      <c r="E108"/>
-      <c r="F108"/>
-    </row>
-    <row r="109" s="1" customFormat="1" spans="1:6">
-      <c r="A109" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="B109" t="s">
-        <v>184</v>
-      </c>
-      <c r="C109" t="s">
-        <v>425</v>
-      </c>
-      <c r="D109" s="6"/>
-      <c r="E109"/>
-      <c r="F109"/>
-    </row>
-    <row r="110" s="1" customFormat="1" spans="1:6">
-      <c r="A110" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="B110" t="s">
-        <v>427</v>
-      </c>
-      <c r="C110" t="s">
-        <v>428</v>
-      </c>
-      <c r="D110" s="6"/>
-      <c r="E110" t="s">
-        <v>140</v>
-      </c>
-      <c r="F110"/>
-    </row>
-    <row r="111" s="1" customFormat="1" spans="1:6">
-      <c r="A111" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="B111" t="s">
-        <v>430</v>
-      </c>
-      <c r="C111" t="s">
-        <v>431</v>
-      </c>
-      <c r="D111" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="E111" t="s">
-        <v>145</v>
-      </c>
-      <c r="F111"/>
-    </row>
-    <row r="112" s="1" customFormat="1" spans="1:6">
-      <c r="A112" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="B112" t="s">
-        <v>181</v>
-      </c>
-      <c r="C112" t="s">
-        <v>434</v>
-      </c>
-      <c r="D112" s="6"/>
-      <c r="E112"/>
-      <c r="F112"/>
-    </row>
-    <row r="113" s="1" customFormat="1" spans="1:6">
-      <c r="A113" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="B113" t="s">
-        <v>184</v>
-      </c>
-      <c r="C113" t="s">
-        <v>436</v>
-      </c>
-      <c r="D113" s="6"/>
-      <c r="E113"/>
-      <c r="F113"/>
-    </row>
-    <row r="114" s="1" customFormat="1" spans="1:6">
-      <c r="A114" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="B114" t="s">
-        <v>438</v>
-      </c>
-      <c r="C114" t="s">
-        <v>439</v>
-      </c>
-      <c r="D114" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="E114" t="s">
-        <v>145</v>
-      </c>
-      <c r="F114"/>
-    </row>
-    <row r="115" s="1" customFormat="1" spans="1:6">
-      <c r="A115" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="B115" t="s">
-        <v>181</v>
-      </c>
-      <c r="C115" t="s">
-        <v>442</v>
-      </c>
-      <c r="D115" s="6"/>
-      <c r="E115"/>
-      <c r="F115"/>
-    </row>
-    <row r="116" s="1" customFormat="1" spans="1:6">
-      <c r="A116" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="B116" t="s">
-        <v>184</v>
-      </c>
-      <c r="C116" t="s">
-        <v>444</v>
-      </c>
-      <c r="D116" s="6"/>
-      <c r="E116"/>
-      <c r="F116"/>
-    </row>
-    <row r="117" s="1" customFormat="1" spans="1:6">
-      <c r="A117" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="B117" t="s">
-        <v>446</v>
-      </c>
-      <c r="C117" t="s">
-        <v>447</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="E117" t="s">
-        <v>145</v>
-      </c>
-      <c r="F117"/>
-    </row>
-    <row r="118" s="1" customFormat="1" spans="1:6">
-      <c r="A118" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="B118" t="s">
-        <v>181</v>
-      </c>
-      <c r="C118" t="s">
-        <v>450</v>
-      </c>
-      <c r="D118" s="6"/>
-      <c r="E118"/>
-      <c r="F118"/>
-    </row>
-    <row r="119" s="1" customFormat="1" spans="1:6">
-      <c r="A119" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="B119" t="s">
-        <v>184</v>
-      </c>
-      <c r="C119" t="s">
-        <v>452</v>
-      </c>
-      <c r="D119" s="6"/>
-      <c r="E119"/>
-      <c r="F119"/>
-    </row>
-    <row r="120" s="1" customFormat="1" spans="1:6">
-      <c r="A120" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="B120" t="s">
-        <v>454</v>
-      </c>
-      <c r="C120" t="s">
-        <v>455</v>
-      </c>
-      <c r="D120"/>
-      <c r="E120" t="s">
-        <v>140</v>
-      </c>
-      <c r="F120"/>
-    </row>
-    <row r="121" s="1" customFormat="1" spans="1:6">
-      <c r="A121" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="B121" t="s">
-        <v>457</v>
-      </c>
-      <c r="C121" t="s">
+      <c r="C121" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D121" s="7"/>
+      <c r="E121" s="4"/>
+      <c r="F121" s="4"/>
+    </row>
+    <row r="122" s="1" customFormat="1" spans="1:6">
+      <c r="A122" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="E121" t="s">
-        <v>145</v>
-      </c>
-      <c r="F121"/>
-    </row>
-    <row r="122" s="1" customFormat="1" spans="1:6">
-      <c r="A122" s="5" t="s">
+      <c r="B122" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="B122" t="s">
-        <v>181</v>
-      </c>
-      <c r="C122" t="s">
+      <c r="C122" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="D122"/>
-      <c r="E122"/>
-      <c r="F122"/>
+      <c r="D122" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F122" s="4"/>
     </row>
     <row r="123" s="1" customFormat="1" spans="1:6">
-      <c r="A123" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="B123" t="s">
-        <v>184</v>
-      </c>
-      <c r="C123" t="s">
+      <c r="A123" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="D123"/>
-      <c r="E123"/>
-      <c r="F123"/>
+      <c r="B123" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="D123" s="7"/>
+      <c r="E123" s="4"/>
+      <c r="F123" s="4"/>
     </row>
     <row r="124" s="1" customFormat="1" spans="1:6">
-      <c r="A124" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="B124" t="s">
+      <c r="A124" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="C124" t="s">
+      <c r="B124" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C124" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D124" s="7"/>
+      <c r="E124" s="4"/>
+      <c r="F124" s="4"/>
+    </row>
+    <row r="125" s="1" customFormat="1" spans="1:6">
+      <c r="A125" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="E124" t="s">
-        <v>145</v>
-      </c>
-      <c r="F124"/>
-    </row>
-    <row r="125" s="1" customFormat="1" spans="1:6">
-      <c r="A125" s="5" t="s">
+      <c r="B125" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="B125" t="s">
-        <v>181</v>
-      </c>
-      <c r="C125" t="s">
+      <c r="C125" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="D125"/>
-      <c r="E125"/>
-      <c r="F125"/>
+      <c r="D125" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F125" s="4"/>
     </row>
     <row r="126" s="1" customFormat="1" spans="1:6">
-      <c r="A126" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="B126" t="s">
-        <v>184</v>
-      </c>
-      <c r="C126" t="s">
+      <c r="A126" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="D126"/>
-      <c r="E126"/>
-      <c r="F126"/>
+      <c r="B126" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="D126" s="7"/>
+      <c r="E126" s="4"/>
+      <c r="F126" s="4"/>
     </row>
     <row r="127" s="1" customFormat="1" spans="1:6">
-      <c r="A127" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="B127" t="s">
+      <c r="A127" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="C127" t="s">
+      <c r="B127" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C127" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="D127"/>
-      <c r="E127" t="s">
-        <v>140</v>
-      </c>
-      <c r="F127"/>
+      <c r="D127" s="7"/>
+      <c r="E127" s="4"/>
+      <c r="F127" s="4"/>
     </row>
     <row r="128" s="1" customFormat="1" spans="1:6">
-      <c r="A128" s="5" t="s">
+      <c r="A128" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D128" s="4"/>
+      <c r="E128" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F128" s="4"/>
+    </row>
+    <row r="129" s="1" customFormat="1" spans="1:6">
+      <c r="A129" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="E128" t="s">
-        <v>145</v>
-      </c>
-      <c r="F128"/>
-    </row>
-    <row r="129" s="1" customFormat="1" spans="1:6">
-      <c r="A129" s="5" t="s">
+      <c r="B129" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="B129" t="s">
-        <v>181</v>
-      </c>
-      <c r="C129" t="s">
+      <c r="C129" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="D129"/>
-      <c r="E129"/>
-      <c r="F129"/>
+      <c r="D129" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F129" s="4"/>
     </row>
     <row r="130" s="1" customFormat="1" spans="1:6">
-      <c r="A130" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="B130" t="s">
-        <v>184</v>
-      </c>
-      <c r="C130" t="s">
+      <c r="A130" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="D130"/>
-      <c r="E130"/>
-      <c r="F130"/>
+      <c r="B130" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="D130" s="4"/>
+      <c r="E130" s="4"/>
+      <c r="F130" s="4"/>
     </row>
     <row r="131" s="1" customFormat="1" spans="1:6">
-      <c r="A131" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="B131" t="s">
+      <c r="A131" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="C131" t="s">
+      <c r="B131" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C131" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D131" s="4"/>
+      <c r="E131" s="4"/>
+      <c r="F131" s="4"/>
+    </row>
+    <row r="132" s="1" customFormat="1" spans="1:6">
+      <c r="A132" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="E131" t="s">
-        <v>145</v>
-      </c>
-      <c r="F131"/>
-    </row>
-    <row r="132" s="1" customFormat="1" spans="1:6">
-      <c r="A132" s="5" t="s">
+      <c r="B132" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="B132" t="s">
-        <v>181</v>
-      </c>
-      <c r="C132" t="s">
+      <c r="C132" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="D132"/>
-      <c r="E132"/>
-      <c r="F132"/>
+      <c r="D132" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F132" s="4"/>
     </row>
     <row r="133" s="1" customFormat="1" spans="1:6">
-      <c r="A133" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="B133" t="s">
-        <v>184</v>
-      </c>
-      <c r="C133" t="s">
+      <c r="A133" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="D133"/>
-      <c r="E133"/>
-      <c r="F133"/>
+      <c r="B133" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="D133" s="4"/>
+      <c r="E133" s="4"/>
+      <c r="F133" s="4"/>
     </row>
     <row r="134" s="1" customFormat="1" spans="1:6">
-      <c r="A134" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="B134" t="s">
+      <c r="A134" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="C134" t="s">
+      <c r="B134" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C134" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D134" s="4"/>
+      <c r="E134" s="4"/>
+      <c r="F134" s="4"/>
+    </row>
+    <row r="135" s="1" customFormat="1" spans="1:6">
+      <c r="A135" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="E134" t="s">
-        <v>145</v>
-      </c>
-      <c r="F134"/>
-    </row>
-    <row r="135" s="1" customFormat="1" spans="1:6">
-      <c r="A135" s="5" t="s">
+      <c r="B135" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="B135" t="s">
+      <c r="C135" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="C135" t="s">
+      <c r="D135" s="4"/>
+      <c r="E135" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F135" s="4"/>
+    </row>
+    <row r="136" s="1" customFormat="1" spans="1:6">
+      <c r="A136" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="D135" t="s">
+      <c r="B136" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="E135" t="s">
-        <v>140</v>
-      </c>
-      <c r="F135"/>
-    </row>
-    <row r="136" s="1" customFormat="1" spans="1:6">
-      <c r="A136" s="5" t="s">
+      <c r="C136" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="B136" t="s">
-        <v>181</v>
-      </c>
-      <c r="C136" t="s">
+      <c r="D136" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="D136"/>
-      <c r="E136"/>
-      <c r="F136"/>
+      <c r="E136" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F136" s="4"/>
     </row>
     <row r="137" s="1" customFormat="1" spans="1:6">
-      <c r="A137" s="5" t="s">
+      <c r="A137" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="B137" t="s">
-        <v>184</v>
-      </c>
-      <c r="C137" t="s">
+      <c r="B137" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C137" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="D137"/>
-      <c r="E137"/>
-      <c r="F137"/>
+      <c r="D137" s="4"/>
+      <c r="E137" s="4"/>
+      <c r="F137" s="4"/>
     </row>
     <row r="138" s="1" customFormat="1" spans="1:6">
-      <c r="A138" s="5" t="s">
+      <c r="A138" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C138" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="C138" t="s">
+      <c r="D138" s="4"/>
+      <c r="E138" s="4"/>
+      <c r="F138" s="4"/>
+    </row>
+    <row r="139" s="1" customFormat="1" spans="1:6">
+      <c r="A139" s="6" t="s">
         <v>505</v>
       </c>
-      <c r="D138" t="s">
+      <c r="B139" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="E138" t="s">
-        <v>140</v>
-      </c>
-      <c r="F138"/>
-    </row>
-    <row r="139" s="1" customFormat="1" spans="1:6">
-      <c r="A139" s="5" t="s">
+      <c r="C139" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="B139" t="s">
-        <v>181</v>
-      </c>
-      <c r="C139" t="s">
+      <c r="D139" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="D139"/>
-      <c r="E139"/>
-      <c r="F139"/>
+      <c r="E139" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F139" s="4"/>
     </row>
     <row r="140" s="1" customFormat="1" spans="1:6">
-      <c r="A140" s="5" t="s">
+      <c r="A140" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="B140" t="s">
-        <v>184</v>
-      </c>
-      <c r="C140" t="s">
+      <c r="B140" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C140" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="D140"/>
-      <c r="E140"/>
-      <c r="F140"/>
+      <c r="D140" s="4"/>
+      <c r="E140" s="4"/>
+      <c r="F140" s="4"/>
     </row>
     <row r="141" s="1" customFormat="1" spans="1:6">
-      <c r="A141" s="5" t="s">
+      <c r="A141" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C141" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="C141" t="s">
+      <c r="D141" s="4"/>
+      <c r="E141" s="4"/>
+      <c r="F141" s="4"/>
+    </row>
+    <row r="142" s="1" customFormat="1" spans="1:6">
+      <c r="A142" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="D141" t="s">
+      <c r="B142" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="E141" t="s">
-        <v>140</v>
-      </c>
-      <c r="F141"/>
-    </row>
-    <row r="142" s="1" customFormat="1" spans="1:6">
-      <c r="A142" s="5" t="s">
+      <c r="C142" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="B142" t="s">
-        <v>181</v>
-      </c>
-      <c r="C142" t="s">
+      <c r="D142" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="D142"/>
-      <c r="E142"/>
-      <c r="F142" s="7"/>
+      <c r="E142" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F142" s="4"/>
     </row>
     <row r="143" s="1" customFormat="1" spans="1:6">
-      <c r="A143" s="5" t="s">
+      <c r="A143" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C143" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D143" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="E143" t="s">
+      <c r="E143" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F143" s="4"/>
+    </row>
+    <row r="144" s="1" customFormat="1" spans="1:6">
+      <c r="A144" s="6" t="s">
         <v>521</v>
       </c>
-      <c r="F143" s="7"/>
-    </row>
-    <row r="144" s="1" customFormat="1" spans="1:6">
-      <c r="A144" s="5" t="s">
+      <c r="B144" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C144" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="B144" t="s">
-        <v>181</v>
-      </c>
-      <c r="C144" t="s">
+      <c r="D144" s="4"/>
+      <c r="E144" s="4"/>
+      <c r="F144" s="4"/>
+    </row>
+    <row r="145" s="1" customFormat="1" spans="1:6">
+      <c r="A145" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="D144"/>
-      <c r="E144"/>
-      <c r="F144" s="7"/>
-    </row>
-    <row r="145" s="1" customFormat="1" spans="1:6">
-      <c r="A145" s="5" t="s">
+      <c r="B145" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C145" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="B145" t="s">
-        <v>184</v>
-      </c>
-      <c r="C145" t="s">
+      <c r="D145" s="4"/>
+      <c r="E145" s="4"/>
+      <c r="F145" s="4"/>
+    </row>
+    <row r="146" s="1" customFormat="1" spans="1:6">
+      <c r="A146" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="D145"/>
-      <c r="E145"/>
-      <c r="F145" s="7"/>
-    </row>
-    <row r="146" spans="1:5">
-      <c r="A146" s="5" t="s">
+      <c r="B146" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="B146" t="s">
+      <c r="C146" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="C146" t="s">
+      <c r="D146" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="D146" t="s">
+      <c r="E146" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F146" s="4"/>
+    </row>
+    <row r="147" s="1" customFormat="1" spans="1:6">
+      <c r="A147" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="E146" t="s">
-        <v>140</v>
+      <c r="B147" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="D147" s="4"/>
+      <c r="E147" s="4"/>
+      <c r="F147" s="4"/>
+    </row>
+    <row r="148" s="1" customFormat="1" spans="1:6">
+      <c r="A148" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="D148" s="4"/>
+      <c r="E148" s="4"/>
+      <c r="F148" s="4"/>
+    </row>
+    <row r="149" s="1" customFormat="1" spans="1:6">
+      <c r="A149" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F149" s="4"/>
+    </row>
+    <row r="150" s="1" customFormat="1" spans="1:6">
+      <c r="A150" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="D150" s="4"/>
+      <c r="E150" s="4"/>
+      <c r="F150" s="8"/>
+    </row>
+    <row r="151" s="1" customFormat="1" spans="1:6">
+      <c r="A151" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="F151" s="8"/>
+    </row>
+    <row r="152" s="1" customFormat="1" spans="1:6">
+      <c r="A152" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="D152" s="4"/>
+      <c r="E152" s="4"/>
+      <c r="F152" s="8"/>
+    </row>
+    <row r="153" s="1" customFormat="1" spans="1:6">
+      <c r="A153" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="D153" s="4"/>
+      <c r="E153" s="4"/>
+      <c r="F153" s="8"/>
+    </row>
+    <row r="154" s="1" customFormat="1" spans="1:5">
+      <c r="A154" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/server/excel/menu/Menu.xlsx
+++ b/server/excel/menu/Menu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9924" activeTab="1"/>
+    <workbookView windowWidth="24180" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="AppMenu" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554">
   <si>
     <t>菜单编号</t>
   </si>
@@ -92,6 +92,15 @@
     <t>qjys</t>
   </si>
   <si>
+    <t>1,1,1</t>
+  </si>
+  <si>
+    <t>工程量清单查看价格</t>
+  </si>
+  <si>
+    <t>xmys_qjys_gclqd_price_app</t>
+  </si>
+  <si>
     <t>1,2</t>
   </si>
   <si>
@@ -524,9 +533,6 @@
     <t>top2</t>
   </si>
   <si>
-    <t>1,1,1</t>
-  </si>
-  <si>
     <t>总工程量</t>
   </si>
   <si>
@@ -1756,10 +1762,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1788,11 +1794,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1804,23 +1817,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1835,15 +1833,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1857,6 +1856,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1864,7 +1887,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1879,17 +1902,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1902,31 +1931,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1948,19 +1954,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1972,25 +2002,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2002,7 +2032,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2020,13 +2074,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2038,25 +2110,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2068,19 +2122,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2092,43 +2134,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2142,11 +2148,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2161,21 +2173,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -2185,30 +2182,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2239,6 +2212,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2247,10 +2253,10 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2259,137 +2265,137 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2398,7 +2404,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2409,16 +2414,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2710,40 +2705,40 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="A1:E39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="18.4444444444444" style="9" customWidth="1"/>
-    <col min="2" max="2" width="23.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="46.2222222222222" customWidth="1"/>
+    <col min="1" max="1" width="18.4416666666667" style="5" customWidth="1"/>
+    <col min="2" max="2" width="23.4416666666667" customWidth="1"/>
+    <col min="3" max="3" width="46.225" customWidth="1"/>
     <col min="4" max="4" width="82.25" customWidth="1"/>
     <col min="5" max="5" width="27.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
-      <c r="A2" s="12">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -2754,7 +2749,7 @@
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
@@ -2770,8 +2765,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A4" s="9" t="s">
+    <row r="4" customHeight="1" spans="1:3">
+      <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
@@ -2780,27 +2775,27 @@
       <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="5" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A5" s="9">
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A6" s="5">
         <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A6" s="9" t="s">
-        <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
@@ -2808,48 +2803,48 @@
       <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="7" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E6" t="s">
+      <c r="B7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:3">
-      <c r="A7" s="9" t="s">
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A8" s="9" t="s">
+    <row r="8" customHeight="1" spans="1:3">
+      <c r="A8" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A9" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" t="s">
-        <v>30</v>
       </c>
       <c r="C9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B10" t="s">
@@ -2859,8 +2854,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:3">
-      <c r="A11" s="9" t="s">
+    <row r="11" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A11" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B11" t="s">
@@ -2870,8 +2865,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A12" s="9" t="s">
+    <row r="12" customHeight="1" spans="1:3">
+      <c r="A12" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B12" t="s">
@@ -2882,7 +2877,7 @@
       </c>
     </row>
     <row r="13" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B13" t="s">
@@ -2893,7 +2888,7 @@
       </c>
     </row>
     <row r="14" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B14" t="s">
@@ -2904,7 +2899,7 @@
       </c>
     </row>
     <row r="15" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B15" t="s">
@@ -2914,8 +2909,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:3">
-      <c r="A16" s="9" t="s">
+    <row r="16" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A16" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B16" t="s">
@@ -2926,7 +2921,7 @@
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:3">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B17" t="s">
@@ -2937,7 +2932,7 @@
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:3">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="5" t="s">
         <v>56</v>
       </c>
       <c r="B18" t="s">
@@ -2948,7 +2943,7 @@
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:3">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B19" t="s">
@@ -2959,57 +2954,57 @@
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:3">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:3">
+      <c r="A21" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="1:5">
-      <c r="A21" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" t="s">
-        <v>65</v>
       </c>
       <c r="C21" t="s">
         <v>66</v>
       </c>
-      <c r="D21" t="s">
+    </row>
+    <row r="22" customHeight="1" spans="1:5">
+      <c r="A22" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E21" t="s">
+      <c r="B22" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="22" customHeight="1" spans="1:3">
-      <c r="A22" s="9" t="s">
+      <c r="C22" t="s">
         <v>69</v>
       </c>
-      <c r="B22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="23" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A23" s="9" t="s">
+      <c r="E22" t="s">
         <v>71</v>
       </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:3">
+      <c r="A23" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C23" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="1:3">
-      <c r="A24" s="9" t="s">
+    <row r="24" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A24" s="5" t="s">
         <v>74</v>
       </c>
       <c r="B24" t="s">
@@ -3019,8 +3014,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="1:5">
-      <c r="A25" s="9" t="s">
+    <row r="25" customHeight="1" spans="1:3">
+      <c r="A25" s="5" t="s">
         <v>77</v>
       </c>
       <c r="B25" t="s">
@@ -3029,26 +3024,26 @@
       <c r="C25" t="s">
         <v>79</v>
       </c>
-      <c r="D25" t="s">
+    </row>
+    <row r="26" customHeight="1" spans="1:5">
+      <c r="A26" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E25" t="s">
+      <c r="B26" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="26" customHeight="1" spans="1:3">
-      <c r="A26" s="9" t="s">
+      <c r="C26" t="s">
         <v>82</v>
       </c>
-      <c r="B26" t="s">
+      <c r="D26" t="s">
         <v>83</v>
       </c>
-      <c r="C26" t="s">
+      <c r="E26" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:3">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="5" t="s">
         <v>85</v>
       </c>
       <c r="B27" t="s">
@@ -3059,19 +3054,19 @@
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:3">
-      <c r="A28" s="9">
+      <c r="A28" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:3">
+      <c r="A29" s="5">
         <v>3</v>
-      </c>
-      <c r="B28" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="1:5">
-      <c r="A29" s="9" t="s">
-        <v>90</v>
       </c>
       <c r="B29" t="s">
         <v>91</v>
@@ -3079,77 +3074,77 @@
       <c r="C29" t="s">
         <v>92</v>
       </c>
-      <c r="D29" t="s">
+    </row>
+    <row r="30" customHeight="1" spans="1:5">
+      <c r="A30" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E29" t="s">
+      <c r="B30" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="30" customHeight="1" spans="1:5">
-      <c r="A30" s="9" t="s">
+      <c r="C30" t="s">
         <v>95</v>
       </c>
-      <c r="B30" t="s">
+      <c r="D30" t="s">
         <v>96</v>
       </c>
-      <c r="C30" t="s">
+      <c r="E30" t="s">
         <v>97</v>
       </c>
-      <c r="D30" s="13" t="s">
+    </row>
+    <row r="31" customHeight="1" spans="1:5">
+      <c r="A31" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E30" t="s">
+      <c r="B31" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="31" customHeight="1" spans="1:5">
-      <c r="A31" s="9" t="s">
+      <c r="C31" t="s">
         <v>100</v>
       </c>
-      <c r="B31" t="s">
+      <c r="D31" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C31" t="s">
+      <c r="E31" t="s">
         <v>102</v>
       </c>
-      <c r="D31" s="13" t="s">
+    </row>
+    <row r="32" customHeight="1" spans="1:5">
+      <c r="A32" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E31" t="s">
+      <c r="B32" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="32" customHeight="1" spans="1:5">
-      <c r="A32" s="9" t="s">
+      <c r="C32" t="s">
         <v>105</v>
       </c>
-      <c r="B32" t="s">
+      <c r="D32" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C32" t="s">
+      <c r="E32" t="s">
         <v>107</v>
       </c>
-      <c r="D32" s="13" t="s">
+    </row>
+    <row r="33" customHeight="1" spans="1:5">
+      <c r="A33" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E32" t="s">
+      <c r="B33" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="33" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A33" s="9" t="s">
+      <c r="C33" t="s">
         <v>110</v>
       </c>
-      <c r="B33" t="s">
+      <c r="D33" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C33" t="s">
+      <c r="E33" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="34" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="5" t="s">
         <v>113</v>
       </c>
       <c r="B34" t="s">
@@ -3159,20 +3154,20 @@
         <v>115</v>
       </c>
     </row>
-    <row r="35" customHeight="1" spans="1:3">
-      <c r="A35" s="9">
+    <row r="35" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A35" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B35" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:3">
+      <c r="A36" s="5">
         <v>4</v>
-      </c>
-      <c r="B35" t="s">
-        <v>116</v>
-      </c>
-      <c r="C35" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" spans="1:5">
-      <c r="A36" s="9" t="s">
-        <v>118</v>
       </c>
       <c r="B36" t="s">
         <v>119</v>
@@ -3180,62 +3175,73 @@
       <c r="C36" t="s">
         <v>120</v>
       </c>
-      <c r="D36" t="s">
+    </row>
+    <row r="37" customHeight="1" spans="1:5">
+      <c r="A37" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E36" t="s">
+      <c r="B37" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="37" customHeight="1" spans="1:5">
-      <c r="A37" s="9" t="s">
+      <c r="C37" t="s">
         <v>123</v>
       </c>
-      <c r="B37" t="s">
+      <c r="D37" t="s">
         <v>124</v>
       </c>
-      <c r="C37" t="s">
+      <c r="E37" t="s">
         <v>125</v>
       </c>
-      <c r="D37" t="s">
+    </row>
+    <row r="38" customHeight="1" spans="1:5">
+      <c r="A38" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="E37" t="s">
+      <c r="B38" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="38" customHeight="1" spans="1:5">
-      <c r="A38" s="9" t="s">
+      <c r="C38" t="s">
         <v>128</v>
       </c>
-      <c r="B38" t="s">
+      <c r="D38" t="s">
         <v>129</v>
       </c>
-      <c r="C38" t="s">
+      <c r="E38" t="s">
         <v>130</v>
       </c>
-      <c r="D38" t="s">
+    </row>
+    <row r="39" customHeight="1" spans="1:5">
+      <c r="A39" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="E38" t="s">
+      <c r="B39" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="39" customHeight="1" spans="1:5">
-      <c r="A39" s="9" t="s">
+      <c r="C39" t="s">
         <v>133</v>
       </c>
-      <c r="B39" t="s">
+      <c r="D39" t="s">
         <v>134</v>
       </c>
-      <c r="C39" t="s">
+      <c r="E39" t="s">
         <v>135</v>
       </c>
-      <c r="D39" t="s">
+    </row>
+    <row r="40" customHeight="1" spans="1:5">
+      <c r="A40" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="E39" t="s">
+      <c r="B40" t="s">
         <v>137</v>
+      </c>
+      <c r="C40" t="s">
+        <v>138</v>
+      </c>
+      <c r="D40" t="s">
+        <v>139</v>
+      </c>
+      <c r="E40" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3250,18 +3256,18 @@
   <sheetPr/>
   <dimension ref="A1:F154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F116" sqref="$A1:$XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.5555555555556" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="25.5583333333333" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="3" width="25.5555555555556" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.7777777777778" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="25.5555555555556" style="1" customWidth="1"/>
+    <col min="1" max="3" width="25.5583333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.775" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="25.5583333333333" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3272,2446 +3278,2446 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4"/>
+      <c r="F1"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:6">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="F2" s="4"/>
+      <c r="C2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F2"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:6">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F3" s="4"/>
+      <c r="C3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F3"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:6">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:6">
+      <c r="A5" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:6">
+      <c r="A6" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:6">
+      <c r="A7" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" t="s">
+        <v>160</v>
+      </c>
+      <c r="E7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F7"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:6">
+      <c r="A8" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F8"/>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:6">
+      <c r="A9" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9" t="s">
+        <v>153</v>
+      </c>
+      <c r="F9"/>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:6">
+      <c r="A10" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E10" t="s">
+        <v>153</v>
+      </c>
+      <c r="F10"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:6">
+      <c r="A11" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11" t="s">
+        <v>148</v>
+      </c>
+      <c r="F11"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:6">
+      <c r="A12" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" t="s">
+        <v>177</v>
+      </c>
+      <c r="D12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E12" t="s">
+        <v>153</v>
+      </c>
+      <c r="F12"/>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:6">
+      <c r="A13" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B13" t="s">
+        <v>180</v>
+      </c>
+      <c r="C13" t="s">
+        <v>181</v>
+      </c>
+      <c r="D13" t="s">
+        <v>182</v>
+      </c>
+      <c r="E13" t="s">
+        <v>153</v>
+      </c>
+      <c r="F13"/>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:6">
+      <c r="A14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>183</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14" t="s">
+        <v>145</v>
+      </c>
+      <c r="F14"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:6">
+      <c r="A15" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>185</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15" t="s">
+        <v>186</v>
+      </c>
+      <c r="F15"/>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:6">
+      <c r="A16" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C16" t="s">
+        <v>189</v>
+      </c>
+      <c r="D16" t="s">
+        <v>190</v>
+      </c>
+      <c r="E16" t="s">
+        <v>148</v>
+      </c>
+      <c r="F16"/>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:6">
+      <c r="A17" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B17" t="s">
+        <v>192</v>
+      </c>
+      <c r="C17" t="s">
+        <v>193</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:6">
+      <c r="A18" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B18" t="s">
+        <v>195</v>
+      </c>
+      <c r="C18" t="s">
+        <v>196</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:6">
+      <c r="A19" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
+        <v>198</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19" t="s">
+        <v>186</v>
+      </c>
+      <c r="F19"/>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:6">
+      <c r="A20" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B20" t="s">
+        <v>200</v>
+      </c>
+      <c r="C20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20" t="s">
+        <v>148</v>
+      </c>
+      <c r="F20"/>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:6">
+      <c r="A21" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B21" t="s">
+        <v>203</v>
+      </c>
+      <c r="C21" t="s">
+        <v>204</v>
+      </c>
+      <c r="D21" t="s">
+        <v>205</v>
+      </c>
+      <c r="E21" t="s">
+        <v>153</v>
+      </c>
+      <c r="F21"/>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:6">
+      <c r="A22" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B22" t="s">
+        <v>192</v>
+      </c>
+      <c r="C22" t="s">
+        <v>207</v>
+      </c>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:6">
+      <c r="A23" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B23" t="s">
+        <v>195</v>
+      </c>
+      <c r="C23" t="s">
+        <v>209</v>
+      </c>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:6">
+      <c r="A24" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B24" t="s">
+        <v>211</v>
+      </c>
+      <c r="C24" t="s">
+        <v>212</v>
+      </c>
+      <c r="D24" t="s">
+        <v>213</v>
+      </c>
+      <c r="E24" t="s">
+        <v>153</v>
+      </c>
+      <c r="F24"/>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:6">
+      <c r="A25" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B25" t="s">
+        <v>192</v>
+      </c>
+      <c r="C25" t="s">
+        <v>215</v>
+      </c>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:6">
+      <c r="A26" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B26" t="s">
+        <v>195</v>
+      </c>
+      <c r="C26" t="s">
+        <v>217</v>
+      </c>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:6">
+      <c r="A27" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B27" t="s">
+        <v>219</v>
+      </c>
+      <c r="C27" t="s">
+        <v>220</v>
+      </c>
+      <c r="D27" t="s">
+        <v>221</v>
+      </c>
+      <c r="E27" t="s">
+        <v>153</v>
+      </c>
+      <c r="F27"/>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:6">
+      <c r="A28" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B28" t="s">
+        <v>192</v>
+      </c>
+      <c r="C28" t="s">
+        <v>223</v>
+      </c>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:6">
+      <c r="A29" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B29" t="s">
+        <v>195</v>
+      </c>
+      <c r="C29" t="s">
+        <v>225</v>
+      </c>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:6">
+      <c r="A30" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B30" t="s">
+        <v>227</v>
+      </c>
+      <c r="C30" t="s">
+        <v>228</v>
+      </c>
+      <c r="D30" t="s">
+        <v>229</v>
+      </c>
+      <c r="E30" t="s">
+        <v>153</v>
+      </c>
+      <c r="F30"/>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:6">
+      <c r="A31" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B31" t="s">
+        <v>192</v>
+      </c>
+      <c r="C31" t="s">
+        <v>231</v>
+      </c>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="1:6">
+      <c r="A32" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B32" t="s">
+        <v>195</v>
+      </c>
+      <c r="C32" t="s">
+        <v>233</v>
+      </c>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="1:6">
+      <c r="A33" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B33" t="s">
+        <v>235</v>
+      </c>
+      <c r="C33" t="s">
+        <v>236</v>
+      </c>
+      <c r="D33"/>
+      <c r="E33" t="s">
+        <v>148</v>
+      </c>
+      <c r="F33"/>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="1:6">
+      <c r="A34" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B34" t="s">
+        <v>238</v>
+      </c>
+      <c r="C34" t="s">
+        <v>239</v>
+      </c>
+      <c r="D34" t="s">
+        <v>240</v>
+      </c>
+      <c r="E34" t="s">
+        <v>153</v>
+      </c>
+      <c r="F34"/>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="1:6">
+      <c r="A35" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B35" t="s">
+        <v>192</v>
+      </c>
+      <c r="C35" t="s">
+        <v>242</v>
+      </c>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="1:6">
+      <c r="A36" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B36" t="s">
+        <v>195</v>
+      </c>
+      <c r="C36" t="s">
+        <v>244</v>
+      </c>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="1:6">
+      <c r="A37" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B37" t="s">
+        <v>246</v>
+      </c>
+      <c r="C37" t="s">
+        <v>247</v>
+      </c>
+      <c r="D37" t="s">
+        <v>248</v>
+      </c>
+      <c r="E37" t="s">
+        <v>153</v>
+      </c>
+      <c r="F37"/>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="1:6">
+      <c r="A38" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B38" t="s">
+        <v>192</v>
+      </c>
+      <c r="C38" t="s">
+        <v>250</v>
+      </c>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="1:6">
+      <c r="A39" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B39" t="s">
+        <v>195</v>
+      </c>
+      <c r="C39" t="s">
+        <v>252</v>
+      </c>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="1:6">
+      <c r="A40" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B40" t="s">
+        <v>254</v>
+      </c>
+      <c r="C40" t="s">
+        <v>255</v>
+      </c>
+      <c r="D40" t="s">
+        <v>256</v>
+      </c>
+      <c r="E40" t="s">
+        <v>153</v>
+      </c>
+      <c r="F40"/>
+    </row>
+    <row r="41" s="1" customFormat="1" spans="1:6">
+      <c r="A41" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B41" t="s">
+        <v>192</v>
+      </c>
+      <c r="C41" t="s">
+        <v>258</v>
+      </c>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+    </row>
+    <row r="42" s="1" customFormat="1" spans="1:6">
+      <c r="A42" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B42" t="s">
+        <v>195</v>
+      </c>
+      <c r="C42" t="s">
+        <v>260</v>
+      </c>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+    </row>
+    <row r="43" s="1" customFormat="1" spans="1:6">
+      <c r="A43" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" t="s">
+        <v>262</v>
+      </c>
+      <c r="D43"/>
+      <c r="E43" t="s">
+        <v>186</v>
+      </c>
+      <c r="F43"/>
+    </row>
+    <row r="44" s="1" customFormat="1" spans="1:6">
+      <c r="A44" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B44" t="s">
+        <v>264</v>
+      </c>
+      <c r="C44" t="s">
+        <v>265</v>
+      </c>
+      <c r="D44" t="s">
+        <v>266</v>
+      </c>
+      <c r="E44" t="s">
+        <v>148</v>
+      </c>
+      <c r="F44"/>
+    </row>
+    <row r="45" s="1" customFormat="1" spans="1:6">
+      <c r="A45" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B45" t="s">
+        <v>192</v>
+      </c>
+      <c r="C45" t="s">
+        <v>268</v>
+      </c>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+    </row>
+    <row r="46" s="1" customFormat="1" spans="1:6">
+      <c r="A46" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B46" t="s">
+        <v>195</v>
+      </c>
+      <c r="C46" t="s">
+        <v>270</v>
+      </c>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+    </row>
+    <row r="47" s="1" customFormat="1" spans="1:6">
+      <c r="A47" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B47" t="s">
+        <v>272</v>
+      </c>
+      <c r="C47" t="s">
+        <v>273</v>
+      </c>
+      <c r="D47"/>
+      <c r="E47" t="s">
+        <v>186</v>
+      </c>
+      <c r="F47"/>
+    </row>
+    <row r="48" s="1" customFormat="1" spans="1:6">
+      <c r="A48" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B48" t="s">
+        <v>275</v>
+      </c>
+      <c r="C48" t="s">
+        <v>276</v>
+      </c>
+      <c r="D48" t="s">
+        <v>277</v>
+      </c>
+      <c r="E48" t="s">
+        <v>148</v>
+      </c>
+      <c r="F48"/>
+    </row>
+    <row r="49" s="1" customFormat="1" spans="1:6">
+      <c r="A49" s="5">
+        <v>2</v>
+      </c>
+      <c r="B49" t="s">
+        <v>278</v>
+      </c>
+      <c r="C49" t="s">
+        <v>279</v>
+      </c>
+      <c r="D49"/>
+      <c r="E49" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="F49"/>
+    </row>
+    <row r="50" s="1" customFormat="1" spans="1:6">
+      <c r="A50" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" t="s">
+        <v>280</v>
+      </c>
+      <c r="C50" t="s">
+        <v>281</v>
+      </c>
+      <c r="D50"/>
+      <c r="E50" t="s">
         <v>145</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:6">
-      <c r="A5" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="F50"/>
+    </row>
+    <row r="51" s="1" customFormat="1" spans="1:6">
+      <c r="A51" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" t="s">
+        <v>282</v>
+      </c>
+      <c r="C51" t="s">
+        <v>283</v>
+      </c>
+      <c r="D51" t="s">
+        <v>284</v>
+      </c>
+      <c r="E51" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:6">
-      <c r="A6" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="F51"/>
+    </row>
+    <row r="52" s="1" customFormat="1" spans="1:6">
+      <c r="A52" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B52" t="s">
+        <v>195</v>
+      </c>
+      <c r="C52" t="s">
+        <v>285</v>
+      </c>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52"/>
+    </row>
+    <row r="53" s="1" customFormat="1" spans="1:6">
+      <c r="A53" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B53" t="s">
+        <v>155</v>
+      </c>
+      <c r="C53" t="s">
+        <v>287</v>
+      </c>
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="F53"/>
+    </row>
+    <row r="54" s="1" customFormat="1" spans="1:6">
+      <c r="A54" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B54" t="s">
+        <v>75</v>
+      </c>
+      <c r="C54" t="s">
+        <v>288</v>
+      </c>
+      <c r="D54" t="s">
+        <v>289</v>
+      </c>
+      <c r="E54" t="s">
+        <v>148</v>
+      </c>
+      <c r="F54"/>
+    </row>
+    <row r="55" s="1" customFormat="1" spans="1:6">
+      <c r="A55" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B55" t="s">
+        <v>195</v>
+      </c>
+      <c r="C55" t="s">
+        <v>290</v>
+      </c>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+    </row>
+    <row r="56" s="1" customFormat="1" spans="1:6">
+      <c r="A56" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56" t="s">
+        <v>291</v>
+      </c>
+      <c r="D56" t="s">
+        <v>292</v>
+      </c>
+      <c r="E56" t="s">
+        <v>148</v>
+      </c>
+      <c r="F56"/>
+    </row>
+    <row r="57" s="1" customFormat="1" spans="1:6">
+      <c r="A57" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57" t="s">
+        <v>195</v>
+      </c>
+      <c r="C57" t="s">
+        <v>290</v>
+      </c>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+    </row>
+    <row r="58" s="1" customFormat="1" spans="1:6">
+      <c r="A58" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B58" t="s">
+        <v>293</v>
+      </c>
+      <c r="C58" t="s">
+        <v>294</v>
+      </c>
+      <c r="D58"/>
+      <c r="E58" t="s">
+        <v>145</v>
+      </c>
+      <c r="F58"/>
+    </row>
+    <row r="59" s="1" customFormat="1" spans="1:6">
+      <c r="A59" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59" t="s">
+        <v>295</v>
+      </c>
+      <c r="C59" t="s">
+        <v>296</v>
+      </c>
+      <c r="D59" t="s">
+        <v>297</v>
+      </c>
+      <c r="E59" t="s">
+        <v>148</v>
+      </c>
+      <c r="F59"/>
+    </row>
+    <row r="60" s="1" customFormat="1" spans="1:6">
+      <c r="A60" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B60" t="s">
+        <v>195</v>
+      </c>
+      <c r="C60" t="s">
+        <v>299</v>
+      </c>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60"/>
+    </row>
+    <row r="61" s="1" customFormat="1" spans="1:6">
+      <c r="A61" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B61" t="s">
+        <v>300</v>
+      </c>
+      <c r="C61" t="s">
+        <v>301</v>
+      </c>
+      <c r="D61"/>
+      <c r="E61" t="s">
+        <v>145</v>
+      </c>
+      <c r="F61"/>
+    </row>
+    <row r="62" s="1" customFormat="1" spans="1:6">
+      <c r="A62" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B62" t="s">
+        <v>302</v>
+      </c>
+      <c r="C62" t="s">
+        <v>303</v>
+      </c>
+      <c r="D62"/>
+      <c r="E62" t="s">
+        <v>148</v>
+      </c>
+      <c r="F62"/>
+    </row>
+    <row r="63" s="1" customFormat="1" spans="1:6">
+      <c r="A63" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="B63" t="s">
+        <v>305</v>
+      </c>
+      <c r="C63" t="s">
+        <v>306</v>
+      </c>
+      <c r="D63" t="s">
+        <v>307</v>
+      </c>
+      <c r="E63" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:6">
-      <c r="A7" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:6">
-      <c r="A8" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:6">
-      <c r="A9" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:6">
-      <c r="A10" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:6">
-      <c r="A11" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:6">
-      <c r="A12" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:6">
-      <c r="A13" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="1:6">
-      <c r="A14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:6">
-      <c r="A15" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:6">
-      <c r="A16" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:6">
-      <c r="A17" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:6">
-      <c r="A18" s="6" t="s">
+      <c r="F63"/>
+    </row>
+    <row r="64" s="1" customFormat="1" spans="1:6">
+      <c r="A64" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B64" t="s">
+        <v>195</v>
+      </c>
+      <c r="C64" t="s">
+        <v>309</v>
+      </c>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64"/>
+    </row>
+    <row r="65" s="1" customFormat="1" spans="1:6">
+      <c r="A65" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B65" t="s">
+        <v>311</v>
+      </c>
+      <c r="C65" t="s">
+        <v>312</v>
+      </c>
+      <c r="D65" t="s">
+        <v>313</v>
+      </c>
+      <c r="E65" t="s">
+        <v>153</v>
+      </c>
+      <c r="F65"/>
+    </row>
+    <row r="66" s="1" customFormat="1" spans="1:6">
+      <c r="A66" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B66" t="s">
+        <v>195</v>
+      </c>
+      <c r="C66" t="s">
+        <v>315</v>
+      </c>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66"/>
+    </row>
+    <row r="67" s="1" customFormat="1" spans="1:6">
+      <c r="A67" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B67" t="s">
+        <v>317</v>
+      </c>
+      <c r="C67" t="s">
+        <v>318</v>
+      </c>
+      <c r="D67" t="s">
+        <v>319</v>
+      </c>
+      <c r="E67" t="s">
+        <v>153</v>
+      </c>
+      <c r="F67"/>
+    </row>
+    <row r="68" s="1" customFormat="1" spans="1:6">
+      <c r="A68" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="B68" t="s">
+        <v>195</v>
+      </c>
+      <c r="C68" t="s">
+        <v>321</v>
+      </c>
+      <c r="D68"/>
+      <c r="E68"/>
+      <c r="F68"/>
+    </row>
+    <row r="69" s="1" customFormat="1" spans="1:6">
+      <c r="A69" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B69" t="s">
+        <v>323</v>
+      </c>
+      <c r="C69" t="s">
+        <v>324</v>
+      </c>
+      <c r="D69" t="s">
+        <v>325</v>
+      </c>
+      <c r="E69" t="s">
+        <v>153</v>
+      </c>
+      <c r="F69"/>
+    </row>
+    <row r="70" s="1" customFormat="1" spans="1:6">
+      <c r="A70" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B70" t="s">
+        <v>195</v>
+      </c>
+      <c r="C70" t="s">
+        <v>327</v>
+      </c>
+      <c r="D70"/>
+      <c r="E70"/>
+      <c r="F70"/>
+    </row>
+    <row r="71" s="1" customFormat="1" spans="1:6">
+      <c r="A71" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B71" t="s">
+        <v>39</v>
+      </c>
+      <c r="C71" t="s">
+        <v>328</v>
+      </c>
+      <c r="D71"/>
+      <c r="E71" t="s">
+        <v>148</v>
+      </c>
+      <c r="F71"/>
+    </row>
+    <row r="72" s="1" customFormat="1" spans="1:6">
+      <c r="A72" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B72" t="s">
+        <v>330</v>
+      </c>
+      <c r="C72" t="s">
+        <v>331</v>
+      </c>
+      <c r="D72" t="s">
+        <v>332</v>
+      </c>
+      <c r="E72" t="s">
+        <v>153</v>
+      </c>
+      <c r="F72"/>
+    </row>
+    <row r="73" s="1" customFormat="1" spans="1:6">
+      <c r="A73" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="B73" t="s">
+        <v>195</v>
+      </c>
+      <c r="C73" t="s">
+        <v>334</v>
+      </c>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73"/>
+    </row>
+    <row r="74" s="1" customFormat="1" spans="1:6">
+      <c r="A74" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="B74" t="s">
+        <v>336</v>
+      </c>
+      <c r="C74" t="s">
+        <v>337</v>
+      </c>
+      <c r="D74" t="s">
+        <v>338</v>
+      </c>
+      <c r="E74" t="s">
+        <v>153</v>
+      </c>
+      <c r="F74"/>
+    </row>
+    <row r="75" s="1" customFormat="1" spans="1:6">
+      <c r="A75" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B75" t="s">
+        <v>195</v>
+      </c>
+      <c r="C75" t="s">
+        <v>340</v>
+      </c>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+    </row>
+    <row r="76" s="1" customFormat="1" spans="1:6">
+      <c r="A76" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B76" t="s">
+        <v>342</v>
+      </c>
+      <c r="C76" t="s">
+        <v>343</v>
+      </c>
+      <c r="D76" t="s">
+        <v>344</v>
+      </c>
+      <c r="E76" t="s">
+        <v>153</v>
+      </c>
+      <c r="F76"/>
+    </row>
+    <row r="77" s="1" customFormat="1" spans="1:6">
+      <c r="A77" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B77" t="s">
+        <v>195</v>
+      </c>
+      <c r="C77" t="s">
+        <v>346</v>
+      </c>
+      <c r="D77"/>
+      <c r="E77"/>
+      <c r="F77"/>
+    </row>
+    <row r="78" s="1" customFormat="1" spans="1:6">
+      <c r="A78" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B78" t="s">
+        <v>348</v>
+      </c>
+      <c r="C78" t="s">
+        <v>349</v>
+      </c>
+      <c r="D78" t="s">
+        <v>350</v>
+      </c>
+      <c r="E78" t="s">
+        <v>153</v>
+      </c>
+      <c r="F78"/>
+    </row>
+    <row r="79" s="1" customFormat="1" spans="1:6">
+      <c r="A79" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B79" t="s">
+        <v>195</v>
+      </c>
+      <c r="C79" t="s">
+        <v>349</v>
+      </c>
+      <c r="D79"/>
+      <c r="E79"/>
+      <c r="F79"/>
+    </row>
+    <row r="80" s="1" customFormat="1" spans="1:6">
+      <c r="A80" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="B80" t="s">
+        <v>63</v>
+      </c>
+      <c r="C80" t="s">
+        <v>262</v>
+      </c>
+      <c r="D80"/>
+      <c r="E80" t="s">
+        <v>145</v>
+      </c>
+      <c r="F80"/>
+    </row>
+    <row r="81" s="1" customFormat="1" spans="1:6">
+      <c r="A81" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="B81" t="s">
+        <v>354</v>
+      </c>
+      <c r="C81" t="s">
+        <v>355</v>
+      </c>
+      <c r="D81" t="s">
+        <v>356</v>
+      </c>
+      <c r="E81" t="s">
+        <v>148</v>
+      </c>
+      <c r="F81"/>
+    </row>
+    <row r="82" s="1" customFormat="1" spans="1:6">
+      <c r="A82" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="B82" t="s">
+        <v>195</v>
+      </c>
+      <c r="C82" t="s">
+        <v>358</v>
+      </c>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82"/>
+    </row>
+    <row r="83" s="1" customFormat="1" spans="1:6">
+      <c r="A83" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="B83" t="s">
+        <v>81</v>
+      </c>
+      <c r="C83" t="s">
+        <v>360</v>
+      </c>
+      <c r="D83"/>
+      <c r="E83" t="s">
+        <v>145</v>
+      </c>
+      <c r="F83"/>
+    </row>
+    <row r="84" s="1" customFormat="1" spans="1:6">
+      <c r="A84" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="B84" t="s">
+        <v>362</v>
+      </c>
+      <c r="C84" t="s">
+        <v>363</v>
+      </c>
+      <c r="D84" t="s">
+        <v>364</v>
+      </c>
+      <c r="E84" t="s">
+        <v>148</v>
+      </c>
+      <c r="F84"/>
+    </row>
+    <row r="85" s="1" customFormat="1" spans="1:6">
+      <c r="A85" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="B85" t="s">
+        <v>195</v>
+      </c>
+      <c r="C85" t="s">
+        <v>366</v>
+      </c>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85"/>
+    </row>
+    <row r="86" s="1" customFormat="1" spans="1:6">
+      <c r="A86" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B86" t="s">
+        <v>368</v>
+      </c>
+      <c r="C86" t="s">
+        <v>369</v>
+      </c>
+      <c r="D86" t="s">
+        <v>370</v>
+      </c>
+      <c r="E86" t="s">
+        <v>148</v>
+      </c>
+      <c r="F86"/>
+    </row>
+    <row r="87" s="1" customFormat="1" spans="1:6">
+      <c r="A87" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="B87" t="s">
         <v>192</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:6">
-      <c r="A19" s="6" t="s">
+      <c r="C87" t="s">
+        <v>372</v>
+      </c>
+      <c r="D87"/>
+      <c r="E87"/>
+      <c r="F87"/>
+    </row>
+    <row r="88" s="1" customFormat="1" spans="1:6">
+      <c r="A88" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="B88" t="s">
         <v>195</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:6">
-      <c r="A20" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="1:6">
-      <c r="A21" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="1:6">
-      <c r="A22" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="1:6">
-      <c r="A23" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="1:6">
-      <c r="A24" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="1:6">
-      <c r="A25" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="1:6">
-      <c r="A26" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="1:6">
-      <c r="A27" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" s="1" customFormat="1" spans="1:6">
-      <c r="A28" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" s="1" customFormat="1" spans="1:6">
-      <c r="A29" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" s="1" customFormat="1" spans="1:6">
-      <c r="A30" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" s="1" customFormat="1" spans="1:6">
-      <c r="A31" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" s="1" customFormat="1" spans="1:6">
-      <c r="A32" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" s="1" customFormat="1" spans="1:6">
-      <c r="A33" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F33" s="4"/>
-    </row>
-    <row r="34" s="1" customFormat="1" spans="1:6">
-      <c r="A34" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F34" s="4"/>
-    </row>
-    <row r="35" s="1" customFormat="1" spans="1:6">
-      <c r="A35" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-    </row>
-    <row r="36" s="1" customFormat="1" spans="1:6">
-      <c r="A36" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-    </row>
-    <row r="37" s="1" customFormat="1" spans="1:6">
-      <c r="A37" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F37" s="4"/>
-    </row>
-    <row r="38" s="1" customFormat="1" spans="1:6">
-      <c r="A38" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-    </row>
-    <row r="39" s="1" customFormat="1" spans="1:6">
-      <c r="A39" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-    </row>
-    <row r="40" s="1" customFormat="1" spans="1:6">
-      <c r="A40" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F40" s="4"/>
-    </row>
-    <row r="41" s="1" customFormat="1" spans="1:6">
-      <c r="A41" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-    </row>
-    <row r="42" s="1" customFormat="1" spans="1:6">
-      <c r="A42" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-    </row>
-    <row r="43" s="1" customFormat="1" spans="1:6">
-      <c r="A43" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="F43" s="4"/>
-    </row>
-    <row r="44" s="1" customFormat="1" spans="1:6">
-      <c r="A44" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F44" s="4"/>
-    </row>
-    <row r="45" s="1" customFormat="1" spans="1:6">
-      <c r="A45" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-    </row>
-    <row r="46" s="1" customFormat="1" spans="1:6">
-      <c r="A46" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-    </row>
-    <row r="47" s="1" customFormat="1" spans="1:6">
-      <c r="A47" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="F47" s="4"/>
-    </row>
-    <row r="48" s="1" customFormat="1" spans="1:6">
-      <c r="A48" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F48" s="4"/>
-    </row>
-    <row r="49" s="1" customFormat="1" spans="1:6">
-      <c r="A49" s="6">
-        <v>2</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="F49" s="4"/>
-    </row>
-    <row r="50" s="1" customFormat="1" spans="1:6">
-      <c r="A50" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F50" s="4"/>
-    </row>
-    <row r="51" s="1" customFormat="1" spans="1:6">
-      <c r="A51" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F51" s="4"/>
-    </row>
-    <row r="52" s="1" customFormat="1" spans="1:6">
-      <c r="A52" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-    </row>
-    <row r="53" s="1" customFormat="1" spans="1:6">
-      <c r="A53" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="B53" s="4" t="s">
+      <c r="C88" t="s">
+        <v>374</v>
+      </c>
+      <c r="D88"/>
+      <c r="E88"/>
+      <c r="F88"/>
+    </row>
+    <row r="89" s="1" customFormat="1" spans="1:6">
+      <c r="A89" s="5">
+        <v>3</v>
+      </c>
+      <c r="B89" t="s">
+        <v>375</v>
+      </c>
+      <c r="C89" t="s">
+        <v>376</v>
+      </c>
+      <c r="D89"/>
+      <c r="E89" t="s">
+        <v>143</v>
+      </c>
+      <c r="F89"/>
+    </row>
+    <row r="90" s="1" customFormat="1" spans="1:6">
+      <c r="A90" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B90" t="s">
+        <v>94</v>
+      </c>
+      <c r="C90" t="s">
+        <v>377</v>
+      </c>
+      <c r="D90" t="s">
+        <v>378</v>
+      </c>
+      <c r="E90" t="s">
+        <v>148</v>
+      </c>
+      <c r="F90"/>
+    </row>
+    <row r="91" s="1" customFormat="1" spans="1:6">
+      <c r="A91" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B91" t="s">
+        <v>379</v>
+      </c>
+      <c r="C91" t="s">
+        <v>380</v>
+      </c>
+      <c r="D91" t="s">
+        <v>381</v>
+      </c>
+      <c r="E91" t="s">
+        <v>148</v>
+      </c>
+      <c r="F91"/>
+    </row>
+    <row r="92" s="1" customFormat="1" spans="1:6">
+      <c r="A92" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B92" t="s">
+        <v>382</v>
+      </c>
+      <c r="C92" t="s">
+        <v>383</v>
+      </c>
+      <c r="D92"/>
+      <c r="E92" t="s">
+        <v>148</v>
+      </c>
+      <c r="F92"/>
+    </row>
+    <row r="93" s="1" customFormat="1" spans="1:6">
+      <c r="A93" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="B93" t="s">
+        <v>385</v>
+      </c>
+      <c r="C93" t="s">
+        <v>386</v>
+      </c>
+      <c r="D93" t="s">
+        <v>387</v>
+      </c>
+      <c r="E93" t="s">
         <v>153</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-    </row>
-    <row r="54" s="1" customFormat="1" spans="1:6">
-      <c r="A54" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F54" s="4"/>
-    </row>
-    <row r="55" s="1" customFormat="1" spans="1:6">
-      <c r="A55" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-    </row>
-    <row r="56" s="1" customFormat="1" spans="1:6">
-      <c r="A56" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F56" s="4"/>
-    </row>
-    <row r="57" s="1" customFormat="1" spans="1:6">
-      <c r="A57" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-    </row>
-    <row r="58" s="1" customFormat="1" spans="1:6">
-      <c r="A58" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F58" s="4"/>
-    </row>
-    <row r="59" s="1" customFormat="1" spans="1:6">
-      <c r="A59" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F59" s="4"/>
-    </row>
-    <row r="60" s="1" customFormat="1" spans="1:6">
-      <c r="A60" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-    </row>
-    <row r="61" s="1" customFormat="1" spans="1:6">
-      <c r="A61" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F61" s="4"/>
-    </row>
-    <row r="62" s="1" customFormat="1" spans="1:6">
-      <c r="A62" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F62" s="4"/>
-    </row>
-    <row r="63" s="1" customFormat="1" spans="1:6">
-      <c r="A63" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F63" s="4"/>
-    </row>
-    <row r="64" s="1" customFormat="1" spans="1:6">
-      <c r="A64" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-    </row>
-    <row r="65" s="1" customFormat="1" spans="1:6">
-      <c r="A65" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F65" s="4"/>
-    </row>
-    <row r="66" s="1" customFormat="1" spans="1:6">
-      <c r="A66" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-    </row>
-    <row r="67" s="1" customFormat="1" spans="1:6">
-      <c r="A67" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F67" s="4"/>
-    </row>
-    <row r="68" s="1" customFormat="1" spans="1:6">
-      <c r="A68" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-    </row>
-    <row r="69" s="1" customFormat="1" spans="1:6">
-      <c r="A69" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F69" s="4"/>
-    </row>
-    <row r="70" s="1" customFormat="1" spans="1:6">
-      <c r="A70" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
-    </row>
-    <row r="71" s="1" customFormat="1" spans="1:6">
-      <c r="A71" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F71" s="4"/>
-    </row>
-    <row r="72" s="1" customFormat="1" spans="1:6">
-      <c r="A72" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F72" s="4"/>
-    </row>
-    <row r="73" s="1" customFormat="1" spans="1:6">
-      <c r="A73" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
-    </row>
-    <row r="74" s="1" customFormat="1" spans="1:6">
-      <c r="A74" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F74" s="4"/>
-    </row>
-    <row r="75" s="1" customFormat="1" spans="1:6">
-      <c r="A75" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
-    </row>
-    <row r="76" s="1" customFormat="1" spans="1:6">
-      <c r="A76" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F76" s="4"/>
-    </row>
-    <row r="77" s="1" customFormat="1" spans="1:6">
-      <c r="A77" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
-    </row>
-    <row r="78" s="1" customFormat="1" spans="1:6">
-      <c r="A78" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F78" s="4"/>
-    </row>
-    <row r="79" s="1" customFormat="1" spans="1:6">
-      <c r="A79" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
-    </row>
-    <row r="80" s="1" customFormat="1" spans="1:6">
-      <c r="A80" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F80" s="4"/>
-    </row>
-    <row r="81" s="1" customFormat="1" spans="1:6">
-      <c r="A81" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F81" s="4"/>
-    </row>
-    <row r="82" s="1" customFormat="1" spans="1:6">
-      <c r="A82" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-    </row>
-    <row r="83" s="1" customFormat="1" spans="1:6">
-      <c r="A83" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F83" s="4"/>
-    </row>
-    <row r="84" s="1" customFormat="1" spans="1:6">
-      <c r="A84" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F84" s="4"/>
-    </row>
-    <row r="85" s="1" customFormat="1" spans="1:6">
-      <c r="A85" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-    </row>
-    <row r="86" s="1" customFormat="1" spans="1:6">
-      <c r="A86" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F86" s="4"/>
-    </row>
-    <row r="87" s="1" customFormat="1" spans="1:6">
-      <c r="A87" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
-    </row>
-    <row r="88" s="1" customFormat="1" spans="1:6">
-      <c r="A88" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
-    </row>
-    <row r="89" s="1" customFormat="1" spans="1:6">
-      <c r="A89" s="6">
-        <v>3</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="F89" s="4"/>
-    </row>
-    <row r="90" s="1" customFormat="1" spans="1:6">
-      <c r="A90" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F90" s="4"/>
-    </row>
-    <row r="91" s="1" customFormat="1" spans="1:6">
-      <c r="A91" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F91" s="4"/>
-    </row>
-    <row r="92" s="1" customFormat="1" spans="1:6">
-      <c r="A92" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F92" s="4"/>
-    </row>
-    <row r="93" s="1" customFormat="1" spans="1:6">
-      <c r="A93" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F93" s="4"/>
+      <c r="F93"/>
     </row>
     <row r="94" s="1" customFormat="1" spans="1:6">
-      <c r="A94" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="C94" s="4" t="s">
+      <c r="A94" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="D94" s="4" t="s">
+      <c r="B94" t="s">
         <v>389</v>
       </c>
-      <c r="E94" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F94" s="4"/>
+      <c r="C94" t="s">
+        <v>390</v>
+      </c>
+      <c r="D94" t="s">
+        <v>391</v>
+      </c>
+      <c r="E94" t="s">
+        <v>153</v>
+      </c>
+      <c r="F94"/>
     </row>
     <row r="95" s="1" customFormat="1" spans="1:6">
-      <c r="A95" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="D95" s="4"/>
-      <c r="E95" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F95" s="4"/>
+      <c r="A95" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B95" t="s">
+        <v>109</v>
+      </c>
+      <c r="C95" t="s">
+        <v>392</v>
+      </c>
+      <c r="D95"/>
+      <c r="E95" t="s">
+        <v>148</v>
+      </c>
+      <c r="F95"/>
     </row>
     <row r="96" s="1" customFormat="1" spans="1:6">
-      <c r="A96" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B96" s="4" t="s">
+      <c r="A96" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B96" t="s">
+        <v>117</v>
+      </c>
+      <c r="C96" t="s">
+        <v>393</v>
+      </c>
+      <c r="D96" t="s">
+        <v>394</v>
+      </c>
+      <c r="E96" t="s">
+        <v>153</v>
+      </c>
+      <c r="F96"/>
+    </row>
+    <row r="97" s="1" customFormat="1" spans="1:6">
+      <c r="A97" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B97" t="s">
         <v>114</v>
       </c>
-      <c r="C96" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F96" s="4"/>
-    </row>
-    <row r="97" s="1" customFormat="1" spans="1:6">
-      <c r="A97" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F97" s="4"/>
+      <c r="C97" t="s">
+        <v>395</v>
+      </c>
+      <c r="D97" t="s">
+        <v>396</v>
+      </c>
+      <c r="E97" t="s">
+        <v>153</v>
+      </c>
+      <c r="F97"/>
     </row>
     <row r="98" s="1" customFormat="1" spans="1:6">
-      <c r="A98" s="6">
+      <c r="A98" s="5">
         <v>4</v>
       </c>
-      <c r="B98" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="F98" s="4"/>
+      <c r="B98" t="s">
+        <v>397</v>
+      </c>
+      <c r="C98" t="s">
+        <v>398</v>
+      </c>
+      <c r="D98"/>
+      <c r="E98" t="s">
+        <v>143</v>
+      </c>
+      <c r="F98"/>
     </row>
     <row r="99" s="1" customFormat="1" spans="1:6">
-      <c r="A99" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="D99" s="7" t="s">
+      <c r="A99" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B99" t="s">
         <v>399</v>
       </c>
-      <c r="E99" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F99" s="4"/>
+      <c r="C99" t="s">
+        <v>400</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="E99" t="s">
+        <v>153</v>
+      </c>
+      <c r="F99"/>
     </row>
     <row r="100" s="1" customFormat="1" spans="1:6">
-      <c r="A100" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="D100" s="7" t="s">
+      <c r="A100" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B100" t="s">
         <v>402</v>
       </c>
-      <c r="E100" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F100" s="4"/>
+      <c r="C100" t="s">
+        <v>403</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="E100" t="s">
+        <v>153</v>
+      </c>
+      <c r="F100"/>
     </row>
     <row r="101" s="1" customFormat="1" spans="1:6">
-      <c r="A101" s="6">
+      <c r="A101" s="5">
         <v>5</v>
       </c>
-      <c r="B101" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="D101" s="4"/>
-      <c r="E101" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="F101" s="4"/>
+      <c r="B101" t="s">
+        <v>119</v>
+      </c>
+      <c r="C101" t="s">
+        <v>405</v>
+      </c>
+      <c r="D101"/>
+      <c r="E101" t="s">
+        <v>143</v>
+      </c>
+      <c r="F101"/>
     </row>
     <row r="102" s="1" customFormat="1" spans="1:6">
-      <c r="A102" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="C102" s="4" t="s">
+      <c r="A102" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="D102" s="4"/>
-      <c r="E102" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F102" s="4"/>
+      <c r="B102" t="s">
+        <v>407</v>
+      </c>
+      <c r="C102" t="s">
+        <v>408</v>
+      </c>
+      <c r="D102"/>
+      <c r="E102" t="s">
+        <v>145</v>
+      </c>
+      <c r="F102"/>
     </row>
     <row r="103" s="1" customFormat="1" spans="1:6">
-      <c r="A103" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="D103" s="4" t="s">
+      <c r="A103" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="E103" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F103" s="4"/>
+      <c r="B103" t="s">
+        <v>132</v>
+      </c>
+      <c r="C103" t="s">
+        <v>410</v>
+      </c>
+      <c r="D103" t="s">
+        <v>411</v>
+      </c>
+      <c r="E103" t="s">
+        <v>148</v>
+      </c>
+      <c r="F103"/>
     </row>
     <row r="104" s="1" customFormat="1" spans="1:6">
-      <c r="A104" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="D104" s="4"/>
-      <c r="E104" s="4"/>
-      <c r="F104" s="4"/>
+      <c r="A104" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="B104" t="s">
+        <v>192</v>
+      </c>
+      <c r="C104" t="s">
+        <v>413</v>
+      </c>
+      <c r="D104"/>
+      <c r="E104"/>
+      <c r="F104"/>
     </row>
     <row r="105" s="1" customFormat="1" spans="1:6">
-      <c r="A105" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="D105" s="4"/>
-      <c r="E105" s="4"/>
-      <c r="F105" s="4"/>
+      <c r="A105" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="B105" t="s">
+        <v>195</v>
+      </c>
+      <c r="C105" t="s">
+        <v>415</v>
+      </c>
+      <c r="D105"/>
+      <c r="E105"/>
+      <c r="F105"/>
     </row>
     <row r="106" s="1" customFormat="1" spans="1:6">
-      <c r="A106" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="D106" s="4" t="s">
+      <c r="A106" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="E106" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F106" s="4"/>
+      <c r="B106" t="s">
+        <v>137</v>
+      </c>
+      <c r="C106" t="s">
+        <v>417</v>
+      </c>
+      <c r="D106" t="s">
+        <v>418</v>
+      </c>
+      <c r="E106" t="s">
+        <v>148</v>
+      </c>
+      <c r="F106"/>
     </row>
     <row r="107" s="1" customFormat="1" spans="1:6">
-      <c r="A107" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="D107" s="4"/>
-      <c r="E107" s="4"/>
-      <c r="F107" s="4"/>
+      <c r="A107" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="B107" t="s">
+        <v>195</v>
+      </c>
+      <c r="C107" t="s">
+        <v>420</v>
+      </c>
+      <c r="D107"/>
+      <c r="E107"/>
+      <c r="F107"/>
     </row>
     <row r="108" s="1" customFormat="1" spans="1:6">
-      <c r="A108" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="C108" s="4" t="s">
+      <c r="A108" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="D108" s="4"/>
-      <c r="E108" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F108" s="4"/>
+      <c r="B108" t="s">
+        <v>422</v>
+      </c>
+      <c r="C108" t="s">
+        <v>423</v>
+      </c>
+      <c r="D108"/>
+      <c r="E108" t="s">
+        <v>145</v>
+      </c>
+      <c r="F108"/>
     </row>
     <row r="109" s="1" customFormat="1" spans="1:6">
-      <c r="A109" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="C109" s="4" t="s">
+      <c r="A109" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="D109" s="4" t="s">
+      <c r="B109" t="s">
         <v>425</v>
       </c>
-      <c r="E109" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F109" s="4"/>
+      <c r="C109" t="s">
+        <v>426</v>
+      </c>
+      <c r="D109" t="s">
+        <v>427</v>
+      </c>
+      <c r="E109" t="s">
+        <v>148</v>
+      </c>
+      <c r="F109"/>
     </row>
     <row r="110" s="1" customFormat="1" spans="1:6">
-      <c r="A110" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="D110" s="4"/>
-      <c r="E110" s="4"/>
-      <c r="F110" s="4"/>
+      <c r="A110" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="B110" t="s">
+        <v>195</v>
+      </c>
+      <c r="C110" t="s">
+        <v>429</v>
+      </c>
+      <c r="D110"/>
+      <c r="E110"/>
+      <c r="F110"/>
     </row>
     <row r="111" s="1" customFormat="1" spans="1:6">
-      <c r="A111" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="C111" s="4" t="s">
+      <c r="A111" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="D111" s="4" t="s">
+      <c r="B111" t="s">
         <v>431</v>
       </c>
-      <c r="E111" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F111" s="4"/>
+      <c r="C111" t="s">
+        <v>432</v>
+      </c>
+      <c r="D111" t="s">
+        <v>433</v>
+      </c>
+      <c r="E111" t="s">
+        <v>148</v>
+      </c>
+      <c r="F111"/>
     </row>
     <row r="112" s="1" customFormat="1" spans="1:6">
-      <c r="A112" s="6">
+      <c r="A112" s="5">
         <v>6</v>
       </c>
-      <c r="B112" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="D112" s="4"/>
-      <c r="E112" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="F112" s="4"/>
+      <c r="B112" t="s">
+        <v>434</v>
+      </c>
+      <c r="C112" t="s">
+        <v>435</v>
+      </c>
+      <c r="D112"/>
+      <c r="E112" t="s">
+        <v>143</v>
+      </c>
+      <c r="F112"/>
     </row>
     <row r="113" s="1" customFormat="1" spans="1:6">
-      <c r="A113" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="C113" s="4" t="s">
+      <c r="A113" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="D113" s="8" t="s">
+      <c r="B113" t="s">
         <v>437</v>
       </c>
-      <c r="E113" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F113" s="4"/>
+      <c r="C113" t="s">
+        <v>438</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="E113" t="s">
+        <v>148</v>
+      </c>
+      <c r="F113"/>
     </row>
     <row r="114" s="1" customFormat="1" spans="1:6">
-      <c r="A114" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="D114" s="8"/>
-      <c r="E114" s="4"/>
-      <c r="F114" s="4"/>
+      <c r="A114" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="B114" t="s">
+        <v>192</v>
+      </c>
+      <c r="C114" t="s">
+        <v>441</v>
+      </c>
+      <c r="D114" s="7"/>
+      <c r="E114"/>
+      <c r="F114"/>
     </row>
     <row r="115" s="1" customFormat="1" ht="13" customHeight="1" spans="1:6">
-      <c r="A115" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="C115" s="4" t="s">
+      <c r="A115" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="D115" s="7" t="s">
+      <c r="B115" t="s">
         <v>443</v>
       </c>
-      <c r="E115" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F115" s="4"/>
+      <c r="C115" t="s">
+        <v>444</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="E115" t="s">
+        <v>148</v>
+      </c>
+      <c r="F115"/>
     </row>
     <row r="116" s="1" customFormat="1" spans="1:6">
-      <c r="A116" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="D116" s="7"/>
-      <c r="E116" s="4"/>
-      <c r="F116" s="4"/>
+      <c r="A116" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="B116" t="s">
+        <v>192</v>
+      </c>
+      <c r="C116" t="s">
+        <v>447</v>
+      </c>
+      <c r="D116" s="6"/>
+      <c r="E116"/>
+      <c r="F116"/>
     </row>
     <row r="117" s="1" customFormat="1" spans="1:6">
-      <c r="A117" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="D117" s="7"/>
-      <c r="E117" s="4"/>
-      <c r="F117" s="4"/>
+      <c r="A117" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="B117" t="s">
+        <v>195</v>
+      </c>
+      <c r="C117" t="s">
+        <v>449</v>
+      </c>
+      <c r="D117" s="6"/>
+      <c r="E117"/>
+      <c r="F117"/>
     </row>
     <row r="118" s="1" customFormat="1" spans="1:6">
-      <c r="A118" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="C118" s="4" t="s">
+      <c r="A118" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="D118" s="7"/>
-      <c r="E118" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F118" s="4"/>
+      <c r="B118" t="s">
+        <v>451</v>
+      </c>
+      <c r="C118" t="s">
+        <v>452</v>
+      </c>
+      <c r="D118" s="6"/>
+      <c r="E118" t="s">
+        <v>148</v>
+      </c>
+      <c r="F118"/>
     </row>
     <row r="119" s="1" customFormat="1" spans="1:6">
-      <c r="A119" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="C119" s="4" t="s">
+      <c r="A119" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="D119" s="7" t="s">
+      <c r="B119" t="s">
         <v>454</v>
       </c>
-      <c r="E119" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F119" s="4"/>
+      <c r="C119" t="s">
+        <v>455</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="E119" t="s">
+        <v>153</v>
+      </c>
+      <c r="F119"/>
     </row>
     <row r="120" s="1" customFormat="1" spans="1:6">
-      <c r="A120" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="D120" s="7"/>
-      <c r="E120" s="4"/>
-      <c r="F120" s="4"/>
+      <c r="A120" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="B120" t="s">
+        <v>192</v>
+      </c>
+      <c r="C120" t="s">
+        <v>458</v>
+      </c>
+      <c r="D120" s="6"/>
+      <c r="E120"/>
+      <c r="F120"/>
     </row>
     <row r="121" s="1" customFormat="1" spans="1:6">
-      <c r="A121" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="D121" s="7"/>
-      <c r="E121" s="4"/>
-      <c r="F121" s="4"/>
+      <c r="A121" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="B121" t="s">
+        <v>195</v>
+      </c>
+      <c r="C121" t="s">
+        <v>460</v>
+      </c>
+      <c r="D121" s="6"/>
+      <c r="E121"/>
+      <c r="F121"/>
     </row>
     <row r="122" s="1" customFormat="1" spans="1:6">
-      <c r="A122" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="C122" s="4" t="s">
+      <c r="A122" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="D122" s="7" t="s">
+      <c r="B122" t="s">
         <v>462</v>
       </c>
-      <c r="E122" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F122" s="4"/>
+      <c r="C122" t="s">
+        <v>463</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="E122" t="s">
+        <v>153</v>
+      </c>
+      <c r="F122"/>
     </row>
     <row r="123" s="1" customFormat="1" spans="1:6">
-      <c r="A123" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="D123" s="7"/>
-      <c r="E123" s="4"/>
-      <c r="F123" s="4"/>
+      <c r="A123" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="B123" t="s">
+        <v>192</v>
+      </c>
+      <c r="C123" t="s">
+        <v>466</v>
+      </c>
+      <c r="D123" s="6"/>
+      <c r="E123"/>
+      <c r="F123"/>
     </row>
     <row r="124" s="1" customFormat="1" spans="1:6">
-      <c r="A124" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="D124" s="7"/>
-      <c r="E124" s="4"/>
-      <c r="F124" s="4"/>
+      <c r="A124" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="B124" t="s">
+        <v>195</v>
+      </c>
+      <c r="C124" t="s">
+        <v>468</v>
+      </c>
+      <c r="D124" s="6"/>
+      <c r="E124"/>
+      <c r="F124"/>
     </row>
     <row r="125" s="1" customFormat="1" spans="1:6">
-      <c r="A125" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="C125" s="4" t="s">
+      <c r="A125" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="D125" s="7" t="s">
+      <c r="B125" t="s">
         <v>470</v>
       </c>
-      <c r="E125" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F125" s="4"/>
+      <c r="C125" t="s">
+        <v>471</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="E125" t="s">
+        <v>153</v>
+      </c>
+      <c r="F125"/>
     </row>
     <row r="126" s="1" customFormat="1" spans="1:6">
-      <c r="A126" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>472</v>
-      </c>
-      <c r="D126" s="7"/>
-      <c r="E126" s="4"/>
-      <c r="F126" s="4"/>
+      <c r="A126" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="B126" t="s">
+        <v>192</v>
+      </c>
+      <c r="C126" t="s">
+        <v>474</v>
+      </c>
+      <c r="D126" s="6"/>
+      <c r="E126"/>
+      <c r="F126"/>
     </row>
     <row r="127" s="1" customFormat="1" spans="1:6">
-      <c r="A127" s="6" t="s">
-        <v>473</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="D127" s="7"/>
-      <c r="E127" s="4"/>
-      <c r="F127" s="4"/>
+      <c r="A127" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="B127" t="s">
+        <v>195</v>
+      </c>
+      <c r="C127" t="s">
+        <v>476</v>
+      </c>
+      <c r="D127" s="6"/>
+      <c r="E127"/>
+      <c r="F127"/>
     </row>
     <row r="128" s="1" customFormat="1" spans="1:6">
-      <c r="A128" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="C128" s="4" t="s">
+      <c r="A128" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="D128" s="4"/>
-      <c r="E128" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F128" s="4"/>
+      <c r="B128" t="s">
+        <v>478</v>
+      </c>
+      <c r="C128" t="s">
+        <v>479</v>
+      </c>
+      <c r="D128"/>
+      <c r="E128" t="s">
+        <v>148</v>
+      </c>
+      <c r="F128"/>
     </row>
     <row r="129" s="1" customFormat="1" spans="1:6">
-      <c r="A129" s="6" t="s">
-        <v>478</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="C129" s="4" t="s">
+      <c r="A129" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="D129" s="4" t="s">
+      <c r="B129" t="s">
         <v>481</v>
       </c>
-      <c r="E129" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F129" s="4"/>
+      <c r="C129" t="s">
+        <v>482</v>
+      </c>
+      <c r="D129" t="s">
+        <v>483</v>
+      </c>
+      <c r="E129" t="s">
+        <v>153</v>
+      </c>
+      <c r="F129"/>
     </row>
     <row r="130" s="1" customFormat="1" spans="1:6">
-      <c r="A130" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="D130" s="4"/>
-      <c r="E130" s="4"/>
-      <c r="F130" s="4"/>
+      <c r="A130" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="B130" t="s">
+        <v>192</v>
+      </c>
+      <c r="C130" t="s">
+        <v>485</v>
+      </c>
+      <c r="D130"/>
+      <c r="E130"/>
+      <c r="F130"/>
     </row>
     <row r="131" s="1" customFormat="1" spans="1:6">
-      <c r="A131" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="D131" s="4"/>
-      <c r="E131" s="4"/>
-      <c r="F131" s="4"/>
+      <c r="A131" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="B131" t="s">
+        <v>195</v>
+      </c>
+      <c r="C131" t="s">
+        <v>487</v>
+      </c>
+      <c r="D131"/>
+      <c r="E131"/>
+      <c r="F131"/>
     </row>
     <row r="132" s="1" customFormat="1" spans="1:6">
-      <c r="A132" s="6" t="s">
-        <v>486</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="C132" s="4" t="s">
+      <c r="A132" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="D132" s="4" t="s">
+      <c r="B132" t="s">
         <v>489</v>
       </c>
-      <c r="E132" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F132" s="4"/>
+      <c r="C132" t="s">
+        <v>490</v>
+      </c>
+      <c r="D132" t="s">
+        <v>491</v>
+      </c>
+      <c r="E132" t="s">
+        <v>153</v>
+      </c>
+      <c r="F132"/>
     </row>
     <row r="133" s="1" customFormat="1" spans="1:6">
-      <c r="A133" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C133" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="D133" s="4"/>
-      <c r="E133" s="4"/>
-      <c r="F133" s="4"/>
+      <c r="A133" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="B133" t="s">
+        <v>192</v>
+      </c>
+      <c r="C133" t="s">
+        <v>493</v>
+      </c>
+      <c r="D133"/>
+      <c r="E133"/>
+      <c r="F133"/>
     </row>
     <row r="134" s="1" customFormat="1" spans="1:6">
-      <c r="A134" s="6" t="s">
-        <v>492</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>493</v>
-      </c>
-      <c r="D134" s="4"/>
-      <c r="E134" s="4"/>
-      <c r="F134" s="4"/>
+      <c r="A134" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="B134" t="s">
+        <v>195</v>
+      </c>
+      <c r="C134" t="s">
+        <v>495</v>
+      </c>
+      <c r="D134"/>
+      <c r="E134"/>
+      <c r="F134"/>
     </row>
     <row r="135" s="1" customFormat="1" spans="1:6">
-      <c r="A135" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>495</v>
-      </c>
-      <c r="C135" s="4" t="s">
+      <c r="A135" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="D135" s="4"/>
-      <c r="E135" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F135" s="4"/>
+      <c r="B135" t="s">
+        <v>497</v>
+      </c>
+      <c r="C135" t="s">
+        <v>498</v>
+      </c>
+      <c r="D135"/>
+      <c r="E135" t="s">
+        <v>148</v>
+      </c>
+      <c r="F135"/>
     </row>
     <row r="136" s="1" customFormat="1" spans="1:6">
-      <c r="A136" s="6" t="s">
-        <v>497</v>
-      </c>
-      <c r="B136" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="C136" s="4" t="s">
+      <c r="A136" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="D136" s="4" t="s">
+      <c r="B136" t="s">
         <v>500</v>
       </c>
-      <c r="E136" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F136" s="4"/>
+      <c r="C136" t="s">
+        <v>501</v>
+      </c>
+      <c r="D136" t="s">
+        <v>502</v>
+      </c>
+      <c r="E136" t="s">
+        <v>153</v>
+      </c>
+      <c r="F136"/>
     </row>
     <row r="137" s="1" customFormat="1" spans="1:6">
-      <c r="A137" s="6" t="s">
-        <v>501</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>502</v>
-      </c>
-      <c r="D137" s="4"/>
-      <c r="E137" s="4"/>
-      <c r="F137" s="4"/>
+      <c r="A137" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="B137" t="s">
+        <v>192</v>
+      </c>
+      <c r="C137" t="s">
+        <v>504</v>
+      </c>
+      <c r="D137"/>
+      <c r="E137"/>
+      <c r="F137"/>
     </row>
     <row r="138" s="1" customFormat="1" spans="1:6">
-      <c r="A138" s="6" t="s">
-        <v>503</v>
-      </c>
-      <c r="B138" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C138" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="D138" s="4"/>
-      <c r="E138" s="4"/>
-      <c r="F138" s="4"/>
+      <c r="A138" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="B138" t="s">
+        <v>195</v>
+      </c>
+      <c r="C138" t="s">
+        <v>506</v>
+      </c>
+      <c r="D138"/>
+      <c r="E138"/>
+      <c r="F138"/>
     </row>
     <row r="139" s="1" customFormat="1" spans="1:6">
-      <c r="A139" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="B139" s="4" t="s">
-        <v>506</v>
-      </c>
-      <c r="C139" s="4" t="s">
+      <c r="A139" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D139" s="4" t="s">
+      <c r="B139" t="s">
         <v>508</v>
       </c>
-      <c r="E139" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F139" s="4"/>
+      <c r="C139" t="s">
+        <v>509</v>
+      </c>
+      <c r="D139" t="s">
+        <v>510</v>
+      </c>
+      <c r="E139" t="s">
+        <v>153</v>
+      </c>
+      <c r="F139"/>
     </row>
     <row r="140" s="1" customFormat="1" spans="1:6">
-      <c r="A140" s="6" t="s">
-        <v>509</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C140" s="4" t="s">
-        <v>510</v>
-      </c>
-      <c r="D140" s="4"/>
-      <c r="E140" s="4"/>
-      <c r="F140" s="4"/>
+      <c r="A140" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="B140" t="s">
+        <v>192</v>
+      </c>
+      <c r="C140" t="s">
+        <v>512</v>
+      </c>
+      <c r="D140"/>
+      <c r="E140"/>
+      <c r="F140"/>
     </row>
     <row r="141" s="1" customFormat="1" spans="1:6">
-      <c r="A141" s="6" t="s">
-        <v>511</v>
-      </c>
-      <c r="B141" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="D141" s="4"/>
-      <c r="E141" s="4"/>
-      <c r="F141" s="4"/>
+      <c r="A141" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="B141" t="s">
+        <v>195</v>
+      </c>
+      <c r="C141" t="s">
+        <v>514</v>
+      </c>
+      <c r="D141"/>
+      <c r="E141"/>
+      <c r="F141"/>
     </row>
     <row r="142" s="1" customFormat="1" spans="1:6">
-      <c r="A142" s="6" t="s">
-        <v>513</v>
-      </c>
-      <c r="B142" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="C142" s="4" t="s">
+      <c r="A142" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="D142" s="4" t="s">
+      <c r="B142" t="s">
         <v>516</v>
       </c>
-      <c r="E142" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F142" s="4"/>
+      <c r="C142" t="s">
+        <v>517</v>
+      </c>
+      <c r="D142" t="s">
+        <v>518</v>
+      </c>
+      <c r="E142" t="s">
+        <v>153</v>
+      </c>
+      <c r="F142"/>
     </row>
     <row r="143" s="1" customFormat="1" spans="1:6">
-      <c r="A143" s="6" t="s">
-        <v>517</v>
-      </c>
-      <c r="B143" s="4" t="s">
-        <v>518</v>
-      </c>
-      <c r="C143" s="4" t="s">
+      <c r="A143" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="D143" s="4" t="s">
+      <c r="B143" t="s">
         <v>520</v>
       </c>
-      <c r="E143" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F143" s="4"/>
+      <c r="C143" t="s">
+        <v>521</v>
+      </c>
+      <c r="D143" t="s">
+        <v>522</v>
+      </c>
+      <c r="E143" t="s">
+        <v>148</v>
+      </c>
+      <c r="F143"/>
     </row>
     <row r="144" s="1" customFormat="1" spans="1:6">
-      <c r="A144" s="6" t="s">
-        <v>521</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="D144" s="4"/>
-      <c r="E144" s="4"/>
-      <c r="F144" s="4"/>
+      <c r="A144" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="B144" t="s">
+        <v>192</v>
+      </c>
+      <c r="C144" t="s">
+        <v>524</v>
+      </c>
+      <c r="D144"/>
+      <c r="E144"/>
+      <c r="F144"/>
     </row>
     <row r="145" s="1" customFormat="1" spans="1:6">
-      <c r="A145" s="6" t="s">
-        <v>523</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C145" s="4" t="s">
-        <v>524</v>
-      </c>
-      <c r="D145" s="4"/>
-      <c r="E145" s="4"/>
-      <c r="F145" s="4"/>
+      <c r="A145" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="B145" t="s">
+        <v>195</v>
+      </c>
+      <c r="C145" t="s">
+        <v>526</v>
+      </c>
+      <c r="D145"/>
+      <c r="E145"/>
+      <c r="F145"/>
     </row>
     <row r="146" s="1" customFormat="1" spans="1:6">
-      <c r="A146" s="6" t="s">
-        <v>525</v>
-      </c>
-      <c r="B146" s="4" t="s">
-        <v>526</v>
-      </c>
-      <c r="C146" s="4" t="s">
+      <c r="A146" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="D146" s="4" t="s">
+      <c r="B146" t="s">
         <v>528</v>
       </c>
-      <c r="E146" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F146" s="4"/>
+      <c r="C146" t="s">
+        <v>529</v>
+      </c>
+      <c r="D146" t="s">
+        <v>530</v>
+      </c>
+      <c r="E146" t="s">
+        <v>148</v>
+      </c>
+      <c r="F146"/>
     </row>
     <row r="147" s="1" customFormat="1" spans="1:6">
-      <c r="A147" s="6" t="s">
-        <v>529</v>
-      </c>
-      <c r="B147" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C147" s="4" t="s">
-        <v>530</v>
-      </c>
-      <c r="D147" s="4"/>
-      <c r="E147" s="4"/>
-      <c r="F147" s="4"/>
+      <c r="A147" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="B147" t="s">
+        <v>192</v>
+      </c>
+      <c r="C147" t="s">
+        <v>532</v>
+      </c>
+      <c r="D147"/>
+      <c r="E147"/>
+      <c r="F147"/>
     </row>
     <row r="148" s="1" customFormat="1" spans="1:6">
-      <c r="A148" s="6" t="s">
-        <v>531</v>
-      </c>
-      <c r="B148" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C148" s="4" t="s">
-        <v>532</v>
-      </c>
-      <c r="D148" s="4"/>
-      <c r="E148" s="4"/>
-      <c r="F148" s="4"/>
+      <c r="A148" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="B148" t="s">
+        <v>195</v>
+      </c>
+      <c r="C148" t="s">
+        <v>534</v>
+      </c>
+      <c r="D148"/>
+      <c r="E148"/>
+      <c r="F148"/>
     </row>
     <row r="149" s="1" customFormat="1" spans="1:6">
-      <c r="A149" s="6" t="s">
-        <v>533</v>
-      </c>
-      <c r="B149" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="C149" s="4" t="s">
+      <c r="A149" s="5" t="s">
         <v>535</v>
       </c>
-      <c r="D149" s="4" t="s">
+      <c r="B149" t="s">
         <v>536</v>
       </c>
-      <c r="E149" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F149" s="4"/>
+      <c r="C149" t="s">
+        <v>537</v>
+      </c>
+      <c r="D149" t="s">
+        <v>538</v>
+      </c>
+      <c r="E149" t="s">
+        <v>148</v>
+      </c>
+      <c r="F149"/>
     </row>
     <row r="150" s="1" customFormat="1" spans="1:6">
-      <c r="A150" s="6" t="s">
-        <v>537</v>
-      </c>
-      <c r="B150" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C150" s="4" t="s">
-        <v>538</v>
-      </c>
-      <c r="D150" s="4"/>
-      <c r="E150" s="4"/>
-      <c r="F150" s="8"/>
+      <c r="A150" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="B150" t="s">
+        <v>192</v>
+      </c>
+      <c r="C150" t="s">
+        <v>540</v>
+      </c>
+      <c r="D150"/>
+      <c r="E150"/>
+      <c r="F150" s="7"/>
     </row>
     <row r="151" s="1" customFormat="1" spans="1:6">
-      <c r="A151" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="B151" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="C151" s="4" t="s">
+      <c r="A151" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="D151" s="4" t="s">
+      <c r="B151" t="s">
         <v>542</v>
       </c>
-      <c r="E151" s="4" t="s">
+      <c r="C151" t="s">
         <v>543</v>
       </c>
-      <c r="F151" s="8"/>
+      <c r="D151" t="s">
+        <v>544</v>
+      </c>
+      <c r="E151" t="s">
+        <v>545</v>
+      </c>
+      <c r="F151" s="7"/>
     </row>
     <row r="152" s="1" customFormat="1" spans="1:6">
-      <c r="A152" s="6" t="s">
-        <v>544</v>
-      </c>
-      <c r="B152" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="D152" s="4"/>
-      <c r="E152" s="4"/>
-      <c r="F152" s="8"/>
+      <c r="A152" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="B152" t="s">
+        <v>192</v>
+      </c>
+      <c r="C152" t="s">
+        <v>547</v>
+      </c>
+      <c r="D152"/>
+      <c r="E152"/>
+      <c r="F152" s="7"/>
     </row>
     <row r="153" s="1" customFormat="1" spans="1:6">
-      <c r="A153" s="6" t="s">
-        <v>546</v>
-      </c>
-      <c r="B153" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C153" s="4" t="s">
-        <v>547</v>
-      </c>
-      <c r="D153" s="4"/>
-      <c r="E153" s="4"/>
-      <c r="F153" s="8"/>
+      <c r="A153" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="B153" t="s">
+        <v>195</v>
+      </c>
+      <c r="C153" t="s">
+        <v>549</v>
+      </c>
+      <c r="D153"/>
+      <c r="E153"/>
+      <c r="F153" s="7"/>
     </row>
     <row r="154" s="1" customFormat="1" spans="1:5">
-      <c r="A154" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="B154" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="C154" s="4" t="s">
+      <c r="A154" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="D154" s="4" t="s">
+      <c r="B154" t="s">
         <v>551</v>
       </c>
-      <c r="E154" s="4" t="s">
-        <v>146</v>
+      <c r="C154" t="s">
+        <v>552</v>
+      </c>
+      <c r="D154" t="s">
+        <v>553</v>
+      </c>
+      <c r="E154" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/server/excel/menu/Menu.xlsx
+++ b/server/excel/menu/Menu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13200"/>
+    <workbookView windowWidth="22943" windowHeight="9924" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AppMenu" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579">
   <si>
     <t>菜单编号</t>
   </si>
@@ -965,6 +965,9 @@
     <t>../budget/income/otherIncomeList.html</t>
   </si>
   <si>
+    <t>xzsr_web_ed</t>
+  </si>
+  <si>
     <t>xzsr_web_del</t>
   </si>
   <si>
@@ -974,6 +977,15 @@
     <t>../budget/income/otherIncomePriceList.html</t>
   </si>
   <si>
+    <t>xzsrjg_web_ed</t>
+  </si>
+  <si>
+    <t>2,1,3,2</t>
+  </si>
+  <si>
+    <t>xzsrjg_web_del</t>
+  </si>
+  <si>
     <t>支出间接成本</t>
   </si>
   <si>
@@ -1103,9 +1115,6 @@
     <t>2,3,2,2</t>
   </si>
   <si>
-    <t>分包价格管理</t>
-  </si>
-  <si>
     <t>fbjggl_web</t>
   </si>
   <si>
@@ -1115,13 +1124,19 @@
     <t>2,3,2,2,1</t>
   </si>
   <si>
+    <t>fbjggl_web_ed</t>
+  </si>
+  <si>
+    <t>2,3,2,2,2</t>
+  </si>
+  <si>
     <t>fbjggl_web_del</t>
   </si>
   <si>
     <t>2,3,2,3</t>
   </si>
   <si>
-    <t>临建支出量</t>
+    <t>临建支出量统计</t>
   </si>
   <si>
     <t>ljzc_web</t>
@@ -1139,7 +1154,7 @@
     <t>2,3,2,4</t>
   </si>
   <si>
-    <t>临建支出价格</t>
+    <t>临建支出价格统计</t>
   </si>
   <si>
     <t>ljzcjg_web</t>
@@ -1151,6 +1166,15 @@
     <t>2,3,2,4,1</t>
   </si>
   <si>
+    <t>ljzcjg_web_ed</t>
+  </si>
+  <si>
+    <t>2,3,2,4,2</t>
+  </si>
+  <si>
+    <t>ljzcjg_web_del</t>
+  </si>
+  <si>
     <t>2,4</t>
   </si>
   <si>
@@ -1526,6 +1550,15 @@
     <t>spgl_web_del</t>
   </si>
   <si>
+    <t>6,3,3,3</t>
+  </si>
+  <si>
+    <t>财务审核</t>
+  </si>
+  <si>
+    <t>spgl_web_cw</t>
+  </si>
+  <si>
     <t>6,4</t>
   </si>
   <si>
@@ -1730,9 +1763,6 @@
     <t>../manage/contracttList.html</t>
   </si>
   <si>
-    <t>left</t>
-  </si>
-  <si>
     <t>6,9,1</t>
   </si>
   <si>
@@ -1748,10 +1778,55 @@
     <t>6,10</t>
   </si>
   <si>
-    <t>升级管理</t>
-  </si>
-  <si>
-    <t>sjgl_web</t>
+    <t>通讯录管理</t>
+  </si>
+  <si>
+    <t>txlgl_web</t>
+  </si>
+  <si>
+    <t>6,10,1</t>
+  </si>
+  <si>
+    <t>通讯录导入</t>
+  </si>
+  <si>
+    <t>txldr_web</t>
+  </si>
+  <si>
+    <t>../manage/phoneListImport.html</t>
+  </si>
+  <si>
+    <t>6,10,2</t>
+  </si>
+  <si>
+    <t>通讯录列表</t>
+  </si>
+  <si>
+    <t>txllb_web</t>
+  </si>
+  <si>
+    <t>../manage/phoneList.html</t>
+  </si>
+  <si>
+    <t>6,10,2,1</t>
+  </si>
+  <si>
+    <t>txllb_web_ed</t>
+  </si>
+  <si>
+    <t>6,10,2,2</t>
+  </si>
+  <si>
+    <t>txllb_web_del</t>
+  </si>
+  <si>
+    <t>6,11</t>
+  </si>
+  <si>
+    <t>版本管理</t>
+  </si>
+  <si>
+    <t>bbgl_web</t>
   </si>
   <si>
     <t>../manage/updateOpt.html</t>
@@ -1762,10 +1837,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1795,7 +1870,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1817,61 +1921,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1894,6 +1945,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1909,8 +1967,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1924,15 +1990,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1954,7 +2029,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1966,25 +2149,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1996,19 +2161,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2026,103 +2191,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2134,7 +2209,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2145,6 +2220,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2172,17 +2262,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2204,17 +2299,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -2223,25 +2307,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2253,10 +2328,10 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2265,137 +2340,137 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2407,6 +2482,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2414,6 +2490,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2707,38 +2793,38 @@
   <sheetPr/>
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="18.4416666666667" style="5" customWidth="1"/>
-    <col min="2" max="2" width="23.4416666666667" customWidth="1"/>
-    <col min="3" max="3" width="46.225" customWidth="1"/>
+    <col min="1" max="1" width="18.4444444444444" style="9" customWidth="1"/>
+    <col min="2" max="2" width="23.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="46.2222222222222" customWidth="1"/>
     <col min="4" max="4" width="82.25" customWidth="1"/>
     <col min="5" max="5" width="27.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
-      <c r="A2" s="4">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -2749,7 +2835,7 @@
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
@@ -2766,7 +2852,7 @@
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
@@ -2777,7 +2863,7 @@
       </c>
     </row>
     <row r="5" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B5" t="s">
@@ -2794,7 +2880,7 @@
       </c>
     </row>
     <row r="6" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A6" s="5">
+      <c r="A6" s="9">
         <v>2</v>
       </c>
       <c r="B6" t="s">
@@ -2805,7 +2891,7 @@
       </c>
     </row>
     <row r="7" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B7" t="s">
@@ -2822,7 +2908,7 @@
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B8" t="s">
@@ -2833,7 +2919,7 @@
       </c>
     </row>
     <row r="9" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B9" t="s">
@@ -2844,7 +2930,7 @@
       </c>
     </row>
     <row r="10" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B10" t="s">
@@ -2855,7 +2941,7 @@
       </c>
     </row>
     <row r="11" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="9" t="s">
         <v>35</v>
       </c>
       <c r="B11" t="s">
@@ -2866,7 +2952,7 @@
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B12" t="s">
@@ -2877,7 +2963,7 @@
       </c>
     </row>
     <row r="13" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B13" t="s">
@@ -2888,7 +2974,7 @@
       </c>
     </row>
     <row r="14" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="9" t="s">
         <v>44</v>
       </c>
       <c r="B14" t="s">
@@ -2899,7 +2985,7 @@
       </c>
     </row>
     <row r="15" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="9" t="s">
         <v>47</v>
       </c>
       <c r="B15" t="s">
@@ -2910,7 +2996,7 @@
       </c>
     </row>
     <row r="16" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="9" t="s">
         <v>50</v>
       </c>
       <c r="B16" t="s">
@@ -2921,7 +3007,7 @@
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:3">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="9" t="s">
         <v>53</v>
       </c>
       <c r="B17" t="s">
@@ -2932,7 +3018,7 @@
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:3">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="9" t="s">
         <v>56</v>
       </c>
       <c r="B18" t="s">
@@ -2943,7 +3029,7 @@
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:3">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="9" t="s">
         <v>59</v>
       </c>
       <c r="B19" t="s">
@@ -2954,7 +3040,7 @@
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:3">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="9" t="s">
         <v>62</v>
       </c>
       <c r="B20" t="s">
@@ -2965,7 +3051,7 @@
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:3">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="9" t="s">
         <v>65</v>
       </c>
       <c r="B21" t="s">
@@ -2976,7 +3062,7 @@
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:5">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="9" t="s">
         <v>67</v>
       </c>
       <c r="B22" t="s">
@@ -2993,7 +3079,7 @@
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:3">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="9" t="s">
         <v>72</v>
       </c>
       <c r="B23" t="s">
@@ -3004,7 +3090,7 @@
       </c>
     </row>
     <row r="24" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="9" t="s">
         <v>74</v>
       </c>
       <c r="B24" t="s">
@@ -3015,7 +3101,7 @@
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:3">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="9" t="s">
         <v>77</v>
       </c>
       <c r="B25" t="s">
@@ -3026,7 +3112,7 @@
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:5">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="9" t="s">
         <v>80</v>
       </c>
       <c r="B26" t="s">
@@ -3043,7 +3129,7 @@
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:3">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="9" t="s">
         <v>85</v>
       </c>
       <c r="B27" t="s">
@@ -3054,7 +3140,7 @@
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:3">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="9" t="s">
         <v>88</v>
       </c>
       <c r="B28" t="s">
@@ -3065,7 +3151,7 @@
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:3">
-      <c r="A29" s="5">
+      <c r="A29" s="9">
         <v>3</v>
       </c>
       <c r="B29" t="s">
@@ -3076,7 +3162,7 @@
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:5">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="9" t="s">
         <v>93</v>
       </c>
       <c r="B30" t="s">
@@ -3093,7 +3179,7 @@
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:5">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="9" t="s">
         <v>98</v>
       </c>
       <c r="B31" t="s">
@@ -3102,7 +3188,7 @@
       <c r="C31" t="s">
         <v>100</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="13" t="s">
         <v>101</v>
       </c>
       <c r="E31" t="s">
@@ -3110,7 +3196,7 @@
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:5">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="9" t="s">
         <v>103</v>
       </c>
       <c r="B32" t="s">
@@ -3119,7 +3205,7 @@
       <c r="C32" t="s">
         <v>105</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="13" t="s">
         <v>106</v>
       </c>
       <c r="E32" t="s">
@@ -3127,7 +3213,7 @@
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:5">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="9" t="s">
         <v>108</v>
       </c>
       <c r="B33" t="s">
@@ -3136,7 +3222,7 @@
       <c r="C33" t="s">
         <v>110</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="13" t="s">
         <v>111</v>
       </c>
       <c r="E33" t="s">
@@ -3144,7 +3230,7 @@
       </c>
     </row>
     <row r="34" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="9" t="s">
         <v>113</v>
       </c>
       <c r="B34" t="s">
@@ -3155,7 +3241,7 @@
       </c>
     </row>
     <row r="35" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="9" t="s">
         <v>116</v>
       </c>
       <c r="B35" t="s">
@@ -3166,7 +3252,7 @@
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:3">
-      <c r="A36" s="5">
+      <c r="A36" s="9">
         <v>4</v>
       </c>
       <c r="B36" t="s">
@@ -3177,7 +3263,7 @@
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:5">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="9" t="s">
         <v>121</v>
       </c>
       <c r="B37" t="s">
@@ -3194,7 +3280,7 @@
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:5">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="9" t="s">
         <v>126</v>
       </c>
       <c r="B38" t="s">
@@ -3211,7 +3297,7 @@
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:5">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="9" t="s">
         <v>131</v>
       </c>
       <c r="B39" t="s">
@@ -3228,7 +3314,7 @@
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:5">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="9" t="s">
         <v>136</v>
       </c>
       <c r="B40" t="s">
@@ -3254,20 +3340,23 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F154"/>
+  <dimension ref="A1:E164"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="B6" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.5583333333333" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="3" width="25.5583333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.775" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="25.5583333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.8888888888889" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6666666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5555555555556" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.6666666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6666666666667" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3283,2440 +3372,2427 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:6">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:5">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="D2"/>
-      <c r="E2" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="F2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:6">
-      <c r="A3" s="5" t="s">
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:5">
+      <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="D3"/>
-      <c r="E3" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F3"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:6">
-      <c r="A4" s="5" t="s">
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:5">
+      <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="D4"/>
-      <c r="E4" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F4"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:6">
-      <c r="A5" s="5" t="s">
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:5">
+      <c r="A5" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F5"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:6">
-      <c r="A6" s="5" t="s">
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:5">
+      <c r="A6" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:6">
-      <c r="A7" s="5" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:5">
+      <c r="A7" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F7"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:6">
-      <c r="A8" s="5" t="s">
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:5">
+      <c r="A8" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D8"/>
-      <c r="E8" t="s">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F8"/>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:6">
-      <c r="A9" s="5" t="s">
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:5">
+      <c r="A9" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F9"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:6">
-      <c r="A10" s="5" t="s">
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:5">
+      <c r="A10" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F10"/>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:6">
-      <c r="A11" s="5" t="s">
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:5">
+      <c r="A11" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D11"/>
-      <c r="E11" t="s">
+      <c r="D11" s="5"/>
+      <c r="E11" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F11"/>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:6">
-      <c r="A12" s="5" t="s">
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:5">
+      <c r="A12" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F12"/>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:6">
-      <c r="A13" s="5" t="s">
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:5">
+      <c r="A13" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F13"/>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="1:6">
-      <c r="A14" s="5" t="s">
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:5">
+      <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="D14"/>
-      <c r="E14" t="s">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F14"/>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:6">
-      <c r="A15" s="5" t="s">
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:5">
+      <c r="A15" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="D15"/>
-      <c r="E15" t="s">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="F15"/>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:6">
-      <c r="A16" s="5" t="s">
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:5">
+      <c r="A16" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F16"/>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:6">
-      <c r="A17" s="5" t="s">
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:5">
+      <c r="A17" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:6">
-      <c r="A18" s="5" t="s">
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:5">
+      <c r="A18" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:6">
-      <c r="A19" s="5" t="s">
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:5">
+      <c r="A19" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="D19"/>
-      <c r="E19" t="s">
+      <c r="D19" s="5"/>
+      <c r="E19" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="F19"/>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:6">
-      <c r="A20" s="5" t="s">
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:5">
+      <c r="A20" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="D20"/>
-      <c r="E20" t="s">
+      <c r="D20" s="5"/>
+      <c r="E20" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F20"/>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="1:6">
-      <c r="A21" s="5" t="s">
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:5">
+      <c r="A21" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F21"/>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="1:6">
-      <c r="A22" s="5" t="s">
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:5">
+      <c r="A22" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="1:6">
-      <c r="A23" s="5" t="s">
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:5">
+      <c r="A23" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="1:6">
-      <c r="A24" s="5" t="s">
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:5">
+      <c r="A24" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F24"/>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="1:6">
-      <c r="A25" s="5" t="s">
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:5">
+      <c r="A25" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="1:6">
-      <c r="A26" s="5" t="s">
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:5">
+      <c r="A26" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="1:6">
-      <c r="A27" s="5" t="s">
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:5">
+      <c r="A27" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F27"/>
-    </row>
-    <row r="28" s="1" customFormat="1" spans="1:6">
-      <c r="A28" s="5" t="s">
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:5">
+      <c r="A28" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-    </row>
-    <row r="29" s="1" customFormat="1" spans="1:6">
-      <c r="A29" s="5" t="s">
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:5">
+      <c r="A29" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
-    </row>
-    <row r="30" s="1" customFormat="1" spans="1:6">
-      <c r="A30" s="5" t="s">
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:5">
+      <c r="A30" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F30"/>
-    </row>
-    <row r="31" s="1" customFormat="1" spans="1:6">
-      <c r="A31" s="5" t="s">
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:5">
+      <c r="A31" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-    </row>
-    <row r="32" s="1" customFormat="1" spans="1:6">
-      <c r="A32" s="5" t="s">
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="1:5">
+      <c r="A32" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-    </row>
-    <row r="33" s="1" customFormat="1" spans="1:6">
-      <c r="A33" s="5" t="s">
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="1:5">
+      <c r="A33" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="D33"/>
-      <c r="E33" t="s">
+      <c r="D33" s="5"/>
+      <c r="E33" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F33"/>
-    </row>
-    <row r="34" s="1" customFormat="1" spans="1:6">
-      <c r="A34" s="5" t="s">
+    </row>
+    <row r="34" s="1" customFormat="1" spans="1:5">
+      <c r="A34" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F34"/>
-    </row>
-    <row r="35" s="1" customFormat="1" spans="1:6">
-      <c r="A35" s="5" t="s">
+    </row>
+    <row r="35" s="1" customFormat="1" spans="1:5">
+      <c r="A35" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="D35"/>
-      <c r="E35"/>
-      <c r="F35"/>
-    </row>
-    <row r="36" s="1" customFormat="1" spans="1:6">
-      <c r="A36" s="5" t="s">
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="1:5">
+      <c r="A36" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="D36"/>
-      <c r="E36"/>
-      <c r="F36"/>
-    </row>
-    <row r="37" s="1" customFormat="1" spans="1:6">
-      <c r="A37" s="5" t="s">
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="1:5">
+      <c r="A37" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F37"/>
-    </row>
-    <row r="38" s="1" customFormat="1" spans="1:6">
-      <c r="A38" s="5" t="s">
+    </row>
+    <row r="38" s="1" customFormat="1" spans="1:5">
+      <c r="A38" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="D38"/>
-      <c r="E38"/>
-      <c r="F38"/>
-    </row>
-    <row r="39" s="1" customFormat="1" spans="1:6">
-      <c r="A39" s="5" t="s">
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="1:5">
+      <c r="A39" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="D39"/>
-      <c r="E39"/>
-      <c r="F39"/>
-    </row>
-    <row r="40" s="1" customFormat="1" spans="1:6">
-      <c r="A40" s="5" t="s">
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="1:5">
+      <c r="A40" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F40"/>
-    </row>
-    <row r="41" s="1" customFormat="1" spans="1:6">
-      <c r="A41" s="5" t="s">
+    </row>
+    <row r="41" s="1" customFormat="1" spans="1:5">
+      <c r="A41" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="D41"/>
-      <c r="E41"/>
-      <c r="F41"/>
-    </row>
-    <row r="42" s="1" customFormat="1" spans="1:6">
-      <c r="A42" s="5" t="s">
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+    </row>
+    <row r="42" s="1" customFormat="1" spans="1:5">
+      <c r="A42" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="D42"/>
-      <c r="E42"/>
-      <c r="F42"/>
-    </row>
-    <row r="43" s="1" customFormat="1" spans="1:6">
-      <c r="A43" s="5" t="s">
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+    </row>
+    <row r="43" s="1" customFormat="1" spans="1:5">
+      <c r="A43" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="D43"/>
-      <c r="E43" t="s">
+      <c r="D43" s="5"/>
+      <c r="E43" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="F43"/>
-    </row>
-    <row r="44" s="1" customFormat="1" spans="1:6">
-      <c r="A44" s="5" t="s">
+    </row>
+    <row r="44" s="1" customFormat="1" spans="1:5">
+      <c r="A44" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F44"/>
-    </row>
-    <row r="45" s="1" customFormat="1" spans="1:6">
-      <c r="A45" s="5" t="s">
+    </row>
+    <row r="45" s="1" customFormat="1" spans="1:5">
+      <c r="A45" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="D45"/>
-      <c r="E45"/>
-      <c r="F45"/>
-    </row>
-    <row r="46" s="1" customFormat="1" spans="1:6">
-      <c r="A46" s="5" t="s">
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+    </row>
+    <row r="46" s="1" customFormat="1" spans="1:5">
+      <c r="A46" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="D46"/>
-      <c r="E46"/>
-      <c r="F46"/>
-    </row>
-    <row r="47" s="1" customFormat="1" spans="1:6">
-      <c r="A47" s="5" t="s">
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+    </row>
+    <row r="47" s="1" customFormat="1" spans="1:5">
+      <c r="A47" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="D47"/>
-      <c r="E47" t="s">
+      <c r="D47" s="5"/>
+      <c r="E47" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="F47"/>
-    </row>
-    <row r="48" s="1" customFormat="1" spans="1:6">
-      <c r="A48" s="5" t="s">
+    </row>
+    <row r="48" s="1" customFormat="1" spans="1:5">
+      <c r="A48" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F48"/>
-    </row>
-    <row r="49" s="1" customFormat="1" spans="1:6">
-      <c r="A49" s="5">
+    </row>
+    <row r="49" s="1" customFormat="1" spans="1:5">
+      <c r="A49" s="6">
         <v>2</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="D49"/>
-      <c r="E49" t="s">
+      <c r="D49" s="5"/>
+      <c r="E49" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="F49"/>
-    </row>
-    <row r="50" s="1" customFormat="1" spans="1:6">
-      <c r="A50" s="5" t="s">
+    </row>
+    <row r="50" s="1" customFormat="1" spans="1:5">
+      <c r="A50" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="D50"/>
-      <c r="E50" t="s">
+      <c r="D50" s="5"/>
+      <c r="E50" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F50"/>
-    </row>
-    <row r="51" s="1" customFormat="1" spans="1:6">
-      <c r="A51" s="5" t="s">
+    </row>
+    <row r="51" s="1" customFormat="1" spans="1:5">
+      <c r="A51" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F51"/>
-    </row>
-    <row r="52" s="1" customFormat="1" spans="1:6">
-      <c r="A52" s="5" t="s">
+    </row>
+    <row r="52" s="1" customFormat="1" spans="1:5">
+      <c r="A52" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="D52"/>
-      <c r="E52"/>
-      <c r="F52"/>
-    </row>
-    <row r="53" s="1" customFormat="1" spans="1:6">
-      <c r="A53" s="5" t="s">
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+    </row>
+    <row r="53" s="1" customFormat="1" spans="1:5">
+      <c r="A53" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="D53"/>
-      <c r="E53"/>
-      <c r="F53"/>
-    </row>
-    <row r="54" s="1" customFormat="1" spans="1:6">
-      <c r="A54" s="5" t="s">
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+    </row>
+    <row r="54" s="1" customFormat="1" spans="1:5">
+      <c r="A54" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F54"/>
-    </row>
-    <row r="55" s="1" customFormat="1" spans="1:6">
-      <c r="A55" s="5" t="s">
+    </row>
+    <row r="55" s="1" customFormat="1" spans="1:5">
+      <c r="A55" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+    </row>
+    <row r="56" s="1" customFormat="1" spans="1:5">
+      <c r="A56" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C55" t="s">
-        <v>290</v>
-      </c>
-      <c r="D55"/>
-      <c r="E55"/>
-      <c r="F55"/>
-    </row>
-    <row r="56" s="1" customFormat="1" spans="1:6">
-      <c r="A56" s="5" t="s">
+      <c r="C56" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+    </row>
+    <row r="57" s="1" customFormat="1" spans="1:5">
+      <c r="A57" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B57" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C56" t="s">
-        <v>291</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="C57" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="E56" t="s">
+      <c r="D57" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="E57" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F56"/>
-    </row>
-    <row r="57" s="1" customFormat="1" spans="1:6">
-      <c r="A57" s="5" t="s">
+    </row>
+    <row r="58" s="1" customFormat="1" spans="1:5">
+      <c r="A58" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B58" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+    </row>
+    <row r="59" s="1" customFormat="1" spans="1:5">
+      <c r="A59" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C57" t="s">
-        <v>290</v>
-      </c>
-      <c r="D57"/>
-      <c r="E57"/>
-      <c r="F57"/>
-    </row>
-    <row r="58" s="1" customFormat="1" spans="1:6">
-      <c r="A58" s="5" t="s">
+      <c r="C59" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+    </row>
+    <row r="60" s="1" customFormat="1" spans="1:5">
+      <c r="A60" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B58" t="s">
-        <v>293</v>
-      </c>
-      <c r="C58" t="s">
-        <v>294</v>
-      </c>
-      <c r="D58"/>
-      <c r="E58" t="s">
+      <c r="B60" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F58"/>
-    </row>
-    <row r="59" s="1" customFormat="1" spans="1:6">
-      <c r="A59" s="5" t="s">
+    </row>
+    <row r="61" s="1" customFormat="1" spans="1:5">
+      <c r="A61" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B59" t="s">
-        <v>295</v>
-      </c>
-      <c r="C59" t="s">
-        <v>296</v>
-      </c>
-      <c r="D59" t="s">
-        <v>297</v>
-      </c>
-      <c r="E59" t="s">
+      <c r="B61" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E61" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F59"/>
-    </row>
-    <row r="60" s="1" customFormat="1" spans="1:6">
-      <c r="A60" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="B60" t="s">
+    </row>
+    <row r="62" s="1" customFormat="1" spans="1:5">
+      <c r="A62" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C60" t="s">
-        <v>299</v>
-      </c>
-      <c r="D60"/>
-      <c r="E60"/>
-      <c r="F60"/>
-    </row>
-    <row r="61" s="1" customFormat="1" spans="1:6">
-      <c r="A61" s="5" t="s">
+      <c r="C62" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+    </row>
+    <row r="63" s="1" customFormat="1" spans="1:5">
+      <c r="A63" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B61" t="s">
-        <v>300</v>
-      </c>
-      <c r="C61" t="s">
-        <v>301</v>
-      </c>
-      <c r="D61"/>
-      <c r="E61" t="s">
+      <c r="B63" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F61"/>
-    </row>
-    <row r="62" s="1" customFormat="1" spans="1:6">
-      <c r="A62" s="5" t="s">
+    </row>
+    <row r="64" s="1" customFormat="1" spans="1:5">
+      <c r="A64" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B62" t="s">
-        <v>302</v>
-      </c>
-      <c r="C62" t="s">
-        <v>303</v>
-      </c>
-      <c r="D62"/>
-      <c r="E62" t="s">
+      <c r="B64" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F62"/>
-    </row>
-    <row r="63" s="1" customFormat="1" spans="1:6">
-      <c r="A63" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="B63" t="s">
-        <v>305</v>
-      </c>
-      <c r="C63" t="s">
-        <v>306</v>
-      </c>
-      <c r="D63" t="s">
-        <v>307</v>
-      </c>
-      <c r="E63" t="s">
+    </row>
+    <row r="65" s="1" customFormat="1" spans="1:5">
+      <c r="A65" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="E65" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F63"/>
-    </row>
-    <row r="64" s="1" customFormat="1" spans="1:6">
-      <c r="A64" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="B64" t="s">
+    </row>
+    <row r="66" s="1" customFormat="1" spans="1:5">
+      <c r="A66" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="B66" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C64" t="s">
-        <v>309</v>
-      </c>
-      <c r="D64"/>
-      <c r="E64"/>
-      <c r="F64"/>
-    </row>
-    <row r="65" s="1" customFormat="1" spans="1:6">
-      <c r="A65" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="B65" t="s">
-        <v>311</v>
-      </c>
-      <c r="C65" t="s">
-        <v>312</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="C66" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="E65" t="s">
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+    </row>
+    <row r="67" s="1" customFormat="1" spans="1:5">
+      <c r="A67" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="E67" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F65"/>
-    </row>
-    <row r="66" s="1" customFormat="1" spans="1:6">
-      <c r="A66" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="B66" t="s">
+    </row>
+    <row r="68" s="1" customFormat="1" spans="1:5">
+      <c r="A68" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="B68" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C66" t="s">
-        <v>315</v>
-      </c>
-      <c r="D66"/>
-      <c r="E66"/>
-      <c r="F66"/>
-    </row>
-    <row r="67" s="1" customFormat="1" spans="1:6">
-      <c r="A67" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="B67" t="s">
-        <v>317</v>
-      </c>
-      <c r="C67" t="s">
-        <v>318</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="C68" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="E67" t="s">
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+    </row>
+    <row r="69" s="1" customFormat="1" spans="1:5">
+      <c r="A69" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="E69" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F67"/>
-    </row>
-    <row r="68" s="1" customFormat="1" spans="1:6">
-      <c r="A68" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="B68" t="s">
+    </row>
+    <row r="70" s="1" customFormat="1" spans="1:5">
+      <c r="A70" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="B70" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C68" t="s">
-        <v>321</v>
-      </c>
-      <c r="D68"/>
-      <c r="E68"/>
-      <c r="F68"/>
-    </row>
-    <row r="69" s="1" customFormat="1" spans="1:6">
-      <c r="A69" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="B69" t="s">
-        <v>323</v>
-      </c>
-      <c r="C69" t="s">
-        <v>324</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="C70" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="E69" t="s">
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+    </row>
+    <row r="71" s="1" customFormat="1" spans="1:5">
+      <c r="A71" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="E71" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F69"/>
-    </row>
-    <row r="70" s="1" customFormat="1" spans="1:6">
-      <c r="A70" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="B70" t="s">
+    </row>
+    <row r="72" s="1" customFormat="1" spans="1:5">
+      <c r="A72" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="B72" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C70" t="s">
-        <v>327</v>
-      </c>
-      <c r="D70"/>
-      <c r="E70"/>
-      <c r="F70"/>
-    </row>
-    <row r="71" s="1" customFormat="1" spans="1:6">
-      <c r="A71" s="5" t="s">
+      <c r="C72" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+    </row>
+    <row r="73" s="1" customFormat="1" spans="1:5">
+      <c r="A73" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B73" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C71" t="s">
-        <v>328</v>
-      </c>
-      <c r="D71"/>
-      <c r="E71" t="s">
+      <c r="C73" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F71"/>
-    </row>
-    <row r="72" s="1" customFormat="1" spans="1:6">
-      <c r="A72" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="B72" t="s">
-        <v>330</v>
-      </c>
-      <c r="C72" t="s">
-        <v>331</v>
-      </c>
-      <c r="D72" t="s">
-        <v>332</v>
-      </c>
-      <c r="E72" t="s">
+    </row>
+    <row r="74" s="1" customFormat="1" spans="1:5">
+      <c r="A74" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="E74" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F72"/>
-    </row>
-    <row r="73" s="1" customFormat="1" spans="1:6">
-      <c r="A73" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="B73" t="s">
+    </row>
+    <row r="75" s="1" customFormat="1" spans="1:5">
+      <c r="A75" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="B75" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C73" t="s">
-        <v>334</v>
-      </c>
-      <c r="D73"/>
-      <c r="E73"/>
-      <c r="F73"/>
-    </row>
-    <row r="74" s="1" customFormat="1" spans="1:6">
-      <c r="A74" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="B74" t="s">
-        <v>336</v>
-      </c>
-      <c r="C74" t="s">
-        <v>337</v>
-      </c>
-      <c r="D74" t="s">
+      <c r="C75" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="E74" t="s">
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+    </row>
+    <row r="76" s="1" customFormat="1" spans="1:5">
+      <c r="A76" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="E76" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F74"/>
-    </row>
-    <row r="75" s="1" customFormat="1" spans="1:6">
-      <c r="A75" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="B75" t="s">
+    </row>
+    <row r="77" s="1" customFormat="1" spans="1:5">
+      <c r="A77" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+    </row>
+    <row r="78" s="1" customFormat="1" spans="1:5">
+      <c r="A78" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="B78" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C75" t="s">
-        <v>340</v>
-      </c>
-      <c r="D75"/>
-      <c r="E75"/>
-      <c r="F75"/>
-    </row>
-    <row r="76" s="1" customFormat="1" spans="1:6">
-      <c r="A76" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="B76" t="s">
-        <v>342</v>
-      </c>
-      <c r="C76" t="s">
-        <v>343</v>
-      </c>
-      <c r="D76" t="s">
-        <v>344</v>
-      </c>
-      <c r="E76" t="s">
+      <c r="C78" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+    </row>
+    <row r="79" s="1" customFormat="1" spans="1:5">
+      <c r="A79" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="E79" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F76"/>
-    </row>
-    <row r="77" s="1" customFormat="1" spans="1:6">
-      <c r="A77" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="B77" t="s">
+    </row>
+    <row r="80" s="1" customFormat="1" spans="1:5">
+      <c r="A80" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="B80" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C77" t="s">
-        <v>346</v>
-      </c>
-      <c r="D77"/>
-      <c r="E77"/>
-      <c r="F77"/>
-    </row>
-    <row r="78" s="1" customFormat="1" spans="1:6">
-      <c r="A78" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="B78" t="s">
-        <v>348</v>
-      </c>
-      <c r="C78" t="s">
-        <v>349</v>
-      </c>
-      <c r="D78" t="s">
-        <v>350</v>
-      </c>
-      <c r="E78" t="s">
+      <c r="C80" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+    </row>
+    <row r="81" s="1" customFormat="1" spans="1:5">
+      <c r="A81" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="E81" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F78"/>
-    </row>
-    <row r="79" s="1" customFormat="1" spans="1:6">
-      <c r="A79" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="B79" t="s">
+    </row>
+    <row r="82" s="1" customFormat="1" spans="1:5">
+      <c r="A82" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+    </row>
+    <row r="83" s="1" customFormat="1" spans="1:5">
+      <c r="A83" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="B83" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C79" t="s">
-        <v>349</v>
-      </c>
-      <c r="D79"/>
-      <c r="E79"/>
-      <c r="F79"/>
-    </row>
-    <row r="80" s="1" customFormat="1" spans="1:6">
-      <c r="A80" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="B80" t="s">
+      <c r="C83" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+    </row>
+    <row r="84" s="1" customFormat="1" spans="1:5">
+      <c r="A84" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="B84" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C84" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="D80"/>
-      <c r="E80" t="s">
+      <c r="D84" s="5"/>
+      <c r="E84" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F80"/>
-    </row>
-    <row r="81" s="1" customFormat="1" spans="1:6">
-      <c r="A81" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="B81" t="s">
-        <v>354</v>
-      </c>
-      <c r="C81" t="s">
-        <v>355</v>
-      </c>
-      <c r="D81" t="s">
-        <v>356</v>
-      </c>
-      <c r="E81" t="s">
+    </row>
+    <row r="85" s="1" customFormat="1" spans="1:5">
+      <c r="A85" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="E85" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F81"/>
-    </row>
-    <row r="82" s="1" customFormat="1" spans="1:6">
-      <c r="A82" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="B82" t="s">
+    </row>
+    <row r="86" s="1" customFormat="1" spans="1:5">
+      <c r="A86" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="B86" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C82" t="s">
-        <v>358</v>
-      </c>
-      <c r="D82"/>
-      <c r="E82"/>
-      <c r="F82"/>
-    </row>
-    <row r="83" s="1" customFormat="1" spans="1:6">
-      <c r="A83" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="B83" t="s">
+      <c r="C86" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+    </row>
+    <row r="87" s="1" customFormat="1" spans="1:5">
+      <c r="A87" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="B87" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C83" t="s">
-        <v>360</v>
-      </c>
-      <c r="D83"/>
-      <c r="E83" t="s">
+      <c r="C87" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F83"/>
-    </row>
-    <row r="84" s="1" customFormat="1" spans="1:6">
-      <c r="A84" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="B84" t="s">
-        <v>362</v>
-      </c>
-      <c r="C84" t="s">
-        <v>363</v>
-      </c>
-      <c r="D84" t="s">
-        <v>364</v>
-      </c>
-      <c r="E84" t="s">
+    </row>
+    <row r="88" s="1" customFormat="1" spans="1:5">
+      <c r="A88" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="E88" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F84"/>
-    </row>
-    <row r="85" s="1" customFormat="1" spans="1:6">
-      <c r="A85" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="B85" t="s">
+    </row>
+    <row r="89" s="1" customFormat="1" spans="1:5">
+      <c r="A89" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="B89" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C85" t="s">
-        <v>366</v>
-      </c>
-      <c r="D85"/>
-      <c r="E85"/>
-      <c r="F85"/>
-    </row>
-    <row r="86" s="1" customFormat="1" spans="1:6">
-      <c r="A86" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="B86" t="s">
-        <v>368</v>
-      </c>
-      <c r="C86" t="s">
-        <v>369</v>
-      </c>
-      <c r="D86" t="s">
-        <v>370</v>
-      </c>
-      <c r="E86" t="s">
+      <c r="C89" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+    </row>
+    <row r="90" s="1" customFormat="1" spans="1:5">
+      <c r="A90" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="E90" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F86"/>
-    </row>
-    <row r="87" s="1" customFormat="1" spans="1:6">
-      <c r="A87" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="B87" t="s">
+    </row>
+    <row r="91" s="1" customFormat="1" spans="1:5">
+      <c r="A91" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="B91" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C87" t="s">
-        <v>372</v>
-      </c>
-      <c r="D87"/>
-      <c r="E87"/>
-      <c r="F87"/>
-    </row>
-    <row r="88" s="1" customFormat="1" spans="1:6">
-      <c r="A88" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="B88" t="s">
+      <c r="C91" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+    </row>
+    <row r="92" s="1" customFormat="1" spans="1:5">
+      <c r="A92" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="B92" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C88" t="s">
-        <v>374</v>
-      </c>
-      <c r="D88"/>
-      <c r="E88"/>
-      <c r="F88"/>
-    </row>
-    <row r="89" s="1" customFormat="1" spans="1:6">
-      <c r="A89" s="5">
+      <c r="C92" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+    </row>
+    <row r="93" s="1" customFormat="1" spans="1:5">
+      <c r="A93" s="6">
         <v>3</v>
       </c>
-      <c r="B89" t="s">
-        <v>375</v>
-      </c>
-      <c r="C89" t="s">
-        <v>376</v>
-      </c>
-      <c r="D89"/>
-      <c r="E89" t="s">
+      <c r="B93" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="F89"/>
-    </row>
-    <row r="90" s="1" customFormat="1" spans="1:6">
-      <c r="A90" s="5" t="s">
+    </row>
+    <row r="94" s="1" customFormat="1" spans="1:5">
+      <c r="A94" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B94" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C90" t="s">
-        <v>377</v>
-      </c>
-      <c r="D90" t="s">
-        <v>378</v>
-      </c>
-      <c r="E90" t="s">
+      <c r="C94" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="E94" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F90"/>
-    </row>
-    <row r="91" s="1" customFormat="1" spans="1:6">
-      <c r="A91" s="5" t="s">
+    </row>
+    <row r="95" s="1" customFormat="1" spans="1:5">
+      <c r="A95" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B91" t="s">
-        <v>379</v>
-      </c>
-      <c r="C91" t="s">
-        <v>380</v>
-      </c>
-      <c r="D91" t="s">
-        <v>381</v>
-      </c>
-      <c r="E91" t="s">
+      <c r="B95" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="E95" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F91"/>
-    </row>
-    <row r="92" s="1" customFormat="1" spans="1:6">
-      <c r="A92" s="5" t="s">
+    </row>
+    <row r="96" s="1" customFormat="1" spans="1:5">
+      <c r="A96" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B92" t="s">
-        <v>382</v>
-      </c>
-      <c r="C92" t="s">
-        <v>383</v>
-      </c>
-      <c r="D92"/>
-      <c r="E92" t="s">
+      <c r="B96" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F92"/>
-    </row>
-    <row r="93" s="1" customFormat="1" spans="1:6">
-      <c r="A93" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="B93" t="s">
-        <v>385</v>
-      </c>
-      <c r="C93" t="s">
-        <v>386</v>
-      </c>
-      <c r="D93" t="s">
-        <v>387</v>
-      </c>
-      <c r="E93" t="s">
+    </row>
+    <row r="97" s="1" customFormat="1" spans="1:5">
+      <c r="A97" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="E97" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F93"/>
-    </row>
-    <row r="94" s="1" customFormat="1" spans="1:6">
-      <c r="A94" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="B94" t="s">
-        <v>389</v>
-      </c>
-      <c r="C94" t="s">
-        <v>390</v>
-      </c>
-      <c r="D94" t="s">
-        <v>391</v>
-      </c>
-      <c r="E94" t="s">
+    </row>
+    <row r="98" s="1" customFormat="1" spans="1:5">
+      <c r="A98" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="E98" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F94"/>
-    </row>
-    <row r="95" s="1" customFormat="1" spans="1:6">
-      <c r="A95" s="5" t="s">
+    </row>
+    <row r="99" s="1" customFormat="1" spans="1:5">
+      <c r="A99" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B99" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C95" t="s">
-        <v>392</v>
-      </c>
-      <c r="D95"/>
-      <c r="E95" t="s">
+      <c r="C99" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F95"/>
-    </row>
-    <row r="96" s="1" customFormat="1" spans="1:6">
-      <c r="A96" s="5" t="s">
+    </row>
+    <row r="100" s="1" customFormat="1" spans="1:5">
+      <c r="A100" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B100" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C96" t="s">
-        <v>393</v>
-      </c>
-      <c r="D96" t="s">
-        <v>394</v>
-      </c>
-      <c r="E96" t="s">
+      <c r="C100" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="E100" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F96"/>
-    </row>
-    <row r="97" s="1" customFormat="1" spans="1:6">
-      <c r="A97" s="5" t="s">
+    </row>
+    <row r="101" s="1" customFormat="1" spans="1:5">
+      <c r="A101" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B101" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C97" t="s">
-        <v>395</v>
-      </c>
-      <c r="D97" t="s">
-        <v>396</v>
-      </c>
-      <c r="E97" t="s">
+      <c r="C101" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="E101" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F97"/>
-    </row>
-    <row r="98" s="1" customFormat="1" spans="1:6">
-      <c r="A98" s="5">
+    </row>
+    <row r="102" s="1" customFormat="1" spans="1:5">
+      <c r="A102" s="6">
         <v>4</v>
       </c>
-      <c r="B98" t="s">
-        <v>397</v>
-      </c>
-      <c r="C98" t="s">
-        <v>398</v>
-      </c>
-      <c r="D98"/>
-      <c r="E98" t="s">
+      <c r="B102" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="F98"/>
-    </row>
-    <row r="99" s="1" customFormat="1" spans="1:6">
-      <c r="A99" s="5" t="s">
+    </row>
+    <row r="103" s="1" customFormat="1" spans="1:5">
+      <c r="A103" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B99" t="s">
-        <v>399</v>
-      </c>
-      <c r="C99" t="s">
-        <v>400</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="E99" t="s">
+      <c r="B103" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="E103" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F99"/>
-    </row>
-    <row r="100" s="1" customFormat="1" spans="1:6">
-      <c r="A100" s="5" t="s">
+    </row>
+    <row r="104" s="1" customFormat="1" spans="1:5">
+      <c r="A104" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B100" t="s">
-        <v>402</v>
-      </c>
-      <c r="C100" t="s">
-        <v>403</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="E100" t="s">
+      <c r="B104" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="E104" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F100"/>
-    </row>
-    <row r="101" s="1" customFormat="1" spans="1:6">
-      <c r="A101" s="5">
+    </row>
+    <row r="105" s="1" customFormat="1" spans="1:5">
+      <c r="A105" s="6">
         <v>5</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B105" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C101" t="s">
-        <v>405</v>
-      </c>
-      <c r="D101"/>
-      <c r="E101" t="s">
+      <c r="C105" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="F101"/>
-    </row>
-    <row r="102" s="1" customFormat="1" spans="1:6">
-      <c r="A102" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="B102" t="s">
-        <v>407</v>
-      </c>
-      <c r="C102" t="s">
-        <v>408</v>
-      </c>
-      <c r="D102"/>
-      <c r="E102" t="s">
+    </row>
+    <row r="106" s="1" customFormat="1" spans="1:5">
+      <c r="A106" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F102"/>
-    </row>
-    <row r="103" s="1" customFormat="1" spans="1:6">
-      <c r="A103" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="B103" t="s">
+    </row>
+    <row r="107" s="1" customFormat="1" spans="1:5">
+      <c r="A107" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="B107" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C103" t="s">
-        <v>410</v>
-      </c>
-      <c r="D103" t="s">
-        <v>411</v>
-      </c>
-      <c r="E103" t="s">
+      <c r="C107" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="E107" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F103"/>
-    </row>
-    <row r="104" s="1" customFormat="1" spans="1:6">
-      <c r="A104" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="B104" t="s">
+    </row>
+    <row r="108" s="1" customFormat="1" spans="1:5">
+      <c r="A108" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="B108" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C104" t="s">
-        <v>413</v>
-      </c>
-      <c r="D104"/>
-      <c r="E104"/>
-      <c r="F104"/>
-    </row>
-    <row r="105" s="1" customFormat="1" spans="1:6">
-      <c r="A105" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="B105" t="s">
+      <c r="C108" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+    </row>
+    <row r="109" s="1" customFormat="1" spans="1:5">
+      <c r="A109" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="B109" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C105" t="s">
-        <v>415</v>
-      </c>
-      <c r="D105"/>
-      <c r="E105"/>
-      <c r="F105"/>
-    </row>
-    <row r="106" s="1" customFormat="1" spans="1:6">
-      <c r="A106" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="B106" t="s">
+      <c r="C109" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+    </row>
+    <row r="110" s="1" customFormat="1" spans="1:5">
+      <c r="A110" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="B110" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C106" t="s">
-        <v>417</v>
-      </c>
-      <c r="D106" t="s">
-        <v>418</v>
-      </c>
-      <c r="E106" t="s">
+      <c r="C110" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="E110" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F106"/>
-    </row>
-    <row r="107" s="1" customFormat="1" spans="1:6">
-      <c r="A107" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="B107" t="s">
+    </row>
+    <row r="111" s="1" customFormat="1" spans="1:5">
+      <c r="A111" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="B111" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C107" t="s">
-        <v>420</v>
-      </c>
-      <c r="D107"/>
-      <c r="E107"/>
-      <c r="F107"/>
-    </row>
-    <row r="108" s="1" customFormat="1" spans="1:6">
-      <c r="A108" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="B108" t="s">
-        <v>422</v>
-      </c>
-      <c r="C108" t="s">
-        <v>423</v>
-      </c>
-      <c r="D108"/>
-      <c r="E108" t="s">
+      <c r="C111" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+    </row>
+    <row r="112" s="1" customFormat="1" spans="1:5">
+      <c r="A112" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F108"/>
-    </row>
-    <row r="109" s="1" customFormat="1" spans="1:6">
-      <c r="A109" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="B109" t="s">
-        <v>425</v>
-      </c>
-      <c r="C109" t="s">
-        <v>426</v>
-      </c>
-      <c r="D109" t="s">
-        <v>427</v>
-      </c>
-      <c r="E109" t="s">
+    </row>
+    <row r="113" s="1" customFormat="1" spans="1:5">
+      <c r="A113" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="E113" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F109"/>
-    </row>
-    <row r="110" s="1" customFormat="1" spans="1:6">
-      <c r="A110" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="B110" t="s">
+    </row>
+    <row r="114" s="1" customFormat="1" spans="1:5">
+      <c r="A114" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="B114" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C110" t="s">
-        <v>429</v>
-      </c>
-      <c r="D110"/>
-      <c r="E110"/>
-      <c r="F110"/>
-    </row>
-    <row r="111" s="1" customFormat="1" spans="1:6">
-      <c r="A111" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="B111" t="s">
-        <v>431</v>
-      </c>
-      <c r="C111" t="s">
-        <v>432</v>
-      </c>
-      <c r="D111" t="s">
-        <v>433</v>
-      </c>
-      <c r="E111" t="s">
+      <c r="C114" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+    </row>
+    <row r="115" s="1" customFormat="1" spans="1:5">
+      <c r="A115" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="E115" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F111"/>
-    </row>
-    <row r="112" s="1" customFormat="1" spans="1:6">
-      <c r="A112" s="5">
+    </row>
+    <row r="116" s="1" customFormat="1" spans="1:5">
+      <c r="A116" s="6">
         <v>6</v>
       </c>
-      <c r="B112" t="s">
-        <v>434</v>
-      </c>
-      <c r="C112" t="s">
-        <v>435</v>
-      </c>
-      <c r="D112"/>
-      <c r="E112" t="s">
+      <c r="B116" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="F112"/>
-    </row>
-    <row r="113" s="1" customFormat="1" spans="1:6">
-      <c r="A113" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="B113" t="s">
-        <v>437</v>
-      </c>
-      <c r="C113" t="s">
-        <v>438</v>
-      </c>
-      <c r="D113" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="E113" t="s">
+    </row>
+    <row r="117" s="1" customFormat="1" spans="1:5">
+      <c r="A117" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="E117" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F113"/>
-    </row>
-    <row r="114" s="1" customFormat="1" spans="1:6">
-      <c r="A114" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="B114" t="s">
+    </row>
+    <row r="118" s="1" customFormat="1" spans="1:5">
+      <c r="A118" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="B118" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C114" t="s">
-        <v>441</v>
-      </c>
-      <c r="D114" s="7"/>
-      <c r="E114"/>
-      <c r="F114"/>
-    </row>
-    <row r="115" s="1" customFormat="1" ht="13" customHeight="1" spans="1:6">
-      <c r="A115" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="B115" t="s">
-        <v>443</v>
-      </c>
-      <c r="C115" t="s">
-        <v>444</v>
-      </c>
-      <c r="D115" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="E115" t="s">
+      <c r="C118" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="5"/>
+    </row>
+    <row r="119" s="1" customFormat="1" spans="1:5">
+      <c r="A119" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="E119" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F115"/>
-    </row>
-    <row r="116" s="1" customFormat="1" spans="1:6">
-      <c r="A116" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="B116" t="s">
+    </row>
+    <row r="120" s="1" customFormat="1" spans="1:5">
+      <c r="A120" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="B120" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C116" t="s">
-        <v>447</v>
-      </c>
-      <c r="D116" s="6"/>
-      <c r="E116"/>
-      <c r="F116"/>
-    </row>
-    <row r="117" s="1" customFormat="1" spans="1:6">
-      <c r="A117" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="B117" t="s">
+      <c r="C120" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="D120" s="7"/>
+      <c r="E120" s="5"/>
+    </row>
+    <row r="121" s="1" customFormat="1" spans="1:5">
+      <c r="A121" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="B121" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C117" t="s">
-        <v>449</v>
-      </c>
-      <c r="D117" s="6"/>
-      <c r="E117"/>
-      <c r="F117"/>
-    </row>
-    <row r="118" s="1" customFormat="1" spans="1:6">
-      <c r="A118" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="B118" t="s">
-        <v>451</v>
-      </c>
-      <c r="C118" t="s">
-        <v>452</v>
-      </c>
-      <c r="D118" s="6"/>
-      <c r="E118" t="s">
+      <c r="C121" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="D121" s="7"/>
+      <c r="E121" s="5"/>
+    </row>
+    <row r="122" s="1" customFormat="1" spans="1:5">
+      <c r="A122" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="D122" s="7"/>
+      <c r="E122" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F118"/>
-    </row>
-    <row r="119" s="1" customFormat="1" spans="1:6">
-      <c r="A119" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="B119" t="s">
-        <v>454</v>
-      </c>
-      <c r="C119" t="s">
-        <v>455</v>
-      </c>
-      <c r="D119" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="E119" t="s">
+    </row>
+    <row r="123" s="1" customFormat="1" spans="1:5">
+      <c r="A123" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="E123" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F119"/>
-    </row>
-    <row r="120" s="1" customFormat="1" spans="1:6">
-      <c r="A120" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="B120" t="s">
+    </row>
+    <row r="124" s="1" customFormat="1" spans="1:5">
+      <c r="A124" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="B124" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C120" t="s">
-        <v>458</v>
-      </c>
-      <c r="D120" s="6"/>
-      <c r="E120"/>
-      <c r="F120"/>
-    </row>
-    <row r="121" s="1" customFormat="1" spans="1:6">
-      <c r="A121" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="B121" t="s">
+      <c r="C124" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="D124" s="7"/>
+      <c r="E124" s="5"/>
+    </row>
+    <row r="125" s="1" customFormat="1" spans="1:5">
+      <c r="A125" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="B125" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C121" t="s">
-        <v>460</v>
-      </c>
-      <c r="D121" s="6"/>
-      <c r="E121"/>
-      <c r="F121"/>
-    </row>
-    <row r="122" s="1" customFormat="1" spans="1:6">
-      <c r="A122" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="B122" t="s">
-        <v>462</v>
-      </c>
-      <c r="C122" t="s">
-        <v>463</v>
-      </c>
-      <c r="D122" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="E122" t="s">
+      <c r="C125" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="D125" s="7"/>
+      <c r="E125" s="5"/>
+    </row>
+    <row r="126" s="1" customFormat="1" spans="1:5">
+      <c r="A126" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="D126" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="E126" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F122"/>
-    </row>
-    <row r="123" s="1" customFormat="1" spans="1:6">
-      <c r="A123" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="B123" t="s">
+    </row>
+    <row r="127" s="1" customFormat="1" spans="1:5">
+      <c r="A127" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="B127" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C123" t="s">
-        <v>466</v>
-      </c>
-      <c r="D123" s="6"/>
-      <c r="E123"/>
-      <c r="F123"/>
-    </row>
-    <row r="124" s="1" customFormat="1" spans="1:6">
-      <c r="A124" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="B124" t="s">
+      <c r="C127" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="D127" s="7"/>
+      <c r="E127" s="5"/>
+    </row>
+    <row r="128" s="1" customFormat="1" spans="1:5">
+      <c r="A128" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="B128" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C124" t="s">
-        <v>468</v>
-      </c>
-      <c r="D124" s="6"/>
-      <c r="E124"/>
-      <c r="F124"/>
-    </row>
-    <row r="125" s="1" customFormat="1" spans="1:6">
-      <c r="A125" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="B125" t="s">
-        <v>470</v>
-      </c>
-      <c r="C125" t="s">
-        <v>471</v>
-      </c>
-      <c r="D125" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="E125" t="s">
+      <c r="C128" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="D128" s="7"/>
+      <c r="E128" s="5"/>
+    </row>
+    <row r="129" s="1" customFormat="1" spans="1:5">
+      <c r="A129" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="E129" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F125"/>
-    </row>
-    <row r="126" s="1" customFormat="1" spans="1:6">
-      <c r="A126" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="B126" t="s">
+    </row>
+    <row r="130" s="1" customFormat="1" spans="1:5">
+      <c r="A130" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="B130" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C126" t="s">
-        <v>474</v>
-      </c>
-      <c r="D126" s="6"/>
-      <c r="E126"/>
-      <c r="F126"/>
-    </row>
-    <row r="127" s="1" customFormat="1" spans="1:6">
-      <c r="A127" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="B127" t="s">
+      <c r="C130" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="D130" s="7"/>
+      <c r="E130" s="5"/>
+    </row>
+    <row r="131" s="1" customFormat="1" spans="1:5">
+      <c r="A131" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="B131" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C127" t="s">
-        <v>476</v>
-      </c>
-      <c r="D127" s="6"/>
-      <c r="E127"/>
-      <c r="F127"/>
-    </row>
-    <row r="128" s="1" customFormat="1" spans="1:6">
-      <c r="A128" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="B128" t="s">
-        <v>478</v>
-      </c>
-      <c r="C128" t="s">
-        <v>479</v>
-      </c>
-      <c r="D128"/>
-      <c r="E128" t="s">
+      <c r="C131" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="D131" s="7"/>
+      <c r="E131" s="5"/>
+    </row>
+    <row r="132" s="1" customFormat="1" spans="1:5">
+      <c r="A132" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="D132" s="7"/>
+      <c r="E132" s="5"/>
+    </row>
+    <row r="133" s="1" customFormat="1" spans="1:5">
+      <c r="A133" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F128"/>
-    </row>
-    <row r="129" s="1" customFormat="1" spans="1:6">
-      <c r="A129" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="B129" t="s">
-        <v>481</v>
-      </c>
-      <c r="C129" t="s">
-        <v>482</v>
-      </c>
-      <c r="D129" t="s">
-        <v>483</v>
-      </c>
-      <c r="E129" t="s">
+    </row>
+    <row r="134" s="1" customFormat="1" spans="1:5">
+      <c r="A134" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="E134" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F129"/>
-    </row>
-    <row r="130" s="1" customFormat="1" spans="1:6">
-      <c r="A130" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="B130" t="s">
+    </row>
+    <row r="135" s="1" customFormat="1" spans="1:5">
+      <c r="A135" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="B135" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C130" t="s">
-        <v>485</v>
-      </c>
-      <c r="D130"/>
-      <c r="E130"/>
-      <c r="F130"/>
-    </row>
-    <row r="131" s="1" customFormat="1" spans="1:6">
-      <c r="A131" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="B131" t="s">
+      <c r="C135" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+    </row>
+    <row r="136" s="1" customFormat="1" spans="1:5">
+      <c r="A136" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="B136" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C131" t="s">
-        <v>487</v>
-      </c>
-      <c r="D131"/>
-      <c r="E131"/>
-      <c r="F131"/>
-    </row>
-    <row r="132" s="1" customFormat="1" spans="1:6">
-      <c r="A132" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="B132" t="s">
-        <v>489</v>
-      </c>
-      <c r="C132" t="s">
-        <v>490</v>
-      </c>
-      <c r="D132" t="s">
-        <v>491</v>
-      </c>
-      <c r="E132" t="s">
+      <c r="C136" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
+    </row>
+    <row r="137" s="1" customFormat="1" spans="1:5">
+      <c r="A137" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="E137" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F132"/>
-    </row>
-    <row r="133" s="1" customFormat="1" spans="1:6">
-      <c r="A133" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="B133" t="s">
+    </row>
+    <row r="138" s="1" customFormat="1" spans="1:5">
+      <c r="A138" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="B138" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C133" t="s">
-        <v>493</v>
-      </c>
-      <c r="D133"/>
-      <c r="E133"/>
-      <c r="F133"/>
-    </row>
-    <row r="134" s="1" customFormat="1" spans="1:6">
-      <c r="A134" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="B134" t="s">
+      <c r="C138" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
+    </row>
+    <row r="139" s="1" customFormat="1" spans="1:5">
+      <c r="A139" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="B139" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C134" t="s">
-        <v>495</v>
-      </c>
-      <c r="D134"/>
-      <c r="E134"/>
-      <c r="F134"/>
-    </row>
-    <row r="135" s="1" customFormat="1" spans="1:6">
-      <c r="A135" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="B135" t="s">
-        <v>497</v>
-      </c>
-      <c r="C135" t="s">
-        <v>498</v>
-      </c>
-      <c r="D135"/>
-      <c r="E135" t="s">
+      <c r="C139" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
+    </row>
+    <row r="140" s="1" customFormat="1" spans="1:5">
+      <c r="A140" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F135"/>
-    </row>
-    <row r="136" s="1" customFormat="1" spans="1:6">
-      <c r="A136" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="B136" t="s">
-        <v>500</v>
-      </c>
-      <c r="C136" t="s">
-        <v>501</v>
-      </c>
-      <c r="D136" t="s">
-        <v>502</v>
-      </c>
-      <c r="E136" t="s">
+    </row>
+    <row r="141" s="1" customFormat="1" spans="1:5">
+      <c r="A141" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="E141" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F136"/>
-    </row>
-    <row r="137" s="1" customFormat="1" spans="1:6">
-      <c r="A137" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="B137" t="s">
+    </row>
+    <row r="142" s="1" customFormat="1" spans="1:5">
+      <c r="A142" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="B142" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C137" t="s">
-        <v>504</v>
-      </c>
-      <c r="D137"/>
-      <c r="E137"/>
-      <c r="F137"/>
-    </row>
-    <row r="138" s="1" customFormat="1" spans="1:6">
-      <c r="A138" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="B138" t="s">
+      <c r="C142" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+    </row>
+    <row r="143" s="1" customFormat="1" spans="1:5">
+      <c r="A143" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="B143" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C138" t="s">
-        <v>506</v>
-      </c>
-      <c r="D138"/>
-      <c r="E138"/>
-      <c r="F138"/>
-    </row>
-    <row r="139" s="1" customFormat="1" spans="1:6">
-      <c r="A139" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="B139" t="s">
-        <v>508</v>
-      </c>
-      <c r="C139" t="s">
-        <v>509</v>
-      </c>
-      <c r="D139" t="s">
-        <v>510</v>
-      </c>
-      <c r="E139" t="s">
+      <c r="C143" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5"/>
+    </row>
+    <row r="144" s="1" customFormat="1" spans="1:5">
+      <c r="A144" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="E144" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F139"/>
-    </row>
-    <row r="140" s="1" customFormat="1" spans="1:6">
-      <c r="A140" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="B140" t="s">
+    </row>
+    <row r="145" s="1" customFormat="1" spans="1:5">
+      <c r="A145" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="B145" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C140" t="s">
-        <v>512</v>
-      </c>
-      <c r="D140"/>
-      <c r="E140"/>
-      <c r="F140"/>
-    </row>
-    <row r="141" s="1" customFormat="1" spans="1:6">
-      <c r="A141" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="B141" t="s">
+      <c r="C145" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
+    </row>
+    <row r="146" s="1" customFormat="1" spans="1:5">
+      <c r="A146" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="B146" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C141" t="s">
-        <v>514</v>
-      </c>
-      <c r="D141"/>
-      <c r="E141"/>
-      <c r="F141"/>
-    </row>
-    <row r="142" s="1" customFormat="1" spans="1:6">
-      <c r="A142" s="5" t="s">
-        <v>515</v>
-      </c>
-      <c r="B142" t="s">
-        <v>516</v>
-      </c>
-      <c r="C142" t="s">
-        <v>517</v>
-      </c>
-      <c r="D142" t="s">
-        <v>518</v>
-      </c>
-      <c r="E142" t="s">
+      <c r="C146" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="D146" s="5"/>
+      <c r="E146" s="5"/>
+    </row>
+    <row r="147" s="1" customFormat="1" spans="1:5">
+      <c r="A147" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="E147" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F142"/>
-    </row>
-    <row r="143" s="1" customFormat="1" spans="1:6">
-      <c r="A143" s="5" t="s">
-        <v>519</v>
-      </c>
-      <c r="B143" t="s">
-        <v>520</v>
-      </c>
-      <c r="C143" t="s">
-        <v>521</v>
-      </c>
-      <c r="D143" t="s">
-        <v>522</v>
-      </c>
-      <c r="E143" t="s">
+    </row>
+    <row r="148" s="1" customFormat="1" spans="1:5">
+      <c r="A148" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="E148" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F143"/>
-    </row>
-    <row r="144" s="1" customFormat="1" spans="1:6">
-      <c r="A144" s="5" t="s">
-        <v>523</v>
-      </c>
-      <c r="B144" t="s">
+    </row>
+    <row r="149" s="1" customFormat="1" spans="1:5">
+      <c r="A149" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="B149" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C144" t="s">
-        <v>524</v>
-      </c>
-      <c r="D144"/>
-      <c r="E144"/>
-      <c r="F144"/>
-    </row>
-    <row r="145" s="1" customFormat="1" spans="1:6">
-      <c r="A145" s="5" t="s">
-        <v>525</v>
-      </c>
-      <c r="B145" t="s">
+      <c r="C149" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5"/>
+    </row>
+    <row r="150" s="1" customFormat="1" spans="1:5">
+      <c r="A150" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="B150" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C145" t="s">
-        <v>526</v>
-      </c>
-      <c r="D145"/>
-      <c r="E145"/>
-      <c r="F145"/>
-    </row>
-    <row r="146" s="1" customFormat="1" spans="1:6">
-      <c r="A146" s="5" t="s">
-        <v>527</v>
-      </c>
-      <c r="B146" t="s">
-        <v>528</v>
-      </c>
-      <c r="C146" t="s">
-        <v>529</v>
-      </c>
-      <c r="D146" t="s">
-        <v>530</v>
-      </c>
-      <c r="E146" t="s">
+      <c r="C150" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
+    </row>
+    <row r="151" s="1" customFormat="1" spans="1:5">
+      <c r="A151" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="E151" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F146"/>
-    </row>
-    <row r="147" s="1" customFormat="1" spans="1:6">
-      <c r="A147" s="5" t="s">
-        <v>531</v>
-      </c>
-      <c r="B147" t="s">
+    </row>
+    <row r="152" s="1" customFormat="1" spans="1:5">
+      <c r="A152" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="B152" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C147" t="s">
-        <v>532</v>
-      </c>
-      <c r="D147"/>
-      <c r="E147"/>
-      <c r="F147"/>
-    </row>
-    <row r="148" s="1" customFormat="1" spans="1:6">
-      <c r="A148" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="B148" t="s">
+      <c r="C152" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5"/>
+    </row>
+    <row r="153" s="1" customFormat="1" spans="1:5">
+      <c r="A153" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="B153" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C148" t="s">
-        <v>534</v>
-      </c>
-      <c r="D148"/>
-      <c r="E148"/>
-      <c r="F148"/>
-    </row>
-    <row r="149" s="1" customFormat="1" spans="1:6">
-      <c r="A149" s="5" t="s">
-        <v>535</v>
-      </c>
-      <c r="B149" t="s">
-        <v>536</v>
-      </c>
-      <c r="C149" t="s">
-        <v>537</v>
-      </c>
-      <c r="D149" t="s">
-        <v>538</v>
-      </c>
-      <c r="E149" t="s">
+      <c r="C153" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="D153" s="5"/>
+      <c r="E153" s="5"/>
+    </row>
+    <row r="154" s="1" customFormat="1" spans="1:5">
+      <c r="A154" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="E154" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F149"/>
-    </row>
-    <row r="150" s="1" customFormat="1" spans="1:6">
-      <c r="A150" s="5" t="s">
-        <v>539</v>
-      </c>
-      <c r="B150" t="s">
+    </row>
+    <row r="155" s="1" customFormat="1" spans="1:5">
+      <c r="A155" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="B155" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C150" t="s">
-        <v>540</v>
-      </c>
-      <c r="D150"/>
-      <c r="E150"/>
-      <c r="F150" s="7"/>
-    </row>
-    <row r="151" s="1" customFormat="1" spans="1:6">
-      <c r="A151" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="B151" t="s">
-        <v>542</v>
-      </c>
-      <c r="C151" t="s">
-        <v>543</v>
-      </c>
-      <c r="D151" t="s">
-        <v>544</v>
-      </c>
-      <c r="E151" t="s">
-        <v>545</v>
-      </c>
-      <c r="F151" s="7"/>
-    </row>
-    <row r="152" s="1" customFormat="1" spans="1:6">
-      <c r="A152" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="B152" t="s">
+      <c r="C155" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="D155" s="5"/>
+      <c r="E155" s="5"/>
+    </row>
+    <row r="156" s="1" customFormat="1" spans="1:5">
+      <c r="A156" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="157" s="1" customFormat="1" spans="1:5">
+      <c r="A157" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="B157" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C152" t="s">
-        <v>547</v>
-      </c>
-      <c r="D152"/>
-      <c r="E152"/>
-      <c r="F152" s="7"/>
-    </row>
-    <row r="153" s="1" customFormat="1" spans="1:6">
-      <c r="A153" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="B153" t="s">
+      <c r="C157" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="D157" s="5"/>
+      <c r="E157" s="5"/>
+    </row>
+    <row r="158" s="1" customFormat="1" spans="1:5">
+      <c r="A158" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="B158" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C153" t="s">
-        <v>549</v>
-      </c>
-      <c r="D153"/>
-      <c r="E153"/>
-      <c r="F153" s="7"/>
-    </row>
-    <row r="154" s="1" customFormat="1" spans="1:5">
-      <c r="A154" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="B154" t="s">
-        <v>551</v>
-      </c>
-      <c r="C154" t="s">
-        <v>552</v>
-      </c>
-      <c r="D154" t="s">
-        <v>553</v>
-      </c>
-      <c r="E154" t="s">
+      <c r="C158" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="D158" s="5"/>
+      <c r="E158" s="5"/>
+    </row>
+    <row r="159" s="1" customFormat="1" spans="1:5">
+      <c r="A159" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="D159" s="5"/>
+      <c r="E159" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="160" s="1" customFormat="1" spans="1:5">
+      <c r="A160" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="E160" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="161" s="1" customFormat="1" spans="1:5">
+      <c r="A161" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="E161" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="162" s="1" customFormat="1" spans="1:5">
+      <c r="A162" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="D162" s="5"/>
+      <c r="E162" s="5"/>
+    </row>
+    <row r="163" s="1" customFormat="1" spans="1:5">
+      <c r="A163" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="D163" s="5"/>
+      <c r="E163" s="5"/>
+    </row>
+    <row r="164" s="1" customFormat="1" spans="1:5">
+      <c r="A164" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="E164" s="5" t="s">
         <v>148</v>
       </c>
     </row>

--- a/server/excel/menu/Menu.xlsx
+++ b/server/excel/menu/Menu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9924" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="AppMenu" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584">
   <si>
     <t>菜单编号</t>
   </si>
@@ -413,6 +413,21 @@
     <t>clhx_hbclhx_app</t>
   </si>
   <si>
+    <t>3,5</t>
+  </si>
+  <si>
+    <t>成本分析</t>
+  </si>
+  <si>
+    <t>cbfx_app</t>
+  </si>
+  <si>
+    <t>com.lgx.price.accounting.analysis.cbfx.CbfxActivity.ACTION</t>
+  </si>
+  <si>
+    <t>cbfx</t>
+  </si>
+  <si>
     <t>财务</t>
   </si>
   <si>
@@ -1837,10 +1852,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1870,36 +1885,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1921,8 +1907,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1945,13 +1984,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1967,16 +1999,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1990,24 +2014,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2029,7 +2044,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2041,7 +2134,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2053,43 +2164,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2101,115 +2218,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2220,21 +2235,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2262,22 +2262,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2299,6 +2294,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -2307,16 +2313,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2328,10 +2343,10 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2340,137 +2355,137 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2482,7 +2497,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2490,16 +2504,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2791,40 +2795,40 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="18.4444444444444" style="9" customWidth="1"/>
-    <col min="2" max="2" width="23.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="46.2222222222222" customWidth="1"/>
+    <col min="1" max="1" width="18.4416666666667" style="5" customWidth="1"/>
+    <col min="2" max="2" width="23.4416666666667" customWidth="1"/>
+    <col min="3" max="3" width="46.225" customWidth="1"/>
     <col min="4" max="4" width="82.25" customWidth="1"/>
     <col min="5" max="5" width="27.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
-      <c r="A2" s="12">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -2835,7 +2839,7 @@
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
@@ -2852,7 +2856,7 @@
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
@@ -2863,7 +2867,7 @@
       </c>
     </row>
     <row r="5" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B5" t="s">
@@ -2880,7 +2884,7 @@
       </c>
     </row>
     <row r="6" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A6" s="9">
+      <c r="A6" s="5">
         <v>2</v>
       </c>
       <c r="B6" t="s">
@@ -2891,7 +2895,7 @@
       </c>
     </row>
     <row r="7" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B7" t="s">
@@ -2908,7 +2912,7 @@
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B8" t="s">
@@ -2919,7 +2923,7 @@
       </c>
     </row>
     <row r="9" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B9" t="s">
@@ -2930,7 +2934,7 @@
       </c>
     </row>
     <row r="10" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B10" t="s">
@@ -2941,7 +2945,7 @@
       </c>
     </row>
     <row r="11" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B11" t="s">
@@ -2952,7 +2956,7 @@
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:3">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B12" t="s">
@@ -2963,7 +2967,7 @@
       </c>
     </row>
     <row r="13" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B13" t="s">
@@ -2974,7 +2978,7 @@
       </c>
     </row>
     <row r="14" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B14" t="s">
@@ -2985,7 +2989,7 @@
       </c>
     </row>
     <row r="15" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B15" t="s">
@@ -2996,7 +3000,7 @@
       </c>
     </row>
     <row r="16" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B16" t="s">
@@ -3007,7 +3011,7 @@
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:3">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B17" t="s">
@@ -3018,7 +3022,7 @@
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:3">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="5" t="s">
         <v>56</v>
       </c>
       <c r="B18" t="s">
@@ -3029,7 +3033,7 @@
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:3">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B19" t="s">
@@ -3040,7 +3044,7 @@
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:3">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B20" t="s">
@@ -3051,7 +3055,7 @@
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:3">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="5" t="s">
         <v>65</v>
       </c>
       <c r="B21" t="s">
@@ -3062,7 +3066,7 @@
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:5">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="5" t="s">
         <v>67</v>
       </c>
       <c r="B22" t="s">
@@ -3079,7 +3083,7 @@
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:3">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B23" t="s">
@@ -3090,7 +3094,7 @@
       </c>
     </row>
     <row r="24" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="5" t="s">
         <v>74</v>
       </c>
       <c r="B24" t="s">
@@ -3101,7 +3105,7 @@
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:3">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="5" t="s">
         <v>77</v>
       </c>
       <c r="B25" t="s">
@@ -3112,7 +3116,7 @@
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:5">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="5" t="s">
         <v>80</v>
       </c>
       <c r="B26" t="s">
@@ -3129,7 +3133,7 @@
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:3">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="5" t="s">
         <v>85</v>
       </c>
       <c r="B27" t="s">
@@ -3140,7 +3144,7 @@
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:3">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="5" t="s">
         <v>88</v>
       </c>
       <c r="B28" t="s">
@@ -3151,7 +3155,7 @@
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:3">
-      <c r="A29" s="9">
+      <c r="A29" s="5">
         <v>3</v>
       </c>
       <c r="B29" t="s">
@@ -3162,7 +3166,7 @@
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:5">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="5" t="s">
         <v>93</v>
       </c>
       <c r="B30" t="s">
@@ -3179,7 +3183,7 @@
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:5">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="5" t="s">
         <v>98</v>
       </c>
       <c r="B31" t="s">
@@ -3188,7 +3192,7 @@
       <c r="C31" t="s">
         <v>100</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="8" t="s">
         <v>101</v>
       </c>
       <c r="E31" t="s">
@@ -3196,7 +3200,7 @@
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:5">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="5" t="s">
         <v>103</v>
       </c>
       <c r="B32" t="s">
@@ -3205,7 +3209,7 @@
       <c r="C32" t="s">
         <v>105</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="8" t="s">
         <v>106</v>
       </c>
       <c r="E32" t="s">
@@ -3213,7 +3217,7 @@
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:5">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="5" t="s">
         <v>108</v>
       </c>
       <c r="B33" t="s">
@@ -3222,7 +3226,7 @@
       <c r="C33" t="s">
         <v>110</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="8" t="s">
         <v>111</v>
       </c>
       <c r="E33" t="s">
@@ -3230,7 +3234,7 @@
       </c>
     </row>
     <row r="34" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="5" t="s">
         <v>113</v>
       </c>
       <c r="B34" t="s">
@@ -3241,7 +3245,7 @@
       </c>
     </row>
     <row r="35" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="5" t="s">
         <v>116</v>
       </c>
       <c r="B35" t="s">
@@ -3251,36 +3255,36 @@
         <v>118</v>
       </c>
     </row>
-    <row r="36" customHeight="1" spans="1:3">
-      <c r="A36" s="9">
+    <row r="36" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A36" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" t="s">
+        <v>121</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E36" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:3">
+      <c r="A37" s="5">
         <v>4</v>
       </c>
-      <c r="B36" t="s">
-        <v>119</v>
-      </c>
-      <c r="C36" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="1:5">
-      <c r="A37" s="9" t="s">
-        <v>121</v>
-      </c>
       <c r="B37" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C37" t="s">
-        <v>123</v>
-      </c>
-      <c r="D37" t="s">
-        <v>124</v>
-      </c>
-      <c r="E37" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:5">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="5" t="s">
         <v>126</v>
       </c>
       <c r="B38" t="s">
@@ -3297,7 +3301,7 @@
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:5">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="5" t="s">
         <v>131</v>
       </c>
       <c r="B39" t="s">
@@ -3314,7 +3318,7 @@
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:5">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="5" t="s">
         <v>136</v>
       </c>
       <c r="B40" t="s">
@@ -3328,6 +3332,23 @@
       </c>
       <c r="E40" t="s">
         <v>140</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:5">
+      <c r="A41" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B41" t="s">
+        <v>142</v>
+      </c>
+      <c r="C41" t="s">
+        <v>143</v>
+      </c>
+      <c r="D41" t="s">
+        <v>144</v>
+      </c>
+      <c r="E41" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -3342,21 +3363,21 @@
   <sheetPr/>
   <dimension ref="A1:E164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+    <sheetView topLeftCell="A154" workbookViewId="0">
       <selection activeCell="B6" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="25.8888888888889" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.8916666666667" style="1" customWidth="1"/>
     <col min="2" max="2" width="32.6666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5555555555556" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5583333333333" style="1" customWidth="1"/>
     <col min="4" max="4" width="37.6666666666667" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.6666666666667" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3367,7 +3388,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
@@ -3377,2423 +3398,2423 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:5">
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:5">
+      <c r="A4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:5">
+      <c r="A5" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:5">
+      <c r="A6" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:5">
+      <c r="A7" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:5">
+      <c r="A8" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:5">
+      <c r="A9" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:5">
+      <c r="A10" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:5">
+      <c r="A11" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B12" t="s">
+        <v>181</v>
+      </c>
+      <c r="C12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D12" t="s">
+        <v>183</v>
+      </c>
+      <c r="E12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:5">
+      <c r="A13" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D13" t="s">
+        <v>187</v>
+      </c>
+      <c r="E13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:5">
+      <c r="A14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>188</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:5">
+      <c r="A15" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>190</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:5">
+      <c r="A16" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B16" t="s">
+        <v>193</v>
+      </c>
+      <c r="C16" t="s">
+        <v>194</v>
+      </c>
+      <c r="D16" t="s">
+        <v>195</v>
+      </c>
+      <c r="E16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:5">
+      <c r="A17" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B17" t="s">
+        <v>197</v>
+      </c>
+      <c r="C17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17"/>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:5">
+      <c r="A18" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B18" t="s">
+        <v>200</v>
+      </c>
+      <c r="C18" t="s">
+        <v>201</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18"/>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:5">
+      <c r="A19" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
+        <v>203</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:5">
+      <c r="A20" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B20" t="s">
+        <v>205</v>
+      </c>
+      <c r="C20" t="s">
+        <v>206</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:5">
+      <c r="A21" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B21" t="s">
+        <v>208</v>
+      </c>
+      <c r="C21" t="s">
+        <v>209</v>
+      </c>
+      <c r="D21" t="s">
+        <v>210</v>
+      </c>
+      <c r="E21" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:5">
+      <c r="A22" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B22" t="s">
+        <v>197</v>
+      </c>
+      <c r="C22" t="s">
+        <v>212</v>
+      </c>
+      <c r="D22"/>
+      <c r="E22"/>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:5">
+      <c r="A23" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B23" t="s">
+        <v>200</v>
+      </c>
+      <c r="C23" t="s">
+        <v>214</v>
+      </c>
+      <c r="D23"/>
+      <c r="E23"/>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:5">
+      <c r="A24" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B24" t="s">
+        <v>216</v>
+      </c>
+      <c r="C24" t="s">
+        <v>217</v>
+      </c>
+      <c r="D24" t="s">
+        <v>218</v>
+      </c>
+      <c r="E24" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:5">
+      <c r="A25" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B25" t="s">
+        <v>197</v>
+      </c>
+      <c r="C25" t="s">
+        <v>220</v>
+      </c>
+      <c r="D25"/>
+      <c r="E25"/>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:5">
+      <c r="A26" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B26" t="s">
+        <v>200</v>
+      </c>
+      <c r="C26" t="s">
+        <v>222</v>
+      </c>
+      <c r="D26"/>
+      <c r="E26"/>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:5">
+      <c r="A27" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B27" t="s">
+        <v>224</v>
+      </c>
+      <c r="C27" t="s">
+        <v>225</v>
+      </c>
+      <c r="D27" t="s">
+        <v>226</v>
+      </c>
+      <c r="E27" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:5">
+      <c r="A28" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B28" t="s">
+        <v>197</v>
+      </c>
+      <c r="C28" t="s">
+        <v>228</v>
+      </c>
+      <c r="D28"/>
+      <c r="E28"/>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:5">
+      <c r="A29" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B29" t="s">
+        <v>200</v>
+      </c>
+      <c r="C29" t="s">
+        <v>230</v>
+      </c>
+      <c r="D29"/>
+      <c r="E29"/>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:5">
+      <c r="A30" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B30" t="s">
+        <v>232</v>
+      </c>
+      <c r="C30" t="s">
+        <v>233</v>
+      </c>
+      <c r="D30" t="s">
+        <v>234</v>
+      </c>
+      <c r="E30" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:5">
+      <c r="A31" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B31" t="s">
+        <v>197</v>
+      </c>
+      <c r="C31" t="s">
+        <v>236</v>
+      </c>
+      <c r="D31"/>
+      <c r="E31"/>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="1:5">
+      <c r="A32" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B32" t="s">
+        <v>200</v>
+      </c>
+      <c r="C32" t="s">
+        <v>238</v>
+      </c>
+      <c r="D32"/>
+      <c r="E32"/>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="1:5">
+      <c r="A33" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B33" t="s">
+        <v>240</v>
+      </c>
+      <c r="C33" t="s">
+        <v>241</v>
+      </c>
+      <c r="D33"/>
+      <c r="E33" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="1:5">
+      <c r="A34" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B34" t="s">
+        <v>243</v>
+      </c>
+      <c r="C34" t="s">
+        <v>244</v>
+      </c>
+      <c r="D34" t="s">
+        <v>245</v>
+      </c>
+      <c r="E34" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="1:5">
+      <c r="A35" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B35" t="s">
+        <v>197</v>
+      </c>
+      <c r="C35" t="s">
+        <v>247</v>
+      </c>
+      <c r="D35"/>
+      <c r="E35"/>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="1:5">
+      <c r="A36" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B36" t="s">
+        <v>200</v>
+      </c>
+      <c r="C36" t="s">
+        <v>249</v>
+      </c>
+      <c r="D36"/>
+      <c r="E36"/>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="1:5">
+      <c r="A37" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B37" t="s">
+        <v>251</v>
+      </c>
+      <c r="C37" t="s">
+        <v>252</v>
+      </c>
+      <c r="D37" t="s">
+        <v>253</v>
+      </c>
+      <c r="E37" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="1:5">
+      <c r="A38" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B38" t="s">
+        <v>197</v>
+      </c>
+      <c r="C38" t="s">
+        <v>255</v>
+      </c>
+      <c r="D38"/>
+      <c r="E38"/>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="1:5">
+      <c r="A39" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B39" t="s">
+        <v>200</v>
+      </c>
+      <c r="C39" t="s">
+        <v>257</v>
+      </c>
+      <c r="D39"/>
+      <c r="E39"/>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="1:5">
+      <c r="A40" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B40" t="s">
+        <v>259</v>
+      </c>
+      <c r="C40" t="s">
+        <v>260</v>
+      </c>
+      <c r="D40" t="s">
+        <v>261</v>
+      </c>
+      <c r="E40" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="41" s="1" customFormat="1" spans="1:5">
+      <c r="A41" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B41" t="s">
+        <v>197</v>
+      </c>
+      <c r="C41" t="s">
+        <v>263</v>
+      </c>
+      <c r="D41"/>
+      <c r="E41"/>
+    </row>
+    <row r="42" s="1" customFormat="1" spans="1:5">
+      <c r="A42" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B42" t="s">
+        <v>200</v>
+      </c>
+      <c r="C42" t="s">
+        <v>265</v>
+      </c>
+      <c r="D42"/>
+      <c r="E42"/>
+    </row>
+    <row r="43" s="1" customFormat="1" spans="1:5">
+      <c r="A43" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" t="s">
+        <v>267</v>
+      </c>
+      <c r="D43"/>
+      <c r="E43" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="44" s="1" customFormat="1" spans="1:5">
+      <c r="A44" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B44" t="s">
+        <v>269</v>
+      </c>
+      <c r="C44" t="s">
+        <v>270</v>
+      </c>
+      <c r="D44" t="s">
+        <v>271</v>
+      </c>
+      <c r="E44" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="45" s="1" customFormat="1" spans="1:5">
+      <c r="A45" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B45" t="s">
+        <v>197</v>
+      </c>
+      <c r="C45" t="s">
+        <v>273</v>
+      </c>
+      <c r="D45"/>
+      <c r="E45"/>
+    </row>
+    <row r="46" s="1" customFormat="1" spans="1:5">
+      <c r="A46" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B46" t="s">
+        <v>200</v>
+      </c>
+      <c r="C46" t="s">
+        <v>275</v>
+      </c>
+      <c r="D46"/>
+      <c r="E46"/>
+    </row>
+    <row r="47" s="1" customFormat="1" spans="1:5">
+      <c r="A47" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B47" t="s">
+        <v>277</v>
+      </c>
+      <c r="C47" t="s">
+        <v>278</v>
+      </c>
+      <c r="D47"/>
+      <c r="E47" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="1" spans="1:5">
+      <c r="A48" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B48" t="s">
+        <v>280</v>
+      </c>
+      <c r="C48" t="s">
+        <v>281</v>
+      </c>
+      <c r="D48" t="s">
+        <v>282</v>
+      </c>
+      <c r="E48" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="49" s="1" customFormat="1" spans="1:5">
+      <c r="A49" s="5">
+        <v>2</v>
+      </c>
+      <c r="B49" t="s">
+        <v>283</v>
+      </c>
+      <c r="C49" t="s">
+        <v>284</v>
+      </c>
+      <c r="D49"/>
+      <c r="E49" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="50" s="1" customFormat="1" spans="1:5">
+      <c r="A50" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" t="s">
+        <v>285</v>
+      </c>
+      <c r="C50" t="s">
+        <v>286</v>
+      </c>
+      <c r="D50"/>
+      <c r="E50" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="51" s="1" customFormat="1" spans="1:5">
+      <c r="A51" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" t="s">
+        <v>287</v>
+      </c>
+      <c r="C51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D51" t="s">
+        <v>289</v>
+      </c>
+      <c r="E51" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="52" s="1" customFormat="1" spans="1:5">
+      <c r="A52" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B52" t="s">
+        <v>200</v>
+      </c>
+      <c r="C52" t="s">
+        <v>290</v>
+      </c>
+      <c r="D52"/>
+      <c r="E52"/>
+    </row>
+    <row r="53" s="1" customFormat="1" spans="1:5">
+      <c r="A53" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B53" t="s">
+        <v>160</v>
+      </c>
+      <c r="C53" t="s">
+        <v>292</v>
+      </c>
+      <c r="D53"/>
+      <c r="E53"/>
+    </row>
+    <row r="54" s="1" customFormat="1" spans="1:5">
+      <c r="A54" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B54" t="s">
+        <v>75</v>
+      </c>
+      <c r="C54" t="s">
+        <v>293</v>
+      </c>
+      <c r="D54" t="s">
+        <v>294</v>
+      </c>
+      <c r="E54" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="55" s="1" customFormat="1" spans="1:5">
+      <c r="A55" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B55" t="s">
+        <v>197</v>
+      </c>
+      <c r="C55" t="s">
+        <v>295</v>
+      </c>
+      <c r="D55"/>
+      <c r="E55"/>
+    </row>
+    <row r="56" s="1" customFormat="1" spans="1:5">
+      <c r="A56" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B56" t="s">
+        <v>200</v>
+      </c>
+      <c r="C56" t="s">
+        <v>296</v>
+      </c>
+      <c r="D56"/>
+      <c r="E56"/>
+    </row>
+    <row r="57" s="1" customFormat="1" spans="1:5">
+      <c r="A57" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" t="s">
+        <v>78</v>
+      </c>
+      <c r="C57" t="s">
+        <v>297</v>
+      </c>
+      <c r="D57" t="s">
+        <v>298</v>
+      </c>
+      <c r="E57" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="58" s="1" customFormat="1" spans="1:5">
+      <c r="A58" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" t="s">
+        <v>197</v>
+      </c>
+      <c r="C58" t="s">
+        <v>299</v>
+      </c>
+      <c r="D58"/>
+      <c r="E58"/>
+    </row>
+    <row r="59" s="1" customFormat="1" spans="1:5">
+      <c r="A59" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B59" t="s">
+        <v>200</v>
+      </c>
+      <c r="C59" t="s">
+        <v>301</v>
+      </c>
+      <c r="D59"/>
+      <c r="E59"/>
+    </row>
+    <row r="60" s="1" customFormat="1" spans="1:5">
+      <c r="A60" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" t="s">
+        <v>302</v>
+      </c>
+      <c r="C60" t="s">
+        <v>303</v>
+      </c>
+      <c r="D60"/>
+      <c r="E60" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="61" s="1" customFormat="1" spans="1:5">
+      <c r="A61" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B61" t="s">
+        <v>304</v>
+      </c>
+      <c r="C61" t="s">
+        <v>305</v>
+      </c>
+      <c r="D61" t="s">
+        <v>306</v>
+      </c>
+      <c r="E61" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="62" s="1" customFormat="1" spans="1:5">
+      <c r="A62" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B62" t="s">
+        <v>200</v>
+      </c>
+      <c r="C62" t="s">
+        <v>308</v>
+      </c>
+      <c r="D62"/>
+      <c r="E62"/>
+    </row>
+    <row r="63" s="1" customFormat="1" spans="1:5">
+      <c r="A63" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B63" t="s">
+        <v>309</v>
+      </c>
+      <c r="C63" t="s">
+        <v>310</v>
+      </c>
+      <c r="D63"/>
+      <c r="E63" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="64" s="1" customFormat="1" spans="1:5">
+      <c r="A64" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B64" t="s">
+        <v>311</v>
+      </c>
+      <c r="C64" t="s">
+        <v>312</v>
+      </c>
+      <c r="D64"/>
+      <c r="E64" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="65" s="1" customFormat="1" spans="1:5">
+      <c r="A65" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B65" t="s">
+        <v>314</v>
+      </c>
+      <c r="C65" t="s">
+        <v>315</v>
+      </c>
+      <c r="D65" t="s">
+        <v>316</v>
+      </c>
+      <c r="E65" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="66" s="1" customFormat="1" spans="1:5">
+      <c r="A66" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B66" t="s">
+        <v>200</v>
+      </c>
+      <c r="C66" t="s">
+        <v>318</v>
+      </c>
+      <c r="D66"/>
+      <c r="E66"/>
+    </row>
+    <row r="67" s="1" customFormat="1" spans="1:5">
+      <c r="A67" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B67" t="s">
+        <v>320</v>
+      </c>
+      <c r="C67" t="s">
+        <v>321</v>
+      </c>
+      <c r="D67" t="s">
+        <v>322</v>
+      </c>
+      <c r="E67" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="68" s="1" customFormat="1" spans="1:5">
+      <c r="A68" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B68" t="s">
+        <v>200</v>
+      </c>
+      <c r="C68" t="s">
+        <v>324</v>
+      </c>
+      <c r="D68"/>
+      <c r="E68"/>
+    </row>
+    <row r="69" s="1" customFormat="1" spans="1:5">
+      <c r="A69" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B69" t="s">
+        <v>326</v>
+      </c>
+      <c r="C69" t="s">
+        <v>327</v>
+      </c>
+      <c r="D69" t="s">
+        <v>328</v>
+      </c>
+      <c r="E69" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="70" s="1" customFormat="1" spans="1:5">
+      <c r="A70" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B70" t="s">
+        <v>200</v>
+      </c>
+      <c r="C70" t="s">
+        <v>330</v>
+      </c>
+      <c r="D70"/>
+      <c r="E70"/>
+    </row>
+    <row r="71" s="1" customFormat="1" spans="1:5">
+      <c r="A71" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B71" t="s">
+        <v>332</v>
+      </c>
+      <c r="C71" t="s">
+        <v>333</v>
+      </c>
+      <c r="D71" t="s">
+        <v>334</v>
+      </c>
+      <c r="E71" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="72" s="1" customFormat="1" spans="1:5">
+      <c r="A72" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="B72" t="s">
+        <v>200</v>
+      </c>
+      <c r="C72" t="s">
+        <v>336</v>
+      </c>
+      <c r="D72"/>
+      <c r="E72"/>
+    </row>
+    <row r="73" s="1" customFormat="1" spans="1:5">
+      <c r="A73" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B73" t="s">
+        <v>39</v>
+      </c>
+      <c r="C73" t="s">
+        <v>337</v>
+      </c>
+      <c r="D73"/>
+      <c r="E73" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="74" s="1" customFormat="1" spans="1:5">
+      <c r="A74" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="B74" t="s">
+        <v>339</v>
+      </c>
+      <c r="C74" t="s">
+        <v>340</v>
+      </c>
+      <c r="D74" t="s">
+        <v>341</v>
+      </c>
+      <c r="E74" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="75" s="1" customFormat="1" spans="1:5">
+      <c r="A75" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B75" t="s">
+        <v>200</v>
+      </c>
+      <c r="C75" t="s">
+        <v>343</v>
+      </c>
+      <c r="D75"/>
+      <c r="E75"/>
+    </row>
+    <row r="76" s="1" customFormat="1" spans="1:5">
+      <c r="A76" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B76" t="s">
+        <v>45</v>
+      </c>
+      <c r="C76" t="s">
+        <v>345</v>
+      </c>
+      <c r="D76" t="s">
+        <v>346</v>
+      </c>
+      <c r="E76" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="77" s="1" customFormat="1" spans="1:5">
+      <c r="A77" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B77" t="s">
+        <v>197</v>
+      </c>
+      <c r="C77" t="s">
+        <v>348</v>
+      </c>
+      <c r="D77"/>
+      <c r="E77"/>
+    </row>
+    <row r="78" s="1" customFormat="1" spans="1:5">
+      <c r="A78" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B78" t="s">
+        <v>200</v>
+      </c>
+      <c r="C78" t="s">
+        <v>350</v>
+      </c>
+      <c r="D78"/>
+      <c r="E78"/>
+    </row>
+    <row r="79" s="1" customFormat="1" spans="1:5">
+      <c r="A79" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B79" t="s">
+        <v>352</v>
+      </c>
+      <c r="C79" t="s">
+        <v>353</v>
+      </c>
+      <c r="D79" t="s">
+        <v>354</v>
+      </c>
+      <c r="E79" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="80" s="1" customFormat="1" spans="1:5">
+      <c r="A80" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="B80" t="s">
+        <v>200</v>
+      </c>
+      <c r="C80" t="s">
+        <v>356</v>
+      </c>
+      <c r="D80"/>
+      <c r="E80"/>
+    </row>
+    <row r="81" s="1" customFormat="1" spans="1:5">
+      <c r="A81" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="B81" t="s">
+        <v>358</v>
+      </c>
+      <c r="C81" t="s">
+        <v>359</v>
+      </c>
+      <c r="D81" t="s">
+        <v>360</v>
+      </c>
+      <c r="E81" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="82" s="1" customFormat="1" spans="1:5">
+      <c r="A82" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="B82" t="s">
+        <v>197</v>
+      </c>
+      <c r="C82" t="s">
+        <v>362</v>
+      </c>
+      <c r="D82"/>
+      <c r="E82"/>
+    </row>
+    <row r="83" s="1" customFormat="1" spans="1:5">
+      <c r="A83" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="B83" t="s">
+        <v>200</v>
+      </c>
+      <c r="C83" t="s">
+        <v>364</v>
+      </c>
+      <c r="D83"/>
+      <c r="E83"/>
+    </row>
+    <row r="84" s="1" customFormat="1" spans="1:5">
+      <c r="A84" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="B84" t="s">
+        <v>63</v>
+      </c>
+      <c r="C84" t="s">
+        <v>267</v>
+      </c>
+      <c r="D84"/>
+      <c r="E84" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="85" s="1" customFormat="1" spans="1:5">
+      <c r="A85" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B85" t="s">
+        <v>367</v>
+      </c>
+      <c r="C85" t="s">
+        <v>368</v>
+      </c>
+      <c r="D85" t="s">
+        <v>369</v>
+      </c>
+      <c r="E85" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="86" s="1" customFormat="1" spans="1:5">
+      <c r="A86" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="B86" t="s">
+        <v>200</v>
+      </c>
+      <c r="C86" t="s">
+        <v>371</v>
+      </c>
+      <c r="D86"/>
+      <c r="E86"/>
+    </row>
+    <row r="87" s="1" customFormat="1" spans="1:5">
+      <c r="A87" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B87" t="s">
+        <v>81</v>
+      </c>
+      <c r="C87" t="s">
+        <v>373</v>
+      </c>
+      <c r="D87"/>
+      <c r="E87" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="88" s="1" customFormat="1" spans="1:5">
+      <c r="A88" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="B88" t="s">
+        <v>375</v>
+      </c>
+      <c r="C88" t="s">
+        <v>376</v>
+      </c>
+      <c r="D88" t="s">
+        <v>377</v>
+      </c>
+      <c r="E88" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="89" s="1" customFormat="1" spans="1:5">
+      <c r="A89" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="B89" t="s">
+        <v>200</v>
+      </c>
+      <c r="C89" t="s">
+        <v>379</v>
+      </c>
+      <c r="D89"/>
+      <c r="E89"/>
+    </row>
+    <row r="90" s="1" customFormat="1" spans="1:5">
+      <c r="A90" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="B90" t="s">
+        <v>381</v>
+      </c>
+      <c r="C90" t="s">
+        <v>382</v>
+      </c>
+      <c r="D90" t="s">
+        <v>383</v>
+      </c>
+      <c r="E90" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="91" s="1" customFormat="1" spans="1:5">
+      <c r="A91" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="B91" t="s">
+        <v>197</v>
+      </c>
+      <c r="C91" t="s">
+        <v>385</v>
+      </c>
+      <c r="D91"/>
+      <c r="E91"/>
+    </row>
+    <row r="92" s="1" customFormat="1" spans="1:5">
+      <c r="A92" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="B92" t="s">
+        <v>200</v>
+      </c>
+      <c r="C92" t="s">
+        <v>387</v>
+      </c>
+      <c r="D92"/>
+      <c r="E92"/>
+    </row>
+    <row r="93" s="1" customFormat="1" spans="1:5">
+      <c r="A93" s="5">
+        <v>3</v>
+      </c>
+      <c r="B93" t="s">
+        <v>388</v>
+      </c>
+      <c r="C93" t="s">
+        <v>389</v>
+      </c>
+      <c r="D93"/>
+      <c r="E93" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="94" s="1" customFormat="1" spans="1:5">
+      <c r="A94" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>94</v>
+      </c>
+      <c r="C94" t="s">
+        <v>390</v>
+      </c>
+      <c r="D94" t="s">
+        <v>391</v>
+      </c>
+      <c r="E94" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="95" s="1" customFormat="1" spans="1:5">
+      <c r="A95" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B95" t="s">
+        <v>392</v>
+      </c>
+      <c r="C95" t="s">
+        <v>393</v>
+      </c>
+      <c r="D95" t="s">
+        <v>394</v>
+      </c>
+      <c r="E95" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="96" s="1" customFormat="1" spans="1:5">
+      <c r="A96" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B96" t="s">
+        <v>395</v>
+      </c>
+      <c r="C96" t="s">
+        <v>396</v>
+      </c>
+      <c r="D96"/>
+      <c r="E96" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="97" s="1" customFormat="1" spans="1:5">
+      <c r="A97" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="B97" t="s">
+        <v>398</v>
+      </c>
+      <c r="C97" t="s">
+        <v>399</v>
+      </c>
+      <c r="D97" t="s">
+        <v>400</v>
+      </c>
+      <c r="E97" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="98" s="1" customFormat="1" spans="1:5">
+      <c r="A98" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="B98" t="s">
+        <v>402</v>
+      </c>
+      <c r="C98" t="s">
+        <v>403</v>
+      </c>
+      <c r="D98" t="s">
+        <v>404</v>
+      </c>
+      <c r="E98" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="99" s="1" customFormat="1" spans="1:5">
+      <c r="A99" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B99" t="s">
+        <v>109</v>
+      </c>
+      <c r="C99" t="s">
+        <v>405</v>
+      </c>
+      <c r="D99"/>
+      <c r="E99" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="100" s="1" customFormat="1" spans="1:5">
+      <c r="A100" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B100" t="s">
+        <v>117</v>
+      </c>
+      <c r="C100" t="s">
+        <v>406</v>
+      </c>
+      <c r="D100" t="s">
+        <v>407</v>
+      </c>
+      <c r="E100" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="101" s="1" customFormat="1" spans="1:5">
+      <c r="A101" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B101" t="s">
+        <v>114</v>
+      </c>
+      <c r="C101" t="s">
+        <v>408</v>
+      </c>
+      <c r="D101" t="s">
+        <v>409</v>
+      </c>
+      <c r="E101" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="102" s="1" customFormat="1" spans="1:5">
+      <c r="A102" s="5">
+        <v>4</v>
+      </c>
+      <c r="B102" t="s">
+        <v>410</v>
+      </c>
+      <c r="C102" t="s">
+        <v>411</v>
+      </c>
+      <c r="D102"/>
+      <c r="E102" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="103" s="1" customFormat="1" spans="1:5">
+      <c r="A103" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B103" t="s">
+        <v>412</v>
+      </c>
+      <c r="C103" t="s">
+        <v>413</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="E103" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="104" s="1" customFormat="1" spans="1:5">
+      <c r="A104" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B104" t="s">
+        <v>415</v>
+      </c>
+      <c r="C104" t="s">
+        <v>416</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="E104" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="105" s="1" customFormat="1" spans="1:5">
+      <c r="A105" s="5">
+        <v>5</v>
+      </c>
+      <c r="B105" t="s">
+        <v>124</v>
+      </c>
+      <c r="C105" t="s">
+        <v>418</v>
+      </c>
+      <c r="D105"/>
+      <c r="E105" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="106" s="1" customFormat="1" spans="1:5">
+      <c r="A106" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="B106" t="s">
+        <v>420</v>
+      </c>
+      <c r="C106" t="s">
+        <v>421</v>
+      </c>
+      <c r="D106"/>
+      <c r="E106" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="107" s="1" customFormat="1" spans="1:5">
+      <c r="A107" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="B107" t="s">
+        <v>137</v>
+      </c>
+      <c r="C107" t="s">
+        <v>423</v>
+      </c>
+      <c r="D107" t="s">
+        <v>424</v>
+      </c>
+      <c r="E107" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="108" s="1" customFormat="1" spans="1:5">
+      <c r="A108" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="B108" t="s">
+        <v>197</v>
+      </c>
+      <c r="C108" t="s">
+        <v>426</v>
+      </c>
+      <c r="D108"/>
+      <c r="E108"/>
+    </row>
+    <row r="109" s="1" customFormat="1" spans="1:5">
+      <c r="A109" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="B109" t="s">
+        <v>200</v>
+      </c>
+      <c r="C109" t="s">
+        <v>428</v>
+      </c>
+      <c r="D109"/>
+      <c r="E109"/>
+    </row>
+    <row r="110" s="1" customFormat="1" spans="1:5">
+      <c r="A110" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="B110" t="s">
         <v>142</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:5">
-      <c r="A3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:5">
-      <c r="A4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
+      <c r="C110" t="s">
+        <v>430</v>
+      </c>
+      <c r="D110" t="s">
+        <v>431</v>
+      </c>
+      <c r="E110" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="111" s="1" customFormat="1" spans="1:5">
+      <c r="A111" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="B111" t="s">
+        <v>200</v>
+      </c>
+      <c r="C111" t="s">
+        <v>433</v>
+      </c>
+      <c r="D111"/>
+      <c r="E111"/>
+    </row>
+    <row r="112" s="1" customFormat="1" spans="1:5">
+      <c r="A112" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="B112" t="s">
+        <v>435</v>
+      </c>
+      <c r="C112" t="s">
+        <v>436</v>
+      </c>
+      <c r="D112"/>
+      <c r="E112" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="113" s="1" customFormat="1" spans="1:5">
+      <c r="A113" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="B113" t="s">
+        <v>438</v>
+      </c>
+      <c r="C113" t="s">
+        <v>439</v>
+      </c>
+      <c r="D113" t="s">
+        <v>440</v>
+      </c>
+      <c r="E113" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="114" s="1" customFormat="1" spans="1:5">
+      <c r="A114" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="B114" t="s">
+        <v>200</v>
+      </c>
+      <c r="C114" t="s">
+        <v>442</v>
+      </c>
+      <c r="D114"/>
+      <c r="E114"/>
+    </row>
+    <row r="115" s="1" customFormat="1" spans="1:5">
+      <c r="A115" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B115" t="s">
+        <v>444</v>
+      </c>
+      <c r="C115" t="s">
+        <v>445</v>
+      </c>
+      <c r="D115" t="s">
+        <v>446</v>
+      </c>
+      <c r="E115" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="116" s="1" customFormat="1" spans="1:5">
+      <c r="A116" s="5">
+        <v>6</v>
+      </c>
+      <c r="B116" t="s">
+        <v>447</v>
+      </c>
+      <c r="C116" t="s">
+        <v>448</v>
+      </c>
+      <c r="D116"/>
+      <c r="E116" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:5">
-      <c r="A5" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="E5" s="5" t="s">
+    <row r="117" s="1" customFormat="1" spans="1:5">
+      <c r="A117" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="B117" t="s">
+        <v>450</v>
+      </c>
+      <c r="C117" t="s">
+        <v>451</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E117" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:5">
-      <c r="A6" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:5">
-      <c r="A7" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="B7" s="5" t="s">
+    <row r="118" s="1" customFormat="1" spans="1:5">
+      <c r="A118" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="B118" t="s">
+        <v>197</v>
+      </c>
+      <c r="C118" t="s">
+        <v>454</v>
+      </c>
+      <c r="D118" s="7"/>
+      <c r="E118"/>
+    </row>
+    <row r="119" s="1" customFormat="1" spans="1:5">
+      <c r="A119" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="B119" t="s">
+        <v>456</v>
+      </c>
+      <c r="C119" t="s">
+        <v>457</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="E119" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="120" s="1" customFormat="1" spans="1:5">
+      <c r="A120" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="B120" t="s">
+        <v>197</v>
+      </c>
+      <c r="C120" t="s">
+        <v>460</v>
+      </c>
+      <c r="D120" s="6"/>
+      <c r="E120"/>
+    </row>
+    <row r="121" s="1" customFormat="1" spans="1:5">
+      <c r="A121" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="B121" t="s">
+        <v>200</v>
+      </c>
+      <c r="C121" t="s">
+        <v>462</v>
+      </c>
+      <c r="D121" s="6"/>
+      <c r="E121"/>
+    </row>
+    <row r="122" s="1" customFormat="1" spans="1:5">
+      <c r="A122" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="B122" t="s">
+        <v>464</v>
+      </c>
+      <c r="C122" t="s">
+        <v>465</v>
+      </c>
+      <c r="D122" s="6"/>
+      <c r="E122" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="123" s="1" customFormat="1" spans="1:5">
+      <c r="A123" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="B123" t="s">
+        <v>467</v>
+      </c>
+      <c r="C123" t="s">
+        <v>468</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="E123" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="E7" s="5" t="s">
+    </row>
+    <row r="124" s="1" customFormat="1" spans="1:5">
+      <c r="A124" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="B124" t="s">
+        <v>197</v>
+      </c>
+      <c r="C124" t="s">
+        <v>471</v>
+      </c>
+      <c r="D124" s="6"/>
+      <c r="E124"/>
+    </row>
+    <row r="125" s="1" customFormat="1" spans="1:5">
+      <c r="A125" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="B125" t="s">
+        <v>200</v>
+      </c>
+      <c r="C125" t="s">
+        <v>473</v>
+      </c>
+      <c r="D125" s="6"/>
+      <c r="E125"/>
+    </row>
+    <row r="126" s="1" customFormat="1" spans="1:5">
+      <c r="A126" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="B126" t="s">
+        <v>475</v>
+      </c>
+      <c r="C126" t="s">
+        <v>476</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="E126" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="127" s="1" customFormat="1" spans="1:5">
+      <c r="A127" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="B127" t="s">
+        <v>197</v>
+      </c>
+      <c r="C127" t="s">
+        <v>479</v>
+      </c>
+      <c r="D127" s="6"/>
+      <c r="E127"/>
+    </row>
+    <row r="128" s="1" customFormat="1" spans="1:5">
+      <c r="A128" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="B128" t="s">
+        <v>200</v>
+      </c>
+      <c r="C128" t="s">
+        <v>481</v>
+      </c>
+      <c r="D128" s="6"/>
+      <c r="E128"/>
+    </row>
+    <row r="129" s="1" customFormat="1" spans="1:5">
+      <c r="A129" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="B129" t="s">
+        <v>483</v>
+      </c>
+      <c r="C129" t="s">
+        <v>484</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="E129" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="130" s="1" customFormat="1" spans="1:5">
+      <c r="A130" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="B130" t="s">
+        <v>197</v>
+      </c>
+      <c r="C130" t="s">
+        <v>487</v>
+      </c>
+      <c r="D130" s="6"/>
+      <c r="E130"/>
+    </row>
+    <row r="131" s="1" customFormat="1" spans="1:5">
+      <c r="A131" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="B131" t="s">
+        <v>200</v>
+      </c>
+      <c r="C131" t="s">
+        <v>489</v>
+      </c>
+      <c r="D131" s="6"/>
+      <c r="E131"/>
+    </row>
+    <row r="132" s="1" customFormat="1" spans="1:5">
+      <c r="A132" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="B132" t="s">
+        <v>491</v>
+      </c>
+      <c r="C132" t="s">
+        <v>492</v>
+      </c>
+      <c r="D132" s="6"/>
+      <c r="E132"/>
+    </row>
+    <row r="133" s="1" customFormat="1" spans="1:5">
+      <c r="A133" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="B133" t="s">
+        <v>494</v>
+      </c>
+      <c r="C133" t="s">
+        <v>495</v>
+      </c>
+      <c r="D133"/>
+      <c r="E133" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:5">
-      <c r="A8" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:5">
-      <c r="A9" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="E9" s="5" t="s">
+    <row r="134" s="1" customFormat="1" spans="1:5">
+      <c r="A134" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="B134" t="s">
+        <v>497</v>
+      </c>
+      <c r="C134" t="s">
+        <v>498</v>
+      </c>
+      <c r="D134" t="s">
+        <v>499</v>
+      </c>
+      <c r="E134" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="135" s="1" customFormat="1" spans="1:5">
+      <c r="A135" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="B135" t="s">
+        <v>197</v>
+      </c>
+      <c r="C135" t="s">
+        <v>501</v>
+      </c>
+      <c r="D135"/>
+      <c r="E135"/>
+    </row>
+    <row r="136" s="1" customFormat="1" spans="1:5">
+      <c r="A136" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="B136" t="s">
+        <v>200</v>
+      </c>
+      <c r="C136" t="s">
+        <v>503</v>
+      </c>
+      <c r="D136"/>
+      <c r="E136"/>
+    </row>
+    <row r="137" s="1" customFormat="1" spans="1:5">
+      <c r="A137" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B137" t="s">
+        <v>505</v>
+      </c>
+      <c r="C137" t="s">
+        <v>506</v>
+      </c>
+      <c r="D137" t="s">
+        <v>507</v>
+      </c>
+      <c r="E137" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="138" s="1" customFormat="1" spans="1:5">
+      <c r="A138" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="B138" t="s">
+        <v>197</v>
+      </c>
+      <c r="C138" t="s">
+        <v>509</v>
+      </c>
+      <c r="D138"/>
+      <c r="E138"/>
+    </row>
+    <row r="139" s="1" customFormat="1" spans="1:5">
+      <c r="A139" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="B139" t="s">
+        <v>200</v>
+      </c>
+      <c r="C139" t="s">
+        <v>511</v>
+      </c>
+      <c r="D139"/>
+      <c r="E139"/>
+    </row>
+    <row r="140" s="1" customFormat="1" spans="1:5">
+      <c r="A140" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="B140" t="s">
+        <v>513</v>
+      </c>
+      <c r="C140" t="s">
+        <v>514</v>
+      </c>
+      <c r="D140"/>
+      <c r="E140" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:5">
-      <c r="A10" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="E10" s="5" t="s">
+    <row r="141" s="1" customFormat="1" spans="1:5">
+      <c r="A141" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="B141" t="s">
+        <v>516</v>
+      </c>
+      <c r="C141" t="s">
+        <v>517</v>
+      </c>
+      <c r="D141" t="s">
+        <v>518</v>
+      </c>
+      <c r="E141" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="142" s="1" customFormat="1" spans="1:5">
+      <c r="A142" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="B142" t="s">
+        <v>197</v>
+      </c>
+      <c r="C142" t="s">
+        <v>520</v>
+      </c>
+      <c r="D142"/>
+      <c r="E142"/>
+    </row>
+    <row r="143" s="1" customFormat="1" spans="1:5">
+      <c r="A143" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="B143" t="s">
+        <v>200</v>
+      </c>
+      <c r="C143" t="s">
+        <v>522</v>
+      </c>
+      <c r="D143"/>
+      <c r="E143"/>
+    </row>
+    <row r="144" s="1" customFormat="1" spans="1:5">
+      <c r="A144" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="B144" t="s">
+        <v>524</v>
+      </c>
+      <c r="C144" t="s">
+        <v>525</v>
+      </c>
+      <c r="D144" t="s">
+        <v>526</v>
+      </c>
+      <c r="E144" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="145" s="1" customFormat="1" spans="1:5">
+      <c r="A145" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="B145" t="s">
+        <v>197</v>
+      </c>
+      <c r="C145" t="s">
+        <v>528</v>
+      </c>
+      <c r="D145"/>
+      <c r="E145"/>
+    </row>
+    <row r="146" s="1" customFormat="1" spans="1:5">
+      <c r="A146" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="B146" t="s">
+        <v>200</v>
+      </c>
+      <c r="C146" t="s">
+        <v>530</v>
+      </c>
+      <c r="D146"/>
+      <c r="E146"/>
+    </row>
+    <row r="147" s="1" customFormat="1" spans="1:5">
+      <c r="A147" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="B147" t="s">
+        <v>532</v>
+      </c>
+      <c r="C147" t="s">
+        <v>533</v>
+      </c>
+      <c r="D147" t="s">
+        <v>534</v>
+      </c>
+      <c r="E147" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="148" s="1" customFormat="1" spans="1:5">
+      <c r="A148" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="B148" t="s">
+        <v>536</v>
+      </c>
+      <c r="C148" t="s">
+        <v>537</v>
+      </c>
+      <c r="D148" t="s">
+        <v>538</v>
+      </c>
+      <c r="E148" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:5">
-      <c r="A11" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:5">
-      <c r="A12" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E12" s="5" t="s">
+    <row r="149" s="1" customFormat="1" spans="1:5">
+      <c r="A149" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="B149" t="s">
+        <v>197</v>
+      </c>
+      <c r="C149" t="s">
+        <v>540</v>
+      </c>
+      <c r="D149"/>
+      <c r="E149"/>
+    </row>
+    <row r="150" s="1" customFormat="1" spans="1:5">
+      <c r="A150" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="B150" t="s">
+        <v>200</v>
+      </c>
+      <c r="C150" t="s">
+        <v>542</v>
+      </c>
+      <c r="D150"/>
+      <c r="E150"/>
+    </row>
+    <row r="151" s="1" customFormat="1" spans="1:5">
+      <c r="A151" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="B151" t="s">
+        <v>544</v>
+      </c>
+      <c r="C151" t="s">
+        <v>545</v>
+      </c>
+      <c r="D151" t="s">
+        <v>546</v>
+      </c>
+      <c r="E151" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:5">
-      <c r="A13" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="E13" s="5" t="s">
+    <row r="152" s="1" customFormat="1" spans="1:5">
+      <c r="A152" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="B152" t="s">
+        <v>197</v>
+      </c>
+      <c r="C152" t="s">
+        <v>548</v>
+      </c>
+      <c r="D152"/>
+      <c r="E152"/>
+    </row>
+    <row r="153" s="1" customFormat="1" spans="1:5">
+      <c r="A153" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="B153" t="s">
+        <v>200</v>
+      </c>
+      <c r="C153" t="s">
+        <v>550</v>
+      </c>
+      <c r="D153"/>
+      <c r="E153"/>
+    </row>
+    <row r="154" s="1" customFormat="1" spans="1:5">
+      <c r="A154" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="B154" t="s">
+        <v>552</v>
+      </c>
+      <c r="C154" t="s">
+        <v>553</v>
+      </c>
+      <c r="D154" t="s">
+        <v>554</v>
+      </c>
+      <c r="E154" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:5">
-      <c r="A14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:5">
-      <c r="A15" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:5">
-      <c r="A16" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:5">
-      <c r="A17" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:5">
-      <c r="A18" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:5">
-      <c r="A19" s="6" t="s">
+    <row r="155" s="1" customFormat="1" spans="1:5">
+      <c r="A155" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="B155" t="s">
         <v>197</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:5">
-      <c r="A20" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="B20" s="5" t="s">
+      <c r="C155" t="s">
+        <v>556</v>
+      </c>
+      <c r="D155"/>
+      <c r="E155"/>
+    </row>
+    <row r="156" s="1" customFormat="1" spans="1:5">
+      <c r="A156" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="B156" t="s">
+        <v>558</v>
+      </c>
+      <c r="C156" t="s">
+        <v>559</v>
+      </c>
+      <c r="D156" t="s">
+        <v>560</v>
+      </c>
+      <c r="E156" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="157" s="1" customFormat="1" spans="1:5">
+      <c r="A157" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="B157" t="s">
+        <v>197</v>
+      </c>
+      <c r="C157" t="s">
+        <v>562</v>
+      </c>
+      <c r="D157"/>
+      <c r="E157"/>
+    </row>
+    <row r="158" s="1" customFormat="1" spans="1:5">
+      <c r="A158" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="B158" t="s">
         <v>200</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="1:5">
-      <c r="A21" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="E21" s="5" t="s">
+      <c r="C158" t="s">
+        <v>564</v>
+      </c>
+      <c r="D158"/>
+      <c r="E158"/>
+    </row>
+    <row r="159" s="1" customFormat="1" spans="1:5">
+      <c r="A159" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="B159" t="s">
+        <v>566</v>
+      </c>
+      <c r="C159" t="s">
+        <v>567</v>
+      </c>
+      <c r="D159"/>
+      <c r="E159" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" spans="1:5">
-      <c r="A22" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="1:5">
-      <c r="A23" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="1:5">
-      <c r="A24" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="E24" s="5" t="s">
+    <row r="160" s="1" customFormat="1" spans="1:5">
+      <c r="A160" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="B160" t="s">
+        <v>569</v>
+      </c>
+      <c r="C160" t="s">
+        <v>570</v>
+      </c>
+      <c r="D160" t="s">
+        <v>571</v>
+      </c>
+      <c r="E160" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="161" s="1" customFormat="1" spans="1:5">
+      <c r="A161" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="B161" t="s">
+        <v>573</v>
+      </c>
+      <c r="C161" t="s">
+        <v>574</v>
+      </c>
+      <c r="D161" t="s">
+        <v>575</v>
+      </c>
+      <c r="E161" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="162" s="1" customFormat="1" spans="1:5">
+      <c r="A162" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="B162" t="s">
+        <v>197</v>
+      </c>
+      <c r="C162" t="s">
+        <v>577</v>
+      </c>
+      <c r="D162"/>
+      <c r="E162"/>
+    </row>
+    <row r="163" s="1" customFormat="1" spans="1:5">
+      <c r="A163" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="B163" t="s">
+        <v>200</v>
+      </c>
+      <c r="C163" t="s">
+        <v>579</v>
+      </c>
+      <c r="D163"/>
+      <c r="E163"/>
+    </row>
+    <row r="164" s="1" customFormat="1" spans="1:5">
+      <c r="A164" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="B164" t="s">
+        <v>581</v>
+      </c>
+      <c r="C164" t="s">
+        <v>582</v>
+      </c>
+      <c r="D164" t="s">
+        <v>583</v>
+      </c>
+      <c r="E164" t="s">
         <v>153</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="1:5">
-      <c r="A25" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="1:5">
-      <c r="A26" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="1:5">
-      <c r="A27" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="28" s="1" customFormat="1" spans="1:5">
-      <c r="A28" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-    </row>
-    <row r="29" s="1" customFormat="1" spans="1:5">
-      <c r="A29" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-    </row>
-    <row r="30" s="1" customFormat="1" spans="1:5">
-      <c r="A30" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="31" s="1" customFormat="1" spans="1:5">
-      <c r="A31" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-    </row>
-    <row r="32" s="1" customFormat="1" spans="1:5">
-      <c r="A32" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-    </row>
-    <row r="33" s="1" customFormat="1" spans="1:5">
-      <c r="A33" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="34" s="1" customFormat="1" spans="1:5">
-      <c r="A34" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="35" s="1" customFormat="1" spans="1:5">
-      <c r="A35" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-    </row>
-    <row r="36" s="1" customFormat="1" spans="1:5">
-      <c r="A36" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-    </row>
-    <row r="37" s="1" customFormat="1" spans="1:5">
-      <c r="A37" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="38" s="1" customFormat="1" spans="1:5">
-      <c r="A38" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-    </row>
-    <row r="39" s="1" customFormat="1" spans="1:5">
-      <c r="A39" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-    </row>
-    <row r="40" s="1" customFormat="1" spans="1:5">
-      <c r="A40" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="41" s="1" customFormat="1" spans="1:5">
-      <c r="A41" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-    </row>
-    <row r="42" s="1" customFormat="1" spans="1:5">
-      <c r="A42" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-    </row>
-    <row r="43" s="1" customFormat="1" spans="1:5">
-      <c r="A43" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="44" s="1" customFormat="1" spans="1:5">
-      <c r="A44" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="45" s="1" customFormat="1" spans="1:5">
-      <c r="A45" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-    </row>
-    <row r="46" s="1" customFormat="1" spans="1:5">
-      <c r="A46" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-    </row>
-    <row r="47" s="1" customFormat="1" spans="1:5">
-      <c r="A47" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="48" s="1" customFormat="1" spans="1:5">
-      <c r="A48" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="49" s="1" customFormat="1" spans="1:5">
-      <c r="A49" s="6">
-        <v>2</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="50" s="1" customFormat="1" spans="1:5">
-      <c r="A50" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="51" s="1" customFormat="1" spans="1:5">
-      <c r="A51" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="52" s="1" customFormat="1" spans="1:5">
-      <c r="A52" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-    </row>
-    <row r="53" s="1" customFormat="1" spans="1:5">
-      <c r="A53" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-    </row>
-    <row r="54" s="1" customFormat="1" spans="1:5">
-      <c r="A54" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="55" s="1" customFormat="1" spans="1:5">
-      <c r="A55" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-    </row>
-    <row r="56" s="1" customFormat="1" spans="1:5">
-      <c r="A56" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-    </row>
-    <row r="57" s="1" customFormat="1" spans="1:5">
-      <c r="A57" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="58" s="1" customFormat="1" spans="1:5">
-      <c r="A58" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-    </row>
-    <row r="59" s="1" customFormat="1" spans="1:5">
-      <c r="A59" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-    </row>
-    <row r="60" s="1" customFormat="1" spans="1:5">
-      <c r="A60" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="61" s="1" customFormat="1" spans="1:5">
-      <c r="A61" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="62" s="1" customFormat="1" spans="1:5">
-      <c r="A62" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-    </row>
-    <row r="63" s="1" customFormat="1" spans="1:5">
-      <c r="A63" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="64" s="1" customFormat="1" spans="1:5">
-      <c r="A64" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="65" s="1" customFormat="1" spans="1:5">
-      <c r="A65" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="66" s="1" customFormat="1" spans="1:5">
-      <c r="A66" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-    </row>
-    <row r="67" s="1" customFormat="1" spans="1:5">
-      <c r="A67" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="68" s="1" customFormat="1" spans="1:5">
-      <c r="A68" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-    </row>
-    <row r="69" s="1" customFormat="1" spans="1:5">
-      <c r="A69" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="70" s="1" customFormat="1" spans="1:5">
-      <c r="A70" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-    </row>
-    <row r="71" s="1" customFormat="1" spans="1:5">
-      <c r="A71" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="72" s="1" customFormat="1" spans="1:5">
-      <c r="A72" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-    </row>
-    <row r="73" s="1" customFormat="1" spans="1:5">
-      <c r="A73" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="74" s="1" customFormat="1" spans="1:5">
-      <c r="A74" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="75" s="1" customFormat="1" spans="1:5">
-      <c r="A75" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-    </row>
-    <row r="76" s="1" customFormat="1" spans="1:5">
-      <c r="A76" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="77" s="1" customFormat="1" spans="1:5">
-      <c r="A77" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-    </row>
-    <row r="78" s="1" customFormat="1" spans="1:5">
-      <c r="A78" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-    </row>
-    <row r="79" s="1" customFormat="1" spans="1:5">
-      <c r="A79" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="80" s="1" customFormat="1" spans="1:5">
-      <c r="A80" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-    </row>
-    <row r="81" s="1" customFormat="1" spans="1:5">
-      <c r="A81" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="82" s="1" customFormat="1" spans="1:5">
-      <c r="A82" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-    </row>
-    <row r="83" s="1" customFormat="1" spans="1:5">
-      <c r="A83" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-    </row>
-    <row r="84" s="1" customFormat="1" spans="1:5">
-      <c r="A84" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="85" s="1" customFormat="1" spans="1:5">
-      <c r="A85" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="86" s="1" customFormat="1" spans="1:5">
-      <c r="A86" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
-    </row>
-    <row r="87" s="1" customFormat="1" spans="1:5">
-      <c r="A87" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="88" s="1" customFormat="1" spans="1:5">
-      <c r="A88" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="89" s="1" customFormat="1" spans="1:5">
-      <c r="A89" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-    </row>
-    <row r="90" s="1" customFormat="1" spans="1:5">
-      <c r="A90" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="91" s="1" customFormat="1" spans="1:5">
-      <c r="A91" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="D91" s="5"/>
-      <c r="E91" s="5"/>
-    </row>
-    <row r="92" s="1" customFormat="1" spans="1:5">
-      <c r="A92" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
-    </row>
-    <row r="93" s="1" customFormat="1" spans="1:5">
-      <c r="A93" s="6">
-        <v>3</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="94" s="1" customFormat="1" spans="1:5">
-      <c r="A94" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="95" s="1" customFormat="1" spans="1:5">
-      <c r="A95" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="E95" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="96" s="1" customFormat="1" spans="1:5">
-      <c r="A96" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="D96" s="5"/>
-      <c r="E96" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="97" s="1" customFormat="1" spans="1:5">
-      <c r="A97" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="98" s="1" customFormat="1" spans="1:5">
-      <c r="A98" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="E98" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="99" s="1" customFormat="1" spans="1:5">
-      <c r="A99" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="D99" s="5"/>
-      <c r="E99" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="100" s="1" customFormat="1" spans="1:5">
-      <c r="A100" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="101" s="1" customFormat="1" spans="1:5">
-      <c r="A101" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="E101" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="102" s="1" customFormat="1" spans="1:5">
-      <c r="A102" s="6">
-        <v>4</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="103" s="1" customFormat="1" spans="1:5">
-      <c r="A103" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="D103" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="104" s="1" customFormat="1" spans="1:5">
-      <c r="A104" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="D104" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="E104" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="105" s="1" customFormat="1" spans="1:5">
-      <c r="A105" s="6">
-        <v>5</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="D105" s="5"/>
-      <c r="E105" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="106" s="1" customFormat="1" spans="1:5">
-      <c r="A106" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="D106" s="5"/>
-      <c r="E106" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="107" s="1" customFormat="1" spans="1:5">
-      <c r="A107" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="D107" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="E107" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="108" s="1" customFormat="1" spans="1:5">
-      <c r="A108" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="D108" s="5"/>
-      <c r="E108" s="5"/>
-    </row>
-    <row r="109" s="1" customFormat="1" spans="1:5">
-      <c r="A109" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="D109" s="5"/>
-      <c r="E109" s="5"/>
-    </row>
-    <row r="110" s="1" customFormat="1" spans="1:5">
-      <c r="A110" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="D110" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="E110" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="111" s="1" customFormat="1" spans="1:5">
-      <c r="A111" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="D111" s="5"/>
-      <c r="E111" s="5"/>
-    </row>
-    <row r="112" s="1" customFormat="1" spans="1:5">
-      <c r="A112" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="D112" s="5"/>
-      <c r="E112" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="113" s="1" customFormat="1" spans="1:5">
-      <c r="A113" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="D113" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="E113" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="114" s="1" customFormat="1" spans="1:5">
-      <c r="A114" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="D114" s="5"/>
-      <c r="E114" s="5"/>
-    </row>
-    <row r="115" s="1" customFormat="1" spans="1:5">
-      <c r="A115" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="D115" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="E115" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="116" s="1" customFormat="1" spans="1:5">
-      <c r="A116" s="6">
-        <v>6</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="D116" s="5"/>
-      <c r="E116" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="117" s="1" customFormat="1" spans="1:5">
-      <c r="A117" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="B117" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="D117" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="E117" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="118" s="1" customFormat="1" spans="1:5">
-      <c r="A118" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="D118" s="8"/>
-      <c r="E118" s="5"/>
-    </row>
-    <row r="119" s="1" customFormat="1" spans="1:5">
-      <c r="A119" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="D119" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="E119" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="120" s="1" customFormat="1" spans="1:5">
-      <c r="A120" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="D120" s="7"/>
-      <c r="E120" s="5"/>
-    </row>
-    <row r="121" s="1" customFormat="1" spans="1:5">
-      <c r="A121" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="B121" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="D121" s="7"/>
-      <c r="E121" s="5"/>
-    </row>
-    <row r="122" s="1" customFormat="1" spans="1:5">
-      <c r="A122" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="D122" s="7"/>
-      <c r="E122" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="123" s="1" customFormat="1" spans="1:5">
-      <c r="A123" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="D123" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="E123" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="124" s="1" customFormat="1" spans="1:5">
-      <c r="A124" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C124" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="D124" s="7"/>
-      <c r="E124" s="5"/>
-    </row>
-    <row r="125" s="1" customFormat="1" spans="1:5">
-      <c r="A125" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="D125" s="7"/>
-      <c r="E125" s="5"/>
-    </row>
-    <row r="126" s="1" customFormat="1" spans="1:5">
-      <c r="A126" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="B126" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="D126" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="E126" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="127" s="1" customFormat="1" spans="1:5">
-      <c r="A127" s="6" t="s">
-        <v>473</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="D127" s="7"/>
-      <c r="E127" s="5"/>
-    </row>
-    <row r="128" s="1" customFormat="1" spans="1:5">
-      <c r="A128" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="B128" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C128" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="D128" s="7"/>
-      <c r="E128" s="5"/>
-    </row>
-    <row r="129" s="1" customFormat="1" spans="1:5">
-      <c r="A129" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="B129" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="D129" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="E129" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="130" s="1" customFormat="1" spans="1:5">
-      <c r="A130" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="D130" s="7"/>
-      <c r="E130" s="5"/>
-    </row>
-    <row r="131" s="1" customFormat="1" spans="1:5">
-      <c r="A131" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="B131" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="D131" s="7"/>
-      <c r="E131" s="5"/>
-    </row>
-    <row r="132" s="1" customFormat="1" spans="1:5">
-      <c r="A132" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="B132" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="C132" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="D132" s="7"/>
-      <c r="E132" s="5"/>
-    </row>
-    <row r="133" s="1" customFormat="1" spans="1:5">
-      <c r="A133" s="6" t="s">
-        <v>488</v>
-      </c>
-      <c r="B133" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="D133" s="5"/>
-      <c r="E133" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="134" s="1" customFormat="1" spans="1:5">
-      <c r="A134" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="B134" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="C134" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="D134" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="E134" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="135" s="1" customFormat="1" spans="1:5">
-      <c r="A135" s="6" t="s">
-        <v>495</v>
-      </c>
-      <c r="B135" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C135" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="D135" s="5"/>
-      <c r="E135" s="5"/>
-    </row>
-    <row r="136" s="1" customFormat="1" spans="1:5">
-      <c r="A136" s="6" t="s">
-        <v>497</v>
-      </c>
-      <c r="B136" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C136" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="D136" s="5"/>
-      <c r="E136" s="5"/>
-    </row>
-    <row r="137" s="1" customFormat="1" spans="1:5">
-      <c r="A137" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="B137" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="C137" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="D137" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="E137" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="138" s="1" customFormat="1" spans="1:5">
-      <c r="A138" s="6" t="s">
-        <v>503</v>
-      </c>
-      <c r="B138" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C138" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="D138" s="5"/>
-      <c r="E138" s="5"/>
-    </row>
-    <row r="139" s="1" customFormat="1" spans="1:5">
-      <c r="A139" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="B139" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C139" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="D139" s="5"/>
-      <c r="E139" s="5"/>
-    </row>
-    <row r="140" s="1" customFormat="1" spans="1:5">
-      <c r="A140" s="6" t="s">
-        <v>507</v>
-      </c>
-      <c r="B140" s="5" t="s">
-        <v>508</v>
-      </c>
-      <c r="C140" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="D140" s="5"/>
-      <c r="E140" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="141" s="1" customFormat="1" spans="1:5">
-      <c r="A141" s="6" t="s">
-        <v>510</v>
-      </c>
-      <c r="B141" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="C141" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="D141" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="E141" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="142" s="1" customFormat="1" spans="1:5">
-      <c r="A142" s="6" t="s">
-        <v>514</v>
-      </c>
-      <c r="B142" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C142" s="5" t="s">
-        <v>515</v>
-      </c>
-      <c r="D142" s="5"/>
-      <c r="E142" s="5"/>
-    </row>
-    <row r="143" s="1" customFormat="1" spans="1:5">
-      <c r="A143" s="6" t="s">
-        <v>516</v>
-      </c>
-      <c r="B143" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C143" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="D143" s="5"/>
-      <c r="E143" s="5"/>
-    </row>
-    <row r="144" s="1" customFormat="1" spans="1:5">
-      <c r="A144" s="6" t="s">
-        <v>518</v>
-      </c>
-      <c r="B144" s="5" t="s">
-        <v>519</v>
-      </c>
-      <c r="C144" s="5" t="s">
-        <v>520</v>
-      </c>
-      <c r="D144" s="5" t="s">
-        <v>521</v>
-      </c>
-      <c r="E144" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="145" s="1" customFormat="1" spans="1:5">
-      <c r="A145" s="6" t="s">
-        <v>522</v>
-      </c>
-      <c r="B145" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C145" s="5" t="s">
-        <v>523</v>
-      </c>
-      <c r="D145" s="5"/>
-      <c r="E145" s="5"/>
-    </row>
-    <row r="146" s="1" customFormat="1" spans="1:5">
-      <c r="A146" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="B146" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C146" s="5" t="s">
-        <v>525</v>
-      </c>
-      <c r="D146" s="5"/>
-      <c r="E146" s="5"/>
-    </row>
-    <row r="147" s="1" customFormat="1" spans="1:5">
-      <c r="A147" s="6" t="s">
-        <v>526</v>
-      </c>
-      <c r="B147" s="5" t="s">
-        <v>527</v>
-      </c>
-      <c r="C147" s="5" t="s">
-        <v>528</v>
-      </c>
-      <c r="D147" s="5" t="s">
-        <v>529</v>
-      </c>
-      <c r="E147" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="148" s="1" customFormat="1" spans="1:5">
-      <c r="A148" s="6" t="s">
-        <v>530</v>
-      </c>
-      <c r="B148" s="5" t="s">
-        <v>531</v>
-      </c>
-      <c r="C148" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="D148" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="E148" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="149" s="1" customFormat="1" spans="1:5">
-      <c r="A149" s="6" t="s">
-        <v>534</v>
-      </c>
-      <c r="B149" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C149" s="5" t="s">
-        <v>535</v>
-      </c>
-      <c r="D149" s="5"/>
-      <c r="E149" s="5"/>
-    </row>
-    <row r="150" s="1" customFormat="1" spans="1:5">
-      <c r="A150" s="6" t="s">
-        <v>536</v>
-      </c>
-      <c r="B150" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C150" s="5" t="s">
-        <v>537</v>
-      </c>
-      <c r="D150" s="5"/>
-      <c r="E150" s="5"/>
-    </row>
-    <row r="151" s="1" customFormat="1" spans="1:5">
-      <c r="A151" s="6" t="s">
-        <v>538</v>
-      </c>
-      <c r="B151" s="5" t="s">
-        <v>539</v>
-      </c>
-      <c r="C151" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="D151" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="E151" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="152" s="1" customFormat="1" spans="1:5">
-      <c r="A152" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="B152" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C152" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="D152" s="5"/>
-      <c r="E152" s="5"/>
-    </row>
-    <row r="153" s="1" customFormat="1" spans="1:5">
-      <c r="A153" s="6" t="s">
-        <v>544</v>
-      </c>
-      <c r="B153" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C153" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="D153" s="5"/>
-      <c r="E153" s="5"/>
-    </row>
-    <row r="154" s="1" customFormat="1" spans="1:5">
-      <c r="A154" s="6" t="s">
-        <v>546</v>
-      </c>
-      <c r="B154" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="C154" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="D154" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="E154" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="155" s="1" customFormat="1" spans="1:5">
-      <c r="A155" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="B155" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C155" s="5" t="s">
-        <v>551</v>
-      </c>
-      <c r="D155" s="5"/>
-      <c r="E155" s="5"/>
-    </row>
-    <row r="156" s="1" customFormat="1" spans="1:5">
-      <c r="A156" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="B156" s="5" t="s">
-        <v>553</v>
-      </c>
-      <c r="C156" s="5" t="s">
-        <v>554</v>
-      </c>
-      <c r="D156" s="5" t="s">
-        <v>555</v>
-      </c>
-      <c r="E156" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="157" s="1" customFormat="1" spans="1:5">
-      <c r="A157" s="6" t="s">
-        <v>556</v>
-      </c>
-      <c r="B157" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C157" s="5" t="s">
-        <v>557</v>
-      </c>
-      <c r="D157" s="5"/>
-      <c r="E157" s="5"/>
-    </row>
-    <row r="158" s="1" customFormat="1" spans="1:5">
-      <c r="A158" s="6" t="s">
-        <v>558</v>
-      </c>
-      <c r="B158" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C158" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="D158" s="5"/>
-      <c r="E158" s="5"/>
-    </row>
-    <row r="159" s="1" customFormat="1" spans="1:5">
-      <c r="A159" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="B159" s="5" t="s">
-        <v>561</v>
-      </c>
-      <c r="C159" s="5" t="s">
-        <v>562</v>
-      </c>
-      <c r="D159" s="5"/>
-      <c r="E159" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="160" s="1" customFormat="1" spans="1:5">
-      <c r="A160" s="6" t="s">
-        <v>563</v>
-      </c>
-      <c r="B160" s="5" t="s">
-        <v>564</v>
-      </c>
-      <c r="C160" s="5" t="s">
-        <v>565</v>
-      </c>
-      <c r="D160" s="5" t="s">
-        <v>566</v>
-      </c>
-      <c r="E160" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="161" s="1" customFormat="1" spans="1:5">
-      <c r="A161" s="6" t="s">
-        <v>567</v>
-      </c>
-      <c r="B161" s="5" t="s">
-        <v>568</v>
-      </c>
-      <c r="C161" s="5" t="s">
-        <v>569</v>
-      </c>
-      <c r="D161" s="5" t="s">
-        <v>570</v>
-      </c>
-      <c r="E161" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="162" s="1" customFormat="1" spans="1:5">
-      <c r="A162" s="6" t="s">
-        <v>571</v>
-      </c>
-      <c r="B162" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C162" s="5" t="s">
-        <v>572</v>
-      </c>
-      <c r="D162" s="5"/>
-      <c r="E162" s="5"/>
-    </row>
-    <row r="163" s="1" customFormat="1" spans="1:5">
-      <c r="A163" s="6" t="s">
-        <v>573</v>
-      </c>
-      <c r="B163" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C163" s="5" t="s">
-        <v>574</v>
-      </c>
-      <c r="D163" s="5"/>
-      <c r="E163" s="5"/>
-    </row>
-    <row r="164" s="1" customFormat="1" spans="1:5">
-      <c r="A164" s="6" t="s">
-        <v>575</v>
-      </c>
-      <c r="B164" s="5" t="s">
-        <v>576</v>
-      </c>
-      <c r="C164" s="5" t="s">
-        <v>577</v>
-      </c>
-      <c r="D164" s="5" t="s">
-        <v>578</v>
-      </c>
-      <c r="E164" s="5" t="s">
-        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/server/excel/menu/Menu.xlsx
+++ b/server/excel/menu/Menu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630"/>
+    <workbookView windowWidth="22943" windowHeight="9924" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AppMenu" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583">
   <si>
     <t>菜单编号</t>
   </si>
@@ -1436,6 +1436,12 @@
     <t>../finance/PrintList.html</t>
   </si>
   <si>
+    <t>财务审核</t>
+  </si>
+  <si>
+    <t>spgl_web_cw</t>
+  </si>
+  <si>
     <t>管理</t>
   </si>
   <si>
@@ -1563,15 +1569,6 @@
   </si>
   <si>
     <t>spgl_web_del</t>
-  </si>
-  <si>
-    <t>6,3,3,3</t>
-  </si>
-  <si>
-    <t>财务审核</t>
-  </si>
-  <si>
-    <t>spgl_web_cw</t>
   </si>
   <si>
     <t>6,4</t>
@@ -1852,10 +1849,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1891,6 +1888,112 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -1907,75 +2010,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -1984,45 +2018,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2044,13 +2041,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2062,7 +2089,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2074,97 +2119,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2182,7 +2137,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2194,13 +2179,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2212,19 +2209,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2238,17 +2235,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2257,7 +2257,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2277,21 +2307,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2303,35 +2318,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2346,7 +2343,7 @@
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2355,137 +2352,137 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2497,6 +2494,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2504,6 +2502,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2797,38 +2805,38 @@
   <sheetPr/>
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="18.4416666666667" style="5" customWidth="1"/>
-    <col min="2" max="2" width="23.4416666666667" customWidth="1"/>
-    <col min="3" max="3" width="46.225" customWidth="1"/>
+    <col min="1" max="1" width="18.4444444444444" style="9" customWidth="1"/>
+    <col min="2" max="2" width="23.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="46.2222222222222" customWidth="1"/>
     <col min="4" max="4" width="82.25" customWidth="1"/>
     <col min="5" max="5" width="27.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
-      <c r="A2" s="4">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -2839,7 +2847,7 @@
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
@@ -2856,7 +2864,7 @@
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
@@ -2867,7 +2875,7 @@
       </c>
     </row>
     <row r="5" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B5" t="s">
@@ -2884,7 +2892,7 @@
       </c>
     </row>
     <row r="6" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A6" s="5">
+      <c r="A6" s="9">
         <v>2</v>
       </c>
       <c r="B6" t="s">
@@ -2895,7 +2903,7 @@
       </c>
     </row>
     <row r="7" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B7" t="s">
@@ -2912,7 +2920,7 @@
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B8" t="s">
@@ -2923,7 +2931,7 @@
       </c>
     </row>
     <row r="9" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B9" t="s">
@@ -2934,7 +2942,7 @@
       </c>
     </row>
     <row r="10" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B10" t="s">
@@ -2945,7 +2953,7 @@
       </c>
     </row>
     <row r="11" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="9" t="s">
         <v>35</v>
       </c>
       <c r="B11" t="s">
@@ -2956,7 +2964,7 @@
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B12" t="s">
@@ -2967,7 +2975,7 @@
       </c>
     </row>
     <row r="13" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B13" t="s">
@@ -2978,7 +2986,7 @@
       </c>
     </row>
     <row r="14" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="9" t="s">
         <v>44</v>
       </c>
       <c r="B14" t="s">
@@ -2989,7 +2997,7 @@
       </c>
     </row>
     <row r="15" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="9" t="s">
         <v>47</v>
       </c>
       <c r="B15" t="s">
@@ -3000,7 +3008,7 @@
       </c>
     </row>
     <row r="16" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="9" t="s">
         <v>50</v>
       </c>
       <c r="B16" t="s">
@@ -3011,7 +3019,7 @@
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:3">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="9" t="s">
         <v>53</v>
       </c>
       <c r="B17" t="s">
@@ -3022,7 +3030,7 @@
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:3">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="9" t="s">
         <v>56</v>
       </c>
       <c r="B18" t="s">
@@ -3033,7 +3041,7 @@
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:3">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="9" t="s">
         <v>59</v>
       </c>
       <c r="B19" t="s">
@@ -3044,7 +3052,7 @@
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:3">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="9" t="s">
         <v>62</v>
       </c>
       <c r="B20" t="s">
@@ -3055,7 +3063,7 @@
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:3">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="9" t="s">
         <v>65</v>
       </c>
       <c r="B21" t="s">
@@ -3066,7 +3074,7 @@
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:5">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="9" t="s">
         <v>67</v>
       </c>
       <c r="B22" t="s">
@@ -3083,7 +3091,7 @@
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:3">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="9" t="s">
         <v>72</v>
       </c>
       <c r="B23" t="s">
@@ -3094,7 +3102,7 @@
       </c>
     </row>
     <row r="24" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="9" t="s">
         <v>74</v>
       </c>
       <c r="B24" t="s">
@@ -3105,7 +3113,7 @@
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:3">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="9" t="s">
         <v>77</v>
       </c>
       <c r="B25" t="s">
@@ -3116,7 +3124,7 @@
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:5">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="9" t="s">
         <v>80</v>
       </c>
       <c r="B26" t="s">
@@ -3133,7 +3141,7 @@
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:3">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="9" t="s">
         <v>85</v>
       </c>
       <c r="B27" t="s">
@@ -3144,7 +3152,7 @@
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:3">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="9" t="s">
         <v>88</v>
       </c>
       <c r="B28" t="s">
@@ -3155,7 +3163,7 @@
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:3">
-      <c r="A29" s="5">
+      <c r="A29" s="9">
         <v>3</v>
       </c>
       <c r="B29" t="s">
@@ -3166,7 +3174,7 @@
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:5">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="9" t="s">
         <v>93</v>
       </c>
       <c r="B30" t="s">
@@ -3183,7 +3191,7 @@
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:5">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="9" t="s">
         <v>98</v>
       </c>
       <c r="B31" t="s">
@@ -3192,7 +3200,7 @@
       <c r="C31" t="s">
         <v>100</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="13" t="s">
         <v>101</v>
       </c>
       <c r="E31" t="s">
@@ -3200,7 +3208,7 @@
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:5">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="9" t="s">
         <v>103</v>
       </c>
       <c r="B32" t="s">
@@ -3209,7 +3217,7 @@
       <c r="C32" t="s">
         <v>105</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="13" t="s">
         <v>106</v>
       </c>
       <c r="E32" t="s">
@@ -3217,7 +3225,7 @@
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:5">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="9" t="s">
         <v>108</v>
       </c>
       <c r="B33" t="s">
@@ -3226,7 +3234,7 @@
       <c r="C33" t="s">
         <v>110</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="13" t="s">
         <v>111</v>
       </c>
       <c r="E33" t="s">
@@ -3234,7 +3242,7 @@
       </c>
     </row>
     <row r="34" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="9" t="s">
         <v>113</v>
       </c>
       <c r="B34" t="s">
@@ -3245,7 +3253,7 @@
       </c>
     </row>
     <row r="35" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="9" t="s">
         <v>116</v>
       </c>
       <c r="B35" t="s">
@@ -3256,7 +3264,7 @@
       </c>
     </row>
     <row r="36" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="9" t="s">
         <v>119</v>
       </c>
       <c r="B36" t="s">
@@ -3265,7 +3273,7 @@
       <c r="C36" t="s">
         <v>121</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="13" t="s">
         <v>122</v>
       </c>
       <c r="E36" t="s">
@@ -3273,7 +3281,7 @@
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:3">
-      <c r="A37" s="5">
+      <c r="A37" s="9">
         <v>4</v>
       </c>
       <c r="B37" t="s">
@@ -3284,7 +3292,7 @@
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:5">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="9" t="s">
         <v>126</v>
       </c>
       <c r="B38" t="s">
@@ -3301,7 +3309,7 @@
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:5">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="9" t="s">
         <v>131</v>
       </c>
       <c r="B39" t="s">
@@ -3318,7 +3326,7 @@
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:5">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="9" t="s">
         <v>136</v>
       </c>
       <c r="B40" t="s">
@@ -3335,7 +3343,7 @@
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:5">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="9" t="s">
         <v>141</v>
       </c>
       <c r="B41" t="s">
@@ -3363,21 +3371,21 @@
   <sheetPr/>
   <dimension ref="A1:E164"/>
   <sheetViews>
-    <sheetView topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="B6" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="25.8916666666667" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.8888888888889" style="1" customWidth="1"/>
     <col min="2" max="2" width="32.6666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5583333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5555555555556" style="1" customWidth="1"/>
     <col min="4" max="4" width="37.6666666666667" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.6666666666667" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
+    <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3398,2422 +3406,2422 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="D2"/>
-      <c r="E2" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:5">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="D3"/>
-      <c r="E3" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:5">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="D4"/>
-      <c r="E4" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="5" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:5">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="D6"/>
-      <c r="E6"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:5">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="5" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:5">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="D8"/>
-      <c r="E8" t="s">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:5">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="5" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:5">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="5" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:5">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="D11"/>
-      <c r="E11" t="s">
+      <c r="D11" s="5"/>
+      <c r="E11" s="5" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:5">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="5" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:5">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="5" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:5">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="D14"/>
-      <c r="E14" t="s">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:5">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="D15"/>
-      <c r="E15" t="s">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:5">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="5" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:5">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="D17"/>
-      <c r="E17"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:5">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="D18"/>
-      <c r="E18"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:5">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="D19"/>
-      <c r="E19" t="s">
+      <c r="D19" s="5"/>
+      <c r="E19" s="5" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:5">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="D20"/>
-      <c r="E20" t="s">
+      <c r="D20" s="5"/>
+      <c r="E20" s="5" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:5">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="5" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:5">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="D22"/>
-      <c r="E22"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:5">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="D23"/>
-      <c r="E23"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:5">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="5" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:5">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="D25"/>
-      <c r="E25"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:5">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="D26"/>
-      <c r="E26"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:5">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="5" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:5">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="D28"/>
-      <c r="E28"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:5">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="D29"/>
-      <c r="E29"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:5">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="5" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:5">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="D31"/>
-      <c r="E31"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:5">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="D32"/>
-      <c r="E32"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:5">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="D33"/>
-      <c r="E33" t="s">
+      <c r="D33" s="5"/>
+      <c r="E33" s="5" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" spans="1:5">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="5" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" spans="1:5">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="D35"/>
-      <c r="E35"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
     </row>
     <row r="36" s="1" customFormat="1" spans="1:5">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="D36"/>
-      <c r="E36"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
     </row>
     <row r="37" s="1" customFormat="1" spans="1:5">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="5" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" spans="1:5">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="D38"/>
-      <c r="E38"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
     </row>
     <row r="39" s="1" customFormat="1" spans="1:5">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="D39"/>
-      <c r="E39"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
     </row>
     <row r="40" s="1" customFormat="1" spans="1:5">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="5" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" spans="1:5">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="D41"/>
-      <c r="E41"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
     </row>
     <row r="42" s="1" customFormat="1" spans="1:5">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="D42"/>
-      <c r="E42"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
     </row>
     <row r="43" s="1" customFormat="1" spans="1:5">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="D43"/>
-      <c r="E43" t="s">
+      <c r="D43" s="5"/>
+      <c r="E43" s="5" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="1" spans="1:5">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="5" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="45" s="1" customFormat="1" spans="1:5">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="D45"/>
-      <c r="E45"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
     </row>
     <row r="46" s="1" customFormat="1" spans="1:5">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="D46"/>
-      <c r="E46"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
     </row>
     <row r="47" s="1" customFormat="1" spans="1:5">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D47"/>
-      <c r="E47" t="s">
+      <c r="D47" s="5"/>
+      <c r="E47" s="5" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="1" spans="1:5">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="5" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="49" s="1" customFormat="1" spans="1:5">
-      <c r="A49" s="5">
+      <c r="A49" s="6">
         <v>2</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="D49"/>
-      <c r="E49" t="s">
+      <c r="D49" s="5"/>
+      <c r="E49" s="5" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" spans="1:5">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="D50"/>
-      <c r="E50" t="s">
+      <c r="D50" s="5"/>
+      <c r="E50" s="5" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="51" s="1" customFormat="1" spans="1:5">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="5" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="52" s="1" customFormat="1" spans="1:5">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="D52"/>
-      <c r="E52"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
     </row>
     <row r="53" s="1" customFormat="1" spans="1:5">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="D53"/>
-      <c r="E53"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
     </row>
     <row r="54" s="1" customFormat="1" spans="1:5">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="5" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="55" s="1" customFormat="1" spans="1:5">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="D55"/>
-      <c r="E55"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
     </row>
     <row r="56" s="1" customFormat="1" spans="1:5">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="D56"/>
-      <c r="E56"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
     </row>
     <row r="57" s="1" customFormat="1" spans="1:5">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="5" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="58" s="1" customFormat="1" spans="1:5">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="D58"/>
-      <c r="E58"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
     </row>
     <row r="59" s="1" customFormat="1" spans="1:5">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="D59"/>
-      <c r="E59"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
     </row>
     <row r="60" s="1" customFormat="1" spans="1:5">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="D60"/>
-      <c r="E60" t="s">
+      <c r="D60" s="5"/>
+      <c r="E60" s="5" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="61" s="1" customFormat="1" spans="1:5">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="5" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="62" s="1" customFormat="1" spans="1:5">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="D62"/>
-      <c r="E62"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
     </row>
     <row r="63" s="1" customFormat="1" spans="1:5">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="D63"/>
-      <c r="E63" t="s">
+      <c r="D63" s="5"/>
+      <c r="E63" s="5" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="64" s="1" customFormat="1" spans="1:5">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="D64"/>
-      <c r="E64" t="s">
+      <c r="D64" s="5"/>
+      <c r="E64" s="5" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="65" s="1" customFormat="1" spans="1:5">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="5" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="66" s="1" customFormat="1" spans="1:5">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="D66"/>
-      <c r="E66"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
     </row>
     <row r="67" s="1" customFormat="1" spans="1:5">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="5" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="68" s="1" customFormat="1" spans="1:5">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="D68"/>
-      <c r="E68"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
     </row>
     <row r="69" s="1" customFormat="1" spans="1:5">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" s="5" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="70" s="1" customFormat="1" spans="1:5">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="D70"/>
-      <c r="E70"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
     </row>
     <row r="71" s="1" customFormat="1" spans="1:5">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E71" s="5" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="72" s="1" customFormat="1" spans="1:5">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="D72"/>
-      <c r="E72"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
     </row>
     <row r="73" s="1" customFormat="1" spans="1:5">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="D73"/>
-      <c r="E73" t="s">
+      <c r="D73" s="5"/>
+      <c r="E73" s="5" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="74" s="1" customFormat="1" spans="1:5">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" s="5" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="75" s="1" customFormat="1" spans="1:5">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="D75"/>
-      <c r="E75"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
     </row>
     <row r="76" s="1" customFormat="1" spans="1:5">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" s="5" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="77" s="1" customFormat="1" spans="1:5">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="D77"/>
-      <c r="E77"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
     </row>
     <row r="78" s="1" customFormat="1" spans="1:5">
-      <c r="A78" s="5" t="s">
+      <c r="A78" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="D78"/>
-      <c r="E78"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
     </row>
     <row r="79" s="1" customFormat="1" spans="1:5">
-      <c r="A79" s="5" t="s">
+      <c r="A79" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" s="5" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="80" s="1" customFormat="1" spans="1:5">
-      <c r="A80" s="5" t="s">
+      <c r="A80" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="D80"/>
-      <c r="E80"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
     </row>
     <row r="81" s="1" customFormat="1" spans="1:5">
-      <c r="A81" s="5" t="s">
+      <c r="A81" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81" s="5" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="82" s="1" customFormat="1" spans="1:5">
-      <c r="A82" s="5" t="s">
+      <c r="A82" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="D82"/>
-      <c r="E82"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
     </row>
     <row r="83" s="1" customFormat="1" spans="1:5">
-      <c r="A83" s="5" t="s">
+      <c r="A83" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="D83"/>
-      <c r="E83"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
     </row>
     <row r="84" s="1" customFormat="1" spans="1:5">
-      <c r="A84" s="5" t="s">
+      <c r="A84" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="D84"/>
-      <c r="E84" t="s">
+      <c r="D84" s="5"/>
+      <c r="E84" s="5" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="85" s="1" customFormat="1" spans="1:5">
-      <c r="A85" s="5" t="s">
+      <c r="A85" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E85" s="5" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="86" s="1" customFormat="1" spans="1:5">
-      <c r="A86" s="5" t="s">
+      <c r="A86" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="D86"/>
-      <c r="E86"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
     </row>
     <row r="87" s="1" customFormat="1" spans="1:5">
-      <c r="A87" s="5" t="s">
+      <c r="A87" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="D87"/>
-      <c r="E87" t="s">
+      <c r="D87" s="5"/>
+      <c r="E87" s="5" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="88" s="1" customFormat="1" spans="1:5">
-      <c r="A88" s="5" t="s">
+      <c r="A88" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E88" s="5" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="89" s="1" customFormat="1" spans="1:5">
-      <c r="A89" s="5" t="s">
+      <c r="A89" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="D89"/>
-      <c r="E89"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
     </row>
     <row r="90" s="1" customFormat="1" spans="1:5">
-      <c r="A90" s="5" t="s">
+      <c r="A90" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E90" s="5" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="91" s="1" customFormat="1" spans="1:5">
-      <c r="A91" s="5" t="s">
+      <c r="A91" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="D91"/>
-      <c r="E91"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
     </row>
     <row r="92" s="1" customFormat="1" spans="1:5">
-      <c r="A92" s="5" t="s">
+      <c r="A92" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="D92"/>
-      <c r="E92"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
     </row>
     <row r="93" s="1" customFormat="1" spans="1:5">
-      <c r="A93" s="5">
+      <c r="A93" s="6">
         <v>3</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="D93"/>
-      <c r="E93" t="s">
+      <c r="D93" s="5"/>
+      <c r="E93" s="5" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="94" s="1" customFormat="1" spans="1:5">
-      <c r="A94" s="5" t="s">
+      <c r="A94" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E94" s="5" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="95" s="1" customFormat="1" spans="1:5">
-      <c r="A95" s="5" t="s">
+      <c r="A95" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E95" s="5" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="96" s="1" customFormat="1" spans="1:5">
-      <c r="A96" s="5" t="s">
+      <c r="A96" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="D96"/>
-      <c r="E96" t="s">
+      <c r="D96" s="5"/>
+      <c r="E96" s="5" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="97" s="1" customFormat="1" spans="1:5">
-      <c r="A97" s="5" t="s">
+      <c r="A97" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E97" s="5" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="98" s="1" customFormat="1" spans="1:5">
-      <c r="A98" s="5" t="s">
+      <c r="A98" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E98" s="5" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="99" s="1" customFormat="1" spans="1:5">
-      <c r="A99" s="5" t="s">
+      <c r="A99" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="D99"/>
-      <c r="E99" t="s">
+      <c r="D99" s="5"/>
+      <c r="E99" s="5" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="100" s="1" customFormat="1" spans="1:5">
-      <c r="A100" s="5" t="s">
+      <c r="A100" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E100" s="5" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="101" s="1" customFormat="1" spans="1:5">
-      <c r="A101" s="5" t="s">
+      <c r="A101" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E101" s="5" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="102" s="1" customFormat="1" spans="1:5">
-      <c r="A102" s="5">
+      <c r="A102" s="6">
         <v>4</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="D102"/>
-      <c r="E102" t="s">
+      <c r="D102" s="5"/>
+      <c r="E102" s="5" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="103" s="1" customFormat="1" spans="1:5">
-      <c r="A103" s="5" t="s">
+      <c r="A103" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="D103" s="6" t="s">
+      <c r="D103" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E103" s="5" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="104" s="1" customFormat="1" spans="1:5">
-      <c r="A104" s="5" t="s">
+      <c r="A104" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="D104" s="6" t="s">
+      <c r="D104" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E104" s="5" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="105" s="1" customFormat="1" spans="1:5">
-      <c r="A105" s="5">
+      <c r="A105" s="6">
         <v>5</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="D105"/>
-      <c r="E105" t="s">
+      <c r="D105" s="5"/>
+      <c r="E105" s="5" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="106" s="1" customFormat="1" spans="1:5">
-      <c r="A106" s="5" t="s">
+      <c r="A106" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="D106"/>
-      <c r="E106" t="s">
+      <c r="D106" s="5"/>
+      <c r="E106" s="5" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="107" s="1" customFormat="1" spans="1:5">
-      <c r="A107" s="5" t="s">
+      <c r="A107" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E107" s="5" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="108" s="1" customFormat="1" spans="1:5">
-      <c r="A108" s="5" t="s">
+      <c r="A108" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="D108"/>
-      <c r="E108"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
     </row>
     <row r="109" s="1" customFormat="1" spans="1:5">
-      <c r="A109" s="5" t="s">
+      <c r="A109" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="D109"/>
-      <c r="E109"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
     </row>
     <row r="110" s="1" customFormat="1" spans="1:5">
-      <c r="A110" s="5" t="s">
+      <c r="A110" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="E110" t="s">
+      <c r="E110" s="5" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="111" s="1" customFormat="1" spans="1:5">
-      <c r="A111" s="5" t="s">
+      <c r="A111" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="D111"/>
-      <c r="E111"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
     </row>
     <row r="112" s="1" customFormat="1" spans="1:5">
-      <c r="A112" s="5" t="s">
+      <c r="A112" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="D112"/>
-      <c r="E112" t="s">
+      <c r="D112" s="5"/>
+      <c r="E112" s="5" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="113" s="1" customFormat="1" spans="1:5">
-      <c r="A113" s="5" t="s">
+      <c r="A113" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="E113" t="s">
+      <c r="E113" s="5" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="114" s="1" customFormat="1" spans="1:5">
-      <c r="A114" s="5" t="s">
+      <c r="A114" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="D114"/>
-      <c r="E114"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
     </row>
     <row r="115" s="1" customFormat="1" spans="1:5">
-      <c r="A115" s="5" t="s">
+      <c r="A115" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="E115" t="s">
+      <c r="E115" s="5" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="116" s="1" customFormat="1" spans="1:5">
-      <c r="A116" s="5">
+      <c r="A116" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+    </row>
+    <row r="117" s="1" customFormat="1" spans="1:5">
+      <c r="A117" s="6">
         <v>6</v>
       </c>
-      <c r="B116" t="s">
-        <v>447</v>
-      </c>
-      <c r="C116" t="s">
-        <v>448</v>
-      </c>
-      <c r="D116"/>
-      <c r="E116" t="s">
+      <c r="B117" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="117" s="1" customFormat="1" spans="1:5">
-      <c r="A117" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="B117" t="s">
-        <v>450</v>
-      </c>
-      <c r="C117" t="s">
+    <row r="118" s="1" customFormat="1" spans="1:5">
+      <c r="A118" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="D117" s="7" t="s">
+      <c r="B118" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="E117" t="s">
+      <c r="C118" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="E118" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="118" s="1" customFormat="1" spans="1:5">
-      <c r="A118" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="B118" t="s">
+    <row r="119" s="1" customFormat="1" spans="1:5">
+      <c r="A119" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="B119" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C118" t="s">
-        <v>454</v>
-      </c>
-      <c r="D118" s="7"/>
-      <c r="E118"/>
-    </row>
-    <row r="119" s="1" customFormat="1" spans="1:5">
-      <c r="A119" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="B119" t="s">
+      <c r="C119" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" s="8"/>
+      <c r="E119" s="5"/>
+    </row>
+    <row r="120" s="1" customFormat="1" spans="1:5">
+      <c r="A120" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="D119" s="6" t="s">
+      <c r="B120" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="E119" t="s">
+      <c r="C120" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="E120" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="120" s="1" customFormat="1" spans="1:5">
-      <c r="A120" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="B120" t="s">
+    <row r="121" s="1" customFormat="1" spans="1:5">
+      <c r="A121" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="B121" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C120" t="s">
-        <v>460</v>
-      </c>
-      <c r="D120" s="6"/>
-      <c r="E120"/>
-    </row>
-    <row r="121" s="1" customFormat="1" spans="1:5">
-      <c r="A121" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="B121" t="s">
+      <c r="C121" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="D121" s="7"/>
+      <c r="E121" s="5"/>
+    </row>
+    <row r="122" s="1" customFormat="1" spans="1:5">
+      <c r="A122" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="B122" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C121" t="s">
-        <v>462</v>
-      </c>
-      <c r="D121" s="6"/>
-      <c r="E121"/>
-    </row>
-    <row r="122" s="1" customFormat="1" spans="1:5">
-      <c r="A122" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="B122" t="s">
+      <c r="C122" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D122" s="7"/>
+      <c r="E122" s="5"/>
+    </row>
+    <row r="123" s="1" customFormat="1" spans="1:5">
+      <c r="A123" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="D122" s="6"/>
-      <c r="E122" t="s">
+      <c r="B123" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="D123" s="7"/>
+      <c r="E123" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="123" s="1" customFormat="1" spans="1:5">
-      <c r="A123" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="B123" t="s">
-        <v>467</v>
-      </c>
-      <c r="C123" t="s">
+    <row r="124" s="1" customFormat="1" spans="1:5">
+      <c r="A124" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="D123" s="6" t="s">
+      <c r="B124" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="E123" t="s">
+      <c r="C124" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="E124" s="5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="124" s="1" customFormat="1" spans="1:5">
-      <c r="A124" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="B124" t="s">
+    <row r="125" s="1" customFormat="1" spans="1:5">
+      <c r="A125" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="B125" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C124" t="s">
-        <v>471</v>
-      </c>
-      <c r="D124" s="6"/>
-      <c r="E124"/>
-    </row>
-    <row r="125" s="1" customFormat="1" spans="1:5">
-      <c r="A125" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="B125" t="s">
+      <c r="C125" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="D125" s="7"/>
+      <c r="E125" s="5"/>
+    </row>
+    <row r="126" s="1" customFormat="1" spans="1:5">
+      <c r="A126" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="B126" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C125" t="s">
-        <v>473</v>
-      </c>
-      <c r="D125" s="6"/>
-      <c r="E125"/>
-    </row>
-    <row r="126" s="1" customFormat="1" spans="1:5">
-      <c r="A126" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="B126" t="s">
+      <c r="C126" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D126" s="7"/>
+      <c r="E126" s="5"/>
+    </row>
+    <row r="127" s="1" customFormat="1" spans="1:5">
+      <c r="A127" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="D126" s="6" t="s">
+      <c r="B127" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="E126" t="s">
+      <c r="C127" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="E127" s="5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="127" s="1" customFormat="1" spans="1:5">
-      <c r="A127" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="B127" t="s">
+    <row r="128" s="1" customFormat="1" spans="1:5">
+      <c r="A128" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="B128" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C127" t="s">
-        <v>479</v>
-      </c>
-      <c r="D127" s="6"/>
-      <c r="E127"/>
-    </row>
-    <row r="128" s="1" customFormat="1" spans="1:5">
-      <c r="A128" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="B128" t="s">
+      <c r="C128" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="D128" s="7"/>
+      <c r="E128" s="5"/>
+    </row>
+    <row r="129" s="1" customFormat="1" spans="1:5">
+      <c r="A129" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="B129" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C128" t="s">
-        <v>481</v>
-      </c>
-      <c r="D128" s="6"/>
-      <c r="E128"/>
-    </row>
-    <row r="129" s="1" customFormat="1" spans="1:5">
-      <c r="A129" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="B129" t="s">
+      <c r="C129" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D129" s="7"/>
+      <c r="E129" s="5"/>
+    </row>
+    <row r="130" s="1" customFormat="1" spans="1:5">
+      <c r="A130" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="D129" s="6" t="s">
+      <c r="B130" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="E129" t="s">
+      <c r="C130" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="D130" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="E130" s="5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="130" s="1" customFormat="1" spans="1:5">
-      <c r="A130" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="B130" t="s">
+    <row r="131" s="1" customFormat="1" spans="1:5">
+      <c r="A131" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="B131" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C130" t="s">
-        <v>487</v>
-      </c>
-      <c r="D130" s="6"/>
-      <c r="E130"/>
-    </row>
-    <row r="131" s="1" customFormat="1" spans="1:5">
-      <c r="A131" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="B131" t="s">
+      <c r="C131" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="D131" s="7"/>
+      <c r="E131" s="5"/>
+    </row>
+    <row r="132" s="1" customFormat="1" spans="1:5">
+      <c r="A132" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="B132" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C131" t="s">
-        <v>489</v>
-      </c>
-      <c r="D131" s="6"/>
-      <c r="E131"/>
-    </row>
-    <row r="132" s="1" customFormat="1" spans="1:5">
-      <c r="A132" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="B132" t="s">
+      <c r="C132" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="C132" t="s">
+      <c r="D132" s="7"/>
+      <c r="E132" s="5"/>
+    </row>
+    <row r="133" s="1" customFormat="1" spans="1:5">
+      <c r="A133" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="D132" s="6"/>
-      <c r="E132"/>
-    </row>
-    <row r="133" s="1" customFormat="1" spans="1:5">
-      <c r="A133" s="5" t="s">
+      <c r="B133" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="B133" t="s">
+      <c r="C133" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="C133" t="s">
+      <c r="D133" s="5"/>
+      <c r="E133" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="134" s="1" customFormat="1" spans="1:5">
+      <c r="A134" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="D133"/>
-      <c r="E133" t="s">
+      <c r="B134" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="135" s="1" customFormat="1" spans="1:5">
+      <c r="A135" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+    </row>
+    <row r="136" s="1" customFormat="1" spans="1:5">
+      <c r="A136" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
+    </row>
+    <row r="137" s="1" customFormat="1" spans="1:5">
+      <c r="A137" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="138" s="1" customFormat="1" spans="1:5">
+      <c r="A138" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
+    </row>
+    <row r="139" s="1" customFormat="1" spans="1:5">
+      <c r="A139" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
+    </row>
+    <row r="140" s="1" customFormat="1" spans="1:5">
+      <c r="A140" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="134" s="1" customFormat="1" spans="1:5">
-      <c r="A134" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="B134" t="s">
-        <v>497</v>
-      </c>
-      <c r="C134" t="s">
-        <v>498</v>
-      </c>
-      <c r="D134" t="s">
-        <v>499</v>
-      </c>
-      <c r="E134" t="s">
+    <row r="141" s="1" customFormat="1" spans="1:5">
+      <c r="A141" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="E141" s="5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="135" s="1" customFormat="1" spans="1:5">
-      <c r="A135" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="B135" t="s">
+    <row r="142" s="1" customFormat="1" spans="1:5">
+      <c r="A142" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="B142" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C135" t="s">
-        <v>501</v>
-      </c>
-      <c r="D135"/>
-      <c r="E135"/>
-    </row>
-    <row r="136" s="1" customFormat="1" spans="1:5">
-      <c r="A136" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="B136" t="s">
+      <c r="C142" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+    </row>
+    <row r="143" s="1" customFormat="1" spans="1:5">
+      <c r="A143" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="B143" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C136" t="s">
-        <v>503</v>
-      </c>
-      <c r="D136"/>
-      <c r="E136"/>
-    </row>
-    <row r="137" s="1" customFormat="1" spans="1:5">
-      <c r="A137" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="B137" t="s">
-        <v>505</v>
-      </c>
-      <c r="C137" t="s">
-        <v>506</v>
-      </c>
-      <c r="D137" t="s">
-        <v>507</v>
-      </c>
-      <c r="E137" t="s">
+      <c r="C143" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5"/>
+    </row>
+    <row r="144" s="1" customFormat="1" spans="1:5">
+      <c r="A144" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="E144" s="5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="138" s="1" customFormat="1" spans="1:5">
-      <c r="A138" s="5" t="s">
-        <v>508</v>
-      </c>
-      <c r="B138" t="s">
+    <row r="145" s="1" customFormat="1" spans="1:5">
+      <c r="A145" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="B145" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C138" t="s">
-        <v>509</v>
-      </c>
-      <c r="D138"/>
-      <c r="E138"/>
-    </row>
-    <row r="139" s="1" customFormat="1" spans="1:5">
-      <c r="A139" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="B139" t="s">
+      <c r="C145" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
+    </row>
+    <row r="146" s="1" customFormat="1" spans="1:5">
+      <c r="A146" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="B146" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C139" t="s">
-        <v>511</v>
-      </c>
-      <c r="D139"/>
-      <c r="E139"/>
-    </row>
-    <row r="140" s="1" customFormat="1" spans="1:5">
-      <c r="A140" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="B140" t="s">
-        <v>513</v>
-      </c>
-      <c r="C140" t="s">
-        <v>514</v>
-      </c>
-      <c r="D140"/>
-      <c r="E140" t="s">
+      <c r="C146" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="D146" s="5"/>
+      <c r="E146" s="5"/>
+    </row>
+    <row r="147" s="1" customFormat="1" spans="1:5">
+      <c r="A147" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="E147" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="148" s="1" customFormat="1" spans="1:5">
+      <c r="A148" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="E148" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="141" s="1" customFormat="1" spans="1:5">
-      <c r="A141" s="5" t="s">
-        <v>515</v>
-      </c>
-      <c r="B141" t="s">
-        <v>516</v>
-      </c>
-      <c r="C141" t="s">
-        <v>517</v>
-      </c>
-      <c r="D141" t="s">
-        <v>518</v>
-      </c>
-      <c r="E141" t="s">
+    <row r="149" s="1" customFormat="1" spans="1:5">
+      <c r="A149" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5"/>
+    </row>
+    <row r="150" s="1" customFormat="1" spans="1:5">
+      <c r="A150" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
+    </row>
+    <row r="151" s="1" customFormat="1" spans="1:5">
+      <c r="A151" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="152" s="1" customFormat="1" spans="1:5">
+      <c r="A152" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5"/>
+    </row>
+    <row r="153" s="1" customFormat="1" spans="1:5">
+      <c r="A153" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="D153" s="5"/>
+      <c r="E153" s="5"/>
+    </row>
+    <row r="154" s="1" customFormat="1" spans="1:5">
+      <c r="A154" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" s="1" customFormat="1" spans="1:5">
+      <c r="A155" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="D155" s="5"/>
+      <c r="E155" s="5"/>
+    </row>
+    <row r="156" s="1" customFormat="1" spans="1:5">
+      <c r="A156" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="157" s="1" customFormat="1" spans="1:5">
+      <c r="A157" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="D157" s="5"/>
+      <c r="E157" s="5"/>
+    </row>
+    <row r="158" s="1" customFormat="1" spans="1:5">
+      <c r="A158" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="D158" s="5"/>
+      <c r="E158" s="5"/>
+    </row>
+    <row r="159" s="1" customFormat="1" spans="1:5">
+      <c r="A159" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="D159" s="5"/>
+      <c r="E159" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="160" s="1" customFormat="1" spans="1:5">
+      <c r="A160" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="E160" s="5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="142" s="1" customFormat="1" spans="1:5">
-      <c r="A142" s="5" t="s">
-        <v>519</v>
-      </c>
-      <c r="B142" t="s">
+    <row r="161" s="1" customFormat="1" spans="1:5">
+      <c r="A161" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="E161" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="162" s="1" customFormat="1" spans="1:5">
+      <c r="A162" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="B162" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C142" t="s">
-        <v>520</v>
-      </c>
-      <c r="D142"/>
-      <c r="E142"/>
-    </row>
-    <row r="143" s="1" customFormat="1" spans="1:5">
-      <c r="A143" s="5" t="s">
-        <v>521</v>
-      </c>
-      <c r="B143" t="s">
+      <c r="C162" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="D162" s="5"/>
+      <c r="E162" s="5"/>
+    </row>
+    <row r="163" s="1" customFormat="1" spans="1:5">
+      <c r="A163" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="B163" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C143" t="s">
-        <v>522</v>
-      </c>
-      <c r="D143"/>
-      <c r="E143"/>
-    </row>
-    <row r="144" s="1" customFormat="1" spans="1:5">
-      <c r="A144" s="5" t="s">
-        <v>523</v>
-      </c>
-      <c r="B144" t="s">
-        <v>524</v>
-      </c>
-      <c r="C144" t="s">
-        <v>525</v>
-      </c>
-      <c r="D144" t="s">
-        <v>526</v>
-      </c>
-      <c r="E144" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="145" s="1" customFormat="1" spans="1:5">
-      <c r="A145" s="5" t="s">
-        <v>527</v>
-      </c>
-      <c r="B145" t="s">
-        <v>197</v>
-      </c>
-      <c r="C145" t="s">
-        <v>528</v>
-      </c>
-      <c r="D145"/>
-      <c r="E145"/>
-    </row>
-    <row r="146" s="1" customFormat="1" spans="1:5">
-      <c r="A146" s="5" t="s">
-        <v>529</v>
-      </c>
-      <c r="B146" t="s">
-        <v>200</v>
-      </c>
-      <c r="C146" t="s">
-        <v>530</v>
-      </c>
-      <c r="D146"/>
-      <c r="E146"/>
-    </row>
-    <row r="147" s="1" customFormat="1" spans="1:5">
-      <c r="A147" s="5" t="s">
-        <v>531</v>
-      </c>
-      <c r="B147" t="s">
-        <v>532</v>
-      </c>
-      <c r="C147" t="s">
-        <v>533</v>
-      </c>
-      <c r="D147" t="s">
-        <v>534</v>
-      </c>
-      <c r="E147" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="148" s="1" customFormat="1" spans="1:5">
-      <c r="A148" s="5" t="s">
-        <v>535</v>
-      </c>
-      <c r="B148" t="s">
-        <v>536</v>
-      </c>
-      <c r="C148" t="s">
-        <v>537</v>
-      </c>
-      <c r="D148" t="s">
-        <v>538</v>
-      </c>
-      <c r="E148" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="149" s="1" customFormat="1" spans="1:5">
-      <c r="A149" s="5" t="s">
-        <v>539</v>
-      </c>
-      <c r="B149" t="s">
-        <v>197</v>
-      </c>
-      <c r="C149" t="s">
-        <v>540</v>
-      </c>
-      <c r="D149"/>
-      <c r="E149"/>
-    </row>
-    <row r="150" s="1" customFormat="1" spans="1:5">
-      <c r="A150" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="B150" t="s">
-        <v>200</v>
-      </c>
-      <c r="C150" t="s">
-        <v>542</v>
-      </c>
-      <c r="D150"/>
-      <c r="E150"/>
-    </row>
-    <row r="151" s="1" customFormat="1" spans="1:5">
-      <c r="A151" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="B151" t="s">
-        <v>544</v>
-      </c>
-      <c r="C151" t="s">
-        <v>545</v>
-      </c>
-      <c r="D151" t="s">
-        <v>546</v>
-      </c>
-      <c r="E151" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="152" s="1" customFormat="1" spans="1:5">
-      <c r="A152" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="B152" t="s">
-        <v>197</v>
-      </c>
-      <c r="C152" t="s">
-        <v>548</v>
-      </c>
-      <c r="D152"/>
-      <c r="E152"/>
-    </row>
-    <row r="153" s="1" customFormat="1" spans="1:5">
-      <c r="A153" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="B153" t="s">
-        <v>200</v>
-      </c>
-      <c r="C153" t="s">
-        <v>550</v>
-      </c>
-      <c r="D153"/>
-      <c r="E153"/>
-    </row>
-    <row r="154" s="1" customFormat="1" spans="1:5">
-      <c r="A154" s="5" t="s">
-        <v>551</v>
-      </c>
-      <c r="B154" t="s">
-        <v>552</v>
-      </c>
-      <c r="C154" t="s">
-        <v>553</v>
-      </c>
-      <c r="D154" t="s">
-        <v>554</v>
-      </c>
-      <c r="E154" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="155" s="1" customFormat="1" spans="1:5">
-      <c r="A155" s="5" t="s">
-        <v>555</v>
-      </c>
-      <c r="B155" t="s">
-        <v>197</v>
-      </c>
-      <c r="C155" t="s">
-        <v>556</v>
-      </c>
-      <c r="D155"/>
-      <c r="E155"/>
-    </row>
-    <row r="156" s="1" customFormat="1" spans="1:5">
-      <c r="A156" s="5" t="s">
-        <v>557</v>
-      </c>
-      <c r="B156" t="s">
-        <v>558</v>
-      </c>
-      <c r="C156" t="s">
-        <v>559</v>
-      </c>
-      <c r="D156" t="s">
-        <v>560</v>
-      </c>
-      <c r="E156" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="157" s="1" customFormat="1" spans="1:5">
-      <c r="A157" s="5" t="s">
-        <v>561</v>
-      </c>
-      <c r="B157" t="s">
-        <v>197</v>
-      </c>
-      <c r="C157" t="s">
-        <v>562</v>
-      </c>
-      <c r="D157"/>
-      <c r="E157"/>
-    </row>
-    <row r="158" s="1" customFormat="1" spans="1:5">
-      <c r="A158" s="5" t="s">
-        <v>563</v>
-      </c>
-      <c r="B158" t="s">
-        <v>200</v>
-      </c>
-      <c r="C158" t="s">
-        <v>564</v>
-      </c>
-      <c r="D158"/>
-      <c r="E158"/>
-    </row>
-    <row r="159" s="1" customFormat="1" spans="1:5">
-      <c r="A159" s="5" t="s">
-        <v>565</v>
-      </c>
-      <c r="B159" t="s">
-        <v>566</v>
-      </c>
-      <c r="C159" t="s">
-        <v>567</v>
-      </c>
-      <c r="D159"/>
-      <c r="E159" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="160" s="1" customFormat="1" spans="1:5">
-      <c r="A160" s="5" t="s">
-        <v>568</v>
-      </c>
-      <c r="B160" t="s">
-        <v>569</v>
-      </c>
-      <c r="C160" t="s">
-        <v>570</v>
-      </c>
-      <c r="D160" t="s">
-        <v>571</v>
-      </c>
-      <c r="E160" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="161" s="1" customFormat="1" spans="1:5">
-      <c r="A161" s="5" t="s">
-        <v>572</v>
-      </c>
-      <c r="B161" t="s">
-        <v>573</v>
-      </c>
-      <c r="C161" t="s">
-        <v>574</v>
-      </c>
-      <c r="D161" t="s">
-        <v>575</v>
-      </c>
-      <c r="E161" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="162" s="1" customFormat="1" spans="1:5">
-      <c r="A162" s="5" t="s">
-        <v>576</v>
-      </c>
-      <c r="B162" t="s">
-        <v>197</v>
-      </c>
-      <c r="C162" t="s">
-        <v>577</v>
-      </c>
-      <c r="D162"/>
-      <c r="E162"/>
-    </row>
-    <row r="163" s="1" customFormat="1" spans="1:5">
-      <c r="A163" s="5" t="s">
+      <c r="C163" s="5" t="s">
         <v>578</v>
       </c>
-      <c r="B163" t="s">
-        <v>200</v>
-      </c>
-      <c r="C163" t="s">
+      <c r="D163" s="5"/>
+      <c r="E163" s="5"/>
+    </row>
+    <row r="164" s="1" customFormat="1" spans="1:5">
+      <c r="A164" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="D163"/>
-      <c r="E163"/>
-    </row>
-    <row r="164" s="1" customFormat="1" spans="1:5">
-      <c r="A164" s="5" t="s">
+      <c r="B164" s="5" t="s">
         <v>580</v>
       </c>
-      <c r="B164" t="s">
+      <c r="C164" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="C164" t="s">
+      <c r="D164" s="5" t="s">
         <v>582</v>
       </c>
-      <c r="D164" t="s">
-        <v>583</v>
-      </c>
-      <c r="E164" t="s">
+      <c r="E164" s="5" t="s">
         <v>153</v>
       </c>
     </row>

--- a/server/excel/menu/Menu.xlsx
+++ b/server/excel/menu/Menu.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584">
   <si>
     <t>菜单编号</t>
   </si>
@@ -1340,6 +1340,15 @@
     <t>../manage/auditTaskList.html</t>
   </si>
   <si>
+    <t>4,1,1</t>
+  </si>
+  <si>
+    <t>财务审核</t>
+  </si>
+  <si>
+    <t>spgl_web_cw</t>
+  </si>
+  <si>
     <t>审核请求</t>
   </si>
   <si>
@@ -1434,12 +1443,6 @@
   </si>
   <si>
     <t>../finance/PrintList.html</t>
-  </si>
-  <si>
-    <t>财务审核</t>
-  </si>
-  <si>
-    <t>spgl_web_cw</t>
   </si>
   <si>
     <t>管理</t>
@@ -1888,29 +1891,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -1919,8 +1899,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1935,68 +1948,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2010,11 +1962,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2047,7 +2050,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2065,7 +2074,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2077,13 +2104,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2095,25 +2116,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2125,13 +2128,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2143,19 +2146,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2173,13 +2176,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2191,25 +2206,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2221,7 +2224,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2239,25 +2242,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2277,6 +2277,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2292,28 +2303,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2343,7 +2346,7 @@
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2355,61 +2358,61 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -2418,71 +2421,71 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2494,7 +2497,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2502,16 +2504,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2811,7 +2803,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="18.4444444444444" style="9" customWidth="1"/>
+    <col min="1" max="1" width="18.4444444444444" style="5" customWidth="1"/>
     <col min="2" max="2" width="23.4444444444444" customWidth="1"/>
     <col min="3" max="3" width="46.2222222222222" customWidth="1"/>
     <col min="4" max="4" width="82.25" customWidth="1"/>
@@ -2819,24 +2811,24 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
-      <c r="A2" s="12">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -2847,7 +2839,7 @@
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
@@ -2864,7 +2856,7 @@
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
@@ -2875,7 +2867,7 @@
       </c>
     </row>
     <row r="5" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B5" t="s">
@@ -2892,7 +2884,7 @@
       </c>
     </row>
     <row r="6" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A6" s="9">
+      <c r="A6" s="5">
         <v>2</v>
       </c>
       <c r="B6" t="s">
@@ -2903,7 +2895,7 @@
       </c>
     </row>
     <row r="7" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B7" t="s">
@@ -2920,7 +2912,7 @@
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B8" t="s">
@@ -2931,7 +2923,7 @@
       </c>
     </row>
     <row r="9" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B9" t="s">
@@ -2942,7 +2934,7 @@
       </c>
     </row>
     <row r="10" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B10" t="s">
@@ -2953,7 +2945,7 @@
       </c>
     </row>
     <row r="11" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B11" t="s">
@@ -2964,7 +2956,7 @@
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:3">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B12" t="s">
@@ -2975,7 +2967,7 @@
       </c>
     </row>
     <row r="13" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B13" t="s">
@@ -2986,7 +2978,7 @@
       </c>
     </row>
     <row r="14" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B14" t="s">
@@ -2997,7 +2989,7 @@
       </c>
     </row>
     <row r="15" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B15" t="s">
@@ -3008,7 +3000,7 @@
       </c>
     </row>
     <row r="16" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B16" t="s">
@@ -3019,7 +3011,7 @@
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:3">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B17" t="s">
@@ -3030,7 +3022,7 @@
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:3">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="5" t="s">
         <v>56</v>
       </c>
       <c r="B18" t="s">
@@ -3041,7 +3033,7 @@
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:3">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B19" t="s">
@@ -3052,7 +3044,7 @@
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:3">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B20" t="s">
@@ -3063,7 +3055,7 @@
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:3">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="5" t="s">
         <v>65</v>
       </c>
       <c r="B21" t="s">
@@ -3074,7 +3066,7 @@
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:5">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="5" t="s">
         <v>67</v>
       </c>
       <c r="B22" t="s">
@@ -3091,7 +3083,7 @@
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:3">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B23" t="s">
@@ -3102,7 +3094,7 @@
       </c>
     </row>
     <row r="24" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="5" t="s">
         <v>74</v>
       </c>
       <c r="B24" t="s">
@@ -3113,7 +3105,7 @@
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:3">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="5" t="s">
         <v>77</v>
       </c>
       <c r="B25" t="s">
@@ -3124,7 +3116,7 @@
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:5">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="5" t="s">
         <v>80</v>
       </c>
       <c r="B26" t="s">
@@ -3141,7 +3133,7 @@
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:3">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="5" t="s">
         <v>85</v>
       </c>
       <c r="B27" t="s">
@@ -3152,7 +3144,7 @@
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:3">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="5" t="s">
         <v>88</v>
       </c>
       <c r="B28" t="s">
@@ -3163,7 +3155,7 @@
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:3">
-      <c r="A29" s="9">
+      <c r="A29" s="5">
         <v>3</v>
       </c>
       <c r="B29" t="s">
@@ -3174,7 +3166,7 @@
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:5">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="5" t="s">
         <v>93</v>
       </c>
       <c r="B30" t="s">
@@ -3191,7 +3183,7 @@
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:5">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="5" t="s">
         <v>98</v>
       </c>
       <c r="B31" t="s">
@@ -3200,7 +3192,7 @@
       <c r="C31" t="s">
         <v>100</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="8" t="s">
         <v>101</v>
       </c>
       <c r="E31" t="s">
@@ -3208,7 +3200,7 @@
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:5">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="5" t="s">
         <v>103</v>
       </c>
       <c r="B32" t="s">
@@ -3217,7 +3209,7 @@
       <c r="C32" t="s">
         <v>105</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="8" t="s">
         <v>106</v>
       </c>
       <c r="E32" t="s">
@@ -3225,7 +3217,7 @@
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:5">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="5" t="s">
         <v>108</v>
       </c>
       <c r="B33" t="s">
@@ -3234,7 +3226,7 @@
       <c r="C33" t="s">
         <v>110</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="8" t="s">
         <v>111</v>
       </c>
       <c r="E33" t="s">
@@ -3242,7 +3234,7 @@
       </c>
     </row>
     <row r="34" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="5" t="s">
         <v>113</v>
       </c>
       <c r="B34" t="s">
@@ -3253,7 +3245,7 @@
       </c>
     </row>
     <row r="35" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="5" t="s">
         <v>116</v>
       </c>
       <c r="B35" t="s">
@@ -3264,7 +3256,7 @@
       </c>
     </row>
     <row r="36" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="5" t="s">
         <v>119</v>
       </c>
       <c r="B36" t="s">
@@ -3273,7 +3265,7 @@
       <c r="C36" t="s">
         <v>121</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="8" t="s">
         <v>122</v>
       </c>
       <c r="E36" t="s">
@@ -3281,7 +3273,7 @@
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:3">
-      <c r="A37" s="9">
+      <c r="A37" s="5">
         <v>4</v>
       </c>
       <c r="B37" t="s">
@@ -3292,7 +3284,7 @@
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:5">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="5" t="s">
         <v>126</v>
       </c>
       <c r="B38" t="s">
@@ -3309,7 +3301,7 @@
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:5">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="5" t="s">
         <v>131</v>
       </c>
       <c r="B39" t="s">
@@ -3326,7 +3318,7 @@
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:5">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="5" t="s">
         <v>136</v>
       </c>
       <c r="B40" t="s">
@@ -3343,7 +3335,7 @@
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:5">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="5" t="s">
         <v>141</v>
       </c>
       <c r="B41" t="s">
@@ -3371,8 +3363,8 @@
   <sheetPr/>
   <dimension ref="A1:E164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="B116" sqref="B116"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="F107" sqref="F107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -3406,2422 +3398,2422 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" t="s">
         <v>147</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5" t="s">
+      <c r="D2"/>
+      <c r="E2" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:5">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" t="s">
         <v>149</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
+      <c r="D3"/>
+      <c r="E3" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:5">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" t="s">
         <v>151</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" t="s">
         <v>152</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
+      <c r="D4"/>
+      <c r="E4" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:5">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" t="s">
         <v>155</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" t="s">
         <v>156</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" t="s">
         <v>157</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:5">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" t="s">
         <v>160</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" t="s">
         <v>161</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="D6"/>
+      <c r="E6"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:5">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" t="s">
         <v>164</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" t="s">
         <v>165</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:5">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" t="s">
         <v>167</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" t="s">
         <v>168</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5" t="s">
+      <c r="D8"/>
+      <c r="E8" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:5">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" t="s">
         <v>170</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" t="s">
         <v>171</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:5">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" t="s">
         <v>174</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" t="s">
         <v>175</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" t="s">
         <v>176</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:5">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" t="s">
         <v>178</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" t="s">
         <v>179</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5" t="s">
+      <c r="D11"/>
+      <c r="E11" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:5">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" t="s">
         <v>181</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" t="s">
         <v>182</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" t="s">
         <v>183</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:5">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" t="s">
         <v>185</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" t="s">
         <v>186</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" t="s">
         <v>187</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:5">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" t="s">
         <v>188</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5" t="s">
+      <c r="D14"/>
+      <c r="E14" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:5">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" t="s">
         <v>190</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5" t="s">
+      <c r="D15"/>
+      <c r="E15" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:5">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" t="s">
         <v>193</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" t="s">
         <v>194</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" t="s">
         <v>195</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:5">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" t="s">
         <v>197</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" t="s">
         <v>198</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="D17"/>
+      <c r="E17"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:5">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" t="s">
         <v>200</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" t="s">
         <v>201</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="D18"/>
+      <c r="E18"/>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:5">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" t="s">
         <v>203</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5" t="s">
+      <c r="D19"/>
+      <c r="E19" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:5">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" t="s">
         <v>205</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" t="s">
         <v>206</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5" t="s">
+      <c r="D20"/>
+      <c r="E20" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:5">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" t="s">
         <v>208</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" t="s">
         <v>209</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" t="s">
         <v>210</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:5">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" t="s">
         <v>197</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" t="s">
         <v>212</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="D22"/>
+      <c r="E22"/>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:5">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" t="s">
         <v>200</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" t="s">
         <v>214</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="D23"/>
+      <c r="E23"/>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:5">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" t="s">
         <v>216</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" t="s">
         <v>217</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" t="s">
         <v>218</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:5">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" t="s">
         <v>197</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" t="s">
         <v>220</v>
       </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="D25"/>
+      <c r="E25"/>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:5">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" t="s">
         <v>200</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" t="s">
         <v>222</v>
       </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+      <c r="D26"/>
+      <c r="E26"/>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:5">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" t="s">
         <v>224</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" t="s">
         <v>225</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" t="s">
         <v>226</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:5">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" t="s">
         <v>197</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" t="s">
         <v>228</v>
       </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
+      <c r="D28"/>
+      <c r="E28"/>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:5">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" t="s">
         <v>200</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" t="s">
         <v>230</v>
       </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
+      <c r="D29"/>
+      <c r="E29"/>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:5">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" t="s">
         <v>232</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" t="s">
         <v>233</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" t="s">
         <v>234</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:5">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" t="s">
         <v>197</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" t="s">
         <v>236</v>
       </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
+      <c r="D31"/>
+      <c r="E31"/>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:5">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" t="s">
         <v>200</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" t="s">
         <v>238</v>
       </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
+      <c r="D32"/>
+      <c r="E32"/>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:5">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" t="s">
         <v>240</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" t="s">
         <v>241</v>
       </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5" t="s">
+      <c r="D33"/>
+      <c r="E33" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" spans="1:5">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" t="s">
         <v>243</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" t="s">
         <v>244</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" t="s">
         <v>245</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" spans="1:5">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" t="s">
         <v>197</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" t="s">
         <v>247</v>
       </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
+      <c r="D35"/>
+      <c r="E35"/>
     </row>
     <row r="36" s="1" customFormat="1" spans="1:5">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" t="s">
         <v>200</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" t="s">
         <v>249</v>
       </c>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
+      <c r="D36"/>
+      <c r="E36"/>
     </row>
     <row r="37" s="1" customFormat="1" spans="1:5">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" t="s">
         <v>251</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" t="s">
         <v>252</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" t="s">
         <v>253</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" spans="1:5">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" t="s">
         <v>197</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" t="s">
         <v>255</v>
       </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
+      <c r="D38"/>
+      <c r="E38"/>
     </row>
     <row r="39" s="1" customFormat="1" spans="1:5">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" t="s">
         <v>200</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" t="s">
         <v>257</v>
       </c>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
+      <c r="D39"/>
+      <c r="E39"/>
     </row>
     <row r="40" s="1" customFormat="1" spans="1:5">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" t="s">
         <v>259</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" t="s">
         <v>260</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" t="s">
         <v>261</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E40" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" spans="1:5">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" t="s">
         <v>197</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" t="s">
         <v>263</v>
       </c>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
+      <c r="D41"/>
+      <c r="E41"/>
     </row>
     <row r="42" s="1" customFormat="1" spans="1:5">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" t="s">
         <v>200</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" t="s">
         <v>265</v>
       </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
+      <c r="D42"/>
+      <c r="E42"/>
     </row>
     <row r="43" s="1" customFormat="1" spans="1:5">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" t="s">
         <v>267</v>
       </c>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5" t="s">
+      <c r="D43"/>
+      <c r="E43" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="1" spans="1:5">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" t="s">
         <v>269</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" t="s">
         <v>270</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" t="s">
         <v>271</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E44" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="45" s="1" customFormat="1" spans="1:5">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" t="s">
         <v>197</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" t="s">
         <v>273</v>
       </c>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
+      <c r="D45"/>
+      <c r="E45"/>
     </row>
     <row r="46" s="1" customFormat="1" spans="1:5">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" t="s">
         <v>200</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" t="s">
         <v>275</v>
       </c>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
+      <c r="D46"/>
+      <c r="E46"/>
     </row>
     <row r="47" s="1" customFormat="1" spans="1:5">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" t="s">
         <v>277</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" t="s">
         <v>278</v>
       </c>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5" t="s">
+      <c r="D47"/>
+      <c r="E47" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="1" spans="1:5">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" t="s">
         <v>280</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" t="s">
         <v>281</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" t="s">
         <v>282</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="E48" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="49" s="1" customFormat="1" spans="1:5">
-      <c r="A49" s="6">
+      <c r="A49" s="5">
         <v>2</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" t="s">
         <v>283</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" t="s">
         <v>284</v>
       </c>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5" t="s">
+      <c r="D49"/>
+      <c r="E49" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" spans="1:5">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" t="s">
         <v>285</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" t="s">
         <v>286</v>
       </c>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5" t="s">
+      <c r="D50"/>
+      <c r="E50" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="51" s="1" customFormat="1" spans="1:5">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" t="s">
         <v>287</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" t="s">
         <v>288</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" t="s">
         <v>289</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="E51" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="52" s="1" customFormat="1" spans="1:5">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" t="s">
         <v>200</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" t="s">
         <v>290</v>
       </c>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
+      <c r="D52"/>
+      <c r="E52"/>
     </row>
     <row r="53" s="1" customFormat="1" spans="1:5">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" t="s">
         <v>160</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" t="s">
         <v>292</v>
       </c>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
+      <c r="D53"/>
+      <c r="E53"/>
     </row>
     <row r="54" s="1" customFormat="1" spans="1:5">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" t="s">
         <v>75</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" t="s">
         <v>293</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" t="s">
         <v>294</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="E54" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="55" s="1" customFormat="1" spans="1:5">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" t="s">
         <v>197</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" t="s">
         <v>295</v>
       </c>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
+      <c r="D55"/>
+      <c r="E55"/>
     </row>
     <row r="56" s="1" customFormat="1" spans="1:5">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" t="s">
         <v>200</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" t="s">
         <v>296</v>
       </c>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
+      <c r="D56"/>
+      <c r="E56"/>
     </row>
     <row r="57" s="1" customFormat="1" spans="1:5">
-      <c r="A57" s="6" t="s">
+      <c r="A57" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" t="s">
         <v>78</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" t="s">
         <v>297</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" t="s">
         <v>298</v>
       </c>
-      <c r="E57" s="5" t="s">
+      <c r="E57" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="58" s="1" customFormat="1" spans="1:5">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" t="s">
         <v>197</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" t="s">
         <v>299</v>
       </c>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
+      <c r="D58"/>
+      <c r="E58"/>
     </row>
     <row r="59" s="1" customFormat="1" spans="1:5">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" t="s">
         <v>200</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C59" t="s">
         <v>301</v>
       </c>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
+      <c r="D59"/>
+      <c r="E59"/>
     </row>
     <row r="60" s="1" customFormat="1" spans="1:5">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" t="s">
         <v>302</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" t="s">
         <v>303</v>
       </c>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5" t="s">
+      <c r="D60"/>
+      <c r="E60" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="61" s="1" customFormat="1" spans="1:5">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" t="s">
         <v>304</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" t="s">
         <v>305</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D61" t="s">
         <v>306</v>
       </c>
-      <c r="E61" s="5" t="s">
+      <c r="E61" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="62" s="1" customFormat="1" spans="1:5">
-      <c r="A62" s="6" t="s">
+      <c r="A62" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" t="s">
         <v>200</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" t="s">
         <v>308</v>
       </c>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
+      <c r="D62"/>
+      <c r="E62"/>
     </row>
     <row r="63" s="1" customFormat="1" spans="1:5">
-      <c r="A63" s="6" t="s">
+      <c r="A63" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" t="s">
         <v>309</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" t="s">
         <v>310</v>
       </c>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5" t="s">
+      <c r="D63"/>
+      <c r="E63" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="64" s="1" customFormat="1" spans="1:5">
-      <c r="A64" s="6" t="s">
+      <c r="A64" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" t="s">
         <v>311</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" t="s">
         <v>312</v>
       </c>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5" t="s">
+      <c r="D64"/>
+      <c r="E64" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="65" s="1" customFormat="1" spans="1:5">
-      <c r="A65" s="6" t="s">
+      <c r="A65" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" t="s">
         <v>314</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" t="s">
         <v>315</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D65" t="s">
         <v>316</v>
       </c>
-      <c r="E65" s="5" t="s">
+      <c r="E65" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="66" s="1" customFormat="1" spans="1:5">
-      <c r="A66" s="6" t="s">
+      <c r="A66" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" t="s">
         <v>200</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" t="s">
         <v>318</v>
       </c>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
+      <c r="D66"/>
+      <c r="E66"/>
     </row>
     <row r="67" s="1" customFormat="1" spans="1:5">
-      <c r="A67" s="6" t="s">
+      <c r="A67" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" t="s">
         <v>320</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C67" t="s">
         <v>321</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D67" t="s">
         <v>322</v>
       </c>
-      <c r="E67" s="5" t="s">
+      <c r="E67" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="68" s="1" customFormat="1" spans="1:5">
-      <c r="A68" s="6" t="s">
+      <c r="A68" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" t="s">
         <v>200</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C68" t="s">
         <v>324</v>
       </c>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
+      <c r="D68"/>
+      <c r="E68"/>
     </row>
     <row r="69" s="1" customFormat="1" spans="1:5">
-      <c r="A69" s="6" t="s">
+      <c r="A69" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" t="s">
         <v>326</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C69" t="s">
         <v>327</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D69" t="s">
         <v>328</v>
       </c>
-      <c r="E69" s="5" t="s">
+      <c r="E69" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="70" s="1" customFormat="1" spans="1:5">
-      <c r="A70" s="6" t="s">
+      <c r="A70" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" t="s">
         <v>200</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C70" t="s">
         <v>330</v>
       </c>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
+      <c r="D70"/>
+      <c r="E70"/>
     </row>
     <row r="71" s="1" customFormat="1" spans="1:5">
-      <c r="A71" s="6" t="s">
+      <c r="A71" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" t="s">
         <v>332</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" t="s">
         <v>333</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D71" t="s">
         <v>334</v>
       </c>
-      <c r="E71" s="5" t="s">
+      <c r="E71" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="72" s="1" customFormat="1" spans="1:5">
-      <c r="A72" s="6" t="s">
+      <c r="A72" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" t="s">
         <v>200</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C72" t="s">
         <v>336</v>
       </c>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
+      <c r="D72"/>
+      <c r="E72"/>
     </row>
     <row r="73" s="1" customFormat="1" spans="1:5">
-      <c r="A73" s="6" t="s">
+      <c r="A73" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" t="s">
         <v>39</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C73" t="s">
         <v>337</v>
       </c>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5" t="s">
+      <c r="D73"/>
+      <c r="E73" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="74" s="1" customFormat="1" spans="1:5">
-      <c r="A74" s="6" t="s">
+      <c r="A74" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" t="s">
         <v>339</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C74" t="s">
         <v>340</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="D74" t="s">
         <v>341</v>
       </c>
-      <c r="E74" s="5" t="s">
+      <c r="E74" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="75" s="1" customFormat="1" spans="1:5">
-      <c r="A75" s="6" t="s">
+      <c r="A75" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" t="s">
         <v>200</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" t="s">
         <v>343</v>
       </c>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
+      <c r="D75"/>
+      <c r="E75"/>
     </row>
     <row r="76" s="1" customFormat="1" spans="1:5">
-      <c r="A76" s="6" t="s">
+      <c r="A76" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" t="s">
         <v>45</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C76" t="s">
         <v>345</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D76" t="s">
         <v>346</v>
       </c>
-      <c r="E76" s="5" t="s">
+      <c r="E76" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="77" s="1" customFormat="1" spans="1:5">
-      <c r="A77" s="6" t="s">
+      <c r="A77" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" t="s">
         <v>197</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C77" t="s">
         <v>348</v>
       </c>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
+      <c r="D77"/>
+      <c r="E77"/>
     </row>
     <row r="78" s="1" customFormat="1" spans="1:5">
-      <c r="A78" s="6" t="s">
+      <c r="A78" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" t="s">
         <v>200</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C78" t="s">
         <v>350</v>
       </c>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
+      <c r="D78"/>
+      <c r="E78"/>
     </row>
     <row r="79" s="1" customFormat="1" spans="1:5">
-      <c r="A79" s="6" t="s">
+      <c r="A79" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" t="s">
         <v>352</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C79" t="s">
         <v>353</v>
       </c>
-      <c r="D79" s="5" t="s">
+      <c r="D79" t="s">
         <v>354</v>
       </c>
-      <c r="E79" s="5" t="s">
+      <c r="E79" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="80" s="1" customFormat="1" spans="1:5">
-      <c r="A80" s="6" t="s">
+      <c r="A80" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" t="s">
         <v>200</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C80" t="s">
         <v>356</v>
       </c>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
+      <c r="D80"/>
+      <c r="E80"/>
     </row>
     <row r="81" s="1" customFormat="1" spans="1:5">
-      <c r="A81" s="6" t="s">
+      <c r="A81" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B81" t="s">
         <v>358</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="C81" t="s">
         <v>359</v>
       </c>
-      <c r="D81" s="5" t="s">
+      <c r="D81" t="s">
         <v>360</v>
       </c>
-      <c r="E81" s="5" t="s">
+      <c r="E81" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="82" s="1" customFormat="1" spans="1:5">
-      <c r="A82" s="6" t="s">
+      <c r="A82" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" t="s">
         <v>197</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C82" t="s">
         <v>362</v>
       </c>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
+      <c r="D82"/>
+      <c r="E82"/>
     </row>
     <row r="83" s="1" customFormat="1" spans="1:5">
-      <c r="A83" s="6" t="s">
+      <c r="A83" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" t="s">
         <v>200</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C83" t="s">
         <v>364</v>
       </c>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
+      <c r="D83"/>
+      <c r="E83"/>
     </row>
     <row r="84" s="1" customFormat="1" spans="1:5">
-      <c r="A84" s="6" t="s">
+      <c r="A84" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" t="s">
         <v>63</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C84" t="s">
         <v>267</v>
       </c>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5" t="s">
+      <c r="D84"/>
+      <c r="E84" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="85" s="1" customFormat="1" spans="1:5">
-      <c r="A85" s="6" t="s">
+      <c r="A85" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" t="s">
         <v>367</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="C85" t="s">
         <v>368</v>
       </c>
-      <c r="D85" s="5" t="s">
+      <c r="D85" t="s">
         <v>369</v>
       </c>
-      <c r="E85" s="5" t="s">
+      <c r="E85" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="86" s="1" customFormat="1" spans="1:5">
-      <c r="A86" s="6" t="s">
+      <c r="A86" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" t="s">
         <v>200</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C86" t="s">
         <v>371</v>
       </c>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
+      <c r="D86"/>
+      <c r="E86"/>
     </row>
     <row r="87" s="1" customFormat="1" spans="1:5">
-      <c r="A87" s="6" t="s">
+      <c r="A87" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" t="s">
         <v>81</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C87" t="s">
         <v>373</v>
       </c>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5" t="s">
+      <c r="D87"/>
+      <c r="E87" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="88" s="1" customFormat="1" spans="1:5">
-      <c r="A88" s="6" t="s">
+      <c r="A88" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" t="s">
         <v>375</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="C88" t="s">
         <v>376</v>
       </c>
-      <c r="D88" s="5" t="s">
+      <c r="D88" t="s">
         <v>377</v>
       </c>
-      <c r="E88" s="5" t="s">
+      <c r="E88" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="89" s="1" customFormat="1" spans="1:5">
-      <c r="A89" s="6" t="s">
+      <c r="A89" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B89" t="s">
         <v>200</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="C89" t="s">
         <v>379</v>
       </c>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
+      <c r="D89"/>
+      <c r="E89"/>
     </row>
     <row r="90" s="1" customFormat="1" spans="1:5">
-      <c r="A90" s="6" t="s">
+      <c r="A90" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B90" t="s">
         <v>381</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C90" t="s">
         <v>382</v>
       </c>
-      <c r="D90" s="5" t="s">
+      <c r="D90" t="s">
         <v>383</v>
       </c>
-      <c r="E90" s="5" t="s">
+      <c r="E90" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="91" s="1" customFormat="1" spans="1:5">
-      <c r="A91" s="6" t="s">
+      <c r="A91" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B91" t="s">
         <v>197</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="C91" t="s">
         <v>385</v>
       </c>
-      <c r="D91" s="5"/>
-      <c r="E91" s="5"/>
+      <c r="D91"/>
+      <c r="E91"/>
     </row>
     <row r="92" s="1" customFormat="1" spans="1:5">
-      <c r="A92" s="6" t="s">
+      <c r="A92" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" t="s">
         <v>200</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="C92" t="s">
         <v>387</v>
       </c>
-      <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
+      <c r="D92"/>
+      <c r="E92"/>
     </row>
     <row r="93" s="1" customFormat="1" spans="1:5">
-      <c r="A93" s="6">
+      <c r="A93" s="5">
         <v>3</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" t="s">
         <v>388</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="C93" t="s">
         <v>389</v>
       </c>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5" t="s">
+      <c r="D93"/>
+      <c r="E93" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="94" s="1" customFormat="1" spans="1:5">
-      <c r="A94" s="6" t="s">
+      <c r="A94" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B94" t="s">
         <v>94</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="C94" t="s">
         <v>390</v>
       </c>
-      <c r="D94" s="5" t="s">
+      <c r="D94" t="s">
         <v>391</v>
       </c>
-      <c r="E94" s="5" t="s">
+      <c r="E94" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="95" s="1" customFormat="1" spans="1:5">
-      <c r="A95" s="6" t="s">
+      <c r="A95" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B95" t="s">
         <v>392</v>
       </c>
-      <c r="C95" s="5" t="s">
+      <c r="C95" t="s">
         <v>393</v>
       </c>
-      <c r="D95" s="5" t="s">
+      <c r="D95" t="s">
         <v>394</v>
       </c>
-      <c r="E95" s="5" t="s">
+      <c r="E95" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="96" s="1" customFormat="1" spans="1:5">
-      <c r="A96" s="6" t="s">
+      <c r="A96" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B96" t="s">
         <v>395</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="C96" t="s">
         <v>396</v>
       </c>
-      <c r="D96" s="5"/>
-      <c r="E96" s="5" t="s">
+      <c r="D96"/>
+      <c r="E96" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="97" s="1" customFormat="1" spans="1:5">
-      <c r="A97" s="6" t="s">
+      <c r="A97" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B97" t="s">
         <v>398</v>
       </c>
-      <c r="C97" s="5" t="s">
+      <c r="C97" t="s">
         <v>399</v>
       </c>
-      <c r="D97" s="5" t="s">
+      <c r="D97" t="s">
         <v>400</v>
       </c>
-      <c r="E97" s="5" t="s">
+      <c r="E97" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="98" s="1" customFormat="1" spans="1:5">
-      <c r="A98" s="6" t="s">
+      <c r="A98" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B98" t="s">
         <v>402</v>
       </c>
-      <c r="C98" s="5" t="s">
+      <c r="C98" t="s">
         <v>403</v>
       </c>
-      <c r="D98" s="5" t="s">
+      <c r="D98" t="s">
         <v>404</v>
       </c>
-      <c r="E98" s="5" t="s">
+      <c r="E98" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="99" s="1" customFormat="1" spans="1:5">
-      <c r="A99" s="6" t="s">
+      <c r="A99" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B99" t="s">
         <v>109</v>
       </c>
-      <c r="C99" s="5" t="s">
+      <c r="C99" t="s">
         <v>405</v>
       </c>
-      <c r="D99" s="5"/>
-      <c r="E99" s="5" t="s">
+      <c r="D99"/>
+      <c r="E99" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="100" s="1" customFormat="1" spans="1:5">
-      <c r="A100" s="6" t="s">
+      <c r="A100" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B100" t="s">
         <v>117</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="C100" t="s">
         <v>406</v>
       </c>
-      <c r="D100" s="5" t="s">
+      <c r="D100" t="s">
         <v>407</v>
       </c>
-      <c r="E100" s="5" t="s">
+      <c r="E100" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="101" s="1" customFormat="1" spans="1:5">
-      <c r="A101" s="6" t="s">
+      <c r="A101" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B101" t="s">
         <v>114</v>
       </c>
-      <c r="C101" s="5" t="s">
+      <c r="C101" t="s">
         <v>408</v>
       </c>
-      <c r="D101" s="5" t="s">
+      <c r="D101" t="s">
         <v>409</v>
       </c>
-      <c r="E101" s="5" t="s">
+      <c r="E101" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="102" s="1" customFormat="1" spans="1:5">
-      <c r="A102" s="6">
+      <c r="A102" s="5">
         <v>4</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="B102" t="s">
         <v>410</v>
       </c>
-      <c r="C102" s="5" t="s">
+      <c r="C102" t="s">
         <v>411</v>
       </c>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5" t="s">
+      <c r="D102"/>
+      <c r="E102" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="103" s="1" customFormat="1" spans="1:5">
-      <c r="A103" s="6" t="s">
+      <c r="A103" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B103" t="s">
         <v>412</v>
       </c>
-      <c r="C103" s="5" t="s">
+      <c r="C103" t="s">
         <v>413</v>
       </c>
-      <c r="D103" s="7" t="s">
+      <c r="D103" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="E103" s="5" t="s">
+      <c r="E103" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="104" s="1" customFormat="1" spans="1:5">
-      <c r="A104" s="6" t="s">
+      <c r="A104" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="B104" t="s">
+        <v>416</v>
+      </c>
+      <c r="C104" t="s">
+        <v>417</v>
+      </c>
+      <c r="D104" s="6"/>
+      <c r="E104"/>
+    </row>
+    <row r="105" s="1" customFormat="1" spans="1:5">
+      <c r="A105" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B104" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="D104" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="E104" s="5" t="s">
+      <c r="B105" t="s">
+        <v>418</v>
+      </c>
+      <c r="C105" t="s">
+        <v>419</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="E105" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="105" s="1" customFormat="1" spans="1:5">
-      <c r="A105" s="6">
+    <row r="106" s="1" customFormat="1" spans="1:5">
+      <c r="A106" s="5">
         <v>5</v>
       </c>
-      <c r="B105" s="5" t="s">
+      <c r="B106" t="s">
         <v>124</v>
       </c>
-      <c r="C105" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="D105" s="5"/>
-      <c r="E105" s="5" t="s">
+      <c r="C106" t="s">
+        <v>421</v>
+      </c>
+      <c r="D106"/>
+      <c r="E106" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="106" s="1" customFormat="1" spans="1:5">
-      <c r="A106" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="D106" s="5"/>
-      <c r="E106" s="5" t="s">
+    <row r="107" s="1" customFormat="1" spans="1:5">
+      <c r="A107" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="B107" t="s">
+        <v>423</v>
+      </c>
+      <c r="C107" t="s">
+        <v>424</v>
+      </c>
+      <c r="D107"/>
+      <c r="E107" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="107" s="1" customFormat="1" spans="1:5">
-      <c r="A107" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="B107" s="5" t="s">
+    <row r="108" s="1" customFormat="1" spans="1:5">
+      <c r="A108" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="B108" t="s">
         <v>137</v>
       </c>
-      <c r="C107" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="D107" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="E107" s="5" t="s">
+      <c r="C108" t="s">
+        <v>426</v>
+      </c>
+      <c r="D108" t="s">
+        <v>427</v>
+      </c>
+      <c r="E108" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="108" s="1" customFormat="1" spans="1:5">
-      <c r="A108" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="B108" s="5" t="s">
+    <row r="109" s="1" customFormat="1" spans="1:5">
+      <c r="A109" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="B109" t="s">
         <v>197</v>
       </c>
-      <c r="C108" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="D108" s="5"/>
-      <c r="E108" s="5"/>
-    </row>
-    <row r="109" s="1" customFormat="1" spans="1:5">
-      <c r="A109" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="B109" s="5" t="s">
+      <c r="C109" t="s">
+        <v>429</v>
+      </c>
+      <c r="D109"/>
+      <c r="E109"/>
+    </row>
+    <row r="110" s="1" customFormat="1" spans="1:5">
+      <c r="A110" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="B110" t="s">
         <v>200</v>
       </c>
-      <c r="C109" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="D109" s="5"/>
-      <c r="E109" s="5"/>
-    </row>
-    <row r="110" s="1" customFormat="1" spans="1:5">
-      <c r="A110" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="B110" s="5" t="s">
+      <c r="C110" t="s">
+        <v>431</v>
+      </c>
+      <c r="D110"/>
+      <c r="E110"/>
+    </row>
+    <row r="111" s="1" customFormat="1" spans="1:5">
+      <c r="A111" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="B111" t="s">
         <v>142</v>
       </c>
-      <c r="C110" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="D110" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="E110" s="5" t="s">
+      <c r="C111" t="s">
+        <v>433</v>
+      </c>
+      <c r="D111" t="s">
+        <v>434</v>
+      </c>
+      <c r="E111" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="111" s="1" customFormat="1" spans="1:5">
-      <c r="A111" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="B111" s="5" t="s">
+    <row r="112" s="1" customFormat="1" spans="1:5">
+      <c r="A112" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="B112" t="s">
         <v>200</v>
       </c>
-      <c r="C111" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="D111" s="5"/>
-      <c r="E111" s="5"/>
-    </row>
-    <row r="112" s="1" customFormat="1" spans="1:5">
-      <c r="A112" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="C112" s="5" t="s">
+      <c r="C112" t="s">
         <v>436</v>
       </c>
-      <c r="D112" s="5"/>
-      <c r="E112" s="5" t="s">
+      <c r="D112"/>
+      <c r="E112"/>
+    </row>
+    <row r="113" s="1" customFormat="1" spans="1:5">
+      <c r="A113" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="B113" t="s">
+        <v>438</v>
+      </c>
+      <c r="C113" t="s">
+        <v>439</v>
+      </c>
+      <c r="D113"/>
+      <c r="E113" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="113" s="1" customFormat="1" spans="1:5">
-      <c r="A113" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="D113" s="5" t="s">
+    <row r="114" s="1" customFormat="1" spans="1:5">
+      <c r="A114" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="E113" s="5" t="s">
+      <c r="B114" t="s">
+        <v>441</v>
+      </c>
+      <c r="C114" t="s">
+        <v>442</v>
+      </c>
+      <c r="D114" t="s">
+        <v>443</v>
+      </c>
+      <c r="E114" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="114" s="1" customFormat="1" spans="1:5">
-      <c r="A114" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="B114" s="5" t="s">
+    <row r="115" s="1" customFormat="1" spans="1:5">
+      <c r="A115" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="B115" t="s">
         <v>200</v>
       </c>
-      <c r="C114" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="D114" s="5"/>
-      <c r="E114" s="5"/>
-    </row>
-    <row r="115" s="1" customFormat="1" spans="1:5">
-      <c r="A115" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="C115" s="5" t="s">
+      <c r="C115" t="s">
         <v>445</v>
       </c>
-      <c r="D115" s="5" t="s">
+      <c r="D115"/>
+      <c r="E115"/>
+    </row>
+    <row r="116" s="1" customFormat="1" spans="1:5">
+      <c r="A116" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="E115" s="5" t="s">
+      <c r="B116" t="s">
+        <v>447</v>
+      </c>
+      <c r="C116" t="s">
+        <v>448</v>
+      </c>
+      <c r="D116" t="s">
+        <v>449</v>
+      </c>
+      <c r="E116" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="116" s="1" customFormat="1" spans="1:5">
-      <c r="A116" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="D116" s="5"/>
-      <c r="E116" s="5"/>
-    </row>
     <row r="117" s="1" customFormat="1" spans="1:5">
-      <c r="A117" s="6">
+      <c r="A117" s="5">
         <v>6</v>
       </c>
-      <c r="B117" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="C117" s="5" t="s">
+      <c r="B117" t="s">
         <v>450</v>
       </c>
-      <c r="D117" s="5"/>
-      <c r="E117" s="5" t="s">
+      <c r="C117" t="s">
+        <v>451</v>
+      </c>
+      <c r="D117"/>
+      <c r="E117" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="118" s="1" customFormat="1" spans="1:5">
-      <c r="A118" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="B118" s="5" t="s">
+      <c r="A118" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="C118" s="5" t="s">
+      <c r="B118" t="s">
         <v>453</v>
       </c>
-      <c r="D118" s="8" t="s">
+      <c r="C118" t="s">
         <v>454</v>
       </c>
-      <c r="E118" s="5" t="s">
+      <c r="D118" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="E118" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="119" s="1" customFormat="1" spans="1:5">
-      <c r="A119" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="B119" s="5" t="s">
+      <c r="A119" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="B119" t="s">
         <v>197</v>
       </c>
-      <c r="C119" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="D119" s="8"/>
-      <c r="E119" s="5"/>
+      <c r="C119" t="s">
+        <v>457</v>
+      </c>
+      <c r="D119" s="7"/>
+      <c r="E119"/>
     </row>
     <row r="120" s="1" customFormat="1" spans="1:5">
-      <c r="A120" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="B120" s="5" t="s">
+      <c r="A120" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="C120" s="5" t="s">
+      <c r="B120" t="s">
         <v>459</v>
       </c>
-      <c r="D120" s="7" t="s">
+      <c r="C120" t="s">
         <v>460</v>
       </c>
-      <c r="E120" s="5" t="s">
+      <c r="D120" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="E120" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="121" s="1" customFormat="1" spans="1:5">
-      <c r="A121" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="B121" s="5" t="s">
+      <c r="A121" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="B121" t="s">
         <v>197</v>
       </c>
-      <c r="C121" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="D121" s="7"/>
-      <c r="E121" s="5"/>
+      <c r="C121" t="s">
+        <v>463</v>
+      </c>
+      <c r="D121" s="6"/>
+      <c r="E121"/>
     </row>
     <row r="122" s="1" customFormat="1" spans="1:5">
-      <c r="A122" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="B122" s="5" t="s">
+      <c r="A122" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="B122" t="s">
         <v>200</v>
       </c>
-      <c r="C122" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="D122" s="7"/>
-      <c r="E122" s="5"/>
+      <c r="C122" t="s">
+        <v>465</v>
+      </c>
+      <c r="D122" s="6"/>
+      <c r="E122"/>
     </row>
     <row r="123" s="1" customFormat="1" spans="1:5">
-      <c r="A123" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="B123" s="5" t="s">
+      <c r="A123" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="C123" s="5" t="s">
+      <c r="B123" t="s">
         <v>467</v>
       </c>
-      <c r="D123" s="7"/>
-      <c r="E123" s="5" t="s">
+      <c r="C123" t="s">
+        <v>468</v>
+      </c>
+      <c r="D123" s="6"/>
+      <c r="E123" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="124" s="1" customFormat="1" spans="1:5">
-      <c r="A124" s="6" t="s">
-        <v>468</v>
-      </c>
-      <c r="B124" s="5" t="s">
+      <c r="A124" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="C124" s="5" t="s">
+      <c r="B124" t="s">
         <v>470</v>
       </c>
-      <c r="D124" s="7" t="s">
+      <c r="C124" t="s">
         <v>471</v>
       </c>
-      <c r="E124" s="5" t="s">
+      <c r="D124" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="E124" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="125" s="1" customFormat="1" spans="1:5">
-      <c r="A125" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="B125" s="5" t="s">
+      <c r="A125" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="B125" t="s">
         <v>197</v>
       </c>
-      <c r="C125" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="D125" s="7"/>
-      <c r="E125" s="5"/>
+      <c r="C125" t="s">
+        <v>474</v>
+      </c>
+      <c r="D125" s="6"/>
+      <c r="E125"/>
     </row>
     <row r="126" s="1" customFormat="1" spans="1:5">
-      <c r="A126" s="6" t="s">
-        <v>474</v>
-      </c>
-      <c r="B126" s="5" t="s">
+      <c r="A126" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="B126" t="s">
         <v>200</v>
       </c>
-      <c r="C126" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="D126" s="7"/>
-      <c r="E126" s="5"/>
+      <c r="C126" t="s">
+        <v>476</v>
+      </c>
+      <c r="D126" s="6"/>
+      <c r="E126"/>
     </row>
     <row r="127" s="1" customFormat="1" spans="1:5">
-      <c r="A127" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="B127" s="5" t="s">
+      <c r="A127" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="C127" s="5" t="s">
+      <c r="B127" t="s">
         <v>478</v>
       </c>
-      <c r="D127" s="7" t="s">
+      <c r="C127" t="s">
         <v>479</v>
       </c>
-      <c r="E127" s="5" t="s">
+      <c r="D127" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="E127" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="128" s="1" customFormat="1" spans="1:5">
-      <c r="A128" s="6" t="s">
-        <v>480</v>
-      </c>
-      <c r="B128" s="5" t="s">
+      <c r="A128" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="B128" t="s">
         <v>197</v>
       </c>
-      <c r="C128" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="D128" s="7"/>
-      <c r="E128" s="5"/>
+      <c r="C128" t="s">
+        <v>482</v>
+      </c>
+      <c r="D128" s="6"/>
+      <c r="E128"/>
     </row>
     <row r="129" s="1" customFormat="1" spans="1:5">
-      <c r="A129" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="B129" s="5" t="s">
+      <c r="A129" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="B129" t="s">
         <v>200</v>
       </c>
-      <c r="C129" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="D129" s="7"/>
-      <c r="E129" s="5"/>
+      <c r="C129" t="s">
+        <v>484</v>
+      </c>
+      <c r="D129" s="6"/>
+      <c r="E129"/>
     </row>
     <row r="130" s="1" customFormat="1" spans="1:5">
-      <c r="A130" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="B130" s="5" t="s">
+      <c r="A130" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="C130" s="5" t="s">
+      <c r="B130" t="s">
         <v>486</v>
       </c>
-      <c r="D130" s="7" t="s">
+      <c r="C130" t="s">
         <v>487</v>
       </c>
-      <c r="E130" s="5" t="s">
+      <c r="D130" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="E130" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="131" s="1" customFormat="1" spans="1:5">
-      <c r="A131" s="6" t="s">
-        <v>488</v>
-      </c>
-      <c r="B131" s="5" t="s">
+      <c r="A131" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="B131" t="s">
         <v>197</v>
       </c>
-      <c r="C131" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="D131" s="7"/>
-      <c r="E131" s="5"/>
+      <c r="C131" t="s">
+        <v>490</v>
+      </c>
+      <c r="D131" s="6"/>
+      <c r="E131"/>
     </row>
     <row r="132" s="1" customFormat="1" spans="1:5">
-      <c r="A132" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="B132" s="5" t="s">
+      <c r="A132" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="B132" t="s">
         <v>200</v>
       </c>
-      <c r="C132" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="D132" s="7"/>
-      <c r="E132" s="5"/>
+      <c r="C132" t="s">
+        <v>492</v>
+      </c>
+      <c r="D132" s="6"/>
+      <c r="E132"/>
     </row>
     <row r="133" s="1" customFormat="1" spans="1:5">
-      <c r="A133" s="6" t="s">
-        <v>492</v>
-      </c>
-      <c r="B133" s="5" t="s">
+      <c r="A133" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="C133" s="5" t="s">
+      <c r="B133" t="s">
         <v>494</v>
       </c>
-      <c r="D133" s="5"/>
-      <c r="E133" s="5" t="s">
+      <c r="C133" t="s">
+        <v>495</v>
+      </c>
+      <c r="D133"/>
+      <c r="E133" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="134" s="1" customFormat="1" spans="1:5">
-      <c r="A134" s="6" t="s">
-        <v>495</v>
-      </c>
-      <c r="B134" s="5" t="s">
+      <c r="A134" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="C134" s="5" t="s">
+      <c r="B134" t="s">
         <v>497</v>
       </c>
-      <c r="D134" s="5" t="s">
+      <c r="C134" t="s">
         <v>498</v>
       </c>
-      <c r="E134" s="5" t="s">
+      <c r="D134" t="s">
+        <v>499</v>
+      </c>
+      <c r="E134" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="135" s="1" customFormat="1" spans="1:5">
-      <c r="A135" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="B135" s="5" t="s">
+      <c r="A135" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="B135" t="s">
         <v>197</v>
       </c>
-      <c r="C135" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="D135" s="5"/>
-      <c r="E135" s="5"/>
+      <c r="C135" t="s">
+        <v>501</v>
+      </c>
+      <c r="D135"/>
+      <c r="E135"/>
     </row>
     <row r="136" s="1" customFormat="1" spans="1:5">
-      <c r="A136" s="6" t="s">
-        <v>501</v>
-      </c>
-      <c r="B136" s="5" t="s">
+      <c r="A136" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="B136" t="s">
         <v>200</v>
       </c>
-      <c r="C136" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="D136" s="5"/>
-      <c r="E136" s="5"/>
+      <c r="C136" t="s">
+        <v>503</v>
+      </c>
+      <c r="D136"/>
+      <c r="E136"/>
     </row>
     <row r="137" s="1" customFormat="1" spans="1:5">
-      <c r="A137" s="6" t="s">
-        <v>503</v>
-      </c>
-      <c r="B137" s="5" t="s">
+      <c r="A137" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="C137" s="5" t="s">
+      <c r="B137" t="s">
         <v>505</v>
       </c>
-      <c r="D137" s="5" t="s">
+      <c r="C137" t="s">
         <v>506</v>
       </c>
-      <c r="E137" s="5" t="s">
+      <c r="D137" t="s">
+        <v>507</v>
+      </c>
+      <c r="E137" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="138" s="1" customFormat="1" spans="1:5">
-      <c r="A138" s="6" t="s">
-        <v>507</v>
-      </c>
-      <c r="B138" s="5" t="s">
+      <c r="A138" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="B138" t="s">
         <v>197</v>
       </c>
-      <c r="C138" s="5" t="s">
-        <v>508</v>
-      </c>
-      <c r="D138" s="5"/>
-      <c r="E138" s="5"/>
+      <c r="C138" t="s">
+        <v>509</v>
+      </c>
+      <c r="D138"/>
+      <c r="E138"/>
     </row>
     <row r="139" s="1" customFormat="1" spans="1:5">
-      <c r="A139" s="6" t="s">
-        <v>509</v>
-      </c>
-      <c r="B139" s="5" t="s">
+      <c r="A139" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="B139" t="s">
         <v>200</v>
       </c>
-      <c r="C139" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="D139" s="5"/>
-      <c r="E139" s="5"/>
+      <c r="C139" t="s">
+        <v>511</v>
+      </c>
+      <c r="D139"/>
+      <c r="E139"/>
     </row>
     <row r="140" s="1" customFormat="1" spans="1:5">
-      <c r="A140" s="6" t="s">
-        <v>511</v>
-      </c>
-      <c r="B140" s="5" t="s">
+      <c r="A140" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="C140" s="5" t="s">
+      <c r="B140" t="s">
         <v>513</v>
       </c>
-      <c r="D140" s="5"/>
-      <c r="E140" s="5" t="s">
+      <c r="C140" t="s">
+        <v>514</v>
+      </c>
+      <c r="D140"/>
+      <c r="E140" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="141" s="1" customFormat="1" spans="1:5">
-      <c r="A141" s="6" t="s">
-        <v>514</v>
-      </c>
-      <c r="B141" s="5" t="s">
+      <c r="A141" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="C141" s="5" t="s">
+      <c r="B141" t="s">
         <v>516</v>
       </c>
-      <c r="D141" s="5" t="s">
+      <c r="C141" t="s">
         <v>517</v>
       </c>
-      <c r="E141" s="5" t="s">
+      <c r="D141" t="s">
+        <v>518</v>
+      </c>
+      <c r="E141" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="142" s="1" customFormat="1" spans="1:5">
-      <c r="A142" s="6" t="s">
-        <v>518</v>
-      </c>
-      <c r="B142" s="5" t="s">
+      <c r="A142" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="B142" t="s">
         <v>197</v>
       </c>
-      <c r="C142" s="5" t="s">
-        <v>519</v>
-      </c>
-      <c r="D142" s="5"/>
-      <c r="E142" s="5"/>
+      <c r="C142" t="s">
+        <v>520</v>
+      </c>
+      <c r="D142"/>
+      <c r="E142"/>
     </row>
     <row r="143" s="1" customFormat="1" spans="1:5">
-      <c r="A143" s="6" t="s">
-        <v>520</v>
-      </c>
-      <c r="B143" s="5" t="s">
+      <c r="A143" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="B143" t="s">
         <v>200</v>
       </c>
-      <c r="C143" s="5" t="s">
-        <v>521</v>
-      </c>
-      <c r="D143" s="5"/>
-      <c r="E143" s="5"/>
+      <c r="C143" t="s">
+        <v>522</v>
+      </c>
+      <c r="D143"/>
+      <c r="E143"/>
     </row>
     <row r="144" s="1" customFormat="1" spans="1:5">
-      <c r="A144" s="6" t="s">
-        <v>522</v>
-      </c>
-      <c r="B144" s="5" t="s">
+      <c r="A144" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="C144" s="5" t="s">
+      <c r="B144" t="s">
         <v>524</v>
       </c>
-      <c r="D144" s="5" t="s">
+      <c r="C144" t="s">
         <v>525</v>
       </c>
-      <c r="E144" s="5" t="s">
+      <c r="D144" t="s">
+        <v>526</v>
+      </c>
+      <c r="E144" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="145" s="1" customFormat="1" spans="1:5">
-      <c r="A145" s="6" t="s">
-        <v>526</v>
-      </c>
-      <c r="B145" s="5" t="s">
+      <c r="A145" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="B145" t="s">
         <v>197</v>
       </c>
-      <c r="C145" s="5" t="s">
-        <v>527</v>
-      </c>
-      <c r="D145" s="5"/>
-      <c r="E145" s="5"/>
+      <c r="C145" t="s">
+        <v>528</v>
+      </c>
+      <c r="D145"/>
+      <c r="E145"/>
     </row>
     <row r="146" s="1" customFormat="1" spans="1:5">
-      <c r="A146" s="6" t="s">
-        <v>528</v>
-      </c>
-      <c r="B146" s="5" t="s">
+      <c r="A146" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="B146" t="s">
         <v>200</v>
       </c>
-      <c r="C146" s="5" t="s">
-        <v>529</v>
-      </c>
-      <c r="D146" s="5"/>
-      <c r="E146" s="5"/>
+      <c r="C146" t="s">
+        <v>530</v>
+      </c>
+      <c r="D146"/>
+      <c r="E146"/>
     </row>
     <row r="147" s="1" customFormat="1" spans="1:5">
-      <c r="A147" s="6" t="s">
-        <v>530</v>
-      </c>
-      <c r="B147" s="5" t="s">
+      <c r="A147" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="C147" s="5" t="s">
+      <c r="B147" t="s">
         <v>532</v>
       </c>
-      <c r="D147" s="5" t="s">
+      <c r="C147" t="s">
         <v>533</v>
       </c>
-      <c r="E147" s="5" t="s">
+      <c r="D147" t="s">
+        <v>534</v>
+      </c>
+      <c r="E147" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="148" s="1" customFormat="1" spans="1:5">
-      <c r="A148" s="6" t="s">
-        <v>534</v>
-      </c>
-      <c r="B148" s="5" t="s">
+      <c r="A148" s="5" t="s">
         <v>535</v>
       </c>
-      <c r="C148" s="5" t="s">
+      <c r="B148" t="s">
         <v>536</v>
       </c>
-      <c r="D148" s="5" t="s">
+      <c r="C148" t="s">
         <v>537</v>
       </c>
-      <c r="E148" s="5" t="s">
+      <c r="D148" t="s">
+        <v>538</v>
+      </c>
+      <c r="E148" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="149" s="1" customFormat="1" spans="1:5">
-      <c r="A149" s="6" t="s">
-        <v>538</v>
-      </c>
-      <c r="B149" s="5" t="s">
+      <c r="A149" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="B149" t="s">
         <v>197</v>
       </c>
-      <c r="C149" s="5" t="s">
-        <v>539</v>
-      </c>
-      <c r="D149" s="5"/>
-      <c r="E149" s="5"/>
+      <c r="C149" t="s">
+        <v>540</v>
+      </c>
+      <c r="D149"/>
+      <c r="E149"/>
     </row>
     <row r="150" s="1" customFormat="1" spans="1:5">
-      <c r="A150" s="6" t="s">
-        <v>540</v>
-      </c>
-      <c r="B150" s="5" t="s">
+      <c r="A150" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="B150" t="s">
         <v>200</v>
       </c>
-      <c r="C150" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="D150" s="5"/>
-      <c r="E150" s="5"/>
+      <c r="C150" t="s">
+        <v>542</v>
+      </c>
+      <c r="D150"/>
+      <c r="E150"/>
     </row>
     <row r="151" s="1" customFormat="1" spans="1:5">
-      <c r="A151" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="B151" s="5" t="s">
+      <c r="A151" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="C151" s="5" t="s">
+      <c r="B151" t="s">
         <v>544</v>
       </c>
-      <c r="D151" s="5" t="s">
+      <c r="C151" t="s">
         <v>545</v>
       </c>
-      <c r="E151" s="5" t="s">
+      <c r="D151" t="s">
+        <v>546</v>
+      </c>
+      <c r="E151" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="152" s="1" customFormat="1" spans="1:5">
-      <c r="A152" s="6" t="s">
-        <v>546</v>
-      </c>
-      <c r="B152" s="5" t="s">
+      <c r="A152" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="B152" t="s">
         <v>197</v>
       </c>
-      <c r="C152" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="D152" s="5"/>
-      <c r="E152" s="5"/>
+      <c r="C152" t="s">
+        <v>548</v>
+      </c>
+      <c r="D152"/>
+      <c r="E152"/>
     </row>
     <row r="153" s="1" customFormat="1" spans="1:5">
-      <c r="A153" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="B153" s="5" t="s">
+      <c r="A153" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="B153" t="s">
         <v>200</v>
       </c>
-      <c r="C153" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="D153" s="5"/>
-      <c r="E153" s="5"/>
+      <c r="C153" t="s">
+        <v>550</v>
+      </c>
+      <c r="D153"/>
+      <c r="E153"/>
     </row>
     <row r="154" s="1" customFormat="1" spans="1:5">
-      <c r="A154" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="B154" s="5" t="s">
+      <c r="A154" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="C154" s="5" t="s">
+      <c r="B154" t="s">
         <v>552</v>
       </c>
-      <c r="D154" s="5" t="s">
+      <c r="C154" t="s">
         <v>553</v>
       </c>
-      <c r="E154" s="5" t="s">
+      <c r="D154" t="s">
+        <v>554</v>
+      </c>
+      <c r="E154" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="155" s="1" customFormat="1" spans="1:5">
-      <c r="A155" s="6" t="s">
-        <v>554</v>
-      </c>
-      <c r="B155" s="5" t="s">
+      <c r="A155" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="B155" t="s">
         <v>197</v>
       </c>
-      <c r="C155" s="5" t="s">
-        <v>555</v>
-      </c>
-      <c r="D155" s="5"/>
-      <c r="E155" s="5"/>
+      <c r="C155" t="s">
+        <v>556</v>
+      </c>
+      <c r="D155"/>
+      <c r="E155"/>
     </row>
     <row r="156" s="1" customFormat="1" spans="1:5">
-      <c r="A156" s="6" t="s">
-        <v>556</v>
-      </c>
-      <c r="B156" s="5" t="s">
+      <c r="A156" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="C156" s="5" t="s">
+      <c r="B156" t="s">
         <v>558</v>
       </c>
-      <c r="D156" s="5" t="s">
+      <c r="C156" t="s">
         <v>559</v>
       </c>
-      <c r="E156" s="5" t="s">
+      <c r="D156" t="s">
+        <v>560</v>
+      </c>
+      <c r="E156" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="157" s="1" customFormat="1" spans="1:5">
-      <c r="A157" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="B157" s="5" t="s">
+      <c r="A157" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="B157" t="s">
         <v>197</v>
       </c>
-      <c r="C157" s="5" t="s">
-        <v>561</v>
-      </c>
-      <c r="D157" s="5"/>
-      <c r="E157" s="5"/>
+      <c r="C157" t="s">
+        <v>562</v>
+      </c>
+      <c r="D157"/>
+      <c r="E157"/>
     </row>
     <row r="158" s="1" customFormat="1" spans="1:5">
-      <c r="A158" s="6" t="s">
-        <v>562</v>
-      </c>
-      <c r="B158" s="5" t="s">
+      <c r="A158" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="B158" t="s">
         <v>200</v>
       </c>
-      <c r="C158" s="5" t="s">
-        <v>563</v>
-      </c>
-      <c r="D158" s="5"/>
-      <c r="E158" s="5"/>
+      <c r="C158" t="s">
+        <v>564</v>
+      </c>
+      <c r="D158"/>
+      <c r="E158"/>
     </row>
     <row r="159" s="1" customFormat="1" spans="1:5">
-      <c r="A159" s="6" t="s">
-        <v>564</v>
-      </c>
-      <c r="B159" s="5" t="s">
+      <c r="A159" s="5" t="s">
         <v>565</v>
       </c>
-      <c r="C159" s="5" t="s">
+      <c r="B159" t="s">
         <v>566</v>
       </c>
-      <c r="D159" s="5"/>
-      <c r="E159" s="5" t="s">
+      <c r="C159" t="s">
+        <v>567</v>
+      </c>
+      <c r="D159"/>
+      <c r="E159" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="160" s="1" customFormat="1" spans="1:5">
-      <c r="A160" s="6" t="s">
-        <v>567</v>
-      </c>
-      <c r="B160" s="5" t="s">
+      <c r="A160" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="C160" s="5" t="s">
+      <c r="B160" t="s">
         <v>569</v>
       </c>
-      <c r="D160" s="5" t="s">
+      <c r="C160" t="s">
         <v>570</v>
       </c>
-      <c r="E160" s="5" t="s">
+      <c r="D160" t="s">
+        <v>571</v>
+      </c>
+      <c r="E160" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="161" s="1" customFormat="1" spans="1:5">
-      <c r="A161" s="6" t="s">
-        <v>571</v>
-      </c>
-      <c r="B161" s="5" t="s">
+      <c r="A161" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="C161" s="5" t="s">
+      <c r="B161" t="s">
         <v>573</v>
       </c>
-      <c r="D161" s="5" t="s">
+      <c r="C161" t="s">
         <v>574</v>
       </c>
-      <c r="E161" s="5" t="s">
+      <c r="D161" t="s">
+        <v>575</v>
+      </c>
+      <c r="E161" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="162" s="1" customFormat="1" spans="1:5">
-      <c r="A162" s="6" t="s">
-        <v>575</v>
-      </c>
-      <c r="B162" s="5" t="s">
+      <c r="A162" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="B162" t="s">
         <v>197</v>
       </c>
-      <c r="C162" s="5" t="s">
-        <v>576</v>
-      </c>
-      <c r="D162" s="5"/>
-      <c r="E162" s="5"/>
+      <c r="C162" t="s">
+        <v>577</v>
+      </c>
+      <c r="D162"/>
+      <c r="E162"/>
     </row>
     <row r="163" s="1" customFormat="1" spans="1:5">
-      <c r="A163" s="6" t="s">
-        <v>577</v>
-      </c>
-      <c r="B163" s="5" t="s">
+      <c r="A163" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="B163" t="s">
         <v>200</v>
       </c>
-      <c r="C163" s="5" t="s">
-        <v>578</v>
-      </c>
-      <c r="D163" s="5"/>
-      <c r="E163" s="5"/>
+      <c r="C163" t="s">
+        <v>579</v>
+      </c>
+      <c r="D163"/>
+      <c r="E163"/>
     </row>
     <row r="164" s="1" customFormat="1" spans="1:5">
-      <c r="A164" s="6" t="s">
-        <v>579</v>
-      </c>
-      <c r="B164" s="5" t="s">
+      <c r="A164" s="5" t="s">
         <v>580</v>
       </c>
-      <c r="C164" s="5" t="s">
+      <c r="B164" t="s">
         <v>581</v>
       </c>
-      <c r="D164" s="5" t="s">
+      <c r="C164" t="s">
         <v>582</v>
       </c>
-      <c r="E164" s="5" t="s">
+      <c r="D164" t="s">
+        <v>583</v>
+      </c>
+      <c r="E164" t="s">
         <v>153</v>
       </c>
     </row>

--- a/server/excel/menu/Menu.xlsx
+++ b/server/excel/menu/Menu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9924" activeTab="1"/>
+    <workbookView windowWidth="24180" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="AppMenu" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586">
   <si>
     <t>菜单编号</t>
   </si>
@@ -464,6 +464,15 @@
     <t>bxjl</t>
   </si>
   <si>
+    <t>4,2,1</t>
+  </si>
+  <si>
+    <t>财务审核</t>
+  </si>
+  <si>
+    <t>cw_sh_app</t>
+  </si>
+  <si>
     <t>4,3</t>
   </si>
   <si>
@@ -1343,9 +1352,6 @@
     <t>4,1,1</t>
   </si>
   <si>
-    <t>财务审核</t>
-  </si>
-  <si>
     <t>spgl_web_cw</t>
   </si>
   <si>
@@ -1852,9 +1858,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -1884,8 +1890,83 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1899,16 +1980,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1925,77 +2005,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2007,15 +2019,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2044,19 +2050,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2068,25 +2092,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2104,13 +2134,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2122,37 +2188,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2164,19 +2200,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2188,43 +2224,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2235,6 +2241,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2262,17 +2316,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2287,54 +2341,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2343,10 +2349,10 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2355,133 +2361,133 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2795,17 +2801,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="18.4444444444444" style="5" customWidth="1"/>
-    <col min="2" max="2" width="23.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="46.2222222222222" customWidth="1"/>
+    <col min="1" max="1" width="18.4416666666667" style="5" customWidth="1"/>
+    <col min="2" max="2" width="23.4416666666667" customWidth="1"/>
+    <col min="3" max="3" width="46.225" customWidth="1"/>
     <col min="4" max="4" width="82.25" customWidth="1"/>
     <col min="5" max="5" width="27.6666666666667" customWidth="1"/>
   </cols>
@@ -3317,7 +3323,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="40" customHeight="1" spans="1:5">
+    <row r="40" s="1" customFormat="1" ht="13.5" spans="1:5">
       <c r="A40" s="5" t="s">
         <v>136</v>
       </c>
@@ -3327,28 +3333,41 @@
       <c r="C40" t="s">
         <v>138</v>
       </c>
-      <c r="D40" t="s">
-        <v>139</v>
-      </c>
-      <c r="E40" t="s">
-        <v>140</v>
-      </c>
+      <c r="D40" s="6"/>
+      <c r="E40"/>
     </row>
     <row r="41" customHeight="1" spans="1:5">
       <c r="A41" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B41" t="s">
+        <v>140</v>
+      </c>
+      <c r="C41" t="s">
         <v>141</v>
       </c>
-      <c r="B41" t="s">
+      <c r="D41" t="s">
         <v>142</v>
       </c>
-      <c r="C41" t="s">
+      <c r="E41" t="s">
         <v>143</v>
       </c>
-      <c r="D41" t="s">
+    </row>
+    <row r="42" customHeight="1" spans="1:5">
+      <c r="A42" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="E41" t="s">
+      <c r="B42" t="s">
         <v>145</v>
+      </c>
+      <c r="C42" t="s">
+        <v>146</v>
+      </c>
+      <c r="D42" t="s">
+        <v>147</v>
+      </c>
+      <c r="E42" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -3363,21 +3382,21 @@
   <sheetPr/>
   <dimension ref="A1:E164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="F107" sqref="F107"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A104" sqref="$A104:$XFD104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="25.8888888888889" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.8916666666667" style="1" customWidth="1"/>
     <col min="2" max="2" width="32.6666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5555555555556" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5583333333333" style="1" customWidth="1"/>
     <col min="4" max="4" width="37.6666666666667" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.6666666666667" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3388,7 +3407,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
@@ -3402,11 +3421,11 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D2"/>
       <c r="E2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:5">
@@ -3417,11 +3436,11 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:5">
@@ -3429,159 +3448,159 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C5" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B6" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C6" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C8" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B9" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C9" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E9" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B10" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C10" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D10" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E10" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B11" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C11" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B12" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C12" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D12" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E12" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:5">
       <c r="A13" s="5" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B13" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C13" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D13" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E13" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:5">
@@ -3592,505 +3611,505 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D14"/>
       <c r="E14" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:5">
       <c r="A15" s="5" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B15" t="s">
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D15"/>
       <c r="E15" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:5">
       <c r="A16" s="5" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B16" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C16" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D16" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E16" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:5">
       <c r="A17" s="5" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B17" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C17" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:5">
       <c r="A18" s="5" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B18" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C18" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:5">
       <c r="A19" s="5" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B19" t="s">
         <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D19"/>
       <c r="E19" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:5">
       <c r="A20" s="5" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B20" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C20" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D20"/>
       <c r="E20" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:5">
       <c r="A21" s="5" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B21" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C21" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D21" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E21" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:5">
       <c r="A22" s="5" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B22" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C22" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:5">
       <c r="A23" s="5" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B23" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C23" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:5">
       <c r="A24" s="5" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B24" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C24" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D24" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E24" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:5">
       <c r="A25" s="5" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B25" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C25" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:5">
       <c r="A26" s="5" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B26" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C26" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:5">
       <c r="A27" s="5" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B27" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C27" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D27" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E27" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:5">
       <c r="A28" s="5" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B28" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C28" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:5">
       <c r="A29" s="5" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B29" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C29" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:5">
       <c r="A30" s="5" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B30" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C30" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D30" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E30" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:5">
       <c r="A31" s="5" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B31" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C31" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D31"/>
       <c r="E31"/>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:5">
       <c r="A32" s="5" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B32" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C32" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D32"/>
       <c r="E32"/>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:5">
       <c r="A33" s="5" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B33" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C33" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D33"/>
       <c r="E33" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" spans="1:5">
       <c r="A34" s="5" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B34" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C34" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D34" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E34" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" spans="1:5">
       <c r="A35" s="5" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B35" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C35" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D35"/>
       <c r="E35"/>
     </row>
     <row r="36" s="1" customFormat="1" spans="1:5">
       <c r="A36" s="5" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B36" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C36" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D36"/>
       <c r="E36"/>
     </row>
     <row r="37" s="1" customFormat="1" spans="1:5">
       <c r="A37" s="5" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B37" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C37" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D37" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E37" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" spans="1:5">
       <c r="A38" s="5" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B38" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C38" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D38"/>
       <c r="E38"/>
     </row>
     <row r="39" s="1" customFormat="1" spans="1:5">
       <c r="A39" s="5" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B39" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C39" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D39"/>
       <c r="E39"/>
     </row>
     <row r="40" s="1" customFormat="1" spans="1:5">
       <c r="A40" s="5" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B40" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C40" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D40" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E40" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" spans="1:5">
       <c r="A41" s="5" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B41" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C41" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D41"/>
       <c r="E41"/>
     </row>
     <row r="42" s="1" customFormat="1" spans="1:5">
       <c r="A42" s="5" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B42" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C42" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
     </row>
     <row r="43" s="1" customFormat="1" spans="1:5">
       <c r="A43" s="5" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B43" t="s">
         <v>63</v>
       </c>
       <c r="C43" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D43"/>
       <c r="E43" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="1" spans="1:5">
       <c r="A44" s="5" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B44" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C44" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D44" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E44" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" s="1" customFormat="1" spans="1:5">
       <c r="A45" s="5" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B45" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C45" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D45"/>
       <c r="E45"/>
     </row>
     <row r="46" s="1" customFormat="1" spans="1:5">
       <c r="A46" s="5" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B46" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C46" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D46"/>
       <c r="E46"/>
     </row>
     <row r="47" s="1" customFormat="1" spans="1:5">
       <c r="A47" s="5" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B47" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C47" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D47"/>
       <c r="E47" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="1" spans="1:5">
       <c r="A48" s="5" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B48" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C48" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D48" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="E48" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="49" s="1" customFormat="1" spans="1:5">
@@ -4098,14 +4117,14 @@
         <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C49" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D49"/>
       <c r="E49" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" spans="1:5">
@@ -4113,14 +4132,14 @@
         <v>22</v>
       </c>
       <c r="B50" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C50" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D50"/>
       <c r="E50" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" s="1" customFormat="1" spans="1:5">
@@ -4128,16 +4147,16 @@
         <v>27</v>
       </c>
       <c r="B51" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C51" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D51" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="E51" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52" s="1" customFormat="1" spans="1:5">
@@ -4145,23 +4164,23 @@
         <v>30</v>
       </c>
       <c r="B52" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C52" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D52"/>
       <c r="E52"/>
     </row>
     <row r="53" s="1" customFormat="1" spans="1:5">
       <c r="A53" s="5" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B53" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C53" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D53"/>
       <c r="E53"/>
@@ -4174,13 +4193,13 @@
         <v>75</v>
       </c>
       <c r="C54" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D54" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="E54" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="55" s="1" customFormat="1" spans="1:5">
@@ -4188,10 +4207,10 @@
         <v>35</v>
       </c>
       <c r="B55" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C55" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D55"/>
       <c r="E55"/>
@@ -4201,10 +4220,10 @@
         <v>38</v>
       </c>
       <c r="B56" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C56" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D56"/>
       <c r="E56"/>
@@ -4217,13 +4236,13 @@
         <v>78</v>
       </c>
       <c r="C57" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D57" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="E57" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="58" s="1" customFormat="1" spans="1:5">
@@ -4231,23 +4250,23 @@
         <v>65</v>
       </c>
       <c r="B58" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C58" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D58"/>
       <c r="E58"/>
     </row>
     <row r="59" s="1" customFormat="1" spans="1:5">
       <c r="A59" s="5" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B59" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C59" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D59"/>
       <c r="E59"/>
@@ -4257,14 +4276,14 @@
         <v>67</v>
       </c>
       <c r="B60" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C60" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D60"/>
       <c r="E60" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="61" s="1" customFormat="1" spans="1:5">
@@ -4272,27 +4291,27 @@
         <v>72</v>
       </c>
       <c r="B61" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C61" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D61" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E61" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="62" s="1" customFormat="1" spans="1:5">
       <c r="A62" s="5" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B62" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C62" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D62"/>
       <c r="E62"/>
@@ -4302,14 +4321,14 @@
         <v>80</v>
       </c>
       <c r="B63" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C63" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D63"/>
       <c r="E63" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="64" s="1" customFormat="1" spans="1:5">
@@ -4317,132 +4336,132 @@
         <v>85</v>
       </c>
       <c r="B64" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C64" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D64"/>
       <c r="E64" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="65" s="1" customFormat="1" spans="1:5">
       <c r="A65" s="5" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B65" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C65" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D65" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E65" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="66" s="1" customFormat="1" spans="1:5">
       <c r="A66" s="5" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B66" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C66" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D66"/>
       <c r="E66"/>
     </row>
     <row r="67" s="1" customFormat="1" spans="1:5">
       <c r="A67" s="5" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B67" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C67" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D67" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="E67" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="68" s="1" customFormat="1" spans="1:5">
       <c r="A68" s="5" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B68" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C68" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D68"/>
       <c r="E68"/>
     </row>
     <row r="69" s="1" customFormat="1" spans="1:5">
       <c r="A69" s="5" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B69" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C69" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D69" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="E69" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="70" s="1" customFormat="1" spans="1:5">
       <c r="A70" s="5" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B70" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C70" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D70"/>
       <c r="E70"/>
     </row>
     <row r="71" s="1" customFormat="1" spans="1:5">
       <c r="A71" s="5" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B71" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C71" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="D71" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="E71" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="72" s="1" customFormat="1" spans="1:5">
       <c r="A72" s="5" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B72" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C72" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D72"/>
       <c r="E72"/>
@@ -4455,288 +4474,288 @@
         <v>39</v>
       </c>
       <c r="C73" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D73"/>
       <c r="E73" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="74" s="1" customFormat="1" spans="1:5">
       <c r="A74" s="5" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B74" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C74" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D74" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="E74" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="75" s="1" customFormat="1" spans="1:5">
       <c r="A75" s="5" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B75" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C75" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D75"/>
       <c r="E75"/>
     </row>
     <row r="76" s="1" customFormat="1" spans="1:5">
       <c r="A76" s="5" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B76" t="s">
         <v>45</v>
       </c>
       <c r="C76" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D76" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="E76" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="77" s="1" customFormat="1" spans="1:5">
       <c r="A77" s="5" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B77" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C77" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D77"/>
       <c r="E77"/>
     </row>
     <row r="78" s="1" customFormat="1" spans="1:5">
       <c r="A78" s="5" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B78" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C78" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="D78"/>
       <c r="E78"/>
     </row>
     <row r="79" s="1" customFormat="1" spans="1:5">
       <c r="A79" s="5" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B79" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C79" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D79" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="E79" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="80" s="1" customFormat="1" spans="1:5">
       <c r="A80" s="5" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B80" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C80" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D80"/>
       <c r="E80"/>
     </row>
     <row r="81" s="1" customFormat="1" spans="1:5">
       <c r="A81" s="5" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B81" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C81" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D81" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="E81" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="82" s="1" customFormat="1" spans="1:5">
       <c r="A82" s="5" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B82" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C82" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="D82"/>
       <c r="E82"/>
     </row>
     <row r="83" s="1" customFormat="1" spans="1:5">
       <c r="A83" s="5" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B83" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C83" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="D83"/>
       <c r="E83"/>
     </row>
     <row r="84" s="1" customFormat="1" spans="1:5">
       <c r="A84" s="5" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B84" t="s">
         <v>63</v>
       </c>
       <c r="C84" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D84"/>
       <c r="E84" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="85" s="1" customFormat="1" spans="1:5">
       <c r="A85" s="5" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B85" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C85" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="D85" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="E85" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="86" s="1" customFormat="1" spans="1:5">
       <c r="A86" s="5" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B86" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C86" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="D86"/>
       <c r="E86"/>
     </row>
     <row r="87" s="1" customFormat="1" spans="1:5">
       <c r="A87" s="5" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B87" t="s">
         <v>81</v>
       </c>
       <c r="C87" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="D87"/>
       <c r="E87" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="88" s="1" customFormat="1" spans="1:5">
       <c r="A88" s="5" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B88" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C88" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D88" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="E88" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="89" s="1" customFormat="1" spans="1:5">
       <c r="A89" s="5" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B89" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C89" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D89"/>
       <c r="E89"/>
     </row>
     <row r="90" s="1" customFormat="1" spans="1:5">
       <c r="A90" s="5" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B90" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C90" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D90" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="E90" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="91" s="1" customFormat="1" spans="1:5">
       <c r="A91" s="5" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B91" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C91" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D91"/>
       <c r="E91"/>
     </row>
     <row r="92" s="1" customFormat="1" spans="1:5">
       <c r="A92" s="5" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B92" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C92" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="D92"/>
       <c r="E92"/>
@@ -4746,14 +4765,14 @@
         <v>3</v>
       </c>
       <c r="B93" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C93" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D93"/>
       <c r="E93" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="94" s="1" customFormat="1" spans="1:5">
@@ -4764,13 +4783,13 @@
         <v>94</v>
       </c>
       <c r="C94" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="D94" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="E94" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="95" s="1" customFormat="1" spans="1:5">
@@ -4778,16 +4797,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C95" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="D95" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="E95" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="96" s="1" customFormat="1" spans="1:5">
@@ -4795,48 +4814,48 @@
         <v>103</v>
       </c>
       <c r="B96" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C96" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D96"/>
       <c r="E96" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="97" s="1" customFormat="1" spans="1:5">
       <c r="A97" s="5" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B97" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C97" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="D97" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="E97" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="98" s="1" customFormat="1" spans="1:5">
       <c r="A98" s="5" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B98" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C98" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="D98" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="E98" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="99" s="1" customFormat="1" spans="1:5">
@@ -4847,11 +4866,11 @@
         <v>109</v>
       </c>
       <c r="C99" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="D99"/>
       <c r="E99" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="100" s="1" customFormat="1" spans="1:5">
@@ -4862,13 +4881,13 @@
         <v>117</v>
       </c>
       <c r="C100" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="D100" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="E100" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="101" s="1" customFormat="1" spans="1:5">
@@ -4879,13 +4898,13 @@
         <v>114</v>
       </c>
       <c r="C101" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="D101" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="E101" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="102" s="1" customFormat="1" spans="1:5">
@@ -4893,14 +4912,14 @@
         <v>4</v>
       </c>
       <c r="B102" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C102" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="D102"/>
       <c r="E102" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="103" s="1" customFormat="1" spans="1:5">
@@ -4908,27 +4927,27 @@
         <v>126</v>
       </c>
       <c r="B103" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C103" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="E103" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="104" s="1" customFormat="1" spans="1:5">
       <c r="A104" s="5" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B104" t="s">
-        <v>416</v>
+        <v>137</v>
       </c>
       <c r="C104" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D104" s="6"/>
       <c r="E104"/>
@@ -4938,16 +4957,16 @@
         <v>131</v>
       </c>
       <c r="B105" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C105" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="E105" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="106" s="1" customFormat="1" spans="1:5">
@@ -4958,161 +4977,161 @@
         <v>124</v>
       </c>
       <c r="C106" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D106"/>
       <c r="E106" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="107" s="1" customFormat="1" spans="1:5">
       <c r="A107" s="5" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B107" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C107" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D107"/>
       <c r="E107" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="108" s="1" customFormat="1" spans="1:5">
       <c r="A108" s="5" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B108" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C108" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D108" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="E108" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="109" s="1" customFormat="1" spans="1:5">
       <c r="A109" s="5" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B109" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C109" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D109"/>
       <c r="E109"/>
     </row>
     <row r="110" s="1" customFormat="1" spans="1:5">
       <c r="A110" s="5" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B110" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C110" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D110"/>
       <c r="E110"/>
     </row>
     <row r="111" s="1" customFormat="1" spans="1:5">
       <c r="A111" s="5" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B111" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C111" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D111" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="E111" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="112" s="1" customFormat="1" spans="1:5">
       <c r="A112" s="5" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B112" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C112" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D112"/>
       <c r="E112"/>
     </row>
     <row r="113" s="1" customFormat="1" spans="1:5">
       <c r="A113" s="5" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B113" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C113" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D113"/>
       <c r="E113" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="114" s="1" customFormat="1" spans="1:5">
       <c r="A114" s="5" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B114" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C114" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D114" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E114" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="115" s="1" customFormat="1" spans="1:5">
       <c r="A115" s="5" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B115" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C115" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D115"/>
       <c r="E115"/>
     </row>
     <row r="116" s="1" customFormat="1" spans="1:5">
       <c r="A116" s="5" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B116" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C116" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D116" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="E116" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="117" s="1" customFormat="1" spans="1:5">
@@ -5120,701 +5139,701 @@
         <v>6</v>
       </c>
       <c r="B117" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C117" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D117"/>
       <c r="E117" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="118" s="1" customFormat="1" spans="1:5">
       <c r="A118" s="5" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B118" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C118" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="E118" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="119" s="1" customFormat="1" spans="1:5">
       <c r="A119" s="5" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B119" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C119" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D119" s="7"/>
       <c r="E119"/>
     </row>
     <row r="120" s="1" customFormat="1" spans="1:5">
       <c r="A120" s="5" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B120" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C120" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="E120" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="121" s="1" customFormat="1" spans="1:5">
       <c r="A121" s="5" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B121" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C121" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D121" s="6"/>
       <c r="E121"/>
     </row>
     <row r="122" s="1" customFormat="1" spans="1:5">
       <c r="A122" s="5" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B122" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C122" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D122" s="6"/>
       <c r="E122"/>
     </row>
     <row r="123" s="1" customFormat="1" spans="1:5">
       <c r="A123" s="5" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B123" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C123" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D123" s="6"/>
       <c r="E123" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="124" s="1" customFormat="1" spans="1:5">
       <c r="A124" s="5" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B124" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C124" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="E124" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="125" s="1" customFormat="1" spans="1:5">
       <c r="A125" s="5" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B125" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C125" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D125" s="6"/>
       <c r="E125"/>
     </row>
     <row r="126" s="1" customFormat="1" spans="1:5">
       <c r="A126" s="5" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B126" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C126" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D126" s="6"/>
       <c r="E126"/>
     </row>
     <row r="127" s="1" customFormat="1" spans="1:5">
       <c r="A127" s="5" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B127" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C127" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="E127" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="128" s="1" customFormat="1" spans="1:5">
       <c r="A128" s="5" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B128" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C128" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D128" s="6"/>
       <c r="E128"/>
     </row>
     <row r="129" s="1" customFormat="1" spans="1:5">
       <c r="A129" s="5" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B129" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C129" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D129" s="6"/>
       <c r="E129"/>
     </row>
     <row r="130" s="1" customFormat="1" spans="1:5">
       <c r="A130" s="5" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B130" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C130" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E130" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="131" s="1" customFormat="1" spans="1:5">
       <c r="A131" s="5" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B131" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C131" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D131" s="6"/>
       <c r="E131"/>
     </row>
     <row r="132" s="1" customFormat="1" spans="1:5">
       <c r="A132" s="5" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B132" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C132" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="D132" s="6"/>
       <c r="E132"/>
     </row>
     <row r="133" s="1" customFormat="1" spans="1:5">
       <c r="A133" s="5" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B133" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C133" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D133"/>
       <c r="E133" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="134" s="1" customFormat="1" spans="1:5">
       <c r="A134" s="5" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B134" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C134" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D134" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="E134" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="135" s="1" customFormat="1" spans="1:5">
       <c r="A135" s="5" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B135" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C135" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D135"/>
       <c r="E135"/>
     </row>
     <row r="136" s="1" customFormat="1" spans="1:5">
       <c r="A136" s="5" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B136" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C136" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D136"/>
       <c r="E136"/>
     </row>
     <row r="137" s="1" customFormat="1" spans="1:5">
       <c r="A137" s="5" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B137" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C137" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D137" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="E137" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="138" s="1" customFormat="1" spans="1:5">
       <c r="A138" s="5" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B138" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C138" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="D138"/>
       <c r="E138"/>
     </row>
     <row r="139" s="1" customFormat="1" spans="1:5">
       <c r="A139" s="5" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B139" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C139" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="D139"/>
       <c r="E139"/>
     </row>
     <row r="140" s="1" customFormat="1" spans="1:5">
       <c r="A140" s="5" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B140" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C140" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="D140"/>
       <c r="E140" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="141" s="1" customFormat="1" spans="1:5">
       <c r="A141" s="5" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B141" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C141" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="D141" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="E141" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="142" s="1" customFormat="1" spans="1:5">
       <c r="A142" s="5" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B142" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C142" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D142"/>
       <c r="E142"/>
     </row>
     <row r="143" s="1" customFormat="1" spans="1:5">
       <c r="A143" s="5" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B143" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C143" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="D143"/>
       <c r="E143"/>
     </row>
     <row r="144" s="1" customFormat="1" spans="1:5">
       <c r="A144" s="5" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B144" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C144" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="D144" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="E144" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="145" s="1" customFormat="1" spans="1:5">
       <c r="A145" s="5" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B145" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C145" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D145"/>
       <c r="E145"/>
     </row>
     <row r="146" s="1" customFormat="1" spans="1:5">
       <c r="A146" s="5" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B146" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C146" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D146"/>
       <c r="E146"/>
     </row>
     <row r="147" s="1" customFormat="1" spans="1:5">
       <c r="A147" s="5" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B147" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C147" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="D147" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="E147" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="148" s="1" customFormat="1" spans="1:5">
       <c r="A148" s="5" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B148" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C148" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="D148" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="E148" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="149" s="1" customFormat="1" spans="1:5">
       <c r="A149" s="5" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B149" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C149" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="D149"/>
       <c r="E149"/>
     </row>
     <row r="150" s="1" customFormat="1" spans="1:5">
       <c r="A150" s="5" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B150" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C150" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D150"/>
       <c r="E150"/>
     </row>
     <row r="151" s="1" customFormat="1" spans="1:5">
       <c r="A151" s="5" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B151" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C151" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="D151" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="E151" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="152" s="1" customFormat="1" spans="1:5">
       <c r="A152" s="5" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B152" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C152" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="D152"/>
       <c r="E152"/>
     </row>
     <row r="153" s="1" customFormat="1" spans="1:5">
       <c r="A153" s="5" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B153" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C153" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="D153"/>
       <c r="E153"/>
     </row>
     <row r="154" s="1" customFormat="1" spans="1:5">
       <c r="A154" s="5" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B154" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C154" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="D154" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="E154" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="155" s="1" customFormat="1" spans="1:5">
       <c r="A155" s="5" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B155" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C155" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="D155"/>
       <c r="E155"/>
     </row>
     <row r="156" s="1" customFormat="1" spans="1:5">
       <c r="A156" s="5" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B156" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C156" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="D156" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="E156" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="157" s="1" customFormat="1" spans="1:5">
       <c r="A157" s="5" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B157" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C157" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D157"/>
       <c r="E157"/>
     </row>
     <row r="158" s="1" customFormat="1" spans="1:5">
       <c r="A158" s="5" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B158" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C158" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="D158"/>
       <c r="E158"/>
     </row>
     <row r="159" s="1" customFormat="1" spans="1:5">
       <c r="A159" s="5" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B159" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="C159" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="D159"/>
       <c r="E159" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="160" s="1" customFormat="1" spans="1:5">
       <c r="A160" s="5" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B160" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="C160" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="D160" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="E160" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="161" s="1" customFormat="1" spans="1:5">
       <c r="A161" s="5" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B161" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C161" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="D161" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="E161" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="162" s="1" customFormat="1" spans="1:5">
       <c r="A162" s="5" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B162" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C162" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="D162"/>
       <c r="E162"/>
     </row>
     <row r="163" s="1" customFormat="1" spans="1:5">
       <c r="A163" s="5" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B163" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C163" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="D163"/>
       <c r="E163"/>
     </row>
     <row r="164" s="1" customFormat="1" spans="1:5">
       <c r="A164" s="5" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B164" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C164" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="D164" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="E164" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
